--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A2A0C7-2992-F247-8A90-CC9FF9BC8A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C77101-F925-8042-80F3-B9B113295C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
+    <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>unordered_map</t>
   </si>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t>percenrage vs map</t>
+  </si>
+  <si>
+    <t>32 bytes</t>
+  </si>
+  <si>
+    <t>64 bytes</t>
+  </si>
+  <si>
+    <t>128 bytes</t>
+  </si>
+  <si>
+    <t>256 bytes</t>
+  </si>
+  <si>
+    <t>512 bytes</t>
+  </si>
+  <si>
+    <t>1024 bytes</t>
+  </si>
+  <si>
+    <t>2048 bytes</t>
+  </si>
+  <si>
+    <t>4096 bytes</t>
   </si>
 </sst>
 </file>
@@ -5041,37 +5065,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.2</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.6</c:v>
+                  <c:v>55.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>359</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1506</c:v>
+                  <c:v>1472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3011</c:v>
+                  <c:v>2992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5956</c:v>
+                  <c:v>5967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12957</c:v>
+                  <c:v>12789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26809</c:v>
+                  <c:v>27115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81774</c:v>
+                  <c:v>65110</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>828267</c:v>
+                  <c:v>826671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1880164</c:v>
+                  <c:v>1944433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5173,37 +5197,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.7</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.1</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.8</c:v>
+                  <c:v>58.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>659</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1290</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3329</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16169</c:v>
+                  <c:v>16376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37443</c:v>
+                  <c:v>37244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79058</c:v>
+                  <c:v>79909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5570,37 +5594,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.3</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.3</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1556</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3090</c:v>
+                  <c:v>3115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6677</c:v>
+                  <c:v>6821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14209</c:v>
+                  <c:v>14147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30734</c:v>
+                  <c:v>31181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104939</c:v>
+                  <c:v>94594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>873321</c:v>
+                  <c:v>867609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1997212</c:v>
+                  <c:v>1986803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,37 +5723,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.8</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>915</c:v>
+                  <c:v>936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1889</c:v>
+                  <c:v>2133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11285</c:v>
+                  <c:v>11309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24459</c:v>
+                  <c:v>24323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50794</c:v>
+                  <c:v>52095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97684</c:v>
+                  <c:v>100717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,6 +5897,1318 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="768715327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$C$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$C$117:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8918918918918919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0381679389312977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7494908350305498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9550561797752808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1371951219512195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6526806526806528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3734707018673529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.600156188988676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.753674309229865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$D$117:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9925093632958804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8033472803347284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9471316085489314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0773809523809526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1615853658536586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.202143950995406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0168516235100702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1816394731668964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1375858684985278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8023952095808387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$117:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8896797153024911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7291242362525456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8822882288228819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.059171597633136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.621212121212121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3993506493506498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1614296936370776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8982785602503913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3135527589545015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8099800593356354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$F$117:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9345454545454546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7235772357723578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9208472686733558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9712643678160919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1717011128775834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8609375000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8573661586557257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9458292443572134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.190563666247703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.560492222718596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$G$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$G$117:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9275362318840579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8092243186582806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9438202247191012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6206896551724137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9122257053291536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.882215288611544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6702002355712597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.015118790496761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9742177522349937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7449462150731012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$117:$H$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1574074074074074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1064638783269962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7657841140529529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6624203821656049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6320754716981138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6446540880503147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7413522012578611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.003106796116505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.029548472775565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.595290916082469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.298997179144564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$I$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$I$117:$I$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1698113207547172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1640625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6243567753001718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3793103448275854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.352664576802507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.929347826086957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2827798699075661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9759404005862238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.196085275480613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.333091391457785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$J$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$J$117:$J$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1792452830188682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9097222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7589285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5485232067510548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.75704989154013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2873931623931627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6324425691514302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7571845432841098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8890761830366318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.65436222286208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.7265903472105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D802-6E49-8417-6BB50684A2FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="270830191"/>
+        <c:axId val="802783919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="270830191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802783919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802783919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270830191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11910,6 +13246,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16875,6 +18251,522 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22173,6 +24065,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A484C107-BB8E-7B43-85B9-1AC7BA4A748E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22475,8 +24403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
   <dimension ref="C3:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="G96" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25849,10 +27777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:E113"/>
+  <dimension ref="B3:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26990,14 +28918,14 @@
         <v>32</v>
       </c>
       <c r="C89">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="E89">
         <f>C89/D89</f>
-        <v>2.1682242990654208</v>
+        <v>2.1698113207547172</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -27005,14 +28933,14 @@
         <v>64</v>
       </c>
       <c r="C90">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="D90">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="E90">
         <f t="shared" ref="E90:E99" si="6">C90/D90</f>
-        <v>2.1302681992337162</v>
+        <v>2.1640625</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -27020,14 +28948,14 @@
         <v>128</v>
       </c>
       <c r="C91">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="D91">
-        <v>60.8</v>
+        <v>58.3</v>
       </c>
       <c r="E91">
         <f t="shared" si="6"/>
-        <v>5.9046052631578947</v>
+        <v>2.6243567753001718</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -27035,14 +28963,14 @@
         <v>256</v>
       </c>
       <c r="C92">
-        <v>1506</v>
+        <v>1472</v>
       </c>
       <c r="D92">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E92">
         <f t="shared" si="6"/>
-        <v>9.1829268292682933</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -27050,14 +28978,14 @@
         <v>512</v>
       </c>
       <c r="C93">
-        <v>3011</v>
+        <v>2992</v>
       </c>
       <c r="D93">
         <v>319</v>
       </c>
       <c r="E93">
         <f t="shared" si="6"/>
-        <v>9.4388714733542312</v>
+        <v>9.3793103448275854</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -27065,14 +28993,14 @@
         <v>1024</v>
       </c>
       <c r="C94">
-        <v>5956</v>
+        <v>5967</v>
       </c>
       <c r="D94">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
-        <v>9.0379362670713199</v>
+        <v>9.352664576802507</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -27080,14 +29008,14 @@
         <v>2048</v>
       </c>
       <c r="C95">
-        <v>12957</v>
+        <v>12789</v>
       </c>
       <c r="D95">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
-        <v>10.044186046511628</v>
+        <v>9.929347826086957</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -27095,14 +29023,14 @@
         <v>4096</v>
       </c>
       <c r="C96">
-        <v>26809</v>
+        <v>27115</v>
       </c>
       <c r="D96">
-        <v>3329</v>
+        <v>2921</v>
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
-        <v>8.0531691198558129</v>
+        <v>9.2827798699075661</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -27110,14 +29038,14 @@
         <v>8192</v>
       </c>
       <c r="C97">
-        <v>81774</v>
+        <v>65110</v>
       </c>
       <c r="D97">
-        <v>16169</v>
+        <v>16376</v>
       </c>
       <c r="E97">
         <f t="shared" si="6"/>
-        <v>5.0574556249613458</v>
+        <v>3.9759404005862238</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -27125,14 +29053,14 @@
         <v>16384</v>
       </c>
       <c r="C98">
-        <v>828267</v>
+        <v>826671</v>
       </c>
       <c r="D98">
-        <v>37443</v>
+        <v>37244</v>
       </c>
       <c r="E98">
         <f t="shared" si="6"/>
-        <v>22.120743530165853</v>
+        <v>22.196085275480613</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
@@ -27140,14 +29068,14 @@
         <v>32768</v>
       </c>
       <c r="C99">
-        <v>1880164</v>
+        <v>1944433</v>
       </c>
       <c r="D99">
-        <v>79058</v>
+        <v>79909</v>
       </c>
       <c r="E99">
         <f t="shared" si="6"/>
-        <v>23.782084039565888</v>
+        <v>24.333091391457785</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
@@ -27174,14 +29102,14 @@
         <v>32</v>
       </c>
       <c r="C103">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D103">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="E103">
         <f>C103/D103</f>
-        <v>2.1574074074074074</v>
+        <v>2.1792452830188682</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -27189,14 +29117,14 @@
         <v>64</v>
       </c>
       <c r="C104">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D104">
-        <v>27.5</v>
+        <v>28.8</v>
       </c>
       <c r="E104">
         <f t="shared" ref="E104:E113" si="7">C104/D104</f>
-        <v>2.0109090909090908</v>
+        <v>1.9097222222222221</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -27204,14 +29132,14 @@
         <v>128</v>
       </c>
       <c r="C105">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D105">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>1.4245283018867925</v>
+        <v>1.7589285714285714</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -27219,14 +29147,14 @@
         <v>256</v>
       </c>
       <c r="C106">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D106">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>7.0090090090090094</v>
+        <v>6.5485232067510548</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -27234,14 +29162,14 @@
         <v>512</v>
       </c>
       <c r="C107">
-        <v>3090</v>
+        <v>3115</v>
       </c>
       <c r="D107">
-        <v>319</v>
+        <v>461</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>9.6865203761755492</v>
+        <v>6.75704989154013</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -27249,14 +29177,14 @@
         <v>1024</v>
       </c>
       <c r="C108">
-        <v>6677</v>
+        <v>6821</v>
       </c>
       <c r="D108">
-        <v>915</v>
+        <v>936</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>7.2972677595628417</v>
+        <v>7.2873931623931627</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -27264,14 +29192,14 @@
         <v>2048</v>
       </c>
       <c r="C109">
-        <v>14209</v>
+        <v>14147</v>
       </c>
       <c r="D109">
-        <v>1889</v>
+        <v>2133</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>7.5219692959237694</v>
+        <v>6.6324425691514302</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -27279,14 +29207,14 @@
         <v>4096</v>
       </c>
       <c r="C110">
-        <v>30734</v>
+        <v>31181</v>
       </c>
       <c r="D110">
-        <v>11285</v>
+        <v>11309</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>2.7234381922906512</v>
+        <v>2.7571845432841098</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -27294,14 +29222,14 @@
         <v>8192</v>
       </c>
       <c r="C111">
-        <v>104939</v>
+        <v>94594</v>
       </c>
       <c r="D111">
-        <v>24459</v>
+        <v>24323</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>4.2904043501369635</v>
+        <v>3.8890761830366318</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -27309,29 +29237,465 @@
         <v>16384</v>
       </c>
       <c r="C112">
-        <v>873321</v>
+        <v>867609</v>
       </c>
       <c r="D112">
-        <v>50794</v>
+        <v>52095</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>17.193388982950744</v>
+        <v>16.65436222286208</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>32768</v>
       </c>
       <c r="C113">
-        <v>1997212</v>
+        <v>1986803</v>
       </c>
       <c r="D113">
-        <v>97684</v>
+        <v>100717</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>20.445641046640187</v>
+        <v>19.7265903472105</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <f>E5</f>
+        <v>1.8918918918918919</v>
+      </c>
+      <c r="D117">
+        <f>E19</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="E117">
+        <f>E33</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="F117">
+        <f>E47</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="G117">
+        <f>E61</f>
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <f>E75</f>
+        <v>2.1574074074074074</v>
+      </c>
+      <c r="I117">
+        <f>E89</f>
+        <v>2.1698113207547172</v>
+      </c>
+      <c r="J117">
+        <f>E103</f>
+        <v>2.1792452830188682</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:C127" si="8">E6</f>
+        <v>2.0381679389312977</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:D127" si="9">E20</f>
+        <v>1.9925093632958804</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118:E127" si="10">E34</f>
+        <v>1.8896797153024911</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ref="F118:F127" si="11">E48</f>
+        <v>1.9345454545454546</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:G127" si="12">E62</f>
+        <v>1.9275362318840579</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118:H127" si="13">E76</f>
+        <v>2.1064638783269962</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:I127" si="14">E90</f>
+        <v>2.1640625</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J127" si="15">E104</f>
+        <v>1.9097222222222221</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="8"/>
+        <v>2.7494908350305498</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="9"/>
+        <v>2.8033472803347284</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="10"/>
+        <v>2.7291242362525456</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="11"/>
+        <v>2.7235772357723578</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="12"/>
+        <v>2.8092243186582806</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="13"/>
+        <v>4.7657841140529529</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="14"/>
+        <v>2.6243567753001718</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="15"/>
+        <v>1.7589285714285714</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>256</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="8"/>
+        <v>2.9550561797752808</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="9"/>
+        <v>2.9471316085489314</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="10"/>
+        <v>2.8822882288228819</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>2.9208472686733558</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="12"/>
+        <v>2.9438202247191012</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="13"/>
+        <v>9.6624203821656049</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="14"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="15"/>
+        <v>6.5485232067510548</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>512</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="8"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="9"/>
+        <v>3.0773809523809526</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="10"/>
+        <v>3.059171597633136</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>2.9712643678160919</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="12"/>
+        <v>1.6206896551724137</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="13"/>
+        <v>9.6320754716981138</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="14"/>
+        <v>9.3793103448275854</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="15"/>
+        <v>6.75704989154013</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>1024</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="8"/>
+        <v>3.1371951219512195</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="9"/>
+        <v>3.1615853658536586</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="10"/>
+        <v>12.621212121212121</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="11"/>
+        <v>9.1717011128775834</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="12"/>
+        <v>2.9122257053291536</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="13"/>
+        <v>9.6446540880503147</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="14"/>
+        <v>9.352664576802507</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="15"/>
+        <v>7.2873931623931627</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>2048</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="8"/>
+        <v>8.6944444444444446</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="9"/>
+        <v>11.202143950995406</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="10"/>
+        <v>6.3993506493506498</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="11"/>
+        <v>9.8609375000000004</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="12"/>
+        <v>9.882215288611544</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="13"/>
+        <v>9.7413522012578611</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="14"/>
+        <v>9.929347826086957</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="15"/>
+        <v>6.6324425691514302</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>4096</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="8"/>
+        <v>9.6526806526806528</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="9"/>
+        <v>6.0168516235100702</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="10"/>
+        <v>7.1614296936370776</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="11"/>
+        <v>9.8573661586557257</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="12"/>
+        <v>9.6702002355712597</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="13"/>
+        <v>10.003106796116505</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="14"/>
+        <v>9.2827798699075661</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="15"/>
+        <v>2.7571845432841098</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>8192</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="8"/>
+        <v>9.3734707018673529</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="9"/>
+        <v>6.1816394731668964</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="10"/>
+        <v>6.8982785602503913</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="11"/>
+        <v>9.9458292443572134</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="12"/>
+        <v>10.015118790496761</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="13"/>
+        <v>12.029548472775565</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="14"/>
+        <v>3.9759404005862238</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="15"/>
+        <v>3.8890761830366318</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="8"/>
+        <v>11.600156188988676</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="9"/>
+        <v>6.1375858684985278</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="10"/>
+        <v>7.3135527589545015</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="11"/>
+        <v>10.190563666247703</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="12"/>
+        <v>8.9742177522349937</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="13"/>
+        <v>23.595290916082469</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="14"/>
+        <v>22.196085275480613</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="15"/>
+        <v>16.65436222286208</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="8"/>
+        <v>10.753674309229865</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="9"/>
+        <v>6.8023952095808387</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="10"/>
+        <v>7.8099800593356354</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="11"/>
+        <v>14.560492222718596</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="12"/>
+        <v>6.7449462150731012</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="13"/>
+        <v>24.298997179144564</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="14"/>
+        <v>24.333091391457785</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="15"/>
+        <v>19.7265903472105</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C77101-F925-8042-80F3-B9B113295C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577471F-80B2-3A41-A037-4F49E2904AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
   <si>
     <t>unordered_map</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>4096 bytes</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -1795,6 +1801,637 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10220603674540682"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.82801618547681544"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$119:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$F$119:$F$126</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13725490196078433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4337349397590355E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5454545454545455E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3182674199623353E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7114093959731542E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28C0-FA49-B96F-F4939B48E4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="872367647"/>
+        <c:axId val="871787967"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>max perf increase</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$119:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$C$129:$J$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.608053302433373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.204855842185129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.760355029585799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.879839471199245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.405073095168941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.825933994560437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.09223294813086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.730245928472051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-28C0-FA49-B96F-F4939B48E4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>min perf increase</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$119:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$C$130:$J$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.926605504587156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6842948717948718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6309148264984228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8110236220472442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-28C0-FA49-B96F-F4939B48E4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="766295791"/>
+        <c:axId val="769437279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="872367647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871787967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="871787967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872367647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="769437279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766295791"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="766295791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="769437279"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1889,7 +2526,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.4</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>135</c:v>
@@ -1898,25 +2535,25 @@
                   <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>518</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1029</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5634</c:v>
+                  <c:v>5234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12423</c:v>
+                  <c:v>13445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29114</c:v>
+                  <c:v>26625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59416</c:v>
+                  <c:v>57109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109752</c:v>
+                  <c:v>120213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,37 +2652,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.1</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.2</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.1</c:v>
+                  <c:v>48.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>89.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>328</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>648</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1287</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3106</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5122</c:v>
+                  <c:v>5156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10206</c:v>
+                  <c:v>10356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,7 +2912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2415,7 +3052,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
@@ -2424,25 +3061,25 @@
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1037</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7315</c:v>
+                  <c:v>6725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14639</c:v>
+                  <c:v>14163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31446</c:v>
+                  <c:v>31985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62542</c:v>
+                  <c:v>67896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138592</c:v>
+                  <c:v>140386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,37 +3178,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.6</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.7</c:v>
+                  <c:v>26.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.9</c:v>
+                  <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>328</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>653</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2433</c:v>
+                  <c:v>2434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5087</c:v>
+                  <c:v>5103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10190</c:v>
+                  <c:v>10191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20374</c:v>
+                  <c:v>20376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,7 +3438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2941,7 +3578,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.1</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
@@ -2950,25 +3587,25 @@
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4165</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7884</c:v>
+                  <c:v>9260</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18233</c:v>
+                  <c:v>20170</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35264</c:v>
+                  <c:v>37386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75549</c:v>
+                  <c:v>79379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160581</c:v>
+                  <c:v>166021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,34 +3707,34 @@
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.1</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.1</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.9</c:v>
+                  <c:v>90.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1232</c:v>
+                  <c:v>1236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2546</c:v>
+                  <c:v>2551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5112</c:v>
+                  <c:v>5097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10330</c:v>
+                  <c:v>10181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20561</c:v>
+                  <c:v>20701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,7 +3964,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3470,34 +4107,34 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5769</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12622</c:v>
+                  <c:v>12007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25225</c:v>
+                  <c:v>23987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50674</c:v>
+                  <c:v>48030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105401</c:v>
+                  <c:v>103068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>358523</c:v>
+                  <c:v>230435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,34 +4239,34 @@
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.2</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.7</c:v>
+                  <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1280</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2559</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5095</c:v>
+                  <c:v>5103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10343</c:v>
+                  <c:v>10195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24623</c:v>
+                  <c:v>21180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,7 +4496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3999,10 +4636,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21.2</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
@@ -4014,22 +4651,22 @@
                   <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1858</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12669</c:v>
+                  <c:v>12793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24630</c:v>
+                  <c:v>24678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51007</c:v>
+                  <c:v>51536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112429</c:v>
+                  <c:v>112983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>405061</c:v>
+                  <c:v>706818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4131,37 +4768,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.6</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.6</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.7</c:v>
+                  <c:v>49.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>638</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2547</c:v>
+                  <c:v>2551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5093</c:v>
+                  <c:v>5092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12528</c:v>
+                  <c:v>11572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60054</c:v>
+                  <c:v>61974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,7 +5028,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4536,37 +5173,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.3</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.4</c:v>
+                  <c:v>55.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1517</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3063</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6134</c:v>
+                  <c:v>5722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12391</c:v>
+                  <c:v>11566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25758</c:v>
+                  <c:v>24139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72466</c:v>
+                  <c:v>51523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>797686</c:v>
+                  <c:v>166832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1800337</c:v>
+                  <c:v>1613002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,37 +5302,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.8</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.1</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>318</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>636</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1272</c:v>
+                  <c:v>1273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2575</c:v>
+                  <c:v>2570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6024</c:v>
+                  <c:v>5598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33807</c:v>
+                  <c:v>31820</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74091</c:v>
+                  <c:v>73903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4925,7 +5562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5068,34 +5705,34 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.4</c:v>
+                  <c:v>55.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1472</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2992</c:v>
+                  <c:v>2827</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5967</c:v>
+                  <c:v>5627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12789</c:v>
+                  <c:v>12665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27115</c:v>
+                  <c:v>26269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65110</c:v>
+                  <c:v>55504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>826671</c:v>
+                  <c:v>162772</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1944433</c:v>
+                  <c:v>1662764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5197,19 +5834,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.6</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.6</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.3</c:v>
+                  <c:v>59.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>638</c:v>
@@ -5218,16 +5855,16 @@
                   <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2921</c:v>
+                  <c:v>3370</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16376</c:v>
+                  <c:v>16265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37244</c:v>
+                  <c:v>37345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79909</c:v>
+                  <c:v>78833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5457,7 +6094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5594,37 +6231,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.1</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1552</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3115</c:v>
+                  <c:v>2817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6821</c:v>
+                  <c:v>6185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14147</c:v>
+                  <c:v>13042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31181</c:v>
+                  <c:v>27408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94594</c:v>
+                  <c:v>59695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>867609</c:v>
+                  <c:v>230456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1986803</c:v>
+                  <c:v>1733167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5726,34 +6363,34 @@
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.8</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>461</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>936</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2133</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11309</c:v>
+                  <c:v>10851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24323</c:v>
+                  <c:v>24388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52095</c:v>
+                  <c:v>50387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100717</c:v>
+                  <c:v>97752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,7 +6620,791 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$D$20:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$E$20:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>458752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>917504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1835008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3670016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>handle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>688128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1376256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2752512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$G$20:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>573440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1146880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2293760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4587520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1039845280"/>
+        <c:axId val="2008949408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1039845280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008949408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2008949408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039845280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6120,37 +7541,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8918918918918919</c:v>
+                  <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0381679389312977</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7494908350305498</c:v>
+                  <c:v>2.8066528066528065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9550561797752808</c:v>
+                  <c:v>2.9451287793952967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0833333333333335</c:v>
+                  <c:v>3.0710059171597632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1371951219512195</c:v>
+                  <c:v>3.13677811550152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6944444444444446</c:v>
+                  <c:v>8.0523076923076928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6526806526806528</c:v>
+                  <c:v>10.422480620155039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3734707018673529</c:v>
+                  <c:v>10.295823665893272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.600156188988676</c:v>
+                  <c:v>11.076221877424359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.753674309229865</c:v>
+                  <c:v>11.608053302433373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,37 +7670,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.9811320754716981</c:v>
+                  <c:v>1.926605504587156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9925093632958804</c:v>
+                  <c:v>2.0190114068441063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8033472803347284</c:v>
+                  <c:v>2.7916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9471316085489314</c:v>
+                  <c:v>2.9372197309417039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0773809523809526</c:v>
+                  <c:v>3.0470588235294116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1615853658536586</c:v>
+                  <c:v>3.2054380664652569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.202143950995406</c:v>
+                  <c:v>10.204855842185129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0168516235100702</c:v>
+                  <c:v>5.8188167625308136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1816394731668964</c:v>
+                  <c:v>6.2678816382520086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1375858684985278</c:v>
+                  <c:v>6.6623491315866943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8023952095808387</c:v>
+                  <c:v>6.8897722811150377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6381,34 +7802,34 @@
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8896797153024911</c:v>
+                  <c:v>2.0151515151515156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7291242362525456</c:v>
+                  <c:v>2.7125506072874495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8822882288228819</c:v>
+                  <c:v>2.9014396456256923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.059171597633136</c:v>
+                  <c:v>3.0650887573964498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.621212121212121</c:v>
+                  <c:v>12.760355029585799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3993506493506498</c:v>
+                  <c:v>7.491909385113269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1614296936370776</c:v>
+                  <c:v>7.9067032536260289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8982785602503913</c:v>
+                  <c:v>7.3349028840494412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3135527589545015</c:v>
+                  <c:v>7.7967783125429726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8099800593356354</c:v>
+                  <c:v>8.0199507270180188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6510,34 +7931,34 @@
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9345454545454546</c:v>
+                  <c:v>1.9239130434782608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7235772357723578</c:v>
+                  <c:v>2.8033472803347284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9208472686733558</c:v>
+                  <c:v>2.9484304932735426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9712643678160919</c:v>
+                  <c:v>3.0833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1717011128775834</c:v>
+                  <c:v>1.6842948717948718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8609375000000004</c:v>
+                  <c:v>9.4246467817896384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8573661586557257</c:v>
+                  <c:v>9.4103570027461743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9458292443572134</c:v>
+                  <c:v>9.4121105232216351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.190563666247703</c:v>
+                  <c:v>10.109661598822953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.560492222718596</c:v>
+                  <c:v>10.879839471199245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6636,37 +8057,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.9626168224299068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9275362318840579</c:v>
+                  <c:v>2.0229007633587788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8092243186582806</c:v>
+                  <c:v>2.7291242362525456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9438202247191012</c:v>
+                  <c:v>2.9372197309417039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6206896551724137</c:v>
+                  <c:v>1.6309148264984228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9122257053291536</c:v>
+                  <c:v>1.6342229199372056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.882215288611544</c:v>
+                  <c:v>10.033725490196078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6702002355712597</c:v>
+                  <c:v>9.6738533908271265</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.015118790496761</c:v>
+                  <c:v>10.120974076983504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9742177522349937</c:v>
+                  <c:v>9.7634808157621844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7449462150731012</c:v>
+                  <c:v>11.405073095168941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6765,37 +8186,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1574074074074074</c:v>
+                  <c:v>1.8110236220472442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1064638783269962</c:v>
+                  <c:v>2.0950570342205324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7657841140529529</c:v>
+                  <c:v>2.7916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6624203821656049</c:v>
+                  <c:v>3.2151898734177213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6320754716981138</c:v>
+                  <c:v>8.9874608150470223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6446540880503147</c:v>
+                  <c:v>8.9827315541601251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7413522012578611</c:v>
+                  <c:v>9.0856245090337779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.003106796116505</c:v>
+                  <c:v>9.392607003891051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.029548472775565</c:v>
+                  <c:v>9.2038227938549486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.595290916082469</c:v>
+                  <c:v>5.242991829038341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.298997179144564</c:v>
+                  <c:v>21.825933994560437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,37 +8321,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1698113207547172</c:v>
+                  <c:v>1.9827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1640625</c:v>
+                  <c:v>2.0871212121212124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6243567753001718</c:v>
+                  <c:v>2.2370617696160267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3793103448275854</c:v>
+                  <c:v>8.8068535825545169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.352664576802507</c:v>
+                  <c:v>8.8197492163009397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.929347826086957</c:v>
+                  <c:v>9.83307453416149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2827798699075661</c:v>
+                  <c:v>7.7949554896142432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9759404005862238</c:v>
+                  <c:v>3.4124807869658778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.196085275480613</c:v>
+                  <c:v>4.3586022225197487</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.333091391457785</c:v>
+                  <c:v>21.09223294813086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7035,37 +8456,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1792452830188682</c:v>
+                  <c:v>2.216981132075472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9097222222222221</c:v>
+                  <c:v>1.9368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7589285714285714</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5485232067510548</c:v>
+                  <c:v>4.4132653061224492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.75704989154013</c:v>
+                  <c:v>5.8933054393305442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2873931623931627</c:v>
+                  <c:v>6.6720604099244873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6324425691514302</c:v>
+                  <c:v>6.303528274528758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7571845432841098</c:v>
+                  <c:v>2.5258501520597179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8890761830366318</c:v>
+                  <c:v>2.4477201902575039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.65436222286208</c:v>
+                  <c:v>4.5737194117530313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.7265903472105</c:v>
+                  <c:v>17.730245928472051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7209,790 +8630,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="270830191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>vector</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$D$20:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2097152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>unordered_map</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$E$20:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>114688</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>458752</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>917504</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1835008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3670016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>handle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$F$20:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5376</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10752</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>172032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>344064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>688128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1376256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2752512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$G$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lookup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$G$20:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4480</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8960</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17920</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>286720</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>573440</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1146880</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2293760</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4587520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1039845280"/>
-        <c:axId val="2008949408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1039845280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2008949408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2008949408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1039845280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13326,6 +13963,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19283,6 +19960,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23772,6 +24965,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71084B77-D343-BA47-9228-E0188327BB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24068,15 +25297,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24403,8 +25632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
   <dimension ref="C3:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27777,10 +29006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:J127"/>
+  <dimension ref="B3:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27817,11 +29046,11 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="E5">
         <f>C5/D5</f>
-        <v>1.8918918918918919</v>
+        <v>1.9811320754716981</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -27829,14 +29058,14 @@
         <v>64</v>
       </c>
       <c r="C6">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="D6">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E15" si="0">C6/D6</f>
-        <v>2.0381679389312977</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -27847,11 +29076,11 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>49.1</v>
+        <v>48.1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>2.7494908350305498</v>
+        <v>2.8066528066528065</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -27862,11 +29091,11 @@
         <v>263</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>89.3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.9550561797752808</v>
+        <v>2.9451287793952967</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -27874,14 +29103,14 @@
         <v>512</v>
       </c>
       <c r="C9">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.0833333333333335</v>
+        <v>3.0710059171597632</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -27889,14 +29118,14 @@
         <v>1024</v>
       </c>
       <c r="C10">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.1371951219512195</v>
+        <v>3.13677811550152</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -27904,14 +29133,14 @@
         <v>2048</v>
       </c>
       <c r="C11">
-        <v>5634</v>
+        <v>5234</v>
       </c>
       <c r="D11">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>8.6944444444444446</v>
+        <v>8.0523076923076928</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -27919,14 +29148,14 @@
         <v>4096</v>
       </c>
       <c r="C12">
-        <v>12423</v>
+        <v>13445</v>
       </c>
       <c r="D12">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>9.6526806526806528</v>
+        <v>10.422480620155039</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -27934,14 +29163,14 @@
         <v>8192</v>
       </c>
       <c r="C13">
-        <v>29114</v>
+        <v>26625</v>
       </c>
       <c r="D13">
-        <v>3106</v>
+        <v>2586</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>9.3734707018673529</v>
+        <v>10.295823665893272</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -27949,14 +29178,14 @@
         <v>16384</v>
       </c>
       <c r="C14">
-        <v>59416</v>
+        <v>57109</v>
       </c>
       <c r="D14">
-        <v>5122</v>
+        <v>5156</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>11.600156188988676</v>
+        <v>11.076221877424359</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -27964,14 +29193,14 @@
         <v>32768</v>
       </c>
       <c r="C15">
-        <v>109752</v>
+        <v>120213</v>
       </c>
       <c r="D15">
-        <v>10206</v>
+        <v>10356</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>10.753674309229865</v>
+        <v>11.608053302433373</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -28001,11 +29230,11 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="E19">
         <f>C19/D19</f>
-        <v>1.9811320754716981</v>
+        <v>1.926605504587156</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -28013,14 +29242,14 @@
         <v>64</v>
       </c>
       <c r="C20">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D20">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:E29" si="1">C20/D20</f>
-        <v>1.9925093632958804</v>
+        <v>2.0190114068441063</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -28031,11 +29260,11 @@
         <v>134</v>
       </c>
       <c r="D21">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>2.8033472803347284</v>
+        <v>2.7916666666666665</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -28046,11 +29275,11 @@
         <v>262</v>
       </c>
       <c r="D22">
-        <v>88.9</v>
+        <v>89.2</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>2.9471316085489314</v>
+        <v>2.9372197309417039</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -28058,14 +29287,14 @@
         <v>512</v>
       </c>
       <c r="C23">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D23">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>3.0773809523809526</v>
+        <v>3.0470588235294116</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -28073,14 +29302,14 @@
         <v>1024</v>
       </c>
       <c r="C24">
-        <v>1037</v>
+        <v>1061</v>
       </c>
       <c r="D24">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>3.1615853658536586</v>
+        <v>3.2054380664652569</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -28088,14 +29317,14 @@
         <v>2048</v>
       </c>
       <c r="C25">
-        <v>7315</v>
+        <v>6725</v>
       </c>
       <c r="D25">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>11.202143950995406</v>
+        <v>10.204855842185129</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -28103,14 +29332,14 @@
         <v>4096</v>
       </c>
       <c r="C26">
-        <v>14639</v>
+        <v>14163</v>
       </c>
       <c r="D26">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>6.0168516235100702</v>
+        <v>5.8188167625308136</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -28118,14 +29347,14 @@
         <v>8192</v>
       </c>
       <c r="C27">
-        <v>31446</v>
+        <v>31985</v>
       </c>
       <c r="D27">
-        <v>5087</v>
+        <v>5103</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>6.1816394731668964</v>
+        <v>6.2678816382520086</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -28133,14 +29362,14 @@
         <v>16384</v>
       </c>
       <c r="C28">
-        <v>62542</v>
+        <v>67896</v>
       </c>
       <c r="D28">
-        <v>10190</v>
+        <v>10191</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>6.1375858684985278</v>
+        <v>6.6623491315866943</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -28148,14 +29377,14 @@
         <v>32768</v>
       </c>
       <c r="C29">
-        <v>138592</v>
+        <v>140386</v>
       </c>
       <c r="D29">
-        <v>20374</v>
+        <v>20376</v>
       </c>
       <c r="E29">
         <f>C29/D29</f>
-        <v>6.8023952095808387</v>
+        <v>6.8897722811150377</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -28197,14 +29426,14 @@
         <v>64</v>
       </c>
       <c r="C34">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D34">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E43" si="2">C34/D34</f>
-        <v>1.8896797153024911</v>
+        <v>2.0151515151515156</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -28215,11 +29444,11 @@
         <v>134</v>
       </c>
       <c r="D35">
-        <v>49.1</v>
+        <v>49.4</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>2.7291242362525456</v>
+        <v>2.7125506072874495</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -28230,11 +29459,11 @@
         <v>262</v>
       </c>
       <c r="D36">
-        <v>90.9</v>
+        <v>90.3</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2.8822882288228819</v>
+        <v>2.9014396456256923</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -28242,14 +29471,14 @@
         <v>512</v>
       </c>
       <c r="C37">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D37">
         <v>169</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>3.059171597633136</v>
+        <v>3.0650887573964498</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -28257,14 +29486,14 @@
         <v>1024</v>
       </c>
       <c r="C38">
-        <v>4165</v>
+        <v>4313</v>
       </c>
       <c r="D38">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>12.621212121212121</v>
+        <v>12.760355029585799</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -28272,14 +29501,14 @@
         <v>2048</v>
       </c>
       <c r="C39">
-        <v>7884</v>
+        <v>9260</v>
       </c>
       <c r="D39">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>6.3993506493506498</v>
+        <v>7.491909385113269</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -28287,14 +29516,14 @@
         <v>4096</v>
       </c>
       <c r="C40">
-        <v>18233</v>
+        <v>20170</v>
       </c>
       <c r="D40">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>7.1614296936370776</v>
+        <v>7.9067032536260289</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -28302,14 +29531,14 @@
         <v>8192</v>
       </c>
       <c r="C41">
-        <v>35264</v>
+        <v>37386</v>
       </c>
       <c r="D41">
-        <v>5112</v>
+        <v>5097</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>6.8982785602503913</v>
+        <v>7.3349028840494412</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -28317,14 +29546,14 @@
         <v>16384</v>
       </c>
       <c r="C42">
-        <v>75549</v>
+        <v>79379</v>
       </c>
       <c r="D42">
-        <v>10330</v>
+        <v>10181</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>7.3135527589545015</v>
+        <v>7.7967783125429726</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -28332,14 +29561,14 @@
         <v>32768</v>
       </c>
       <c r="C43">
-        <v>160581</v>
+        <v>166021</v>
       </c>
       <c r="D43">
-        <v>20561</v>
+        <v>20701</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>7.8099800593356354</v>
+        <v>8.0199507270180188</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -28381,14 +29610,14 @@
         <v>64</v>
       </c>
       <c r="C48">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D48">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E48">
         <f t="shared" ref="E48:E57" si="3">C48/D48</f>
-        <v>1.9345454545454546</v>
+        <v>1.9239130434782608</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -28399,11 +29628,11 @@
         <v>134</v>
       </c>
       <c r="D49">
-        <v>49.2</v>
+        <v>47.8</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>2.7235772357723578</v>
+        <v>2.8033472803347284</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -28411,14 +29640,14 @@
         <v>256</v>
       </c>
       <c r="C50">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D50">
-        <v>89.7</v>
+        <v>89.2</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>2.9208472686733558</v>
+        <v>2.9484304932735426</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -28426,14 +29655,14 @@
         <v>512</v>
       </c>
       <c r="C51">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D51">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>2.9712643678160919</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -28441,14 +29670,14 @@
         <v>1024</v>
       </c>
       <c r="C52">
-        <v>5769</v>
+        <v>1051</v>
       </c>
       <c r="D52">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>9.1717011128775834</v>
+        <v>1.6842948717948718</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -28456,14 +29685,14 @@
         <v>2048</v>
       </c>
       <c r="C53">
-        <v>12622</v>
+        <v>12007</v>
       </c>
       <c r="D53">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>9.8609375000000004</v>
+        <v>9.4246467817896384</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -28471,14 +29700,14 @@
         <v>4096</v>
       </c>
       <c r="C54">
-        <v>25225</v>
+        <v>23987</v>
       </c>
       <c r="D54">
-        <v>2559</v>
+        <v>2549</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>9.8573661586557257</v>
+        <v>9.4103570027461743</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -28486,14 +29715,14 @@
         <v>8192</v>
       </c>
       <c r="C55">
-        <v>50674</v>
+        <v>48030</v>
       </c>
       <c r="D55">
-        <v>5095</v>
+        <v>5103</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>9.9458292443572134</v>
+        <v>9.4121105232216351</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -28501,14 +29730,14 @@
         <v>16384</v>
       </c>
       <c r="C56">
-        <v>105401</v>
+        <v>103068</v>
       </c>
       <c r="D56">
-        <v>10343</v>
+        <v>10195</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>10.190563666247703</v>
+        <v>10.109661598822953</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -28516,14 +29745,14 @@
         <v>32768</v>
       </c>
       <c r="C57">
-        <v>358523</v>
+        <v>230435</v>
       </c>
       <c r="D57">
-        <v>24623</v>
+        <v>21180</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>14.560492222718596</v>
+        <v>10.879839471199245</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -28550,14 +29779,14 @@
         <v>32</v>
       </c>
       <c r="C61">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="E61">
         <f>C61/D61</f>
-        <v>2</v>
+        <v>1.9626168224299068</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -28565,14 +29794,14 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D62">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E71" si="4">C62/D62</f>
-        <v>1.9275362318840579</v>
+        <v>2.0229007633587788</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -28583,11 +29812,11 @@
         <v>134</v>
       </c>
       <c r="D63">
-        <v>47.7</v>
+        <v>49.1</v>
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
-        <v>2.8092243186582806</v>
+        <v>2.7291242362525456</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -28598,11 +29827,11 @@
         <v>262</v>
       </c>
       <c r="D64">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
-        <v>2.9438202247191012</v>
+        <v>2.9372197309417039</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -28613,11 +29842,11 @@
         <v>517</v>
       </c>
       <c r="D65">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>1.6206896551724137</v>
+        <v>1.6309148264984228</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -28625,14 +29854,14 @@
         <v>1024</v>
       </c>
       <c r="C66">
-        <v>1858</v>
+        <v>1041</v>
       </c>
       <c r="D66">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
-        <v>2.9122257053291536</v>
+        <v>1.6342229199372056</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -28640,14 +29869,14 @@
         <v>2048</v>
       </c>
       <c r="C67">
-        <v>12669</v>
+        <v>12793</v>
       </c>
       <c r="D67">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="E67">
         <f t="shared" si="4"/>
-        <v>9.882215288611544</v>
+        <v>10.033725490196078</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -28655,14 +29884,14 @@
         <v>4096</v>
       </c>
       <c r="C68">
-        <v>24630</v>
+        <v>24678</v>
       </c>
       <c r="D68">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
-        <v>9.6702002355712597</v>
+        <v>9.6738533908271265</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -28670,14 +29899,14 @@
         <v>8192</v>
       </c>
       <c r="C69">
-        <v>51007</v>
+        <v>51536</v>
       </c>
       <c r="D69">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>10.015118790496761</v>
+        <v>10.120974076983504</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -28685,14 +29914,14 @@
         <v>16384</v>
       </c>
       <c r="C70">
-        <v>112429</v>
+        <v>112983</v>
       </c>
       <c r="D70">
-        <v>12528</v>
+        <v>11572</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>8.9742177522349937</v>
+        <v>9.7634808157621844</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -28700,14 +29929,14 @@
         <v>32768</v>
       </c>
       <c r="C71">
-        <v>405061</v>
+        <v>706818</v>
       </c>
       <c r="D71">
-        <v>60054</v>
+        <v>61974</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>6.7449462150731012</v>
+        <v>11.405073095168941</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -28734,14 +29963,14 @@
         <v>32</v>
       </c>
       <c r="C75">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>10.8</v>
+        <v>12.7</v>
       </c>
       <c r="E75">
         <f>C75/D75</f>
-        <v>2.1574074074074074</v>
+        <v>1.8110236220472442</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -28749,14 +29978,14 @@
         <v>64</v>
       </c>
       <c r="C76">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D76">
         <v>26.3</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E85" si="5">C76/D76</f>
-        <v>2.1064638783269962</v>
+        <v>2.0950570342205324</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -28764,14 +29993,14 @@
         <v>128</v>
       </c>
       <c r="C77">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="D77">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>4.7657841140529529</v>
+        <v>2.7916666666666665</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -28779,14 +30008,14 @@
         <v>256</v>
       </c>
       <c r="C78">
-        <v>1517</v>
+        <v>508</v>
       </c>
       <c r="D78">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>9.6624203821656049</v>
+        <v>3.2151898734177213</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -28794,14 +30023,14 @@
         <v>512</v>
       </c>
       <c r="C79">
-        <v>3063</v>
+        <v>2867</v>
       </c>
       <c r="D79">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>9.6320754716981138</v>
+        <v>8.9874608150470223</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -28809,14 +30038,14 @@
         <v>1024</v>
       </c>
       <c r="C80">
-        <v>6134</v>
+        <v>5722</v>
       </c>
       <c r="D80">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>9.6446540880503147</v>
+        <v>8.9827315541601251</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -28824,14 +30053,14 @@
         <v>2048</v>
       </c>
       <c r="C81">
-        <v>12391</v>
+        <v>11566</v>
       </c>
       <c r="D81">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>9.7413522012578611</v>
+        <v>9.0856245090337779</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -28839,14 +30068,14 @@
         <v>4096</v>
       </c>
       <c r="C82">
-        <v>25758</v>
+        <v>24139</v>
       </c>
       <c r="D82">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>10.003106796116505</v>
+        <v>9.392607003891051</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
@@ -28854,14 +30083,14 @@
         <v>8192</v>
       </c>
       <c r="C83">
-        <v>72466</v>
+        <v>51523</v>
       </c>
       <c r="D83">
-        <v>6024</v>
+        <v>5598</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>12.029548472775565</v>
+        <v>9.2038227938549486</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -28869,14 +30098,14 @@
         <v>16384</v>
       </c>
       <c r="C84">
-        <v>797686</v>
+        <v>166832</v>
       </c>
       <c r="D84">
-        <v>33807</v>
+        <v>31820</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>23.595290916082469</v>
+        <v>5.242991829038341</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -28884,14 +30113,14 @@
         <v>32768</v>
       </c>
       <c r="C85">
-        <v>1800337</v>
+        <v>1613002</v>
       </c>
       <c r="D85">
-        <v>74091</v>
+        <v>73903</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>24.298997179144564</v>
+        <v>21.825933994560437</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -28921,11 +30150,11 @@
         <v>23</v>
       </c>
       <c r="D89">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="E89">
         <f>C89/D89</f>
-        <v>2.1698113207547172</v>
+        <v>1.9827586206896552</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -28933,14 +30162,14 @@
         <v>64</v>
       </c>
       <c r="C90">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D90">
-        <v>25.6</v>
+        <v>26.4</v>
       </c>
       <c r="E90">
         <f t="shared" ref="E90:E99" si="6">C90/D90</f>
-        <v>2.1640625</v>
+        <v>2.0871212121212124</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -28948,14 +30177,14 @@
         <v>128</v>
       </c>
       <c r="C91">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D91">
-        <v>58.3</v>
+        <v>59.9</v>
       </c>
       <c r="E91">
         <f t="shared" si="6"/>
-        <v>2.6243567753001718</v>
+        <v>2.2370617696160267</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -28963,14 +30192,14 @@
         <v>256</v>
       </c>
       <c r="C92">
-        <v>1472</v>
+        <v>287</v>
       </c>
       <c r="D92">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E92">
         <f t="shared" si="6"/>
-        <v>9.1999999999999993</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -28978,14 +30207,14 @@
         <v>512</v>
       </c>
       <c r="C93">
-        <v>2992</v>
+        <v>2827</v>
       </c>
       <c r="D93">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E93">
         <f t="shared" si="6"/>
-        <v>9.3793103448275854</v>
+        <v>8.8068535825545169</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -28993,14 +30222,14 @@
         <v>1024</v>
       </c>
       <c r="C94">
-        <v>5967</v>
+        <v>5627</v>
       </c>
       <c r="D94">
         <v>638</v>
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
-        <v>9.352664576802507</v>
+        <v>8.8197492163009397</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -29008,14 +30237,14 @@
         <v>2048</v>
       </c>
       <c r="C95">
-        <v>12789</v>
+        <v>12665</v>
       </c>
       <c r="D95">
         <v>1288</v>
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
-        <v>9.929347826086957</v>
+        <v>9.83307453416149</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -29023,14 +30252,14 @@
         <v>4096</v>
       </c>
       <c r="C96">
-        <v>27115</v>
+        <v>26269</v>
       </c>
       <c r="D96">
-        <v>2921</v>
+        <v>3370</v>
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
-        <v>9.2827798699075661</v>
+        <v>7.7949554896142432</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -29038,14 +30267,14 @@
         <v>8192</v>
       </c>
       <c r="C97">
-        <v>65110</v>
+        <v>55504</v>
       </c>
       <c r="D97">
-        <v>16376</v>
+        <v>16265</v>
       </c>
       <c r="E97">
         <f t="shared" si="6"/>
-        <v>3.9759404005862238</v>
+        <v>3.4124807869658778</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -29053,14 +30282,14 @@
         <v>16384</v>
       </c>
       <c r="C98">
-        <v>826671</v>
+        <v>162772</v>
       </c>
       <c r="D98">
-        <v>37244</v>
+        <v>37345</v>
       </c>
       <c r="E98">
         <f t="shared" si="6"/>
-        <v>22.196085275480613</v>
+        <v>4.3586022225197487</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
@@ -29068,14 +30297,14 @@
         <v>32768</v>
       </c>
       <c r="C99">
-        <v>1944433</v>
+        <v>1662764</v>
       </c>
       <c r="D99">
-        <v>79909</v>
+        <v>78833</v>
       </c>
       <c r="E99">
         <f t="shared" si="6"/>
-        <v>24.333091391457785</v>
+        <v>21.09223294813086</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
@@ -29102,14 +30331,14 @@
         <v>32</v>
       </c>
       <c r="C103">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="D103">
         <v>10.6</v>
       </c>
       <c r="E103">
         <f>C103/D103</f>
-        <v>2.1792452830188682</v>
+        <v>2.216981132075472</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -29117,14 +30346,14 @@
         <v>64</v>
       </c>
       <c r="C104">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D104">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E104">
         <f t="shared" ref="E104:E113" si="7">C104/D104</f>
-        <v>1.9097222222222221</v>
+        <v>1.9368421052631579</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -29132,14 +30361,14 @@
         <v>128</v>
       </c>
       <c r="C105">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="D105">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>1.7589285714285714</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -29147,14 +30376,14 @@
         <v>256</v>
       </c>
       <c r="C106">
-        <v>1552</v>
+        <v>865</v>
       </c>
       <c r="D106">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>6.5485232067510548</v>
+        <v>4.4132653061224492</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -29162,14 +30391,14 @@
         <v>512</v>
       </c>
       <c r="C107">
-        <v>3115</v>
+        <v>2817</v>
       </c>
       <c r="D107">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>6.75704989154013</v>
+        <v>5.8933054393305442</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -29177,14 +30406,14 @@
         <v>1024</v>
       </c>
       <c r="C108">
-        <v>6821</v>
+        <v>6185</v>
       </c>
       <c r="D108">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>7.2873931623931627</v>
+        <v>6.6720604099244873</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -29192,14 +30421,14 @@
         <v>2048</v>
       </c>
       <c r="C109">
-        <v>14147</v>
+        <v>13042</v>
       </c>
       <c r="D109">
-        <v>2133</v>
+        <v>2069</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>6.6324425691514302</v>
+        <v>6.303528274528758</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -29207,14 +30436,14 @@
         <v>4096</v>
       </c>
       <c r="C110">
-        <v>31181</v>
+        <v>27408</v>
       </c>
       <c r="D110">
-        <v>11309</v>
+        <v>10851</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>2.7571845432841098</v>
+        <v>2.5258501520597179</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -29222,14 +30451,14 @@
         <v>8192</v>
       </c>
       <c r="C111">
-        <v>94594</v>
+        <v>59695</v>
       </c>
       <c r="D111">
-        <v>24323</v>
+        <v>24388</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>3.8890761830366318</v>
+        <v>2.4477201902575039</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -29237,14 +30466,14 @@
         <v>16384</v>
       </c>
       <c r="C112">
-        <v>867609</v>
+        <v>230456</v>
       </c>
       <c r="D112">
-        <v>52095</v>
+        <v>50387</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>16.65436222286208</v>
+        <v>4.5737194117530313</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
@@ -29252,14 +30481,14 @@
         <v>32768</v>
       </c>
       <c r="C113">
-        <v>1986803</v>
+        <v>1733167</v>
       </c>
       <c r="D113">
-        <v>100717</v>
+        <v>97752</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>19.7265903472105</v>
+        <v>17.730245928472051</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
@@ -29297,11 +30526,11 @@
       </c>
       <c r="C117">
         <f>E5</f>
-        <v>1.8918918918918919</v>
+        <v>1.9811320754716981</v>
       </c>
       <c r="D117">
         <f>E19</f>
-        <v>1.9811320754716981</v>
+        <v>1.926605504587156</v>
       </c>
       <c r="E117">
         <f>E33</f>
@@ -29313,19 +30542,19 @@
       </c>
       <c r="G117">
         <f>E61</f>
-        <v>2</v>
+        <v>1.9626168224299068</v>
       </c>
       <c r="H117">
         <f>E75</f>
-        <v>2.1574074074074074</v>
+        <v>1.8110236220472442</v>
       </c>
       <c r="I117">
         <f>E89</f>
-        <v>2.1698113207547172</v>
+        <v>1.9827586206896552</v>
       </c>
       <c r="J117">
         <f>E103</f>
-        <v>2.1792452830188682</v>
+        <v>2.216981132075472</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
@@ -29334,35 +30563,35 @@
       </c>
       <c r="C118">
         <f t="shared" ref="C118:C127" si="8">E6</f>
-        <v>2.0381679389312977</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <f t="shared" ref="D118:D127" si="9">E20</f>
-        <v>1.9925093632958804</v>
+        <v>2.0190114068441063</v>
       </c>
       <c r="E118">
         <f t="shared" ref="E118:E127" si="10">E34</f>
-        <v>1.8896797153024911</v>
+        <v>2.0151515151515156</v>
       </c>
       <c r="F118">
         <f t="shared" ref="F118:F127" si="11">E48</f>
-        <v>1.9345454545454546</v>
+        <v>1.9239130434782608</v>
       </c>
       <c r="G118">
         <f t="shared" ref="G118:G127" si="12">E62</f>
-        <v>1.9275362318840579</v>
+        <v>2.0229007633587788</v>
       </c>
       <c r="H118">
         <f t="shared" ref="H118:H127" si="13">E76</f>
-        <v>2.1064638783269962</v>
+        <v>2.0950570342205324</v>
       </c>
       <c r="I118">
         <f t="shared" ref="I118:I127" si="14">E90</f>
-        <v>2.1640625</v>
+        <v>2.0871212121212124</v>
       </c>
       <c r="J118">
         <f t="shared" ref="J118:J127" si="15">E104</f>
-        <v>1.9097222222222221</v>
+        <v>1.9368421052631579</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
@@ -29371,35 +30600,35 @@
       </c>
       <c r="C119">
         <f t="shared" si="8"/>
-        <v>2.7494908350305498</v>
+        <v>2.8066528066528065</v>
       </c>
       <c r="D119">
         <f t="shared" si="9"/>
-        <v>2.8033472803347284</v>
+        <v>2.7916666666666665</v>
       </c>
       <c r="E119">
         <f t="shared" si="10"/>
-        <v>2.7291242362525456</v>
+        <v>2.7125506072874495</v>
       </c>
       <c r="F119">
         <f t="shared" si="11"/>
-        <v>2.7235772357723578</v>
+        <v>2.8033472803347284</v>
       </c>
       <c r="G119">
         <f t="shared" si="12"/>
-        <v>2.8092243186582806</v>
+        <v>2.7291242362525456</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
-        <v>4.7657841140529529</v>
+        <v>2.7916666666666665</v>
       </c>
       <c r="I119">
         <f t="shared" si="14"/>
-        <v>2.6243567753001718</v>
+        <v>2.2370617696160267</v>
       </c>
       <c r="J119">
         <f t="shared" si="15"/>
-        <v>1.7589285714285714</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
@@ -29408,35 +30637,35 @@
       </c>
       <c r="C120">
         <f t="shared" si="8"/>
-        <v>2.9550561797752808</v>
+        <v>2.9451287793952967</v>
       </c>
       <c r="D120">
         <f t="shared" si="9"/>
-        <v>2.9471316085489314</v>
+        <v>2.9372197309417039</v>
       </c>
       <c r="E120">
         <f t="shared" si="10"/>
-        <v>2.8822882288228819</v>
+        <v>2.9014396456256923</v>
       </c>
       <c r="F120">
         <f t="shared" si="11"/>
-        <v>2.9208472686733558</v>
+        <v>2.9484304932735426</v>
       </c>
       <c r="G120">
         <f t="shared" si="12"/>
-        <v>2.9438202247191012</v>
+        <v>2.9372197309417039</v>
       </c>
       <c r="H120">
         <f t="shared" si="13"/>
-        <v>9.6624203821656049</v>
+        <v>3.2151898734177213</v>
       </c>
       <c r="I120">
         <f t="shared" si="14"/>
-        <v>9.1999999999999993</v>
+        <v>1.75</v>
       </c>
       <c r="J120">
         <f t="shared" si="15"/>
-        <v>6.5485232067510548</v>
+        <v>4.4132653061224492</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
@@ -29445,35 +30674,35 @@
       </c>
       <c r="C121">
         <f t="shared" si="8"/>
-        <v>3.0833333333333335</v>
+        <v>3.0710059171597632</v>
       </c>
       <c r="D121">
         <f t="shared" si="9"/>
-        <v>3.0773809523809526</v>
+        <v>3.0470588235294116</v>
       </c>
       <c r="E121">
         <f t="shared" si="10"/>
-        <v>3.059171597633136</v>
+        <v>3.0650887573964498</v>
       </c>
       <c r="F121">
         <f t="shared" si="11"/>
-        <v>2.9712643678160919</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="G121">
         <f t="shared" si="12"/>
-        <v>1.6206896551724137</v>
+        <v>1.6309148264984228</v>
       </c>
       <c r="H121">
         <f t="shared" si="13"/>
-        <v>9.6320754716981138</v>
+        <v>8.9874608150470223</v>
       </c>
       <c r="I121">
         <f t="shared" si="14"/>
-        <v>9.3793103448275854</v>
+        <v>8.8068535825545169</v>
       </c>
       <c r="J121">
         <f t="shared" si="15"/>
-        <v>6.75704989154013</v>
+        <v>5.8933054393305442</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -29482,35 +30711,35 @@
       </c>
       <c r="C122">
         <f t="shared" si="8"/>
-        <v>3.1371951219512195</v>
+        <v>3.13677811550152</v>
       </c>
       <c r="D122">
         <f t="shared" si="9"/>
-        <v>3.1615853658536586</v>
+        <v>3.2054380664652569</v>
       </c>
       <c r="E122">
         <f t="shared" si="10"/>
-        <v>12.621212121212121</v>
+        <v>12.760355029585799</v>
       </c>
       <c r="F122">
         <f t="shared" si="11"/>
-        <v>9.1717011128775834</v>
+        <v>1.6842948717948718</v>
       </c>
       <c r="G122">
         <f t="shared" si="12"/>
-        <v>2.9122257053291536</v>
+        <v>1.6342229199372056</v>
       </c>
       <c r="H122">
         <f t="shared" si="13"/>
-        <v>9.6446540880503147</v>
+        <v>8.9827315541601251</v>
       </c>
       <c r="I122">
         <f t="shared" si="14"/>
-        <v>9.352664576802507</v>
+        <v>8.8197492163009397</v>
       </c>
       <c r="J122">
         <f t="shared" si="15"/>
-        <v>7.2873931623931627</v>
+        <v>6.6720604099244873</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
@@ -29519,35 +30748,35 @@
       </c>
       <c r="C123">
         <f t="shared" si="8"/>
-        <v>8.6944444444444446</v>
+        <v>8.0523076923076928</v>
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
-        <v>11.202143950995406</v>
+        <v>10.204855842185129</v>
       </c>
       <c r="E123">
         <f t="shared" si="10"/>
-        <v>6.3993506493506498</v>
+        <v>7.491909385113269</v>
       </c>
       <c r="F123">
         <f t="shared" si="11"/>
-        <v>9.8609375000000004</v>
+        <v>9.4246467817896384</v>
       </c>
       <c r="G123">
         <f t="shared" si="12"/>
-        <v>9.882215288611544</v>
+        <v>10.033725490196078</v>
       </c>
       <c r="H123">
         <f t="shared" si="13"/>
-        <v>9.7413522012578611</v>
+        <v>9.0856245090337779</v>
       </c>
       <c r="I123">
         <f t="shared" si="14"/>
-        <v>9.929347826086957</v>
+        <v>9.83307453416149</v>
       </c>
       <c r="J123">
         <f t="shared" si="15"/>
-        <v>6.6324425691514302</v>
+        <v>6.303528274528758</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
@@ -29556,35 +30785,35 @@
       </c>
       <c r="C124">
         <f t="shared" si="8"/>
-        <v>9.6526806526806528</v>
+        <v>10.422480620155039</v>
       </c>
       <c r="D124">
         <f t="shared" si="9"/>
-        <v>6.0168516235100702</v>
+        <v>5.8188167625308136</v>
       </c>
       <c r="E124">
         <f t="shared" si="10"/>
-        <v>7.1614296936370776</v>
+        <v>7.9067032536260289</v>
       </c>
       <c r="F124">
         <f t="shared" si="11"/>
-        <v>9.8573661586557257</v>
+        <v>9.4103570027461743</v>
       </c>
       <c r="G124">
         <f t="shared" si="12"/>
-        <v>9.6702002355712597</v>
+        <v>9.6738533908271265</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
-        <v>10.003106796116505</v>
+        <v>9.392607003891051</v>
       </c>
       <c r="I124">
         <f t="shared" si="14"/>
-        <v>9.2827798699075661</v>
+        <v>7.7949554896142432</v>
       </c>
       <c r="J124">
         <f t="shared" si="15"/>
-        <v>2.7571845432841098</v>
+        <v>2.5258501520597179</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
@@ -29593,35 +30822,35 @@
       </c>
       <c r="C125">
         <f t="shared" si="8"/>
-        <v>9.3734707018673529</v>
+        <v>10.295823665893272</v>
       </c>
       <c r="D125">
         <f t="shared" si="9"/>
-        <v>6.1816394731668964</v>
+        <v>6.2678816382520086</v>
       </c>
       <c r="E125">
         <f t="shared" si="10"/>
-        <v>6.8982785602503913</v>
+        <v>7.3349028840494412</v>
       </c>
       <c r="F125">
         <f t="shared" si="11"/>
-        <v>9.9458292443572134</v>
+        <v>9.4121105232216351</v>
       </c>
       <c r="G125">
         <f t="shared" si="12"/>
-        <v>10.015118790496761</v>
+        <v>10.120974076983504</v>
       </c>
       <c r="H125">
         <f t="shared" si="13"/>
-        <v>12.029548472775565</v>
+        <v>9.2038227938549486</v>
       </c>
       <c r="I125">
         <f t="shared" si="14"/>
-        <v>3.9759404005862238</v>
+        <v>3.4124807869658778</v>
       </c>
       <c r="J125">
         <f t="shared" si="15"/>
-        <v>3.8890761830366318</v>
+        <v>2.4477201902575039</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
@@ -29630,35 +30859,35 @@
       </c>
       <c r="C126">
         <f t="shared" si="8"/>
-        <v>11.600156188988676</v>
+        <v>11.076221877424359</v>
       </c>
       <c r="D126">
         <f t="shared" si="9"/>
-        <v>6.1375858684985278</v>
+        <v>6.6623491315866943</v>
       </c>
       <c r="E126">
         <f t="shared" si="10"/>
-        <v>7.3135527589545015</v>
+        <v>7.7967783125429726</v>
       </c>
       <c r="F126">
         <f t="shared" si="11"/>
-        <v>10.190563666247703</v>
+        <v>10.109661598822953</v>
       </c>
       <c r="G126">
         <f t="shared" si="12"/>
-        <v>8.9742177522349937</v>
+        <v>9.7634808157621844</v>
       </c>
       <c r="H126">
         <f t="shared" si="13"/>
-        <v>23.595290916082469</v>
+        <v>5.242991829038341</v>
       </c>
       <c r="I126">
         <f t="shared" si="14"/>
-        <v>22.196085275480613</v>
+        <v>4.3586022225197487</v>
       </c>
       <c r="J126">
         <f t="shared" si="15"/>
-        <v>16.65436222286208</v>
+        <v>4.5737194117530313</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -29667,35 +30896,109 @@
       </c>
       <c r="C127">
         <f t="shared" si="8"/>
-        <v>10.753674309229865</v>
+        <v>11.608053302433373</v>
       </c>
       <c r="D127">
         <f t="shared" si="9"/>
-        <v>6.8023952095808387</v>
+        <v>6.8897722811150377</v>
       </c>
       <c r="E127">
         <f t="shared" si="10"/>
-        <v>7.8099800593356354</v>
+        <v>8.0199507270180188</v>
       </c>
       <c r="F127">
         <f t="shared" si="11"/>
-        <v>14.560492222718596</v>
+        <v>10.879839471199245</v>
       </c>
       <c r="G127">
         <f t="shared" si="12"/>
-        <v>6.7449462150731012</v>
+        <v>11.405073095168941</v>
       </c>
       <c r="H127">
         <f t="shared" si="13"/>
-        <v>24.298997179144564</v>
+        <v>21.825933994560437</v>
       </c>
       <c r="I127">
         <f t="shared" si="14"/>
-        <v>24.333091391457785</v>
+        <v>21.09223294813086</v>
       </c>
       <c r="J127">
         <f t="shared" si="15"/>
-        <v>19.7265903472105</v>
+        <v>17.730245928472051</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <f>MAX(C117:C127)</f>
+        <v>11.608053302433373</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ref="D129:J129" si="16">MAX(D117:D127)</f>
+        <v>10.204855842185129</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="16"/>
+        <v>12.760355029585799</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="16"/>
+        <v>10.879839471199245</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="16"/>
+        <v>11.405073095168941</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="16"/>
+        <v>21.825933994560437</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="16"/>
+        <v>21.09223294813086</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="16"/>
+        <v>17.730245928472051</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130">
+        <f>MIN(C117:C127)</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:J130" si="17">MIN(D117:D127)</f>
+        <v>1.926605504587156</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="17"/>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="17"/>
+        <v>1.6842948717948718</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="17"/>
+        <v>1.6309148264984228</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="17"/>
+        <v>1.8110236220472442</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="17"/>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577471F-80B2-3A41-A037-4F49E2904AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F2CFF-7F35-F146-8A8D-3355EF76C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
   <si>
     <t>unordered_map</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>lookup-handles</t>
   </si>
 </sst>
 </file>
@@ -1994,32 +1997,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$129:$J$129</c:f>
+              <c:f>Performance!$C$129:$K$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11.608053302433373</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.204855842185129</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>12.760355029585799</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10.879839471199245</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11.405073095168941</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21.825933994560437</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>21.09223294813086</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17.730245928472051</c:v>
                 </c:pt>
               </c:numCache>
@@ -2097,32 +2100,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$130:$J$130</c:f>
+              <c:f>Performance!$C$130:$K$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.926605504587156</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.6842948717948718</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.6309148264984228</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.8110236220472442</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.75</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
@@ -2332,6 +2335,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="769437279"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2691,6 +2695,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D63B-F949-85B1-DFB6AB8D411E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA9F-1047-9136-0D5BF5D33A43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,6 +3353,135 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$19:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49D4-1743-A284-F57D3C627386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3743,6 +4005,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-684A-3F44-8149-1D2F9D51A2A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$33:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$33:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F48-FC4C-B6CD-A2299599C28D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4278,6 +4669,138 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$45:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>256 byte element</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$47:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$47:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54690</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC4-9643-84E8-88377E098C86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4807,6 +5330,138 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8B09-104F-821F-5E651A804565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$59:$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>512 byte element</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$61:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$61:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45D0-3B41-92BD-5128D4BF2D16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5344,6 +5999,135 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$75:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$75:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4575-4344-AD16-0B5B7487894E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5873,6 +6657,138 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E332-0042-B67F-A50F65FB819A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$87:$E$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2048 byte element</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$89:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$89:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFF7-9D49-AFC8-87E16A19FA08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6399,6 +7315,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F2D1-084E-8245-53B54835A6E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$103:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$103:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E472-7540-AA0D-28CB732D1BA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7717,7 +8762,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$116</c:f>
+              <c:f>Performance!$F$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7794,7 +8839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$117:$E$127</c:f>
+              <c:f>Performance!$F$117:$F$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7846,7 +8891,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$F$116</c:f>
+              <c:f>Performance!$G$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7923,7 +8968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$F$117:$F$127</c:f>
+              <c:f>Performance!$G$117:$G$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7975,7 +9020,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$G$116</c:f>
+              <c:f>Performance!$H$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8052,7 +9097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$G$117:$G$127</c:f>
+              <c:f>Performance!$H$117:$H$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8104,7 +9149,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$H$116</c:f>
+              <c:f>Performance!$I$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8181,7 +9226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$H$117:$H$127</c:f>
+              <c:f>Performance!$I$117:$I$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8233,7 +9278,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$I$116</c:f>
+              <c:f>Performance!$J$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8316,7 +9361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$I$117:$I$127</c:f>
+              <c:f>Performance!$J$117:$J$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8368,7 +9413,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$J$116</c:f>
+              <c:f>Performance!$K$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8451,7 +9496,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$J$117:$J$127</c:f>
+              <c:f>Performance!$K$117:$K$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8530,6 +9575,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8592,6 +9692,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>speed increase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -25008,13 +26163,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -25044,13 +26199,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -25080,13 +26235,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -25116,13 +26271,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -25152,13 +26307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -25188,13 +26343,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -25224,13 +26379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -25260,13 +26415,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -25296,13 +26451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
@@ -29006,25 +30161,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:J130"/>
+  <dimension ref="B3:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="Q112" sqref="Q112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P112" sqref="P112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -29035,10 +30191,13 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>32</v>
       </c>
@@ -29049,11 +30208,14 @@
         <v>10.6</v>
       </c>
       <c r="E5">
+        <v>33.1</v>
+      </c>
+      <c r="F5">
         <f>C5/D5</f>
         <v>1.9811320754716981</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>64</v>
       </c>
@@ -29064,11 +30226,14 @@
         <v>26.6</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="0">C6/D6</f>
+        <v>70.5</v>
+      </c>
+      <c r="F6">
+        <f>C6/D6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>128</v>
       </c>
@@ -29079,1855 +30244,2134 @@
         <v>48.1</v>
       </c>
       <c r="E7">
+        <v>155</v>
+      </c>
+      <c r="F7">
+        <f>C7/D7</f>
+        <v>2.8066528066528065</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>263</v>
+      </c>
+      <c r="D8">
+        <v>89.3</v>
+      </c>
+      <c r="E8">
+        <v>297</v>
+      </c>
+      <c r="F8">
+        <f>C8/D8</f>
+        <v>2.9451287793952967</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>512</v>
+      </c>
+      <c r="C9">
+        <v>519</v>
+      </c>
+      <c r="D9">
+        <v>169</v>
+      </c>
+      <c r="E9">
+        <v>578</v>
+      </c>
+      <c r="F9">
+        <f>C9/D9</f>
+        <v>3.0710059171597632</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1024</v>
+      </c>
+      <c r="C10">
+        <v>1032</v>
+      </c>
+      <c r="D10">
+        <v>329</v>
+      </c>
+      <c r="E10">
+        <v>1736</v>
+      </c>
+      <c r="F10">
+        <f>C10/D10</f>
+        <v>3.13677811550152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2048</v>
+      </c>
+      <c r="C11">
+        <v>5234</v>
+      </c>
+      <c r="D11">
+        <v>650</v>
+      </c>
+      <c r="E11">
+        <v>5444</v>
+      </c>
+      <c r="F11">
+        <f>C11/D11</f>
+        <v>8.0523076923076928</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>4096</v>
+      </c>
+      <c r="C12">
+        <v>13445</v>
+      </c>
+      <c r="D12">
+        <v>1290</v>
+      </c>
+      <c r="E12">
+        <v>11704</v>
+      </c>
+      <c r="F12">
+        <f>C12/D12</f>
+        <v>10.422480620155039</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>8192</v>
+      </c>
+      <c r="C13">
+        <v>26625</v>
+      </c>
+      <c r="D13">
+        <v>2586</v>
+      </c>
+      <c r="E13">
+        <v>26250</v>
+      </c>
+      <c r="F13">
+        <f>C13/D13</f>
+        <v>10.295823665893272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C14">
+        <v>57109</v>
+      </c>
+      <c r="D14">
+        <v>5156</v>
+      </c>
+      <c r="E14">
+        <v>55983</v>
+      </c>
+      <c r="F14">
+        <f>C14/D14</f>
+        <v>11.076221877424359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C15">
+        <v>120213</v>
+      </c>
+      <c r="D15">
+        <v>10356</v>
+      </c>
+      <c r="E15">
+        <v>118884</v>
+      </c>
+      <c r="F15">
+        <f>C15/D15</f>
+        <v>11.608053302433373</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>10.9</v>
+      </c>
+      <c r="E19">
+        <v>33.1</v>
+      </c>
+      <c r="F19">
+        <f>C19/D19</f>
+        <v>1.926605504587156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>53.1</v>
+      </c>
+      <c r="D20">
+        <v>26.3</v>
+      </c>
+      <c r="E20">
+        <v>69.5</v>
+      </c>
+      <c r="F20">
+        <f>C20/D20</f>
+        <v>2.0190114068441063</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <f>C21/D21</f>
+        <v>2.7916666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>256</v>
+      </c>
+      <c r="C22">
+        <v>262</v>
+      </c>
+      <c r="D22">
+        <v>89.2</v>
+      </c>
+      <c r="E22">
+        <v>292</v>
+      </c>
+      <c r="F22">
+        <f>C22/D22</f>
+        <v>2.9372197309417039</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>512</v>
+      </c>
+      <c r="C23">
+        <v>518</v>
+      </c>
+      <c r="D23">
+        <v>170</v>
+      </c>
+      <c r="E23">
+        <v>574</v>
+      </c>
+      <c r="F23">
+        <f>C23/D23</f>
+        <v>3.0470588235294116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1024</v>
+      </c>
+      <c r="C24">
+        <v>1061</v>
+      </c>
+      <c r="D24">
+        <v>331</v>
+      </c>
+      <c r="E24">
+        <v>1271</v>
+      </c>
+      <c r="F24">
+        <f>C24/D24</f>
+        <v>3.2054380664652569</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>2048</v>
+      </c>
+      <c r="C25">
+        <v>6725</v>
+      </c>
+      <c r="D25">
+        <v>659</v>
+      </c>
+      <c r="E25">
+        <v>6938</v>
+      </c>
+      <c r="F25">
+        <f>C25/D25</f>
+        <v>10.204855842185129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4096</v>
+      </c>
+      <c r="C26">
+        <v>14163</v>
+      </c>
+      <c r="D26">
+        <v>2434</v>
+      </c>
+      <c r="E26">
+        <v>13385</v>
+      </c>
+      <c r="F26">
+        <f>C26/D26</f>
+        <v>5.8188167625308136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>8192</v>
+      </c>
+      <c r="C27">
+        <v>31985</v>
+      </c>
+      <c r="D27">
+        <v>5103</v>
+      </c>
+      <c r="E27">
+        <v>28437</v>
+      </c>
+      <c r="F27">
+        <f>C27/D27</f>
+        <v>6.2678816382520086</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C28">
+        <v>67896</v>
+      </c>
+      <c r="D28">
+        <v>10191</v>
+      </c>
+      <c r="E28">
+        <v>59470</v>
+      </c>
+      <c r="F28">
+        <f>C28/D28</f>
+        <v>6.6623491315866943</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C29">
+        <v>140386</v>
+      </c>
+      <c r="D29">
+        <v>20376</v>
+      </c>
+      <c r="E29">
+        <v>121839</v>
+      </c>
+      <c r="F29">
+        <f>C29/D29</f>
+        <v>6.8897722811150377</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>10.6</v>
+      </c>
+      <c r="E33">
+        <v>32.4</v>
+      </c>
+      <c r="F33">
+        <f>C33/D33</f>
+        <v>1.9811320754716981</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>53.2</v>
+      </c>
+      <c r="D34">
+        <v>26.4</v>
+      </c>
+      <c r="E34">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <f>C34/D34</f>
+        <v>2.0151515151515156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>49.4</v>
+      </c>
+      <c r="E35">
+        <v>152</v>
+      </c>
+      <c r="F35">
+        <f>C35/D35</f>
+        <v>2.7125506072874495</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>256</v>
+      </c>
+      <c r="C36">
+        <v>262</v>
+      </c>
+      <c r="D36">
+        <v>90.3</v>
+      </c>
+      <c r="E36">
+        <v>298</v>
+      </c>
+      <c r="F36">
+        <f>C36/D36</f>
+        <v>2.9014396456256923</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>512</v>
+      </c>
+      <c r="C37">
+        <v>518</v>
+      </c>
+      <c r="D37">
+        <v>169</v>
+      </c>
+      <c r="E37">
+        <v>584</v>
+      </c>
+      <c r="F37">
+        <f>C37/D37</f>
+        <v>3.0650887573964498</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1024</v>
+      </c>
+      <c r="C38">
+        <v>4313</v>
+      </c>
+      <c r="D38">
+        <v>338</v>
+      </c>
+      <c r="E38">
+        <v>2131</v>
+      </c>
+      <c r="F38">
+        <f>C38/D38</f>
+        <v>12.760355029585799</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2048</v>
+      </c>
+      <c r="C39">
+        <v>9260</v>
+      </c>
+      <c r="D39">
+        <v>1236</v>
+      </c>
+      <c r="E39">
+        <v>5090</v>
+      </c>
+      <c r="F39">
+        <f>C39/D39</f>
+        <v>7.491909385113269</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>4096</v>
+      </c>
+      <c r="C40">
+        <v>20170</v>
+      </c>
+      <c r="D40">
+        <v>2551</v>
+      </c>
+      <c r="E40">
+        <v>12434</v>
+      </c>
+      <c r="F40">
+        <f>C40/D40</f>
+        <v>7.9067032536260289</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>8192</v>
+      </c>
+      <c r="C41">
+        <v>37386</v>
+      </c>
+      <c r="D41">
+        <v>5097</v>
+      </c>
+      <c r="E41">
+        <v>27057</v>
+      </c>
+      <c r="F41">
+        <f>C41/D41</f>
+        <v>7.3349028840494412</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C42">
+        <v>79379</v>
+      </c>
+      <c r="D42">
+        <v>10181</v>
+      </c>
+      <c r="E42">
+        <v>56253</v>
+      </c>
+      <c r="F42">
+        <f>C42/D42</f>
+        <v>7.7967783125429726</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C43">
+        <v>166021</v>
+      </c>
+      <c r="D43">
+        <v>20701</v>
+      </c>
+      <c r="E43">
+        <v>117261</v>
+      </c>
+      <c r="F43">
+        <f>C43/D43</f>
+        <v>8.0199507270180188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>10.6</v>
+      </c>
+      <c r="E47">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F47">
+        <f>C47/D47</f>
+        <v>1.9811320754716981</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>64</v>
+      </c>
+      <c r="C48">
+        <v>53.1</v>
+      </c>
+      <c r="D48">
+        <v>27.6</v>
+      </c>
+      <c r="E48">
+        <v>70.5</v>
+      </c>
+      <c r="F48">
+        <f>C48/D48</f>
+        <v>1.9239130434782608</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <v>47.8</v>
+      </c>
+      <c r="E49">
+        <v>152</v>
+      </c>
+      <c r="F49">
+        <f>C49/D49</f>
+        <v>2.8033472803347284</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>256</v>
+      </c>
+      <c r="C50">
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>89.2</v>
+      </c>
+      <c r="E50">
+        <v>294</v>
+      </c>
+      <c r="F50">
+        <f>C50/D50</f>
+        <v>2.9484304932735426</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>512</v>
+      </c>
+      <c r="C51">
+        <v>518</v>
+      </c>
+      <c r="D51">
+        <v>168</v>
+      </c>
+      <c r="E51">
+        <v>879</v>
+      </c>
+      <c r="F51">
+        <f>C51/D51</f>
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1024</v>
+      </c>
+      <c r="C52">
+        <v>1051</v>
+      </c>
+      <c r="D52">
+        <v>624</v>
+      </c>
+      <c r="E52">
+        <v>1901</v>
+      </c>
+      <c r="F52">
+        <f>C52/D52</f>
+        <v>1.6842948717948718</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2048</v>
+      </c>
+      <c r="C53">
+        <v>12007</v>
+      </c>
+      <c r="D53">
+        <v>1274</v>
+      </c>
+      <c r="E53">
+        <v>4140</v>
+      </c>
+      <c r="F53">
+        <f>C53/D53</f>
+        <v>9.4246467817896384</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>4096</v>
+      </c>
+      <c r="C54">
+        <v>23987</v>
+      </c>
+      <c r="D54">
+        <v>2549</v>
+      </c>
+      <c r="E54">
+        <v>11715</v>
+      </c>
+      <c r="F54">
+        <f>C54/D54</f>
+        <v>9.4103570027461743</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>8192</v>
+      </c>
+      <c r="C55">
+        <v>48030</v>
+      </c>
+      <c r="D55">
+        <v>5103</v>
+      </c>
+      <c r="E55">
+        <v>27110</v>
+      </c>
+      <c r="F55">
+        <f>C55/D55</f>
+        <v>9.4121105232216351</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C56">
+        <v>103068</v>
+      </c>
+      <c r="D56">
+        <v>10195</v>
+      </c>
+      <c r="E56">
+        <v>54690</v>
+      </c>
+      <c r="F56">
+        <f>C56/D56</f>
+        <v>10.109661598822953</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C57">
+        <v>230435</v>
+      </c>
+      <c r="D57">
+        <v>21180</v>
+      </c>
+      <c r="E57">
+        <v>134903</v>
+      </c>
+      <c r="F57">
+        <f>C57/D57</f>
+        <v>10.879839471199245</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>10.7</v>
+      </c>
+      <c r="E61">
+        <v>32.4</v>
+      </c>
+      <c r="F61">
+        <f>C61/D61</f>
+        <v>1.9626168224299068</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>53</v>
+      </c>
+      <c r="D62">
+        <v>26.2</v>
+      </c>
+      <c r="E62">
+        <v>68.5</v>
+      </c>
+      <c r="F62">
+        <f>C62/D62</f>
+        <v>2.0229007633587788</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>134</v>
+      </c>
+      <c r="D63">
+        <v>49.1</v>
+      </c>
+      <c r="E63">
+        <v>149</v>
+      </c>
+      <c r="F63">
+        <f>C63/D63</f>
+        <v>2.7291242362525456</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>256</v>
+      </c>
+      <c r="C64">
+        <v>262</v>
+      </c>
+      <c r="D64">
+        <v>89.2</v>
+      </c>
+      <c r="E64">
+        <v>343</v>
+      </c>
+      <c r="F64">
+        <f>C64/D64</f>
+        <v>2.9372197309417039</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>512</v>
+      </c>
+      <c r="C65">
+        <v>517</v>
+      </c>
+      <c r="D65">
+        <v>317</v>
+      </c>
+      <c r="E65">
+        <v>812</v>
+      </c>
+      <c r="F65">
+        <f>C65/D65</f>
+        <v>1.6309148264984228</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1024</v>
+      </c>
+      <c r="C66">
+        <v>1041</v>
+      </c>
+      <c r="D66">
+        <v>637</v>
+      </c>
+      <c r="E66">
+        <v>1667</v>
+      </c>
+      <c r="F66">
+        <f>C66/D66</f>
+        <v>1.6342229199372056</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>2048</v>
+      </c>
+      <c r="C67">
+        <v>12793</v>
+      </c>
+      <c r="D67">
+        <v>1275</v>
+      </c>
+      <c r="E67">
+        <v>3544</v>
+      </c>
+      <c r="F67">
+        <f>C67/D67</f>
+        <v>10.033725490196078</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>4096</v>
+      </c>
+      <c r="C68">
+        <v>24678</v>
+      </c>
+      <c r="D68">
+        <v>2551</v>
+      </c>
+      <c r="E68">
+        <v>10896</v>
+      </c>
+      <c r="F68">
+        <f>C68/D68</f>
+        <v>9.6738533908271265</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>8192</v>
+      </c>
+      <c r="C69">
+        <v>51536</v>
+      </c>
+      <c r="D69">
+        <v>5092</v>
+      </c>
+      <c r="E69">
+        <v>26149</v>
+      </c>
+      <c r="F69">
+        <f>C69/D69</f>
+        <v>10.120974076983504</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C70">
+        <v>112983</v>
+      </c>
+      <c r="D70">
+        <v>11572</v>
+      </c>
+      <c r="E70">
+        <v>59414</v>
+      </c>
+      <c r="F70">
+        <f>C70/D70</f>
+        <v>9.7634808157621844</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C71">
+        <v>706818</v>
+      </c>
+      <c r="D71">
+        <v>61974</v>
+      </c>
+      <c r="E71">
+        <v>175679</v>
+      </c>
+      <c r="F71">
+        <f>C71/D71</f>
+        <v>11.405073095168941</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>32</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>12.7</v>
+      </c>
+      <c r="E75">
+        <v>33.1</v>
+      </c>
+      <c r="F75">
+        <f>C75/D75</f>
+        <v>1.8110236220472442</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>64</v>
+      </c>
+      <c r="C76">
+        <v>55.1</v>
+      </c>
+      <c r="D76">
+        <v>26.3</v>
+      </c>
+      <c r="E76">
+        <v>83.1</v>
+      </c>
+      <c r="F76">
+        <f>C76/D76</f>
+        <v>2.0950570342205324</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>128</v>
+      </c>
+      <c r="C77">
+        <v>134</v>
+      </c>
+      <c r="D77">
+        <v>48</v>
+      </c>
+      <c r="E77">
+        <v>176</v>
+      </c>
+      <c r="F77">
+        <f>C77/D77</f>
+        <v>2.7916666666666665</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>256</v>
+      </c>
+      <c r="C78">
+        <v>508</v>
+      </c>
+      <c r="D78">
+        <v>158</v>
+      </c>
+      <c r="E78">
+        <v>366</v>
+      </c>
+      <c r="F78">
+        <f>C78/D78</f>
+        <v>3.2151898734177213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>512</v>
+      </c>
+      <c r="C79">
+        <v>2867</v>
+      </c>
+      <c r="D79">
+        <v>319</v>
+      </c>
+      <c r="E79">
+        <v>757</v>
+      </c>
+      <c r="F79">
+        <f>C79/D79</f>
+        <v>8.9874608150470223</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>1024</v>
+      </c>
+      <c r="C80">
+        <v>5722</v>
+      </c>
+      <c r="D80">
+        <v>637</v>
+      </c>
+      <c r="E80">
+        <v>1517</v>
+      </c>
+      <c r="F80">
+        <f>C80/D80</f>
+        <v>8.9827315541601251</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>2048</v>
+      </c>
+      <c r="C81">
+        <v>11566</v>
+      </c>
+      <c r="D81">
+        <v>1273</v>
+      </c>
+      <c r="E81">
+        <v>3387</v>
+      </c>
+      <c r="F81">
+        <f>C81/D81</f>
+        <v>9.0856245090337779</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>4096</v>
+      </c>
+      <c r="C82">
+        <v>24139</v>
+      </c>
+      <c r="D82">
+        <v>2570</v>
+      </c>
+      <c r="E82">
+        <v>11393</v>
+      </c>
+      <c r="F82">
+        <f>C82/D82</f>
+        <v>9.392607003891051</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>8192</v>
+      </c>
+      <c r="C83">
+        <v>51523</v>
+      </c>
+      <c r="D83">
+        <v>5598</v>
+      </c>
+      <c r="E83">
+        <v>26639</v>
+      </c>
+      <c r="F83">
+        <f>C83/D83</f>
+        <v>9.2038227938549486</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C84">
+        <v>166832</v>
+      </c>
+      <c r="D84">
+        <v>31820</v>
+      </c>
+      <c r="E84">
+        <v>77953</v>
+      </c>
+      <c r="F84">
+        <f>C84/D84</f>
+        <v>5.242991829038341</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C85">
+        <v>1613002</v>
+      </c>
+      <c r="D85">
+        <v>73903</v>
+      </c>
+      <c r="E85">
+        <v>188689</v>
+      </c>
+      <c r="F85">
+        <f>C85/D85</f>
+        <v>21.825933994560437</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>23</v>
+      </c>
+      <c r="D89">
+        <v>11.6</v>
+      </c>
+      <c r="E89">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F89">
+        <f>C89/D89</f>
+        <v>1.9827586206896552</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>55.1</v>
+      </c>
+      <c r="D90">
+        <v>26.4</v>
+      </c>
+      <c r="E90">
+        <v>87.3</v>
+      </c>
+      <c r="F90">
+        <f>C90/D90</f>
+        <v>2.0871212121212124</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>128</v>
+      </c>
+      <c r="C91">
+        <v>134</v>
+      </c>
+      <c r="D91">
+        <v>59.9</v>
+      </c>
+      <c r="E91">
+        <v>183</v>
+      </c>
+      <c r="F91">
+        <f>C91/D91</f>
+        <v>2.2370617696160267</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>256</v>
+      </c>
+      <c r="C92">
+        <v>287</v>
+      </c>
+      <c r="D92">
+        <v>164</v>
+      </c>
+      <c r="E92">
+        <v>356</v>
+      </c>
+      <c r="F92">
+        <f>C92/D92</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>512</v>
+      </c>
+      <c r="C93">
+        <v>2827</v>
+      </c>
+      <c r="D93">
+        <v>321</v>
+      </c>
+      <c r="E93">
+        <v>714</v>
+      </c>
+      <c r="F93">
+        <f>C93/D93</f>
+        <v>8.8068535825545169</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1024</v>
+      </c>
+      <c r="C94">
+        <v>5627</v>
+      </c>
+      <c r="D94">
+        <v>638</v>
+      </c>
+      <c r="E94">
+        <v>1410</v>
+      </c>
+      <c r="F94">
+        <f>C94/D94</f>
+        <v>8.8197492163009397</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>2048</v>
+      </c>
+      <c r="C95">
+        <v>12665</v>
+      </c>
+      <c r="D95">
+        <v>1288</v>
+      </c>
+      <c r="E95">
+        <v>3129</v>
+      </c>
+      <c r="F95">
+        <f>C95/D95</f>
+        <v>9.83307453416149</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>4096</v>
+      </c>
+      <c r="C96">
+        <v>26269</v>
+      </c>
+      <c r="D96">
+        <v>3370</v>
+      </c>
+      <c r="E96">
+        <v>12132</v>
+      </c>
+      <c r="F96">
+        <f>C96/D96</f>
+        <v>7.7949554896142432</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>8192</v>
+      </c>
+      <c r="C97">
+        <v>55504</v>
+      </c>
+      <c r="D97">
+        <v>16265</v>
+      </c>
+      <c r="E97">
+        <v>34958</v>
+      </c>
+      <c r="F97">
+        <f>C97/D97</f>
+        <v>3.4124807869658778</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C98">
+        <v>162772</v>
+      </c>
+      <c r="D98">
+        <v>37345</v>
+      </c>
+      <c r="E98">
+        <v>82191</v>
+      </c>
+      <c r="F98">
+        <f>C98/D98</f>
+        <v>4.3586022225197487</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C99">
+        <v>1662764</v>
+      </c>
+      <c r="D99">
+        <v>78833</v>
+      </c>
+      <c r="E99">
+        <v>192965</v>
+      </c>
+      <c r="F99">
+        <f>C99/D99</f>
+        <v>21.09223294813086</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>32</v>
+      </c>
+      <c r="C103">
+        <v>23.5</v>
+      </c>
+      <c r="D103">
+        <v>10.6</v>
+      </c>
+      <c r="E103">
+        <v>34.4</v>
+      </c>
+      <c r="F103">
+        <f>C103/D103</f>
+        <v>2.216981132075472</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>64</v>
+      </c>
+      <c r="C104">
+        <v>55.2</v>
+      </c>
+      <c r="D104">
+        <v>28.5</v>
+      </c>
+      <c r="E104">
+        <v>83.4</v>
+      </c>
+      <c r="F104">
+        <f>C104/D104</f>
+        <v>1.9368421052631579</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>134</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+      <c r="E105">
+        <v>184</v>
+      </c>
+      <c r="F105">
+        <f>C105/D105</f>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>256</v>
+      </c>
+      <c r="C106">
+        <v>865</v>
+      </c>
+      <c r="D106">
+        <v>196</v>
+      </c>
+      <c r="E106">
+        <v>352</v>
+      </c>
+      <c r="F106">
+        <f>C106/D106</f>
+        <v>4.4132653061224492</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>512</v>
+      </c>
+      <c r="C107">
+        <v>2817</v>
+      </c>
+      <c r="D107">
+        <v>478</v>
+      </c>
+      <c r="E107">
+        <v>695</v>
+      </c>
+      <c r="F107">
+        <f>C107/D107</f>
+        <v>5.8933054393305442</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1024</v>
+      </c>
+      <c r="C108">
+        <v>6185</v>
+      </c>
+      <c r="D108">
+        <v>927</v>
+      </c>
+      <c r="E108">
+        <v>1416</v>
+      </c>
+      <c r="F108">
+        <f>C108/D108</f>
+        <v>6.6720604099244873</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>2048</v>
+      </c>
+      <c r="C109">
+        <v>13042</v>
+      </c>
+      <c r="D109">
+        <v>2069</v>
+      </c>
+      <c r="E109">
+        <v>5192</v>
+      </c>
+      <c r="F109">
+        <f>C109/D109</f>
+        <v>6.303528274528758</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>4096</v>
+      </c>
+      <c r="C110">
+        <v>27408</v>
+      </c>
+      <c r="D110">
+        <v>10851</v>
+      </c>
+      <c r="E110">
+        <v>17172</v>
+      </c>
+      <c r="F110">
+        <f>C110/D110</f>
+        <v>2.5258501520597179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>8192</v>
+      </c>
+      <c r="C111">
+        <v>59695</v>
+      </c>
+      <c r="D111">
+        <v>24388</v>
+      </c>
+      <c r="E111">
+        <v>37497</v>
+      </c>
+      <c r="F111">
+        <f>C111/D111</f>
+        <v>2.4477201902575039</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C112">
+        <v>230456</v>
+      </c>
+      <c r="D112">
+        <v>50387</v>
+      </c>
+      <c r="E112">
+        <v>89887</v>
+      </c>
+      <c r="F112">
+        <f>C112/D112</f>
+        <v>4.5737194117530313</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C113">
+        <v>1733167</v>
+      </c>
+      <c r="D113">
+        <v>97752</v>
+      </c>
+      <c r="E113">
+        <v>189412</v>
+      </c>
+      <c r="F113">
+        <f>C113/D113</f>
+        <v>17.730245928472051</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <f>F5</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="D117">
+        <f>F19</f>
+        <v>1.926605504587156</v>
+      </c>
+      <c r="F117">
+        <f>F33</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="G117">
+        <f>F47</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="H117">
+        <f>F61</f>
+        <v>1.9626168224299068</v>
+      </c>
+      <c r="I117">
+        <f>F75</f>
+        <v>1.8110236220472442</v>
+      </c>
+      <c r="J117">
+        <f>F89</f>
+        <v>1.9827586206896552</v>
+      </c>
+      <c r="K117">
+        <f>F103</f>
+        <v>2.216981132075472</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:C127" si="0">F6</f>
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:D127" si="1">F20</f>
+        <v>2.0190114068441063</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ref="F118:F127" si="2">F34</f>
+        <v>2.0151515151515156</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:G127" si="3">F48</f>
+        <v>1.9239130434782608</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118:H127" si="4">F62</f>
+        <v>2.0229007633587788</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:I127" si="5">F76</f>
+        <v>2.0950570342205324</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J127" si="6">F90</f>
+        <v>2.0871212121212124</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ref="K118:K127" si="7">F104</f>
+        <v>1.9368421052631579</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>128</v>
+      </c>
+      <c r="C119">
         <f t="shared" si="0"/>
         <v>2.8066528066528065</v>
       </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>2.7916666666666665</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>2.7125506072874495</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>2.8033472803347284</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="4"/>
+        <v>2.7291242362525456</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>2.7916666666666665</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="6"/>
+        <v>2.2370617696160267</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>1.34</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120">
         <v>256</v>
       </c>
-      <c r="C8">
-        <v>263</v>
-      </c>
-      <c r="D8">
-        <v>89.3</v>
-      </c>
-      <c r="E8">
+      <c r="C120">
         <f t="shared" si="0"/>
         <v>2.9451287793952967</v>
       </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>2.9372197309417039</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>2.9014396456256923</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>2.9484304932735426</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="4"/>
+        <v>2.9372197309417039</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>3.2151898734177213</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>4.4132653061224492</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121">
         <v>512</v>
       </c>
-      <c r="C9">
-        <v>519</v>
-      </c>
-      <c r="D9">
-        <v>169</v>
-      </c>
-      <c r="E9">
+      <c r="C121">
         <f t="shared" si="0"/>
         <v>3.0710059171597632</v>
       </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>3.0470588235294116</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>3.0650887573964498</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="4"/>
+        <v>1.6309148264984228</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>8.9874608150470223</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="6"/>
+        <v>8.8068535825545169</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>5.8933054393305442</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122">
         <v>1024</v>
       </c>
-      <c r="C10">
-        <v>1032</v>
-      </c>
-      <c r="D10">
-        <v>329</v>
-      </c>
-      <c r="E10">
+      <c r="C122">
         <f t="shared" si="0"/>
         <v>3.13677811550152</v>
       </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>3.2054380664652569</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>12.760355029585799</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>1.6842948717948718</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="4"/>
+        <v>1.6342229199372056</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>8.9827315541601251</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="6"/>
+        <v>8.8197492163009397</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>6.6720604099244873</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123">
         <v>2048</v>
       </c>
-      <c r="C11">
-        <v>5234</v>
-      </c>
-      <c r="D11">
-        <v>650</v>
-      </c>
-      <c r="E11">
+      <c r="C123">
         <f t="shared" si="0"/>
         <v>8.0523076923076928</v>
       </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>10.204855842185129</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>7.491909385113269</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>9.4246467817896384</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="4"/>
+        <v>10.033725490196078</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="5"/>
+        <v>9.0856245090337779</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="6"/>
+        <v>9.83307453416149</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>6.303528274528758</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124">
         <v>4096</v>
       </c>
-      <c r="C12">
-        <v>13445</v>
-      </c>
-      <c r="D12">
-        <v>1290</v>
-      </c>
-      <c r="E12">
+      <c r="C124">
         <f t="shared" si="0"/>
         <v>10.422480620155039</v>
       </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>5.8188167625308136</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>7.9067032536260289</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>9.4103570027461743</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="4"/>
+        <v>9.6738533908271265</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>9.392607003891051</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>7.7949554896142432</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>2.5258501520597179</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125">
         <v>8192</v>
       </c>
-      <c r="C13">
-        <v>26625</v>
-      </c>
-      <c r="D13">
-        <v>2586</v>
-      </c>
-      <c r="E13">
+      <c r="C125">
         <f t="shared" si="0"/>
         <v>10.295823665893272</v>
       </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>6.2678816382520086</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>7.3349028840494412</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>9.4121105232216351</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="4"/>
+        <v>10.120974076983504</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="5"/>
+        <v>9.2038227938549486</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>3.4124807869658778</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>2.4477201902575039</v>
+      </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
         <v>16384</v>
       </c>
-      <c r="C14">
-        <v>57109</v>
-      </c>
-      <c r="D14">
-        <v>5156</v>
-      </c>
-      <c r="E14">
+      <c r="C126">
         <f t="shared" si="0"/>
         <v>11.076221877424359</v>
       </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>6.6623491315866943</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>7.7967783125429726</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>10.109661598822953</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="4"/>
+        <v>9.7634808157621844</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="5"/>
+        <v>5.242991829038341</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="6"/>
+        <v>4.3586022225197487</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>4.5737194117530313</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
         <v>32768</v>
       </c>
-      <c r="C15">
-        <v>120213</v>
-      </c>
-      <c r="D15">
-        <v>10356</v>
-      </c>
-      <c r="E15">
+      <c r="C127">
         <f t="shared" si="0"/>
         <v>11.608053302433373</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>10.9</v>
-      </c>
-      <c r="E19">
-        <f>C19/D19</f>
-        <v>1.926605504587156</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>53.1</v>
-      </c>
-      <c r="D20">
-        <v>26.3</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E29" si="1">C20/D20</f>
-        <v>2.0190114068441063</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>128</v>
-      </c>
-      <c r="C21">
-        <v>134</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
-      </c>
-      <c r="E21">
+      <c r="D127">
         <f t="shared" si="1"/>
-        <v>2.7916666666666665</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>256</v>
-      </c>
-      <c r="C22">
-        <v>262</v>
-      </c>
-      <c r="D22">
-        <v>89.2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2.9372197309417039</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>512</v>
-      </c>
-      <c r="C23">
-        <v>518</v>
-      </c>
-      <c r="D23">
-        <v>170</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>3.0470588235294116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1024</v>
-      </c>
-      <c r="C24">
-        <v>1061</v>
-      </c>
-      <c r="D24">
-        <v>331</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>3.2054380664652569</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2048</v>
-      </c>
-      <c r="C25">
-        <v>6725</v>
-      </c>
-      <c r="D25">
-        <v>659</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>10.204855842185129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>4096</v>
-      </c>
-      <c r="C26">
-        <v>14163</v>
-      </c>
-      <c r="D26">
-        <v>2434</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>5.8188167625308136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>8192</v>
-      </c>
-      <c r="C27">
-        <v>31985</v>
-      </c>
-      <c r="D27">
-        <v>5103</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>6.2678816382520086</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C28">
-        <v>67896</v>
-      </c>
-      <c r="D28">
-        <v>10191</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>6.6623491315866943</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C29">
-        <v>140386</v>
-      </c>
-      <c r="D29">
-        <v>20376</v>
-      </c>
-      <c r="E29">
-        <f>C29/D29</f>
         <v>6.8897722811150377</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>10.6</v>
-      </c>
-      <c r="E33">
-        <f>C33/D33</f>
-        <v>1.9811320754716981</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>53.2</v>
-      </c>
-      <c r="D34">
-        <v>26.4</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E43" si="2">C34/D34</f>
-        <v>2.0151515151515156</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>128</v>
-      </c>
-      <c r="C35">
-        <v>134</v>
-      </c>
-      <c r="D35">
-        <v>49.4</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>2.7125506072874495</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>256</v>
-      </c>
-      <c r="C36">
-        <v>262</v>
-      </c>
-      <c r="D36">
-        <v>90.3</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>2.9014396456256923</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>512</v>
-      </c>
-      <c r="C37">
-        <v>518</v>
-      </c>
-      <c r="D37">
-        <v>169</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>3.0650887573964498</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>1024</v>
-      </c>
-      <c r="C38">
-        <v>4313</v>
-      </c>
-      <c r="D38">
-        <v>338</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>12.760355029585799</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>2048</v>
-      </c>
-      <c r="C39">
-        <v>9260</v>
-      </c>
-      <c r="D39">
-        <v>1236</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>7.491909385113269</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>4096</v>
-      </c>
-      <c r="C40">
-        <v>20170</v>
-      </c>
-      <c r="D40">
-        <v>2551</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>7.9067032536260289</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>8192</v>
-      </c>
-      <c r="C41">
-        <v>37386</v>
-      </c>
-      <c r="D41">
-        <v>5097</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>7.3349028840494412</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C42">
-        <v>79379</v>
-      </c>
-      <c r="D42">
-        <v>10181</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
-        <v>7.7967783125429726</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C43">
-        <v>166021</v>
-      </c>
-      <c r="D43">
-        <v>20701</v>
-      </c>
-      <c r="E43">
+      <c r="F127">
         <f t="shared" si="2"/>
         <v>8.0199507270180188</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>10.6</v>
-      </c>
-      <c r="E47">
-        <f>C47/D47</f>
-        <v>1.9811320754716981</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>64</v>
-      </c>
-      <c r="C48">
-        <v>53.1</v>
-      </c>
-      <c r="D48">
-        <v>27.6</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48:E57" si="3">C48/D48</f>
-        <v>1.9239130434782608</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>128</v>
-      </c>
-      <c r="C49">
-        <v>134</v>
-      </c>
-      <c r="D49">
-        <v>47.8</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>2.8033472803347284</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>256</v>
-      </c>
-      <c r="C50">
-        <v>263</v>
-      </c>
-      <c r="D50">
-        <v>89.2</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
-        <v>2.9484304932735426</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>512</v>
-      </c>
-      <c r="C51">
-        <v>518</v>
-      </c>
-      <c r="D51">
-        <v>168</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>3.0833333333333335</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>1024</v>
-      </c>
-      <c r="C52">
-        <v>1051</v>
-      </c>
-      <c r="D52">
-        <v>624</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>1.6842948717948718</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>2048</v>
-      </c>
-      <c r="C53">
-        <v>12007</v>
-      </c>
-      <c r="D53">
-        <v>1274</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>9.4246467817896384</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>4096</v>
-      </c>
-      <c r="C54">
-        <v>23987</v>
-      </c>
-      <c r="D54">
-        <v>2549</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>9.4103570027461743</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>8192</v>
-      </c>
-      <c r="C55">
-        <v>48030</v>
-      </c>
-      <c r="D55">
-        <v>5103</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
-        <v>9.4121105232216351</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C56">
-        <v>103068</v>
-      </c>
-      <c r="D56">
-        <v>10195</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
-        <v>10.109661598822953</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C57">
-        <v>230435</v>
-      </c>
-      <c r="D57">
-        <v>21180</v>
-      </c>
-      <c r="E57">
+      <c r="G127">
         <f t="shared" si="3"/>
         <v>10.879839471199245</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>32</v>
-      </c>
-      <c r="C61">
-        <v>21</v>
-      </c>
-      <c r="D61">
-        <v>10.7</v>
-      </c>
-      <c r="E61">
-        <f>C61/D61</f>
-        <v>1.9626168224299068</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>26.2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ref="E62:E71" si="4">C62/D62</f>
-        <v>2.0229007633587788</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>128</v>
-      </c>
-      <c r="C63">
-        <v>134</v>
-      </c>
-      <c r="D63">
-        <v>49.1</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="4"/>
-        <v>2.7291242362525456</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>256</v>
-      </c>
-      <c r="C64">
-        <v>262</v>
-      </c>
-      <c r="D64">
-        <v>89.2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="4"/>
-        <v>2.9372197309417039</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>512</v>
-      </c>
-      <c r="C65">
-        <v>517</v>
-      </c>
-      <c r="D65">
-        <v>317</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="4"/>
-        <v>1.6309148264984228</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>1024</v>
-      </c>
-      <c r="C66">
-        <v>1041</v>
-      </c>
-      <c r="D66">
-        <v>637</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="4"/>
-        <v>1.6342229199372056</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>2048</v>
-      </c>
-      <c r="C67">
-        <v>12793</v>
-      </c>
-      <c r="D67">
-        <v>1275</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="4"/>
-        <v>10.033725490196078</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <v>4096</v>
-      </c>
-      <c r="C68">
-        <v>24678</v>
-      </c>
-      <c r="D68">
-        <v>2551</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="4"/>
-        <v>9.6738533908271265</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <v>8192</v>
-      </c>
-      <c r="C69">
-        <v>51536</v>
-      </c>
-      <c r="D69">
-        <v>5092</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="4"/>
-        <v>10.120974076983504</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C70">
-        <v>112983</v>
-      </c>
-      <c r="D70">
-        <v>11572</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="4"/>
-        <v>9.7634808157621844</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C71">
-        <v>706818</v>
-      </c>
-      <c r="D71">
-        <v>61974</v>
-      </c>
-      <c r="E71">
+      <c r="H127">
         <f t="shared" si="4"/>
         <v>11.405073095168941</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>32</v>
-      </c>
-      <c r="C75">
-        <v>23</v>
-      </c>
-      <c r="D75">
-        <v>12.7</v>
-      </c>
-      <c r="E75">
-        <f>C75/D75</f>
-        <v>1.8110236220472442</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>64</v>
-      </c>
-      <c r="C76">
-        <v>55.1</v>
-      </c>
-      <c r="D76">
-        <v>26.3</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ref="E76:E85" si="5">C76/D76</f>
-        <v>2.0950570342205324</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>128</v>
-      </c>
-      <c r="C77">
-        <v>134</v>
-      </c>
-      <c r="D77">
-        <v>48</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="5"/>
-        <v>2.7916666666666665</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>256</v>
-      </c>
-      <c r="C78">
-        <v>508</v>
-      </c>
-      <c r="D78">
-        <v>158</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="5"/>
-        <v>3.2151898734177213</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>512</v>
-      </c>
-      <c r="C79">
-        <v>2867</v>
-      </c>
-      <c r="D79">
-        <v>319</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
-        <v>8.9874608150470223</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80">
-        <v>1024</v>
-      </c>
-      <c r="C80">
-        <v>5722</v>
-      </c>
-      <c r="D80">
-        <v>637</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="5"/>
-        <v>8.9827315541601251</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>2048</v>
-      </c>
-      <c r="C81">
-        <v>11566</v>
-      </c>
-      <c r="D81">
-        <v>1273</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
-        <v>9.0856245090337779</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>4096</v>
-      </c>
-      <c r="C82">
-        <v>24139</v>
-      </c>
-      <c r="D82">
-        <v>2570</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>9.392607003891051</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>8192</v>
-      </c>
-      <c r="C83">
-        <v>51523</v>
-      </c>
-      <c r="D83">
-        <v>5598</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>9.2038227938549486</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C84">
-        <v>166832</v>
-      </c>
-      <c r="D84">
-        <v>31820</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>5.242991829038341</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C85">
-        <v>1613002</v>
-      </c>
-      <c r="D85">
-        <v>73903</v>
-      </c>
-      <c r="E85">
+      <c r="I127">
         <f t="shared" si="5"/>
         <v>21.825933994560437</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>32</v>
-      </c>
-      <c r="C89">
-        <v>23</v>
-      </c>
-      <c r="D89">
-        <v>11.6</v>
-      </c>
-      <c r="E89">
-        <f>C89/D89</f>
-        <v>1.9827586206896552</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>64</v>
-      </c>
-      <c r="C90">
-        <v>55.1</v>
-      </c>
-      <c r="D90">
-        <v>26.4</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ref="E90:E99" si="6">C90/D90</f>
-        <v>2.0871212121212124</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>128</v>
-      </c>
-      <c r="C91">
-        <v>134</v>
-      </c>
-      <c r="D91">
-        <v>59.9</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="6"/>
-        <v>2.2370617696160267</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>256</v>
-      </c>
-      <c r="C92">
-        <v>287</v>
-      </c>
-      <c r="D92">
-        <v>164</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>512</v>
-      </c>
-      <c r="C93">
-        <v>2827</v>
-      </c>
-      <c r="D93">
-        <v>321</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="6"/>
-        <v>8.8068535825545169</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>1024</v>
-      </c>
-      <c r="C94">
-        <v>5627</v>
-      </c>
-      <c r="D94">
-        <v>638</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="6"/>
-        <v>8.8197492163009397</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>2048</v>
-      </c>
-      <c r="C95">
-        <v>12665</v>
-      </c>
-      <c r="D95">
-        <v>1288</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="6"/>
-        <v>9.83307453416149</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>4096</v>
-      </c>
-      <c r="C96">
-        <v>26269</v>
-      </c>
-      <c r="D96">
-        <v>3370</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="6"/>
-        <v>7.7949554896142432</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>8192</v>
-      </c>
-      <c r="C97">
-        <v>55504</v>
-      </c>
-      <c r="D97">
-        <v>16265</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="6"/>
-        <v>3.4124807869658778</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C98">
-        <v>162772</v>
-      </c>
-      <c r="D98">
-        <v>37345</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="6"/>
-        <v>4.3586022225197487</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C99">
-        <v>1662764</v>
-      </c>
-      <c r="D99">
-        <v>78833</v>
-      </c>
-      <c r="E99">
+      <c r="J127">
         <f t="shared" si="6"/>
         <v>21.09223294813086</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <v>32</v>
-      </c>
-      <c r="C103">
-        <v>23.5</v>
-      </c>
-      <c r="D103">
-        <v>10.6</v>
-      </c>
-      <c r="E103">
-        <f>C103/D103</f>
-        <v>2.216981132075472</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>64</v>
-      </c>
-      <c r="C104">
-        <v>55.2</v>
-      </c>
-      <c r="D104">
-        <v>28.5</v>
-      </c>
-      <c r="E104">
-        <f t="shared" ref="E104:E113" si="7">C104/D104</f>
-        <v>1.9368421052631579</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <v>128</v>
-      </c>
-      <c r="C105">
-        <v>134</v>
-      </c>
-      <c r="D105">
-        <v>100</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="7"/>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <v>256</v>
-      </c>
-      <c r="C106">
-        <v>865</v>
-      </c>
-      <c r="D106">
-        <v>196</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="7"/>
-        <v>4.4132653061224492</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>512</v>
-      </c>
-      <c r="C107">
-        <v>2817</v>
-      </c>
-      <c r="D107">
-        <v>478</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="7"/>
-        <v>5.8933054393305442</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <v>1024</v>
-      </c>
-      <c r="C108">
-        <v>6185</v>
-      </c>
-      <c r="D108">
-        <v>927</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="7"/>
-        <v>6.6720604099244873</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>2048</v>
-      </c>
-      <c r="C109">
-        <v>13042</v>
-      </c>
-      <c r="D109">
-        <v>2069</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="7"/>
-        <v>6.303528274528758</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <v>4096</v>
-      </c>
-      <c r="C110">
-        <v>27408</v>
-      </c>
-      <c r="D110">
-        <v>10851</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="7"/>
-        <v>2.5258501520597179</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <v>8192</v>
-      </c>
-      <c r="C111">
-        <v>59695</v>
-      </c>
-      <c r="D111">
-        <v>24388</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="7"/>
-        <v>2.4477201902575039</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C112">
-        <v>230456</v>
-      </c>
-      <c r="D112">
-        <v>50387</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="7"/>
-        <v>4.5737194117530313</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C113">
-        <v>1733167</v>
-      </c>
-      <c r="D113">
-        <v>97752</v>
-      </c>
-      <c r="E113">
+      <c r="K127">
         <f t="shared" si="7"/>
         <v>17.730245928472051</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" t="s">
-        <v>27</v>
-      </c>
-      <c r="I116" t="s">
-        <v>28</v>
-      </c>
-      <c r="J116" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117">
-        <v>32</v>
-      </c>
-      <c r="C117">
-        <f>E5</f>
-        <v>1.9811320754716981</v>
-      </c>
-      <c r="D117">
-        <f>E19</f>
-        <v>1.926605504587156</v>
-      </c>
-      <c r="E117">
-        <f>E33</f>
-        <v>1.9811320754716981</v>
-      </c>
-      <c r="F117">
-        <f>E47</f>
-        <v>1.9811320754716981</v>
-      </c>
-      <c r="G117">
-        <f>E61</f>
-        <v>1.9626168224299068</v>
-      </c>
-      <c r="H117">
-        <f>E75</f>
-        <v>1.8110236220472442</v>
-      </c>
-      <c r="I117">
-        <f>E89</f>
-        <v>1.9827586206896552</v>
-      </c>
-      <c r="J117">
-        <f>E103</f>
-        <v>2.216981132075472</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118">
-        <v>64</v>
-      </c>
-      <c r="C118">
-        <f t="shared" ref="C118:C127" si="8">E6</f>
-        <v>2</v>
-      </c>
-      <c r="D118">
-        <f t="shared" ref="D118:D127" si="9">E20</f>
-        <v>2.0190114068441063</v>
-      </c>
-      <c r="E118">
-        <f t="shared" ref="E118:E127" si="10">E34</f>
-        <v>2.0151515151515156</v>
-      </c>
-      <c r="F118">
-        <f t="shared" ref="F118:F127" si="11">E48</f>
-        <v>1.9239130434782608</v>
-      </c>
-      <c r="G118">
-        <f t="shared" ref="G118:G127" si="12">E62</f>
-        <v>2.0229007633587788</v>
-      </c>
-      <c r="H118">
-        <f t="shared" ref="H118:H127" si="13">E76</f>
-        <v>2.0950570342205324</v>
-      </c>
-      <c r="I118">
-        <f t="shared" ref="I118:I127" si="14">E90</f>
-        <v>2.0871212121212124</v>
-      </c>
-      <c r="J118">
-        <f t="shared" ref="J118:J127" si="15">E104</f>
-        <v>1.9368421052631579</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <v>128</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="8"/>
-        <v>2.8066528066528065</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="9"/>
-        <v>2.7916666666666665</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="10"/>
-        <v>2.7125506072874495</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="11"/>
-        <v>2.8033472803347284</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="12"/>
-        <v>2.7291242362525456</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="13"/>
-        <v>2.7916666666666665</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="14"/>
-        <v>2.2370617696160267</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="15"/>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <v>256</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="8"/>
-        <v>2.9451287793952967</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="9"/>
-        <v>2.9372197309417039</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="10"/>
-        <v>2.9014396456256923</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="11"/>
-        <v>2.9484304932735426</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="12"/>
-        <v>2.9372197309417039</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="13"/>
-        <v>3.2151898734177213</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="14"/>
-        <v>1.75</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="15"/>
-        <v>4.4132653061224492</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121">
-        <v>512</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="8"/>
-        <v>3.0710059171597632</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="9"/>
-        <v>3.0470588235294116</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="10"/>
-        <v>3.0650887573964498</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="11"/>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="12"/>
-        <v>1.6309148264984228</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="13"/>
-        <v>8.9874608150470223</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="14"/>
-        <v>8.8068535825545169</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="15"/>
-        <v>5.8933054393305442</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <v>1024</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="8"/>
-        <v>3.13677811550152</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="9"/>
-        <v>3.2054380664652569</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="10"/>
-        <v>12.760355029585799</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="11"/>
-        <v>1.6842948717948718</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="12"/>
-        <v>1.6342229199372056</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="13"/>
-        <v>8.9827315541601251</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="14"/>
-        <v>8.8197492163009397</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="15"/>
-        <v>6.6720604099244873</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123">
-        <v>2048</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="8"/>
-        <v>8.0523076923076928</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="9"/>
-        <v>10.204855842185129</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="10"/>
-        <v>7.491909385113269</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="11"/>
-        <v>9.4246467817896384</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="12"/>
-        <v>10.033725490196078</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="13"/>
-        <v>9.0856245090337779</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="14"/>
-        <v>9.83307453416149</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="15"/>
-        <v>6.303528274528758</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124">
-        <v>4096</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="8"/>
-        <v>10.422480620155039</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="9"/>
-        <v>5.8188167625308136</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="10"/>
-        <v>7.9067032536260289</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="11"/>
-        <v>9.4103570027461743</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="12"/>
-        <v>9.6738533908271265</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="13"/>
-        <v>9.392607003891051</v>
-      </c>
-      <c r="I124">
-        <f t="shared" si="14"/>
-        <v>7.7949554896142432</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="15"/>
-        <v>2.5258501520597179</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <v>8192</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="8"/>
-        <v>10.295823665893272</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="9"/>
-        <v>6.2678816382520086</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="10"/>
-        <v>7.3349028840494412</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="11"/>
-        <v>9.4121105232216351</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="12"/>
-        <v>10.120974076983504</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="13"/>
-        <v>9.2038227938549486</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="14"/>
-        <v>3.4124807869658778</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="15"/>
-        <v>2.4477201902575039</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="8"/>
-        <v>11.076221877424359</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="9"/>
-        <v>6.6623491315866943</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="10"/>
-        <v>7.7967783125429726</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="11"/>
-        <v>10.109661598822953</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="12"/>
-        <v>9.7634808157621844</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="13"/>
-        <v>5.242991829038341</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="14"/>
-        <v>4.3586022225197487</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="15"/>
-        <v>4.5737194117530313</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="8"/>
-        <v>11.608053302433373</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="9"/>
-        <v>6.8897722811150377</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="10"/>
-        <v>8.0199507270180188</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="11"/>
-        <v>10.879839471199245</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="12"/>
-        <v>11.405073095168941</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="13"/>
-        <v>21.825933994560437</v>
-      </c>
-      <c r="I127">
-        <f t="shared" si="14"/>
-        <v>21.09223294813086</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="15"/>
-        <v>17.730245928472051</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>30</v>
       </c>
@@ -30936,35 +32380,35 @@
         <v>11.608053302433373</v>
       </c>
       <c r="D129">
-        <f t="shared" ref="D129:J129" si="16">MAX(D117:D127)</f>
+        <f t="shared" ref="D129:K129" si="8">MAX(D117:D127)</f>
         <v>10.204855842185129</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="16"/>
+      <c r="F129">
+        <f t="shared" si="8"/>
         <v>12.760355029585799</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="16"/>
+      <c r="G129">
+        <f t="shared" si="8"/>
         <v>10.879839471199245</v>
       </c>
-      <c r="G129">
-        <f t="shared" si="16"/>
+      <c r="H129">
+        <f t="shared" si="8"/>
         <v>11.405073095168941</v>
       </c>
-      <c r="H129">
-        <f t="shared" si="16"/>
+      <c r="I129">
+        <f t="shared" si="8"/>
         <v>21.825933994560437</v>
       </c>
-      <c r="I129">
-        <f t="shared" si="16"/>
+      <c r="J129">
+        <f t="shared" si="8"/>
         <v>21.09223294813086</v>
       </c>
-      <c r="J129">
-        <f t="shared" si="16"/>
+      <c r="K129">
+        <f t="shared" si="8"/>
         <v>17.730245928472051</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>31</v>
       </c>
@@ -30973,31 +32417,31 @@
         <v>1.9811320754716981</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:J130" si="17">MIN(D117:D127)</f>
+        <f t="shared" ref="D130:K130" si="9">MIN(D117:D127)</f>
         <v>1.926605504587156</v>
       </c>
-      <c r="E130">
-        <f t="shared" si="17"/>
+      <c r="F130">
+        <f t="shared" si="9"/>
         <v>1.9811320754716981</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="17"/>
+      <c r="G130">
+        <f t="shared" si="9"/>
         <v>1.6842948717948718</v>
       </c>
-      <c r="G130">
-        <f t="shared" si="17"/>
+      <c r="H130">
+        <f t="shared" si="9"/>
         <v>1.6309148264984228</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="17"/>
+      <c r="I130">
+        <f t="shared" si="9"/>
         <v>1.8110236220472442</v>
       </c>
-      <c r="I130">
-        <f t="shared" si="17"/>
+      <c r="J130">
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
-      <c r="J130">
-        <f t="shared" si="17"/>
+      <c r="K130">
+        <f t="shared" si="9"/>
         <v>1.34</v>
       </c>
     </row>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F2CFF-7F35-F146-8A8D-3355EF76C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93597A-5CD8-7B4C-807B-7A691E919882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -1997,33 +1997,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$129:$K$129</c:f>
+              <c:f>Performance!$C$136:$J$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.608053302433373</c:v>
+                  <c:v>10.932374659930042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.204855842185129</c:v>
+                  <c:v>9.9768875192604014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.893292682926829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.760355029585799</c:v>
+                  <c:v>10.00526880671285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.879839471199245</c:v>
+                  <c:v>9.7468652037617556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.405073095168941</c:v>
+                  <c:v>21.901265024738567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.825933994560437</c:v>
+                  <c:v>21.110286938770336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.09223294813086</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.730245928472051</c:v>
+                  <c:v>17.453093913678995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,33 +2100,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$130:$K$130</c:f>
+              <c:f>Performance!$C$137:$J$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.926605504587156</c:v>
+                  <c:v>1.9811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9557195571955719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9811320754716981</c:v>
+                  <c:v>1.6389776357827477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6842948717948718</c:v>
+                  <c:v>1.024390243902439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6309148264984228</c:v>
+                  <c:v>2.1568627450980391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8110236220472442</c:v>
+                  <c:v>1.6540880503144655</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.34</c:v>
+                  <c:v>1.1355932203389831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,10 +2480,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$5:$B$15</c:f>
+              <c:f>Performance!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2516,48 +2516,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$5:$C$15</c:f>
+              <c:f>Performance!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>519</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1032</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5234</c:v>
+                  <c:v>5161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13445</c:v>
+                  <c:v>11202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26625</c:v>
+                  <c:v>28129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57109</c:v>
+                  <c:v>53715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120213</c:v>
+                  <c:v>106222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>258425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,10 +2615,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$5:$B$15</c:f>
+              <c:f>Performance!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2645,48 +2651,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$5:$D$15</c:f>
+              <c:f>Performance!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.6</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.1</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.3</c:v>
+                  <c:v>89.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>329</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2586</c:v>
+                  <c:v>2573</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5156</c:v>
+                  <c:v>5121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10356</c:v>
+                  <c:v>12168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,10 +2750,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$5:$B$15</c:f>
+              <c:f>Performance!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2774,48 +2786,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$5:$E$15</c:f>
+              <c:f>Performance!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>33.1</c:v>
+                  <c:v>32.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.5</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>578</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1736</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5444</c:v>
+                  <c:v>5255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11704</c:v>
+                  <c:v>12299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26250</c:v>
+                  <c:v>26722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55983</c:v>
+                  <c:v>53597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>118884</c:v>
+                  <c:v>117155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,7 +3118,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$18</c:f>
+              <c:f>Performance!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3135,10 +3153,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$19:$B$29</c:f>
+              <c:f>Performance!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3171,16 +3189,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$19:$C$29</c:f>
+              <c:f>Performance!$C$20:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -3194,25 +3215,28 @@
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>518</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1061</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6725</c:v>
+                  <c:v>6475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14163</c:v>
+                  <c:v>13878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31985</c:v>
+                  <c:v>27657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67896</c:v>
+                  <c:v>58065</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140386</c:v>
+                  <c:v>135398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3253,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$18</c:f>
+              <c:f>Performance!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3264,10 +3288,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$19:$B$29</c:f>
+              <c:f>Performance!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3300,48 +3324,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$19:$D$29</c:f>
+              <c:f>Performance!$D$20:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.9</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.3</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.2</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>331</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>659</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2434</c:v>
+                  <c:v>2426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5103</c:v>
+                  <c:v>5087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10191</c:v>
+                  <c:v>10184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20376</c:v>
+                  <c:v>20359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,7 +3388,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$18</c:f>
+              <c:f>Performance!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3393,10 +3423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$19:$B$29</c:f>
+              <c:f>Performance!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3429,48 +3459,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$19:$E$29</c:f>
+              <c:f>Performance!$E$20:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>33.1</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.5</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1271</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6938</c:v>
+                  <c:v>7457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13385</c:v>
+                  <c:v>13140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28437</c:v>
+                  <c:v>28323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59470</c:v>
+                  <c:v>58815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121839</c:v>
+                  <c:v>125209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,7 +3791,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$32</c:f>
+              <c:f>Performance!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3790,10 +3826,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$33:$B$43</c:f>
+              <c:f>Performance!$B$35:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3826,21 +3862,24 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$33:$C$43</c:f>
+              <c:f>Performance!$C$35:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
@@ -3849,25 +3888,28 @@
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>518</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4313</c:v>
+                  <c:v>3573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9260</c:v>
+                  <c:v>9184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20170</c:v>
+                  <c:v>20463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37386</c:v>
+                  <c:v>35371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79379</c:v>
+                  <c:v>77342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166021</c:v>
+                  <c:v>162709</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>636638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,7 +3926,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$32</c:f>
+              <c:f>Performance!$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3919,10 +3961,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$33:$B$43</c:f>
+              <c:f>Performance!$B$35:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3955,48 +3997,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$33:$D$43</c:f>
+              <c:f>Performance!$D$35:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.4</c:v>
+                  <c:v>27.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.4</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.3</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>338</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1236</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2551</c:v>
+                  <c:v>2544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5097</c:v>
+                  <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10181</c:v>
+                  <c:v>10190</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20701</c:v>
+                  <c:v>20334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,7 +4061,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$32</c:f>
+              <c:f>Performance!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4048,10 +4096,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$33:$B$43</c:f>
+              <c:f>Performance!$B$35:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -4084,48 +4132,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$33:$E$43</c:f>
+              <c:f>Performance!$E$35:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.4</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>298</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>584</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2131</c:v>
+                  <c:v>1911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5090</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12434</c:v>
+                  <c:v>14738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27057</c:v>
+                  <c:v>25283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56253</c:v>
+                  <c:v>56793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117261</c:v>
+                  <c:v>116952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4410,7 +4464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$45:$C$46</c:f>
+              <c:f>Performance!$C$48:$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4448,10 +4502,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$47:$B$57</c:f>
+              <c:f>Performance!$B$50:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -4484,16 +4538,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$47:$C$57</c:f>
+              <c:f>Performance!$C$50:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -4504,28 +4561,31 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>518</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1051</c:v>
+                  <c:v>1026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12007</c:v>
+                  <c:v>12431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23987</c:v>
+                  <c:v>24062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48030</c:v>
+                  <c:v>50410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103068</c:v>
+                  <c:v>102544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>230435</c:v>
+                  <c:v>230338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1864223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4602,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$45:$D$46</c:f>
+              <c:f>Performance!$D$48:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4580,10 +4640,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$47:$B$57</c:f>
+              <c:f>Performance!$B$50:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -4616,48 +4676,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$47:$D$57</c:f>
+              <c:f>Performance!$D$50:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.6</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.8</c:v>
+                  <c:v>47.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.2</c:v>
+                  <c:v>88.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2549</c:v>
+                  <c:v>2547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5103</c:v>
+                  <c:v>5086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10195</c:v>
+                  <c:v>10249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21180</c:v>
+                  <c:v>27649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,7 +4740,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$45:$E$46</c:f>
+              <c:f>Performance!$E$48:$E$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4712,10 +4778,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$47:$B$57</c:f>
+              <c:f>Performance!$B$50:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -4748,48 +4814,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$47:$E$57</c:f>
+              <c:f>Performance!$E$50:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.700000000000003</c:v>
+                  <c:v>32.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.5</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>294</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>879</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1901</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4140</c:v>
+                  <c:v>4116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11715</c:v>
+                  <c:v>11814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27110</c:v>
+                  <c:v>25695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54690</c:v>
+                  <c:v>56103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134903</c:v>
+                  <c:v>140720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5074,7 +5146,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$59:$C$60</c:f>
+              <c:f>Performance!$C$63:$C$64</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5112,10 +5184,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$61:$B$71</c:f>
+              <c:f>Performance!$B$65:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5148,16 +5220,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$61:$C$71</c:f>
+              <c:f>Performance!$C$65:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -5174,22 +5249,25 @@
                   <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1041</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12793</c:v>
+                  <c:v>12332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24678</c:v>
+                  <c:v>23993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51536</c:v>
+                  <c:v>49748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112983</c:v>
+                  <c:v>110568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>706818</c:v>
+                  <c:v>493684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3185817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,7 +5284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$59:$D$60</c:f>
+              <c:f>Performance!$D$63:$D$64</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5244,10 +5322,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$61:$B$71</c:f>
+              <c:f>Performance!$B$65:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5280,48 +5358,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$61:$D$71</c:f>
+              <c:f>Performance!$D$65:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.7</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.2</c:v>
+                  <c:v>45.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.1</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.2</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>317</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1275</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2551</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5092</c:v>
+                  <c:v>5104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11572</c:v>
+                  <c:v>12751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61974</c:v>
+                  <c:v>62298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,7 +5422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$59:$E$60</c:f>
+              <c:f>Performance!$E$63:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5376,10 +5460,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$61:$B$71</c:f>
+              <c:f>Performance!$B$65:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5412,48 +5496,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$61:$E$71</c:f>
+              <c:f>Performance!$E$65:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.5</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>812</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1667</c:v>
+                  <c:v>1614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3544</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10896</c:v>
+                  <c:v>11198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26149</c:v>
+                  <c:v>25757</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59414</c:v>
+                  <c:v>60678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175679</c:v>
+                  <c:v>182702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>461501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,7 +5836,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$74</c:f>
+              <c:f>Performance!$C$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5781,10 +5871,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$75:$B$85</c:f>
+              <c:f>Performance!$B$80:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5817,48 +5907,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$75:$C$85</c:f>
+              <c:f>Performance!$C$80:$C$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>508</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5722</c:v>
+                  <c:v>5730</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11566</c:v>
+                  <c:v>11314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24139</c:v>
+                  <c:v>24191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51523</c:v>
+                  <c:v>52932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166832</c:v>
+                  <c:v>188303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1613002</c:v>
+                  <c:v>1597982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3598279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5875,7 +5971,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$74</c:f>
+              <c:f>Performance!$D$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5910,10 +6006,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$75:$B$85</c:f>
+              <c:f>Performance!$B$80:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5946,24 +6042,27 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$75:$D$85</c:f>
+              <c:f>Performance!$D$80:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12.7</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.3</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>158</c:v>
@@ -5972,22 +6071,25 @@
                   <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1273</c:v>
+                  <c:v>1271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2570</c:v>
+                  <c:v>2546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5598</c:v>
+                  <c:v>6665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31820</c:v>
+                  <c:v>33274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73903</c:v>
+                  <c:v>72963</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6004,7 +6106,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$74</c:f>
+              <c:f>Performance!$E$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6039,10 +6141,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$75:$B$85</c:f>
+              <c:f>Performance!$B$80:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -6075,48 +6177,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$75:$E$85</c:f>
+              <c:f>Performance!$E$80:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>33.1</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.1</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1517</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3387</c:v>
+                  <c:v>3412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11393</c:v>
+                  <c:v>11235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26639</c:v>
+                  <c:v>28435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77953</c:v>
+                  <c:v>74841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188689</c:v>
+                  <c:v>190070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>439092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6401,7 +6509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$87:$C$88</c:f>
+              <c:f>Performance!$C$93:$C$94</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6439,10 +6547,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$89:$B$99</c:f>
+              <c:f>Performance!$B$95:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -6475,48 +6583,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$89:$C$99</c:f>
+              <c:f>Performance!$C$95:$C$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>287</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2827</c:v>
+                  <c:v>2855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5627</c:v>
+                  <c:v>5620</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12665</c:v>
+                  <c:v>12549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26269</c:v>
+                  <c:v>26313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55504</c:v>
+                  <c:v>55553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>162772</c:v>
+                  <c:v>157501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1662764</c:v>
+                  <c:v>1664905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3722531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6533,7 +6647,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$87:$D$88</c:f>
+              <c:f>Performance!$D$93:$D$94</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6571,10 +6685,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$89:$B$99</c:f>
+              <c:f>Performance!$B$95:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -6607,48 +6721,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$89:$D$99</c:f>
+              <c:f>Performance!$D$95:$D$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11.6</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.9</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>638</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1288</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3370</c:v>
+                  <c:v>3636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16265</c:v>
+                  <c:v>17160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37345</c:v>
+                  <c:v>37147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78833</c:v>
+                  <c:v>78867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,7 +6785,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$87:$E$88</c:f>
+              <c:f>Performance!$E$93:$E$94</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6703,10 +6823,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$89:$B$99</c:f>
+              <c:f>Performance!$B$95:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -6739,48 +6859,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$89:$E$99</c:f>
+              <c:f>Performance!$E$95:$E$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.3</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>714</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3129</c:v>
+                  <c:v>3191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12132</c:v>
+                  <c:v>12430</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34958</c:v>
+                  <c:v>34536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82191</c:v>
+                  <c:v>84305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192965</c:v>
+                  <c:v>196315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>421602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7065,7 +7191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$102</c:f>
+              <c:f>Performance!$C$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7100,10 +7226,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$103:$B$113</c:f>
+              <c:f>Performance!$B$110:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -7136,48 +7262,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$103:$C$113</c:f>
+              <c:f>Performance!$C$110:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23.5</c:v>
+                  <c:v>22.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.2</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>865</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2817</c:v>
+                  <c:v>2852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6185</c:v>
+                  <c:v>6342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13042</c:v>
+                  <c:v>12992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27408</c:v>
+                  <c:v>27834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59695</c:v>
+                  <c:v>58271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230456</c:v>
+                  <c:v>228221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1733167</c:v>
+                  <c:v>1719409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7194,7 +7326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$102</c:f>
+              <c:f>Performance!$D$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7229,10 +7361,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$103:$B$113</c:f>
+              <c:f>Performance!$B$110:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -7265,48 +7397,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$103:$D$113</c:f>
+              <c:f>Performance!$D$110:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.6</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>478</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>927</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2069</c:v>
+                  <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10851</c:v>
+                  <c:v>10796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24388</c:v>
+                  <c:v>24399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50387</c:v>
+                  <c:v>50077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97752</c:v>
+                  <c:v>98516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7323,7 +7461,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$102</c:f>
+              <c:f>Performance!$E$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7358,10 +7496,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$103:$B$113</c:f>
+              <c:f>Performance!$B$110:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -7394,48 +7532,54 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$103:$E$113</c:f>
+              <c:f>Performance!$E$110:$E$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>34.4</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.4</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>695</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1416</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5192</c:v>
+                  <c:v>4226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17172</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37497</c:v>
+                  <c:v>39728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89887</c:v>
+                  <c:v>86819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189412</c:v>
+                  <c:v>188453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>389204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7479,6 +7623,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7541,6 +7740,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8504,7 +8758,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$116</c:f>
+              <c:f>Performance!$C$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8539,7 +8793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8581,7 +8835,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$117:$C$127</c:f>
+              <c:f>Performance!$C$124:$C$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8589,34 +8843,34 @@
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.5902439024390245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8066528066528065</c:v>
+                  <c:v>2.7916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9451287793952967</c:v>
+                  <c:v>2.9405162738496076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0710059171597632</c:v>
+                  <c:v>3.059171597633136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13677811550152</c:v>
+                  <c:v>3.1859756097560976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0523076923076928</c:v>
+                  <c:v>8.0015503875968985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.422480620155039</c:v>
+                  <c:v>8.6837209302325586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.295823665893272</c:v>
+                  <c:v>10.932374659930042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.076221877424359</c:v>
+                  <c:v>10.489162272993555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.608053302433373</c:v>
+                  <c:v>8.7296186719263638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8633,7 +8887,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$116</c:f>
+              <c:f>Performance!$D$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8668,7 +8922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8710,42 +8964,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$117:$D$127</c:f>
+              <c:f>Performance!$D$124:$D$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.926605504587156</c:v>
+                  <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0190114068441063</c:v>
+                  <c:v>2.5902439024390245</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9372197309417039</c:v>
+                  <c:v>2.9438202247191012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0470588235294116</c:v>
+                  <c:v>3.0773809523809526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2054380664652569</c:v>
+                  <c:v>3.2225609756097562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.204855842185129</c:v>
+                  <c:v>9.9768875192604014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8188167625308136</c:v>
+                  <c:v>5.7205276174773285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2678816382520086</c:v>
+                  <c:v>5.4367996854727734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6623491315866943</c:v>
+                  <c:v>5.7015907305577374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8897722811150377</c:v>
+                  <c:v>6.6505231101724052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8762,7 +9016,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$F$116</c:f>
+              <c:f>Performance!$E$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8797,7 +9051,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8839,7 +9093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$F$117:$F$127</c:f>
+              <c:f>Performance!$E$124:$E$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8847,34 +9101,34 @@
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0151515151515156</c:v>
+                  <c:v>1.9557195571955719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7125506072874495</c:v>
+                  <c:v>2.7974947807933197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9014396456256923</c:v>
+                  <c:v>2.9438202247191012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0650887573964498</c:v>
+                  <c:v>3.0773809523809526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.760355029585799</c:v>
+                  <c:v>10.893292682926829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.491909385113269</c:v>
+                  <c:v>7.4606011372867584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9067032536260289</c:v>
+                  <c:v>8.0436320754716988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3349028840494412</c:v>
+                  <c:v>6.7424704536789939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7967783125429726</c:v>
+                  <c:v>7.5899901864573112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0199507270180188</c:v>
+                  <c:v>8.0018196124717225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +9145,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$G$116</c:f>
+              <c:f>Performance!$F$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8926,7 +9180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8968,7 +9222,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$G$117:$G$127</c:f>
+              <c:f>Performance!$F$124:$F$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8976,34 +9230,34 @@
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9239130434782608</c:v>
+                  <c:v>2.5902439024390245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8033472803347284</c:v>
+                  <c:v>2.8092243186582806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9484304932735426</c:v>
+                  <c:v>2.9504504504504507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0833333333333335</c:v>
+                  <c:v>3.0773809523809526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6842948717948718</c:v>
+                  <c:v>1.6389776357827477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4246467817896384</c:v>
+                  <c:v>9.7574568288854007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4103570027461743</c:v>
+                  <c:v>9.4471927758146848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4121105232216351</c:v>
+                  <c:v>9.9115218246165941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.109661598822953</c:v>
+                  <c:v>10.00526880671285</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.879839471199245</c:v>
+                  <c:v>8.3307895403088725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9020,7 +9274,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$H$116</c:f>
+              <c:f>Performance!$G$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9055,7 +9309,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9097,42 +9351,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$H$117:$H$127</c:f>
+              <c:f>Performance!$G$124:$G$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.9626168224299068</c:v>
+                  <c:v>1.024390243902439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0229007633587788</c:v>
+                  <c:v>1.1751662971175165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7291242362525456</c:v>
+                  <c:v>1.5527230590961763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9372197309417039</c:v>
+                  <c:v>1.5783132530120483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6309148264984228</c:v>
+                  <c:v>1.5907692307692307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6342229199372056</c:v>
+                  <c:v>1.6283048211508553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.033725490196078</c:v>
+                  <c:v>9.6419077404222051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6738533908271265</c:v>
+                  <c:v>9.3722656250000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.120974076983504</c:v>
+                  <c:v>9.7468652037617556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7634808157621844</c:v>
+                  <c:v>8.6713198964787068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.405073095168941</c:v>
+                  <c:v>7.9245561655269832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,7 +9403,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$I$116</c:f>
+              <c:f>Performance!$H$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9184,7 +9438,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9226,42 +9480,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$I$117:$I$127</c:f>
+              <c:f>Performance!$H$124:$H$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8110236220472442</c:v>
+                  <c:v>2.1698113207547172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0950570342205324</c:v>
+                  <c:v>2.1568627450980391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7916666666666665</c:v>
+                  <c:v>2.7800829875518671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2151898734177213</c:v>
+                  <c:v>3.6898734177215191</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.9874608150470223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9827315541601251</c:v>
+                  <c:v>9.0094339622641506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0856245090337779</c:v>
+                  <c:v>8.9016522423288755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.392607003891051</c:v>
+                  <c:v>9.5015710919088772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2038227938549486</c:v>
+                  <c:v>7.9417854463615907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.242991829038341</c:v>
+                  <c:v>5.6591633106930335</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.825933994560437</c:v>
+                  <c:v>21.901265024738567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9278,7 +9532,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$J$116</c:f>
+              <c:f>Performance!$I$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9319,7 +9573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9361,42 +9615,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$J$117:$J$127</c:f>
+              <c:f>Performance!$I$124:$I$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.9827586206896552</c:v>
+                  <c:v>2.1698113207547172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0871212121212124</c:v>
+                  <c:v>2.1153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2370617696160267</c:v>
+                  <c:v>2.2296173044925123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.75</c:v>
+                  <c:v>1.6540880503144655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8068535825545169</c:v>
+                  <c:v>8.6778115501519757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8197492163009397</c:v>
+                  <c:v>8.8364779874213841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.83307453416149</c:v>
+                  <c:v>9.8423529411764701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7949554896142432</c:v>
+                  <c:v>7.2367986798679871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4124807869658778</c:v>
+                  <c:v>3.2373543123543125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3586022225197487</c:v>
+                  <c:v>4.2399386222305973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.09223294813086</c:v>
+                  <c:v>21.110286938770336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9413,7 +9667,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$K$116</c:f>
+              <c:f>Performance!$J$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9454,7 +9708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$117:$B$127</c:f>
+              <c:f>Performance!$B$124:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9496,42 +9750,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$K$117:$K$127</c:f>
+              <c:f>Performance!$J$124:$J$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.216981132075472</c:v>
+                  <c:v>1.6838235294117647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9368421052631579</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.34</c:v>
+                  <c:v>1.1355932203389831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4132653061224492</c:v>
+                  <c:v>1.5555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8933054393305442</c:v>
+                  <c:v>5.9790356394129978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6720604099244873</c:v>
+                  <c:v>9.5512048192771086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.303528274528758</c:v>
+                  <c:v>6.1807802093244533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5258501520597179</c:v>
+                  <c:v>2.5781771026306037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4477201902575039</c:v>
+                  <c:v>2.3882536169515145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5737194117530313</c:v>
+                  <c:v>4.5574016015336385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.730245928472051</c:v>
+                  <c:v>17.453093913678995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26201,13 +26455,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26237,13 +26491,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26273,13 +26527,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26309,13 +26563,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26345,13 +26599,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26381,13 +26635,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26417,13 +26671,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26453,13 +26707,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26787,7 +27041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
   <dimension ref="C3:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
@@ -30161,10 +30415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:K130"/>
+  <dimension ref="B3:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P112" sqref="P112"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30208,10 +30462,10 @@
         <v>10.6</v>
       </c>
       <c r="E5">
-        <v>33.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F5">
-        <f>C5/D5</f>
+        <f t="shared" ref="F5:F15" si="0">C5/D5</f>
         <v>1.9811320754716981</v>
       </c>
     </row>
@@ -30220,17 +30474,17 @@
         <v>64</v>
       </c>
       <c r="C6">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D6">
-        <v>26.6</v>
+        <v>20.5</v>
       </c>
       <c r="E6">
-        <v>70.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F6">
-        <f>C6/D6</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2.5902439024390245</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -30238,17 +30492,17 @@
         <v>128</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F7">
-        <f>C7/D7</f>
-        <v>2.8066528066528065</v>
+        <f t="shared" si="0"/>
+        <v>2.7916666666666665</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -30256,17 +30510,17 @@
         <v>256</v>
       </c>
       <c r="C8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8">
-        <v>89.3</v>
+        <v>89.1</v>
       </c>
       <c r="E8">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F8">
-        <f>C8/D8</f>
-        <v>2.9451287793952967</v>
+        <f t="shared" si="0"/>
+        <v>2.9405162738496076</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -30274,17 +30528,17 @@
         <v>512</v>
       </c>
       <c r="C9">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D9">
         <v>169</v>
       </c>
       <c r="E9">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F9">
-        <f>C9/D9</f>
-        <v>3.0710059171597632</v>
+        <f t="shared" si="0"/>
+        <v>3.059171597633136</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -30292,17 +30546,17 @@
         <v>1024</v>
       </c>
       <c r="C10">
-        <v>1032</v>
+        <v>1045</v>
       </c>
       <c r="D10">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E10">
-        <v>1736</v>
+        <v>1429</v>
       </c>
       <c r="F10">
-        <f>C10/D10</f>
-        <v>3.13677811550152</v>
+        <f t="shared" si="0"/>
+        <v>3.1859756097560976</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -30310,17 +30564,17 @@
         <v>2048</v>
       </c>
       <c r="C11">
-        <v>5234</v>
+        <v>5161</v>
       </c>
       <c r="D11">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E11">
-        <v>5444</v>
+        <v>5255</v>
       </c>
       <c r="F11">
-        <f>C11/D11</f>
-        <v>8.0523076923076928</v>
+        <f t="shared" si="0"/>
+        <v>8.0015503875968985</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -30328,17 +30582,17 @@
         <v>4096</v>
       </c>
       <c r="C12">
-        <v>13445</v>
+        <v>11202</v>
       </c>
       <c r="D12">
         <v>1290</v>
       </c>
       <c r="E12">
-        <v>11704</v>
+        <v>12299</v>
       </c>
       <c r="F12">
-        <f>C12/D12</f>
-        <v>10.422480620155039</v>
+        <f t="shared" si="0"/>
+        <v>8.6837209302325586</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -30346,17 +30600,17 @@
         <v>8192</v>
       </c>
       <c r="C13">
-        <v>26625</v>
+        <v>28129</v>
       </c>
       <c r="D13">
-        <v>2586</v>
+        <v>2573</v>
       </c>
       <c r="E13">
-        <v>26250</v>
+        <v>26722</v>
       </c>
       <c r="F13">
-        <f>C13/D13</f>
-        <v>10.295823665893272</v>
+        <f t="shared" si="0"/>
+        <v>10.932374659930042</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -30364,17 +30618,17 @@
         <v>16384</v>
       </c>
       <c r="C14">
-        <v>57109</v>
+        <v>53715</v>
       </c>
       <c r="D14">
-        <v>5156</v>
+        <v>5121</v>
       </c>
       <c r="E14">
-        <v>55983</v>
+        <v>53597</v>
       </c>
       <c r="F14">
-        <f>C14/D14</f>
-        <v>11.076221877424359</v>
+        <f t="shared" si="0"/>
+        <v>10.489162272993555</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -30382,2067 +30636,2179 @@
         <v>32768</v>
       </c>
       <c r="C15">
-        <v>120213</v>
+        <v>106222</v>
       </c>
       <c r="D15">
-        <v>10356</v>
+        <v>12168</v>
       </c>
       <c r="E15">
-        <v>118884</v>
+        <v>117155</v>
       </c>
       <c r="F15">
-        <f>C15/D15</f>
-        <v>11.608053302433373</v>
+        <f t="shared" si="0"/>
+        <v>8.7296186719263638</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>5</v>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C16">
+        <v>258425</v>
+      </c>
+      <c r="D16">
+        <v>23830</v>
+      </c>
+      <c r="E16">
+        <v>250195</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>10.9</v>
-      </c>
-      <c r="E19">
-        <v>33.1</v>
-      </c>
-      <c r="F19">
-        <f>C19/D19</f>
-        <v>1.926605504587156</v>
+      <c r="F19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>53.1</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>26.3</v>
+        <v>10.6</v>
       </c>
       <c r="E20">
-        <v>69.5</v>
+        <v>32.6</v>
       </c>
       <c r="F20">
-        <f>C20/D20</f>
-        <v>2.0190114068441063</v>
+        <f t="shared" ref="F20:F30" si="1">C20/D20</f>
+        <v>1.9811320754716981</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>134</v>
+        <v>53.1</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>20.5</v>
       </c>
       <c r="E21">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="F21">
-        <f>C21/D21</f>
-        <v>2.7916666666666665</v>
+        <f t="shared" si="1"/>
+        <v>2.5902439024390245</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="D22">
-        <v>89.2</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="F22">
-        <f>C22/D22</f>
-        <v>2.9372197309417039</v>
+        <f t="shared" si="1"/>
+        <v>2.7916666666666665</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C23">
-        <v>518</v>
+        <v>262</v>
       </c>
       <c r="D23">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="E23">
-        <v>574</v>
+        <v>289</v>
       </c>
       <c r="F23">
-        <f>C23/D23</f>
-        <v>3.0470588235294116</v>
+        <f t="shared" si="1"/>
+        <v>2.9438202247191012</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="C24">
-        <v>1061</v>
+        <v>517</v>
       </c>
       <c r="D24">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="E24">
-        <v>1271</v>
+        <v>574</v>
       </c>
       <c r="F24">
-        <f>C24/D24</f>
-        <v>3.2054380664652569</v>
+        <f t="shared" si="1"/>
+        <v>3.0773809523809526</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="C25">
-        <v>6725</v>
+        <v>1057</v>
       </c>
       <c r="D25">
-        <v>659</v>
+        <v>328</v>
       </c>
       <c r="E25">
-        <v>6938</v>
+        <v>1239</v>
       </c>
       <c r="F25">
-        <f>C25/D25</f>
-        <v>10.204855842185129</v>
+        <f t="shared" si="1"/>
+        <v>3.2225609756097562</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="C26">
-        <v>14163</v>
+        <v>6475</v>
       </c>
       <c r="D26">
-        <v>2434</v>
+        <v>649</v>
       </c>
       <c r="E26">
-        <v>13385</v>
+        <v>7457</v>
       </c>
       <c r="F26">
-        <f>C26/D26</f>
-        <v>5.8188167625308136</v>
+        <f t="shared" si="1"/>
+        <v>9.9768875192604014</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="C27">
-        <v>31985</v>
+        <v>13878</v>
       </c>
       <c r="D27">
-        <v>5103</v>
+        <v>2426</v>
       </c>
       <c r="E27">
-        <v>28437</v>
+        <v>13140</v>
       </c>
       <c r="F27">
-        <f>C27/D27</f>
-        <v>6.2678816382520086</v>
+        <f t="shared" si="1"/>
+        <v>5.7205276174773285</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>16384</v>
+      <c r="B28">
+        <v>8192</v>
       </c>
       <c r="C28">
-        <v>67896</v>
+        <v>27657</v>
       </c>
       <c r="D28">
-        <v>10191</v>
+        <v>5087</v>
       </c>
       <c r="E28">
-        <v>59470</v>
+        <v>28323</v>
       </c>
       <c r="F28">
-        <f>C28/D28</f>
-        <v>6.6623491315866943</v>
+        <f t="shared" si="1"/>
+        <v>5.4367996854727734</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C29">
+        <v>58065</v>
+      </c>
+      <c r="D29">
+        <v>10184</v>
+      </c>
+      <c r="E29">
+        <v>58815</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5.7015907305577374</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>32768</v>
       </c>
-      <c r="C29">
-        <v>140386</v>
-      </c>
-      <c r="D29">
-        <v>20376</v>
-      </c>
-      <c r="E29">
-        <v>121839</v>
-      </c>
-      <c r="F29">
-        <f>C29/D29</f>
-        <v>6.8897722811150377</v>
+      <c r="C30">
+        <v>135398</v>
+      </c>
+      <c r="D30">
+        <v>20359</v>
+      </c>
+      <c r="E30">
+        <v>125209</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>6.6505231101724052</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
+      <c r="B31" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C31">
+        <v>306922</v>
+      </c>
+      <c r="D31">
+        <v>40710</v>
+      </c>
+      <c r="E31">
+        <v>271050</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>10.6</v>
-      </c>
-      <c r="E33">
-        <v>32.4</v>
-      </c>
-      <c r="F33">
-        <f>C33/D33</f>
-        <v>1.9811320754716981</v>
+      <c r="B33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>53.2</v>
-      </c>
-      <c r="D34">
-        <v>26.4</v>
-      </c>
-      <c r="E34">
-        <v>78</v>
-      </c>
-      <c r="F34">
-        <f>C34/D34</f>
-        <v>2.0151515151515156</v>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>49.4</v>
+        <v>10.6</v>
       </c>
       <c r="E35">
-        <v>152</v>
+        <v>33.6</v>
       </c>
       <c r="F35">
-        <f>C35/D35</f>
-        <v>2.7125506072874495</v>
+        <f t="shared" ref="F35:F45" si="2">C35/D35</f>
+        <v>1.9811320754716981</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C36">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>90.3</v>
+        <v>27.1</v>
       </c>
       <c r="E36">
-        <v>298</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F36">
-        <f>C36/D36</f>
-        <v>2.9014396456256923</v>
+        <f t="shared" si="2"/>
+        <v>1.9557195571955719</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C37">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="D37">
-        <v>169</v>
+        <v>47.9</v>
       </c>
       <c r="E37">
-        <v>584</v>
+        <v>148</v>
       </c>
       <c r="F37">
-        <f>C37/D37</f>
-        <v>3.0650887573964498</v>
+        <f t="shared" si="2"/>
+        <v>2.7974947807933197</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="C38">
-        <v>4313</v>
+        <v>262</v>
       </c>
       <c r="D38">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>2131</v>
+        <v>291</v>
       </c>
       <c r="F38">
-        <f>C38/D38</f>
-        <v>12.760355029585799</v>
+        <f t="shared" si="2"/>
+        <v>2.9438202247191012</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="C39">
-        <v>9260</v>
+        <v>517</v>
       </c>
       <c r="D39">
-        <v>1236</v>
+        <v>168</v>
       </c>
       <c r="E39">
-        <v>5090</v>
+        <v>576</v>
       </c>
       <c r="F39">
-        <f>C39/D39</f>
-        <v>7.491909385113269</v>
+        <f t="shared" si="2"/>
+        <v>3.0773809523809526</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="C40">
-        <v>20170</v>
+        <v>3573</v>
       </c>
       <c r="D40">
-        <v>2551</v>
+        <v>328</v>
       </c>
       <c r="E40">
-        <v>12434</v>
+        <v>1911</v>
       </c>
       <c r="F40">
-        <f>C40/D40</f>
-        <v>7.9067032536260289</v>
+        <f t="shared" si="2"/>
+        <v>10.893292682926829</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="C41">
-        <v>37386</v>
+        <v>9184</v>
       </c>
       <c r="D41">
-        <v>5097</v>
+        <v>1231</v>
       </c>
       <c r="E41">
-        <v>27057</v>
+        <v>4723</v>
       </c>
       <c r="F41">
-        <f>C41/D41</f>
-        <v>7.3349028840494412</v>
+        <f t="shared" si="2"/>
+        <v>7.4606011372867584</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
-        <v>16384</v>
+      <c r="B42">
+        <v>4096</v>
       </c>
       <c r="C42">
-        <v>79379</v>
+        <v>20463</v>
       </c>
       <c r="D42">
-        <v>10181</v>
+        <v>2544</v>
       </c>
       <c r="E42">
-        <v>56253</v>
+        <v>14738</v>
       </c>
       <c r="F42">
-        <f>C42/D42</f>
-        <v>7.7967783125429726</v>
+        <f t="shared" si="2"/>
+        <v>8.0436320754716988</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>32768</v>
+      <c r="B43">
+        <v>8192</v>
       </c>
       <c r="C43">
-        <v>166021</v>
+        <v>35371</v>
       </c>
       <c r="D43">
-        <v>20701</v>
+        <v>5246</v>
       </c>
       <c r="E43">
-        <v>117261</v>
+        <v>25283</v>
       </c>
       <c r="F43">
-        <f>C43/D43</f>
-        <v>8.0199507270180188</v>
+        <f t="shared" si="2"/>
+        <v>6.7424704536789939</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C44">
+        <v>77342</v>
+      </c>
+      <c r="D44">
+        <v>10190</v>
+      </c>
+      <c r="E44">
+        <v>56793</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>7.5899901864573112</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>17</v>
+      <c r="B45" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C45">
+        <v>162709</v>
+      </c>
+      <c r="D45">
+        <v>20334</v>
+      </c>
+      <c r="E45">
+        <v>116952</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>8.0018196124717225</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>10.6</v>
-      </c>
-      <c r="E47">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="F47">
-        <f>C47/D47</f>
-        <v>1.9811320754716981</v>
+      <c r="B46" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C46">
+        <v>636638</v>
+      </c>
+      <c r="D46">
+        <v>44808</v>
+      </c>
+      <c r="E46">
+        <v>322815</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>64</v>
-      </c>
-      <c r="C48">
-        <v>53.1</v>
-      </c>
-      <c r="D48">
-        <v>27.6</v>
-      </c>
-      <c r="E48">
-        <v>70.5</v>
-      </c>
-      <c r="F48">
-        <f>C48/D48</f>
-        <v>1.9239130434782608</v>
+      <c r="B48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>128</v>
-      </c>
-      <c r="C49">
-        <v>134</v>
-      </c>
-      <c r="D49">
-        <v>47.8</v>
-      </c>
-      <c r="E49">
-        <v>152</v>
-      </c>
-      <c r="F49">
-        <f>C49/D49</f>
-        <v>2.8033472803347284</v>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>89.2</v>
+        <v>10.6</v>
       </c>
       <c r="E50">
-        <v>294</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F50">
-        <f>C50/D50</f>
-        <v>2.9484304932735426</v>
+        <f t="shared" ref="F50:F60" si="3">C50/D50</f>
+        <v>1.9811320754716981</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>518</v>
+        <v>53.1</v>
       </c>
       <c r="D51">
-        <v>168</v>
+        <v>20.5</v>
       </c>
       <c r="E51">
-        <v>879</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F51">
-        <f>C51/D51</f>
-        <v>3.0833333333333335</v>
+        <f t="shared" si="3"/>
+        <v>2.5902439024390245</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="C52">
-        <v>1051</v>
+        <v>134</v>
       </c>
       <c r="D52">
-        <v>624</v>
+        <v>47.7</v>
       </c>
       <c r="E52">
-        <v>1901</v>
+        <v>149</v>
       </c>
       <c r="F52">
-        <f>C52/D52</f>
-        <v>1.6842948717948718</v>
+        <f t="shared" si="3"/>
+        <v>2.8092243186582806</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2048</v>
+        <v>256</v>
       </c>
       <c r="C53">
-        <v>12007</v>
+        <v>262</v>
       </c>
       <c r="D53">
-        <v>1274</v>
+        <v>88.8</v>
       </c>
       <c r="E53">
-        <v>4140</v>
+        <v>291</v>
       </c>
       <c r="F53">
-        <f>C53/D53</f>
-        <v>9.4246467817896384</v>
+        <f t="shared" si="3"/>
+        <v>2.9504504504504507</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>4096</v>
+        <v>512</v>
       </c>
       <c r="C54">
-        <v>23987</v>
+        <v>517</v>
       </c>
       <c r="D54">
-        <v>2549</v>
+        <v>168</v>
       </c>
       <c r="E54">
-        <v>11715</v>
+        <v>805</v>
       </c>
       <c r="F54">
-        <f>C54/D54</f>
-        <v>9.4103570027461743</v>
+        <f t="shared" si="3"/>
+        <v>3.0773809523809526</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>8192</v>
+        <v>1024</v>
       </c>
       <c r="C55">
-        <v>48030</v>
+        <v>1026</v>
       </c>
       <c r="D55">
-        <v>5103</v>
+        <v>626</v>
       </c>
       <c r="E55">
-        <v>27110</v>
+        <v>2093</v>
       </c>
       <c r="F55">
-        <f>C55/D55</f>
-        <v>9.4121105232216351</v>
+        <f t="shared" si="3"/>
+        <v>1.6389776357827477</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
-        <v>16384</v>
+      <c r="B56">
+        <v>2048</v>
       </c>
       <c r="C56">
-        <v>103068</v>
+        <v>12431</v>
       </c>
       <c r="D56">
-        <v>10195</v>
+        <v>1274</v>
       </c>
       <c r="E56">
-        <v>54690</v>
+        <v>4116</v>
       </c>
       <c r="F56">
-        <f>C56/D56</f>
-        <v>10.109661598822953</v>
+        <f t="shared" si="3"/>
+        <v>9.7574568288854007</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <v>32768</v>
+      <c r="B57">
+        <v>4096</v>
       </c>
       <c r="C57">
-        <v>230435</v>
+        <v>24062</v>
       </c>
       <c r="D57">
-        <v>21180</v>
+        <v>2547</v>
       </c>
       <c r="E57">
-        <v>134903</v>
+        <v>11814</v>
       </c>
       <c r="F57">
-        <f>C57/D57</f>
-        <v>10.879839471199245</v>
+        <f t="shared" si="3"/>
+        <v>9.4471927758146848</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>8192</v>
+      </c>
+      <c r="C58">
+        <v>50410</v>
+      </c>
+      <c r="D58">
+        <v>5086</v>
+      </c>
+      <c r="E58">
+        <v>25695</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>9.9115218246165941</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>18</v>
+      <c r="B59" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C59">
+        <v>102544</v>
+      </c>
+      <c r="D59">
+        <v>10249</v>
+      </c>
+      <c r="E59">
+        <v>56103</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>10.00526880671285</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" t="s">
-        <v>20</v>
+      <c r="B60" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C60">
+        <v>230338</v>
+      </c>
+      <c r="D60">
+        <v>27649</v>
+      </c>
+      <c r="E60">
+        <v>140720</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>8.3307895403088725</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>32</v>
+      <c r="B61" s="1">
+        <v>65536</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1864223</v>
       </c>
       <c r="D61">
-        <v>10.7</v>
+        <v>124213</v>
       </c>
       <c r="E61">
-        <v>32.4</v>
-      </c>
-      <c r="F61">
-        <f>C61/D61</f>
-        <v>1.9626168224299068</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>26.2</v>
-      </c>
-      <c r="E62">
-        <v>68.5</v>
-      </c>
-      <c r="F62">
-        <f>C62/D62</f>
-        <v>2.0229007633587788</v>
+        <v>428133</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>128</v>
-      </c>
-      <c r="C63">
-        <v>134</v>
-      </c>
-      <c r="D63">
-        <v>49.1</v>
-      </c>
-      <c r="E63">
-        <v>149</v>
-      </c>
-      <c r="F63">
-        <f>C63/D63</f>
-        <v>2.7291242362525456</v>
+      <c r="B63" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>256</v>
-      </c>
-      <c r="C64">
-        <v>262</v>
-      </c>
-      <c r="D64">
-        <v>89.2</v>
-      </c>
-      <c r="E64">
-        <v>343</v>
-      </c>
-      <c r="F64">
-        <f>C64/D64</f>
-        <v>2.9372197309417039</v>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>517</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>317</v>
+        <v>20.5</v>
       </c>
       <c r="E65">
-        <v>812</v>
+        <v>32.4</v>
       </c>
       <c r="F65">
-        <f>C65/D65</f>
-        <v>1.6309148264984228</v>
+        <f t="shared" ref="F65:F75" si="4">C65/D65</f>
+        <v>1.024390243902439</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>1041</v>
+        <v>53</v>
       </c>
       <c r="D66">
-        <v>637</v>
+        <v>45.1</v>
       </c>
       <c r="E66">
-        <v>1667</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F66">
-        <f>C66/D66</f>
-        <v>1.6342229199372056</v>
+        <f t="shared" si="4"/>
+        <v>1.1751662971175165</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>2048</v>
+        <v>128</v>
       </c>
       <c r="C67">
-        <v>12793</v>
+        <v>134</v>
       </c>
       <c r="D67">
-        <v>1275</v>
+        <v>86.3</v>
       </c>
       <c r="E67">
-        <v>3544</v>
+        <v>149</v>
       </c>
       <c r="F67">
-        <f>C67/D67</f>
-        <v>10.033725490196078</v>
+        <f t="shared" si="4"/>
+        <v>1.5527230590961763</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>4096</v>
+        <v>256</v>
       </c>
       <c r="C68">
-        <v>24678</v>
+        <v>262</v>
       </c>
       <c r="D68">
-        <v>2551</v>
+        <v>166</v>
       </c>
       <c r="E68">
-        <v>10896</v>
+        <v>346</v>
       </c>
       <c r="F68">
-        <f>C68/D68</f>
-        <v>9.6738533908271265</v>
+        <f t="shared" si="4"/>
+        <v>1.5783132530120483</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>8192</v>
+        <v>512</v>
       </c>
       <c r="C69">
-        <v>51536</v>
+        <v>517</v>
       </c>
       <c r="D69">
-        <v>5092</v>
+        <v>325</v>
       </c>
       <c r="E69">
-        <v>26149</v>
+        <v>792</v>
       </c>
       <c r="F69">
-        <f>C69/D69</f>
-        <v>10.120974076983504</v>
+        <f t="shared" si="4"/>
+        <v>1.5907692307692307</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="1">
-        <v>16384</v>
+      <c r="B70">
+        <v>1024</v>
       </c>
       <c r="C70">
-        <v>112983</v>
+        <v>1047</v>
       </c>
       <c r="D70">
-        <v>11572</v>
+        <v>643</v>
       </c>
       <c r="E70">
-        <v>59414</v>
+        <v>1614</v>
       </c>
       <c r="F70">
-        <f>C70/D70</f>
-        <v>9.7634808157621844</v>
+        <f t="shared" si="4"/>
+        <v>1.6283048211508553</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
-        <v>32768</v>
+      <c r="B71">
+        <v>2048</v>
       </c>
       <c r="C71">
-        <v>706818</v>
+        <v>12332</v>
       </c>
       <c r="D71">
-        <v>61974</v>
+        <v>1279</v>
       </c>
       <c r="E71">
-        <v>175679</v>
+        <v>3489</v>
       </c>
       <c r="F71">
-        <f>C71/D71</f>
-        <v>11.405073095168941</v>
+        <f t="shared" si="4"/>
+        <v>9.6419077404222051</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>4096</v>
+      </c>
+      <c r="C72">
+        <v>23993</v>
+      </c>
+      <c r="D72">
+        <v>2560</v>
+      </c>
+      <c r="E72">
+        <v>11198</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>9.3722656250000007</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>19</v>
+      <c r="B73">
+        <v>8192</v>
+      </c>
+      <c r="C73">
+        <v>49748</v>
+      </c>
+      <c r="D73">
+        <v>5104</v>
+      </c>
+      <c r="E73">
+        <v>25757</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>9.7468652037617556</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
+      <c r="B74" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C74">
+        <v>110568</v>
+      </c>
+      <c r="D74">
+        <v>12751</v>
+      </c>
+      <c r="E74">
+        <v>60678</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>8.6713198964787068</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>32</v>
+      <c r="B75" s="1">
+        <v>32768</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>493684</v>
       </c>
       <c r="D75">
-        <v>12.7</v>
+        <v>62298</v>
       </c>
       <c r="E75">
-        <v>33.1</v>
+        <v>182702</v>
       </c>
       <c r="F75">
-        <f>C75/D75</f>
-        <v>1.8110236220472442</v>
+        <f t="shared" si="4"/>
+        <v>7.9245561655269832</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>64</v>
+      <c r="B76" s="1">
+        <v>65536</v>
       </c>
       <c r="C76">
-        <v>55.1</v>
+        <v>3185817</v>
       </c>
       <c r="D76">
-        <v>26.3</v>
+        <v>137726</v>
       </c>
       <c r="E76">
-        <v>83.1</v>
-      </c>
-      <c r="F76">
-        <f>C76/D76</f>
-        <v>2.0950570342205324</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>128</v>
-      </c>
-      <c r="C77">
-        <v>134</v>
-      </c>
-      <c r="D77">
-        <v>48</v>
-      </c>
-      <c r="E77">
-        <v>176</v>
-      </c>
-      <c r="F77">
-        <f>C77/D77</f>
-        <v>2.7916666666666665</v>
+        <v>461501</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>256</v>
-      </c>
-      <c r="C78">
-        <v>508</v>
-      </c>
-      <c r="D78">
-        <v>158</v>
-      </c>
-      <c r="E78">
-        <v>366</v>
-      </c>
-      <c r="F78">
-        <f>C78/D78</f>
-        <v>3.2151898734177213</v>
+      <c r="B78" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>512</v>
-      </c>
-      <c r="C79">
-        <v>2867</v>
-      </c>
-      <c r="D79">
-        <v>319</v>
-      </c>
-      <c r="E79">
-        <v>757</v>
-      </c>
-      <c r="F79">
-        <f>C79/D79</f>
-        <v>8.9874608150470223</v>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="C80">
-        <v>5722</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>637</v>
+        <v>10.6</v>
       </c>
       <c r="E80">
-        <v>1517</v>
+        <v>32.5</v>
       </c>
       <c r="F80">
-        <f>C80/D80</f>
-        <v>8.9827315541601251</v>
+        <f t="shared" ref="F80:F90" si="5">C80/D80</f>
+        <v>2.1698113207547172</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>2048</v>
+        <v>64</v>
       </c>
       <c r="C81">
-        <v>11566</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>1273</v>
+        <v>25.5</v>
       </c>
       <c r="E81">
-        <v>3387</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F81">
-        <f>C81/D81</f>
-        <v>9.0856245090337779</v>
+        <f t="shared" si="5"/>
+        <v>2.1568627450980391</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>4096</v>
+        <v>128</v>
       </c>
       <c r="C82">
-        <v>24139</v>
+        <v>134</v>
       </c>
       <c r="D82">
-        <v>2570</v>
+        <v>48.2</v>
       </c>
       <c r="E82">
-        <v>11393</v>
+        <v>170</v>
       </c>
       <c r="F82">
-        <f>C82/D82</f>
-        <v>9.392607003891051</v>
+        <f t="shared" si="5"/>
+        <v>2.7800829875518671</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>8192</v>
+        <v>256</v>
       </c>
       <c r="C83">
-        <v>51523</v>
+        <v>583</v>
       </c>
       <c r="D83">
-        <v>5598</v>
+        <v>158</v>
       </c>
       <c r="E83">
-        <v>26639</v>
+        <v>367</v>
       </c>
       <c r="F83">
-        <f>C83/D83</f>
-        <v>9.2038227938549486</v>
+        <f t="shared" si="5"/>
+        <v>3.6898734177215191</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="1">
-        <v>16384</v>
+      <c r="B84">
+        <v>512</v>
       </c>
       <c r="C84">
-        <v>166832</v>
+        <v>2867</v>
       </c>
       <c r="D84">
-        <v>31820</v>
+        <v>319</v>
       </c>
       <c r="E84">
-        <v>77953</v>
+        <v>757</v>
       </c>
       <c r="F84">
-        <f>C84/D84</f>
-        <v>5.242991829038341</v>
+        <f t="shared" si="5"/>
+        <v>8.9874608150470223</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="1">
-        <v>32768</v>
+      <c r="B85">
+        <v>1024</v>
       </c>
       <c r="C85">
-        <v>1613002</v>
+        <v>5730</v>
       </c>
       <c r="D85">
-        <v>73903</v>
+        <v>636</v>
       </c>
       <c r="E85">
-        <v>188689</v>
+        <v>1525</v>
       </c>
       <c r="F85">
-        <f>C85/D85</f>
-        <v>21.825933994560437</v>
+        <f t="shared" si="5"/>
+        <v>9.0094339622641506</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>2048</v>
+      </c>
+      <c r="C86">
+        <v>11314</v>
+      </c>
+      <c r="D86">
+        <v>1271</v>
+      </c>
+      <c r="E86">
+        <v>3412</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>8.9016522423288755</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87">
+        <v>4096</v>
+      </c>
+      <c r="C87">
+        <v>24191</v>
+      </c>
+      <c r="D87">
+        <v>2546</v>
+      </c>
+      <c r="E87">
+        <v>11235</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>9.5015710919088772</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" t="s">
-        <v>20</v>
+      <c r="B88">
+        <v>8192</v>
+      </c>
+      <c r="C88">
+        <v>52932</v>
+      </c>
+      <c r="D88">
+        <v>6665</v>
+      </c>
+      <c r="E88">
+        <v>28435</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>7.9417854463615907</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>32</v>
+      <c r="B89" s="1">
+        <v>16384</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>188303</v>
       </c>
       <c r="D89">
-        <v>11.6</v>
+        <v>33274</v>
       </c>
       <c r="E89">
-        <v>32.799999999999997</v>
+        <v>74841</v>
       </c>
       <c r="F89">
-        <f>C89/D89</f>
-        <v>1.9827586206896552</v>
+        <f t="shared" si="5"/>
+        <v>5.6591633106930335</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>64</v>
+      <c r="B90" s="1">
+        <v>32768</v>
       </c>
       <c r="C90">
-        <v>55.1</v>
+        <v>1597982</v>
       </c>
       <c r="D90">
-        <v>26.4</v>
+        <v>72963</v>
       </c>
       <c r="E90">
-        <v>87.3</v>
+        <v>190070</v>
       </c>
       <c r="F90">
-        <f>C90/D90</f>
-        <v>2.0871212121212124</v>
+        <f t="shared" si="5"/>
+        <v>21.901265024738567</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>128</v>
+      <c r="B91" s="1">
+        <v>65536</v>
       </c>
       <c r="C91">
-        <v>134</v>
+        <v>3598279</v>
       </c>
       <c r="D91">
-        <v>59.9</v>
+        <v>154505</v>
       </c>
       <c r="E91">
-        <v>183</v>
-      </c>
-      <c r="F91">
-        <f>C91/D91</f>
-        <v>2.2370617696160267</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>256</v>
-      </c>
-      <c r="C92">
-        <v>287</v>
-      </c>
-      <c r="D92">
-        <v>164</v>
-      </c>
-      <c r="E92">
-        <v>356</v>
-      </c>
-      <c r="F92">
-        <f>C92/D92</f>
-        <v>1.75</v>
+        <v>439092</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>512</v>
-      </c>
-      <c r="C93">
-        <v>2827</v>
-      </c>
-      <c r="D93">
-        <v>321</v>
-      </c>
-      <c r="E93">
-        <v>714</v>
-      </c>
-      <c r="F93">
-        <f>C93/D93</f>
-        <v>8.8068535825545169</v>
+      <c r="B93" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>1024</v>
-      </c>
-      <c r="C94">
-        <v>5627</v>
-      </c>
-      <c r="D94">
-        <v>638</v>
-      </c>
-      <c r="E94">
-        <v>1410</v>
-      </c>
-      <c r="F94">
-        <f>C94/D94</f>
-        <v>8.8197492163009397</v>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>2048</v>
+        <v>32</v>
       </c>
       <c r="C95">
-        <v>12665</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>1288</v>
+        <v>10.6</v>
       </c>
       <c r="E95">
-        <v>3129</v>
+        <v>32.5</v>
       </c>
       <c r="F95">
-        <f>C95/D95</f>
-        <v>9.83307453416149</v>
+        <f t="shared" ref="F95:F105" si="6">C95/D95</f>
+        <v>2.1698113207547172</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>4096</v>
+        <v>64</v>
       </c>
       <c r="C96">
-        <v>26269</v>
+        <v>55</v>
       </c>
       <c r="D96">
-        <v>3370</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>12132</v>
+        <v>74.5</v>
       </c>
       <c r="F96">
-        <f>C96/D96</f>
-        <v>7.7949554896142432</v>
+        <f t="shared" si="6"/>
+        <v>2.1153846153846154</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>8192</v>
+        <v>128</v>
       </c>
       <c r="C97">
-        <v>55504</v>
+        <v>134</v>
       </c>
       <c r="D97">
-        <v>16265</v>
+        <v>60.1</v>
       </c>
       <c r="E97">
-        <v>34958</v>
+        <v>181</v>
       </c>
       <c r="F97">
-        <f>C97/D97</f>
-        <v>3.4124807869658778</v>
+        <f t="shared" si="6"/>
+        <v>2.2296173044925123</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="1">
-        <v>16384</v>
+      <c r="B98">
+        <v>256</v>
       </c>
       <c r="C98">
-        <v>162772</v>
+        <v>263</v>
       </c>
       <c r="D98">
-        <v>37345</v>
+        <v>159</v>
       </c>
       <c r="E98">
-        <v>82191</v>
+        <v>352</v>
       </c>
       <c r="F98">
-        <f>C98/D98</f>
-        <v>4.3586022225197487</v>
+        <f t="shared" si="6"/>
+        <v>1.6540880503144655</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="1">
-        <v>32768</v>
+      <c r="B99">
+        <v>512</v>
       </c>
       <c r="C99">
-        <v>1662764</v>
+        <v>2855</v>
       </c>
       <c r="D99">
-        <v>78833</v>
+        <v>329</v>
       </c>
       <c r="E99">
-        <v>192965</v>
+        <v>704</v>
       </c>
       <c r="F99">
-        <f>C99/D99</f>
-        <v>21.09223294813086</v>
+        <f t="shared" si="6"/>
+        <v>8.6778115501519757</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>1024</v>
+      </c>
+      <c r="C100">
+        <v>5620</v>
+      </c>
+      <c r="D100">
+        <v>636</v>
+      </c>
+      <c r="E100">
+        <v>1410</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="6"/>
+        <v>8.8364779874213841</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>9</v>
+      <c r="B101">
+        <v>2048</v>
+      </c>
+      <c r="C101">
+        <v>12549</v>
+      </c>
+      <c r="D101">
+        <v>1275</v>
+      </c>
+      <c r="E101">
+        <v>3191</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="6"/>
+        <v>9.8423529411764701</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" t="s">
-        <v>32</v>
-      </c>
-      <c r="F102" t="s">
-        <v>20</v>
+      <c r="B102">
+        <v>4096</v>
+      </c>
+      <c r="C102">
+        <v>26313</v>
+      </c>
+      <c r="D102">
+        <v>3636</v>
+      </c>
+      <c r="E102">
+        <v>12430</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="6"/>
+        <v>7.2367986798679871</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>32</v>
+        <v>8192</v>
       </c>
       <c r="C103">
-        <v>23.5</v>
+        <v>55553</v>
       </c>
       <c r="D103">
-        <v>10.6</v>
+        <v>17160</v>
       </c>
       <c r="E103">
-        <v>34.4</v>
+        <v>34536</v>
       </c>
       <c r="F103">
-        <f>C103/D103</f>
-        <v>2.216981132075472</v>
+        <f t="shared" si="6"/>
+        <v>3.2373543123543125</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>64</v>
+      <c r="B104" s="1">
+        <v>16384</v>
       </c>
       <c r="C104">
-        <v>55.2</v>
+        <v>157501</v>
       </c>
       <c r="D104">
-        <v>28.5</v>
+        <v>37147</v>
       </c>
       <c r="E104">
-        <v>83.4</v>
+        <v>84305</v>
       </c>
       <c r="F104">
-        <f>C104/D104</f>
-        <v>1.9368421052631579</v>
+        <f t="shared" si="6"/>
+        <v>4.2399386222305973</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <v>128</v>
+      <c r="B105" s="1">
+        <v>32768</v>
       </c>
       <c r="C105">
-        <v>134</v>
+        <v>1664905</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>78867</v>
       </c>
       <c r="E105">
-        <v>184</v>
+        <v>196315</v>
       </c>
       <c r="F105">
-        <f>C105/D105</f>
-        <v>1.34</v>
+        <f t="shared" si="6"/>
+        <v>21.110286938770336</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <v>256</v>
+      <c r="B106" s="1">
+        <v>65536</v>
       </c>
       <c r="C106">
-        <v>865</v>
+        <v>3722531</v>
       </c>
       <c r="D106">
-        <v>196</v>
+        <v>153685</v>
       </c>
       <c r="E106">
-        <v>352</v>
-      </c>
-      <c r="F106">
-        <f>C106/D106</f>
-        <v>4.4132653061224492</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>512</v>
-      </c>
-      <c r="C107">
-        <v>2817</v>
-      </c>
-      <c r="D107">
-        <v>478</v>
-      </c>
-      <c r="E107">
-        <v>695</v>
-      </c>
-      <c r="F107">
-        <f>C107/D107</f>
-        <v>5.8933054393305442</v>
+        <v>421602</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <v>1024</v>
-      </c>
-      <c r="C108">
-        <v>6185</v>
-      </c>
-      <c r="D108">
-        <v>927</v>
-      </c>
-      <c r="E108">
-        <v>1416</v>
-      </c>
-      <c r="F108">
-        <f>C108/D108</f>
-        <v>6.6720604099244873</v>
+      <c r="B108" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>2048</v>
-      </c>
-      <c r="C109">
-        <v>13042</v>
-      </c>
-      <c r="D109">
-        <v>2069</v>
-      </c>
-      <c r="E109">
-        <v>5192</v>
-      </c>
-      <c r="F109">
-        <f>C109/D109</f>
-        <v>6.303528274528758</v>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110">
-        <v>4096</v>
+        <v>32</v>
       </c>
       <c r="C110">
-        <v>27408</v>
+        <v>22.9</v>
       </c>
       <c r="D110">
-        <v>10851</v>
+        <v>13.6</v>
       </c>
       <c r="E110">
-        <v>17172</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F110">
-        <f>C110/D110</f>
-        <v>2.5258501520597179</v>
+        <f t="shared" ref="F110:F120" si="7">C110/D110</f>
+        <v>1.6838235294117647</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>8192</v>
+        <v>64</v>
       </c>
       <c r="C111">
-        <v>59695</v>
+        <v>55</v>
       </c>
       <c r="D111">
-        <v>24388</v>
+        <v>30</v>
       </c>
       <c r="E111">
-        <v>37497</v>
+        <v>79.7</v>
       </c>
       <c r="F111">
-        <f>C111/D111</f>
-        <v>2.4477201902575039</v>
+        <f t="shared" si="7"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="1">
+      <c r="B112">
+        <v>128</v>
+      </c>
+      <c r="C112">
+        <v>134</v>
+      </c>
+      <c r="D112">
+        <v>118</v>
+      </c>
+      <c r="E112">
+        <v>179</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="7"/>
+        <v>1.1355932203389831</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>256</v>
+      </c>
+      <c r="C113">
+        <v>266</v>
+      </c>
+      <c r="D113">
+        <v>171</v>
+      </c>
+      <c r="E113">
+        <v>340</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="7"/>
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>512</v>
+      </c>
+      <c r="C114">
+        <v>2852</v>
+      </c>
+      <c r="D114">
+        <v>477</v>
+      </c>
+      <c r="E114">
+        <v>689</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="7"/>
+        <v>5.9790356394129978</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1024</v>
+      </c>
+      <c r="C115">
+        <v>6342</v>
+      </c>
+      <c r="D115">
+        <v>664</v>
+      </c>
+      <c r="E115">
+        <v>1417</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="7"/>
+        <v>9.5512048192771086</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>2048</v>
+      </c>
+      <c r="C116">
+        <v>12992</v>
+      </c>
+      <c r="D116">
+        <v>2102</v>
+      </c>
+      <c r="E116">
+        <v>4226</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="7"/>
+        <v>6.1807802093244533</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>4096</v>
+      </c>
+      <c r="C117">
+        <v>27834</v>
+      </c>
+      <c r="D117">
+        <v>10796</v>
+      </c>
+      <c r="E117">
         <v>16384</v>
       </c>
-      <c r="C112">
-        <v>230456</v>
-      </c>
-      <c r="D112">
-        <v>50387</v>
-      </c>
-      <c r="E112">
-        <v>89887</v>
-      </c>
-      <c r="F112">
-        <f>C112/D112</f>
-        <v>4.5737194117530313</v>
+      <c r="F117">
+        <f t="shared" si="7"/>
+        <v>2.5781771026306037</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="1">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>8192</v>
+      </c>
+      <c r="C118">
+        <v>58271</v>
+      </c>
+      <c r="D118">
+        <v>24399</v>
+      </c>
+      <c r="E118">
+        <v>39728</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="7"/>
+        <v>2.3882536169515145</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C119">
+        <v>228221</v>
+      </c>
+      <c r="D119">
+        <v>50077</v>
+      </c>
+      <c r="E119">
+        <v>86819</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="7"/>
+        <v>4.5574016015336385</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
         <v>32768</v>
       </c>
-      <c r="C113">
-        <v>1733167</v>
-      </c>
-      <c r="D113">
-        <v>97752</v>
-      </c>
-      <c r="E113">
-        <v>189412</v>
-      </c>
-      <c r="F113">
-        <f>C113/D113</f>
-        <v>17.730245928472051</v>
+      <c r="C120">
+        <v>1719409</v>
+      </c>
+      <c r="D120">
+        <v>98516</v>
+      </c>
+      <c r="E120">
+        <v>188453</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="7"/>
+        <v>17.453093913678995</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C121">
+        <v>3840133</v>
+      </c>
+      <c r="D121">
+        <v>193951</v>
+      </c>
+      <c r="E121">
+        <v>389204</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>2</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C123" t="s">
         <v>22</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D123" t="s">
         <v>23</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E123" t="s">
         <v>24</v>
       </c>
-      <c r="G116" t="s">
+      <c r="F123" t="s">
         <v>25</v>
       </c>
-      <c r="H116" t="s">
+      <c r="G123" t="s">
         <v>26</v>
       </c>
-      <c r="I116" t="s">
+      <c r="H123" t="s">
         <v>27</v>
       </c>
-      <c r="J116" t="s">
+      <c r="I123" t="s">
         <v>28</v>
       </c>
-      <c r="K116" t="s">
+      <c r="J123" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124">
         <v>32</v>
       </c>
-      <c r="C117">
+      <c r="C124">
         <f>F5</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="D117">
-        <f>F19</f>
-        <v>1.926605504587156</v>
-      </c>
-      <c r="F117">
-        <f>F33</f>
+      <c r="D124">
+        <f>F20</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="G117">
-        <f>F47</f>
+      <c r="E124">
+        <f>F35</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="H117">
-        <f>F61</f>
-        <v>1.9626168224299068</v>
-      </c>
-      <c r="I117">
+      <c r="F124">
+        <f>F50</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="G124">
+        <f>F65</f>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="H124">
+        <f>F80</f>
+        <v>2.1698113207547172</v>
+      </c>
+      <c r="I124">
+        <f>F95</f>
+        <v>2.1698113207547172</v>
+      </c>
+      <c r="J124">
+        <f>F110</f>
+        <v>1.6838235294117647</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>64</v>
+      </c>
+      <c r="C125">
+        <f>F6</f>
+        <v>2.5902439024390245</v>
+      </c>
+      <c r="D125">
+        <f>F21</f>
+        <v>2.5902439024390245</v>
+      </c>
+      <c r="E125">
+        <f>F36</f>
+        <v>1.9557195571955719</v>
+      </c>
+      <c r="F125">
+        <f>F51</f>
+        <v>2.5902439024390245</v>
+      </c>
+      <c r="G125">
+        <f>F66</f>
+        <v>1.1751662971175165</v>
+      </c>
+      <c r="H125">
+        <f>F81</f>
+        <v>2.1568627450980391</v>
+      </c>
+      <c r="I125">
+        <f>F96</f>
+        <v>2.1153846153846154</v>
+      </c>
+      <c r="J125">
+        <f>F111</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>128</v>
+      </c>
+      <c r="C126">
+        <f>F7</f>
+        <v>2.7916666666666665</v>
+      </c>
+      <c r="D126">
+        <f>F22</f>
+        <v>2.7916666666666665</v>
+      </c>
+      <c r="E126">
+        <f>F37</f>
+        <v>2.7974947807933197</v>
+      </c>
+      <c r="F126">
+        <f>F52</f>
+        <v>2.8092243186582806</v>
+      </c>
+      <c r="G126">
+        <f>F67</f>
+        <v>1.5527230590961763</v>
+      </c>
+      <c r="H126">
+        <f>F82</f>
+        <v>2.7800829875518671</v>
+      </c>
+      <c r="I126">
+        <f>F97</f>
+        <v>2.2296173044925123</v>
+      </c>
+      <c r="J126">
+        <f>F112</f>
+        <v>1.1355932203389831</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>256</v>
+      </c>
+      <c r="C127">
+        <f>F8</f>
+        <v>2.9405162738496076</v>
+      </c>
+      <c r="D127">
+        <f>F23</f>
+        <v>2.9438202247191012</v>
+      </c>
+      <c r="E127">
+        <f>F38</f>
+        <v>2.9438202247191012</v>
+      </c>
+      <c r="F127">
+        <f>F53</f>
+        <v>2.9504504504504507</v>
+      </c>
+      <c r="G127">
+        <f>F68</f>
+        <v>1.5783132530120483</v>
+      </c>
+      <c r="H127">
+        <f>F83</f>
+        <v>3.6898734177215191</v>
+      </c>
+      <c r="I127">
+        <f>F98</f>
+        <v>1.6540880503144655</v>
+      </c>
+      <c r="J127">
+        <f>F113</f>
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>512</v>
+      </c>
+      <c r="C128">
+        <f>F9</f>
+        <v>3.059171597633136</v>
+      </c>
+      <c r="D128">
+        <f>F24</f>
+        <v>3.0773809523809526</v>
+      </c>
+      <c r="E128">
+        <f>F39</f>
+        <v>3.0773809523809526</v>
+      </c>
+      <c r="F128">
+        <f>F54</f>
+        <v>3.0773809523809526</v>
+      </c>
+      <c r="G128">
+        <f>F69</f>
+        <v>1.5907692307692307</v>
+      </c>
+      <c r="H128">
+        <f>F84</f>
+        <v>8.9874608150470223</v>
+      </c>
+      <c r="I128">
+        <f>F99</f>
+        <v>8.6778115501519757</v>
+      </c>
+      <c r="J128">
+        <f>F114</f>
+        <v>5.9790356394129978</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>1024</v>
+      </c>
+      <c r="C129">
+        <f>F10</f>
+        <v>3.1859756097560976</v>
+      </c>
+      <c r="D129">
+        <f>F25</f>
+        <v>3.2225609756097562</v>
+      </c>
+      <c r="E129">
+        <f>F40</f>
+        <v>10.893292682926829</v>
+      </c>
+      <c r="F129">
+        <f>F55</f>
+        <v>1.6389776357827477</v>
+      </c>
+      <c r="G129">
+        <f>F70</f>
+        <v>1.6283048211508553</v>
+      </c>
+      <c r="H129">
+        <f>F85</f>
+        <v>9.0094339622641506</v>
+      </c>
+      <c r="I129">
+        <f>F100</f>
+        <v>8.8364779874213841</v>
+      </c>
+      <c r="J129">
+        <f>F115</f>
+        <v>9.5512048192771086</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>2048</v>
+      </c>
+      <c r="C130">
+        <f>F11</f>
+        <v>8.0015503875968985</v>
+      </c>
+      <c r="D130">
+        <f>F26</f>
+        <v>9.9768875192604014</v>
+      </c>
+      <c r="E130">
+        <f>F41</f>
+        <v>7.4606011372867584</v>
+      </c>
+      <c r="F130">
+        <f>F56</f>
+        <v>9.7574568288854007</v>
+      </c>
+      <c r="G130">
+        <f>F71</f>
+        <v>9.6419077404222051</v>
+      </c>
+      <c r="H130">
+        <f>F86</f>
+        <v>8.9016522423288755</v>
+      </c>
+      <c r="I130">
+        <f>F101</f>
+        <v>9.8423529411764701</v>
+      </c>
+      <c r="J130">
+        <f>F116</f>
+        <v>6.1807802093244533</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>4096</v>
+      </c>
+      <c r="C131">
+        <f>F12</f>
+        <v>8.6837209302325586</v>
+      </c>
+      <c r="D131">
+        <f>F27</f>
+        <v>5.7205276174773285</v>
+      </c>
+      <c r="E131">
+        <f>F42</f>
+        <v>8.0436320754716988</v>
+      </c>
+      <c r="F131">
+        <f>F57</f>
+        <v>9.4471927758146848</v>
+      </c>
+      <c r="G131">
+        <f>F72</f>
+        <v>9.3722656250000007</v>
+      </c>
+      <c r="H131">
+        <f>F87</f>
+        <v>9.5015710919088772</v>
+      </c>
+      <c r="I131">
+        <f>F102</f>
+        <v>7.2367986798679871</v>
+      </c>
+      <c r="J131">
+        <f>F117</f>
+        <v>2.5781771026306037</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>8192</v>
+      </c>
+      <c r="C132">
+        <f>F13</f>
+        <v>10.932374659930042</v>
+      </c>
+      <c r="D132">
+        <f>F28</f>
+        <v>5.4367996854727734</v>
+      </c>
+      <c r="E132">
+        <f>F43</f>
+        <v>6.7424704536789939</v>
+      </c>
+      <c r="F132">
+        <f>F58</f>
+        <v>9.9115218246165941</v>
+      </c>
+      <c r="G132">
+        <f>F73</f>
+        <v>9.7468652037617556</v>
+      </c>
+      <c r="H132">
+        <f>F88</f>
+        <v>7.9417854463615907</v>
+      </c>
+      <c r="I132">
+        <f>F103</f>
+        <v>3.2373543123543125</v>
+      </c>
+      <c r="J132">
+        <f>F118</f>
+        <v>2.3882536169515145</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C133">
+        <f>F14</f>
+        <v>10.489162272993555</v>
+      </c>
+      <c r="D133">
+        <f>F29</f>
+        <v>5.7015907305577374</v>
+      </c>
+      <c r="E133">
+        <f>F44</f>
+        <v>7.5899901864573112</v>
+      </c>
+      <c r="F133">
+        <f>F59</f>
+        <v>10.00526880671285</v>
+      </c>
+      <c r="G133">
+        <f>F74</f>
+        <v>8.6713198964787068</v>
+      </c>
+      <c r="H133">
+        <f>F89</f>
+        <v>5.6591633106930335</v>
+      </c>
+      <c r="I133">
+        <f>F104</f>
+        <v>4.2399386222305973</v>
+      </c>
+      <c r="J133">
+        <f>F119</f>
+        <v>4.5574016015336385</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C134">
+        <f>F15</f>
+        <v>8.7296186719263638</v>
+      </c>
+      <c r="D134">
+        <f>F30</f>
+        <v>6.6505231101724052</v>
+      </c>
+      <c r="E134">
+        <f>F45</f>
+        <v>8.0018196124717225</v>
+      </c>
+      <c r="F134">
+        <f>F60</f>
+        <v>8.3307895403088725</v>
+      </c>
+      <c r="G134">
         <f>F75</f>
-        <v>1.8110236220472442</v>
-      </c>
-      <c r="J117">
-        <f>F89</f>
-        <v>1.9827586206896552</v>
-      </c>
-      <c r="K117">
-        <f>F103</f>
-        <v>2.216981132075472</v>
+        <v>7.9245561655269832</v>
+      </c>
+      <c r="H134">
+        <f>F90</f>
+        <v>21.901265024738567</v>
+      </c>
+      <c r="I134">
+        <f>F105</f>
+        <v>21.110286938770336</v>
+      </c>
+      <c r="J134">
+        <f>F120</f>
+        <v>17.453093913678995</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118">
-        <v>64</v>
-      </c>
-      <c r="C118">
-        <f t="shared" ref="C118:C127" si="0">F6</f>
-        <v>2</v>
-      </c>
-      <c r="D118">
-        <f t="shared" ref="D118:D127" si="1">F20</f>
-        <v>2.0190114068441063</v>
-      </c>
-      <c r="F118">
-        <f t="shared" ref="F118:F127" si="2">F34</f>
-        <v>2.0151515151515156</v>
-      </c>
-      <c r="G118">
-        <f t="shared" ref="G118:G127" si="3">F48</f>
-        <v>1.9239130434782608</v>
-      </c>
-      <c r="H118">
-        <f t="shared" ref="H118:H127" si="4">F62</f>
-        <v>2.0229007633587788</v>
-      </c>
-      <c r="I118">
-        <f t="shared" ref="I118:I127" si="5">F76</f>
-        <v>2.0950570342205324</v>
-      </c>
-      <c r="J118">
-        <f t="shared" ref="J118:J127" si="6">F90</f>
-        <v>2.0871212121212124</v>
-      </c>
-      <c r="K118">
-        <f t="shared" ref="K118:K127" si="7">F104</f>
-        <v>1.9368421052631579</v>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <f>MAX(C124:C134)</f>
+        <v>10.932374659930042</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:K136" si="8">MAX(D124:D134)</f>
+        <v>9.9768875192604014</v>
+      </c>
+      <c r="E136">
+        <f>MAX(E124:E134)</f>
+        <v>10.893292682926829</v>
+      </c>
+      <c r="F136">
+        <f>MAX(F124:F134)</f>
+        <v>10.00526880671285</v>
+      </c>
+      <c r="G136">
+        <f>MAX(G124:G134)</f>
+        <v>9.7468652037617556</v>
+      </c>
+      <c r="H136">
+        <f>MAX(H124:H134)</f>
+        <v>21.901265024738567</v>
+      </c>
+      <c r="I136">
+        <f>MAX(I124:I134)</f>
+        <v>21.110286938770336</v>
+      </c>
+      <c r="J136">
+        <f>MAX(J124:J134)</f>
+        <v>17.453093913678995</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <v>128</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="0"/>
-        <v>2.8066528066528065</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="1"/>
-        <v>2.7916666666666665</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="2"/>
-        <v>2.7125506072874495</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="3"/>
-        <v>2.8033472803347284</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="4"/>
-        <v>2.7291242362525456</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="5"/>
-        <v>2.7916666666666665</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="6"/>
-        <v>2.2370617696160267</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="7"/>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <v>256</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="0"/>
-        <v>2.9451287793952967</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="1"/>
-        <v>2.9372197309417039</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="2"/>
-        <v>2.9014396456256923</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="3"/>
-        <v>2.9484304932735426</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="4"/>
-        <v>2.9372197309417039</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="5"/>
-        <v>3.2151898734177213</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="7"/>
-        <v>4.4132653061224492</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121">
-        <v>512</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="0"/>
-        <v>3.0710059171597632</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="1"/>
-        <v>3.0470588235294116</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="2"/>
-        <v>3.0650887573964498</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="3"/>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="4"/>
-        <v>1.6309148264984228</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="5"/>
-        <v>8.9874608150470223</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="6"/>
-        <v>8.8068535825545169</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="7"/>
-        <v>5.8933054393305442</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <v>1024</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="0"/>
-        <v>3.13677811550152</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="1"/>
-        <v>3.2054380664652569</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="2"/>
-        <v>12.760355029585799</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="3"/>
-        <v>1.6842948717948718</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="4"/>
-        <v>1.6342229199372056</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="5"/>
-        <v>8.9827315541601251</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="6"/>
-        <v>8.8197492163009397</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="7"/>
-        <v>6.6720604099244873</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123">
-        <v>2048</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="0"/>
-        <v>8.0523076923076928</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="1"/>
-        <v>10.204855842185129</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="2"/>
-        <v>7.491909385113269</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="3"/>
-        <v>9.4246467817896384</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="4"/>
-        <v>10.033725490196078</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="5"/>
-        <v>9.0856245090337779</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="6"/>
-        <v>9.83307453416149</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="7"/>
-        <v>6.303528274528758</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124">
-        <v>4096</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="0"/>
-        <v>10.422480620155039</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="1"/>
-        <v>5.8188167625308136</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="2"/>
-        <v>7.9067032536260289</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="3"/>
-        <v>9.4103570027461743</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="4"/>
-        <v>9.6738533908271265</v>
-      </c>
-      <c r="I124">
-        <f t="shared" si="5"/>
-        <v>9.392607003891051</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="6"/>
-        <v>7.7949554896142432</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="7"/>
-        <v>2.5258501520597179</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <v>8192</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="0"/>
-        <v>10.295823665893272</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="1"/>
-        <v>6.2678816382520086</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="2"/>
-        <v>7.3349028840494412</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="3"/>
-        <v>9.4121105232216351</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="4"/>
-        <v>10.120974076983504</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="5"/>
-        <v>9.2038227938549486</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="6"/>
-        <v>3.4124807869658778</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="7"/>
-        <v>2.4477201902575039</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="0"/>
-        <v>11.076221877424359</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="1"/>
-        <v>6.6623491315866943</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="2"/>
-        <v>7.7967783125429726</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="3"/>
-        <v>10.109661598822953</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="4"/>
-        <v>9.7634808157621844</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="5"/>
-        <v>5.242991829038341</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="6"/>
-        <v>4.3586022225197487</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="7"/>
-        <v>4.5737194117530313</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="1">
-        <v>32768</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="0"/>
-        <v>11.608053302433373</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="1"/>
-        <v>6.8897722811150377</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="2"/>
-        <v>8.0199507270180188</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="3"/>
-        <v>10.879839471199245</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="4"/>
-        <v>11.405073095168941</v>
-      </c>
-      <c r="I127">
-        <f t="shared" si="5"/>
-        <v>21.825933994560437</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="6"/>
-        <v>21.09223294813086</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="7"/>
-        <v>17.730245928472051</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129">
-        <f>MAX(C117:C127)</f>
-        <v>11.608053302433373</v>
-      </c>
-      <c r="D129">
-        <f t="shared" ref="D129:K129" si="8">MAX(D117:D127)</f>
-        <v>10.204855842185129</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="8"/>
-        <v>12.760355029585799</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="8"/>
-        <v>10.879839471199245</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="8"/>
-        <v>11.405073095168941</v>
-      </c>
-      <c r="I129">
-        <f t="shared" si="8"/>
-        <v>21.825933994560437</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="8"/>
-        <v>21.09223294813086</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="8"/>
-        <v>17.730245928472051</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>31</v>
       </c>
-      <c r="C130">
-        <f>MIN(C117:C127)</f>
+      <c r="C137">
+        <f>MIN(C124:C134)</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="D130">
-        <f t="shared" ref="D130:K130" si="9">MIN(D117:D127)</f>
-        <v>1.926605504587156</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="9"/>
+      <c r="D137">
+        <f t="shared" ref="D137:K137" si="9">MIN(D124:D134)</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="G130">
-        <f t="shared" si="9"/>
-        <v>1.6842948717948718</v>
-      </c>
-      <c r="H130">
-        <f t="shared" si="9"/>
-        <v>1.6309148264984228</v>
-      </c>
-      <c r="I130">
-        <f t="shared" si="9"/>
-        <v>1.8110236220472442</v>
-      </c>
-      <c r="J130">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="9"/>
-        <v>1.34</v>
+      <c r="E137">
+        <f>MIN(E124:E134)</f>
+        <v>1.9557195571955719</v>
+      </c>
+      <c r="F137">
+        <f>MIN(F124:F134)</f>
+        <v>1.6389776357827477</v>
+      </c>
+      <c r="G137">
+        <f>MIN(G124:G134)</f>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="H137">
+        <f>MIN(H124:H134)</f>
+        <v>2.1568627450980391</v>
+      </c>
+      <c r="I137">
+        <f>MIN(I124:I134)</f>
+        <v>1.6540880503144655</v>
+      </c>
+      <c r="J137">
+        <f>MIN(J124:J134)</f>
+        <v>1.1355932203389831</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93597A-5CD8-7B4C-807B-7A691E919882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E7214-4B7D-D64D-8AD1-5CE387389411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -1997,7 +1997,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$136:$J$136</c:f>
+              <c:f>Performance!$C$137:$J$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2100,7 +2100,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$137:$J$137</c:f>
+              <c:f>Performance!$C$138:$J$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8793,10 +8793,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -8829,16 +8829,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$124:$C$134</c:f>
+              <c:f>Performance!$C$124:$C$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
@@ -8871,6 +8874,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.7296186719263638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.844523709609735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8922,10 +8928,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -8958,16 +8964,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$124:$D$134</c:f>
+              <c:f>Performance!$D$124:$D$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
@@ -9000,6 +9009,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.6505231101724052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5392286907393764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,10 +9063,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9087,16 +9099,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$124:$E$134</c:f>
+              <c:f>Performance!$E$124:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
@@ -9129,6 +9144,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.0018196124717225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.20813247634351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9180,10 +9198,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9216,16 +9234,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$F$124:$F$134</c:f>
+              <c:f>Performance!$F$124:$F$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.9811320754716981</c:v>
                 </c:pt>
@@ -9258,6 +9279,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.3307895403088725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.008276106365678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9309,10 +9333,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9345,16 +9369,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$G$124:$G$134</c:f>
+              <c:f>Performance!$G$124:$G$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.024390243902439</c:v>
                 </c:pt>
@@ -9387,6 +9414,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.9245561655269832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.131558311429941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,10 +9468,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9474,16 +9504,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$H$124:$H$134</c:f>
+              <c:f>Performance!$H$124:$H$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.1698113207547172</c:v>
                 </c:pt>
@@ -9516,6 +9549,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.901265024738567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.28907802336494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9573,10 +9609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9609,16 +9645,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$I$124:$I$134</c:f>
+              <c:f>Performance!$I$124:$I$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.1698113207547172</c:v>
                 </c:pt>
@@ -9651,6 +9690,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.110286938770336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.221823860493867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9708,10 +9750,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$124:$B$134</c:f>
+              <c:f>Performance!$B$124:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -9744,16 +9786,19 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$J$124:$J$134</c:f>
+              <c:f>Performance!$J$124:$J$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.6838235294117647</c:v>
                 </c:pt>
@@ -9786,6 +9831,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17.453093913678995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.799500904867724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26713,7 +26761,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -30415,10 +30463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:J137"/>
+  <dimension ref="B3:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30662,6 +30710,10 @@
       <c r="E16">
         <v>250195</v>
       </c>
+      <c r="F16">
+        <f>C16/D16</f>
+        <v>10.844523709609735</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -30699,7 +30751,7 @@
         <v>32.6</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F30" si="1">C20/D20</f>
+        <f t="shared" ref="F20:F31" si="1">C20/D20</f>
         <v>1.9811320754716981</v>
       </c>
     </row>
@@ -30896,6 +30948,10 @@
       <c r="E31">
         <v>271050</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>7.5392286907393764</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
@@ -30933,7 +30989,7 @@
         <v>33.6</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F45" si="2">C35/D35</f>
+        <f t="shared" ref="F35:F46" si="2">C35/D35</f>
         <v>1.9811320754716981</v>
       </c>
     </row>
@@ -31130,6 +31186,10 @@
       <c r="E46">
         <v>322815</v>
       </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>14.20813247634351</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -31167,7 +31227,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F60" si="3">C50/D50</f>
+        <f t="shared" ref="F50:F61" si="3">C50/D50</f>
         <v>1.9811320754716981</v>
       </c>
     </row>
@@ -31364,6 +31424,10 @@
       <c r="E61">
         <v>428133</v>
       </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>15.008276106365678</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
@@ -31401,7 +31465,7 @@
         <v>32.4</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F75" si="4">C65/D65</f>
+        <f t="shared" ref="F65:F76" si="4">C65/D65</f>
         <v>1.024390243902439</v>
       </c>
     </row>
@@ -31598,6 +31662,10 @@
       <c r="E76">
         <v>461501</v>
       </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>23.131558311429941</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
@@ -31635,7 +31703,7 @@
         <v>32.5</v>
       </c>
       <c r="F80">
-        <f t="shared" ref="F80:F90" si="5">C80/D80</f>
+        <f t="shared" ref="F80:F91" si="5">C80/D80</f>
         <v>2.1698113207547172</v>
       </c>
     </row>
@@ -31832,6 +31900,10 @@
       <c r="E91">
         <v>439092</v>
       </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>23.28907802336494</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
@@ -32066,6 +32138,10 @@
       <c r="E106">
         <v>421602</v>
       </c>
+      <c r="F106">
+        <f>C106/D106</f>
+        <v>24.221823860493867</v>
+      </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
@@ -32229,7 +32305,7 @@
         <v>16384</v>
       </c>
       <c r="F117">
-        <f t="shared" si="7"/>
+        <f>C117/D117</f>
         <v>2.5781771026306037</v>
       </c>
     </row>
@@ -32300,6 +32376,10 @@
       <c r="E121">
         <v>389204</v>
       </c>
+      <c r="F121">
+        <f>C121/D121</f>
+        <v>19.799500904867724</v>
+      </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
@@ -32737,76 +32817,113 @@
         <v>17.453093913678995</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>30</v>
-      </c>
-      <c r="C136">
-        <f>MAX(C124:C134)</f>
-        <v>10.932374659930042</v>
-      </c>
-      <c r="D136">
-        <f t="shared" ref="D136:K136" si="8">MAX(D124:D134)</f>
-        <v>9.9768875192604014</v>
-      </c>
-      <c r="E136">
-        <f>MAX(E124:E134)</f>
-        <v>10.893292682926829</v>
-      </c>
-      <c r="F136">
-        <f>MAX(F124:F134)</f>
-        <v>10.00526880671285</v>
-      </c>
-      <c r="G136">
-        <f>MAX(G124:G134)</f>
-        <v>9.7468652037617556</v>
-      </c>
-      <c r="H136">
-        <f>MAX(H124:H134)</f>
-        <v>21.901265024738567</v>
-      </c>
-      <c r="I136">
-        <f>MAX(I124:I134)</f>
-        <v>21.110286938770336</v>
-      </c>
-      <c r="J136">
-        <f>MAX(J124:J134)</f>
-        <v>17.453093913678995</v>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C135">
+        <f>F16</f>
+        <v>10.844523709609735</v>
+      </c>
+      <c r="D135">
+        <f>F31</f>
+        <v>7.5392286907393764</v>
+      </c>
+      <c r="E135">
+        <f>F46</f>
+        <v>14.20813247634351</v>
+      </c>
+      <c r="F135">
+        <f>F61</f>
+        <v>15.008276106365678</v>
+      </c>
+      <c r="G135">
+        <f>F76</f>
+        <v>23.131558311429941</v>
+      </c>
+      <c r="H135">
+        <f>F91</f>
+        <v>23.28907802336494</v>
+      </c>
+      <c r="I135">
+        <f>F106</f>
+        <v>24.221823860493867</v>
+      </c>
+      <c r="J135">
+        <f>F121</f>
+        <v>19.799500904867724</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <f>MAX(C124:C134)</f>
+        <v>10.932374659930042</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:K137" si="8">MAX(D124:D134)</f>
+        <v>9.9768875192604014</v>
+      </c>
+      <c r="E137">
+        <f>MAX(E124:E134)</f>
+        <v>10.893292682926829</v>
+      </c>
+      <c r="F137">
+        <f>MAX(F124:F134)</f>
+        <v>10.00526880671285</v>
+      </c>
+      <c r="G137">
+        <f>MAX(G124:G134)</f>
+        <v>9.7468652037617556</v>
+      </c>
+      <c r="H137">
+        <f>MAX(H124:H134)</f>
+        <v>21.901265024738567</v>
+      </c>
+      <c r="I137">
+        <f>MAX(I124:I134)</f>
+        <v>21.110286938770336</v>
+      </c>
+      <c r="J137">
+        <f>MAX(J124:J134)</f>
+        <v>17.453093913678995</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <f>MIN(C124:C134)</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="D137">
-        <f t="shared" ref="D137:K137" si="9">MIN(D124:D134)</f>
+      <c r="D138">
+        <f t="shared" ref="D138:K138" si="9">MIN(D124:D134)</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="E137">
+      <c r="E138">
         <f>MIN(E124:E134)</f>
         <v>1.9557195571955719</v>
       </c>
-      <c r="F137">
+      <c r="F138">
         <f>MIN(F124:F134)</f>
         <v>1.6389776357827477</v>
       </c>
-      <c r="G137">
+      <c r="G138">
         <f>MIN(G124:G134)</f>
         <v>1.024390243902439</v>
       </c>
-      <c r="H137">
+      <c r="H138">
         <f>MIN(H124:H134)</f>
         <v>2.1568627450980391</v>
       </c>
-      <c r="I137">
+      <c r="I138">
         <f>MIN(I124:I134)</f>
         <v>1.6540880503144655</v>
       </c>
-      <c r="J137">
+      <c r="J138">
         <f>MIN(J124:J134)</f>
         <v>1.1355932203389831</v>
       </c>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E7214-4B7D-D64D-8AD1-5CE387389411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DB9BD-6912-914B-814A-EDDB73151C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
+    <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>unordered_map</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>lookup-handles</t>
+  </si>
+  <si>
+    <t>packed hashmap values</t>
+  </si>
+  <si>
+    <t>unordered map values</t>
+  </si>
+  <si>
+    <t>packed hashmap handles</t>
+  </si>
+  <si>
+    <t>packed hashmap handles random order</t>
+  </si>
+  <si>
+    <t>lookup-reverse</t>
   </si>
 </sst>
 </file>
@@ -10173,6 +10188,1890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$L$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$L$147:$L$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCFB-A949-9E22-9ABD61844296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$M$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered map values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$M$147:$M$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCFB-A949-9E22-9ABD61844296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556557023"/>
+        <c:axId val="2109380640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556557023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109380640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2109380640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556557023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$U$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$T$147:$T$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$U$147:$U$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB5B-E544-8D0A-FE80AC1D462B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$V$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap handles random order</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$T$147:$T$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$V$147:$V$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>337634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB5B-E544-8D0A-FE80AC1D462B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="624554431"/>
+        <c:axId val="2108836608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="624554431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108836608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108836608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624554431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$L$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$L$147:$L$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB35-5448-B572-D297BCC99BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$M$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered map values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$M$147:$M$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB35-5448-B572-D297BCC99BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap handles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$N$147:$N$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB35-5448-B572-D297BCC99BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$O$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed hashmap handles random order</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$K$147:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$O$147:$O$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>337634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB35-5448-B572-D297BCC99BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1201023680"/>
+        <c:axId val="1201025328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1201023680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201025328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1201025328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201023680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -14239,7 +16138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$I$34:$I$44</c:f>
+              <c:f>Memory!$J$34:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -15460,6 +17359,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -22448,7 +24467,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22964,7 +24983,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23480,7 +25499,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23996,7 +26015,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24512,7 +26531,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25028,7 +27047,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25544,7 +27563,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26060,17 +28079,1565 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -26100,13 +29667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -26136,13 +29703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -26172,13 +29739,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -26208,13 +29775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -26244,13 +29811,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -26280,13 +29847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -26316,13 +29883,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -26352,13 +29919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -26388,13 +29955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -26787,6 +30354,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1A2355-486C-6947-8CC1-AD64BA4C09F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE871945-94D6-304B-BD3A-56AAC9760328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41654D7F-EDFF-614F-9DF1-9C2736A1F338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27087,10 +30762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
-  <dimension ref="C3:M126"/>
+  <dimension ref="C3:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27100,18 +30775,19 @@
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -27127,20 +30803,23 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>32</v>
       </c>
@@ -27156,24 +30835,27 @@
       <c r="G5">
         <v>3456</v>
       </c>
-      <c r="I5">
+      <c r="H5">
+        <v>5760</v>
+      </c>
+      <c r="J5">
         <f>$G5-D5</f>
         <v>2432</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" ref="J5:J15" si="0">I5/D5</f>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K15" si="0">J5/D5</f>
         <v>2.375</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>$G5-E5</f>
         <v>896</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M15" si="1">L5/G5</f>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N15" si="1">M5/G5</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>64</v>
       </c>
@@ -27189,24 +30871,27 @@
       <c r="G6">
         <v>6912</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I15" si="2">$G6-D6</f>
+      <c r="H6">
+        <v>11464</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J15" si="2">$G6-D6</f>
         <v>4864</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="3">$G6-E6</f>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="3">$G6-E6</f>
         <v>1792</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>128</v>
       </c>
@@ -27222,24 +30907,27 @@
       <c r="G7">
         <v>13824</v>
       </c>
-      <c r="I7">
+      <c r="H7">
+        <v>23024</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="2"/>
         <v>9728</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>3584</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>256</v>
       </c>
@@ -27255,24 +30943,27 @@
       <c r="G8">
         <v>27648</v>
       </c>
-      <c r="I8">
+      <c r="H8">
+        <v>46168</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>19456</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>7168</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>512</v>
       </c>
@@ -27288,24 +30979,27 @@
       <c r="G9">
         <v>55296</v>
       </c>
-      <c r="I9">
+      <c r="H9">
+        <v>92480</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>38912</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>14336</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1024</v>
       </c>
@@ -27321,24 +31015,27 @@
       <c r="G10">
         <v>110592</v>
       </c>
-      <c r="I10">
+      <c r="H10">
+        <v>185128</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="2"/>
         <v>77824</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>28672</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -27354,24 +31051,27 @@
       <c r="G11">
         <v>221184</v>
       </c>
-      <c r="I11">
+      <c r="H11">
+        <v>370496</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>155648</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>57344</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>4096</v>
       </c>
@@ -27387,24 +31087,27 @@
       <c r="G12">
         <v>442368</v>
       </c>
-      <c r="I12">
+      <c r="H12">
+        <v>741352</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="2"/>
         <v>311296</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>114688</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>8192</v>
       </c>
@@ -27420,24 +31123,27 @@
       <c r="G13">
         <v>884736</v>
       </c>
-      <c r="I13">
+      <c r="H13">
+        <v>1483152</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>622592</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>229376</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>16384</v>
       </c>
@@ -27453,24 +31159,27 @@
       <c r="G14">
         <v>1769472</v>
       </c>
-      <c r="I14">
+      <c r="H14">
+        <v>2966840</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="2"/>
         <v>1245184</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>458752</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>32768</v>
       </c>
@@ -27486,29 +31195,32 @@
       <c r="G15">
         <v>3538944</v>
       </c>
-      <c r="I15">
+      <c r="H15">
+        <v>5934240</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="2"/>
         <v>2490368</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>917504</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -27524,20 +31236,23 @@
       <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>13</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>32</v>
       </c>
@@ -27553,24 +31268,27 @@
       <c r="G20">
         <v>4480</v>
       </c>
-      <c r="I20">
+      <c r="H20">
+        <v>6784</v>
+      </c>
+      <c r="J20">
         <f>G20-D20</f>
         <v>2432</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" ref="J20:J30" si="4">I20/D20</f>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:K30" si="4">J20/D20</f>
         <v>1.1875</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>$G20-E20</f>
         <v>896</v>
       </c>
-      <c r="M20" s="2">
-        <f>L20/G20</f>
+      <c r="N20" s="2">
+        <f>M20/G20</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>64</v>
       </c>
@@ -27586,24 +31304,27 @@
       <c r="G21">
         <v>8960</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I30" si="5">G21-D21</f>
+      <c r="H21">
+        <v>13512</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J30" si="5">G21-D21</f>
         <v>4864</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L21">
-        <f t="shared" ref="L21:L30" si="6">$G21-E21</f>
+      <c r="M21">
+        <f t="shared" ref="M21:M30" si="6">$G21-E21</f>
         <v>1792</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" ref="M21:M30" si="7">L21/G21</f>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:N30" si="7">M21/G21</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>128</v>
       </c>
@@ -27619,24 +31340,27 @@
       <c r="G22">
         <v>17920</v>
       </c>
-      <c r="I22">
+      <c r="H22">
+        <v>27120</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="5"/>
         <v>9728</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="6"/>
         <v>3584</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>256</v>
       </c>
@@ -27652,24 +31376,27 @@
       <c r="G23">
         <v>35840</v>
       </c>
-      <c r="I23">
+      <c r="H23">
+        <v>54360</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="5"/>
         <v>19456</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="6"/>
         <v>7168</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>512</v>
       </c>
@@ -27685,24 +31412,27 @@
       <c r="G24">
         <v>71680</v>
       </c>
-      <c r="I24">
+      <c r="H24">
+        <v>108864</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="5"/>
         <v>38912</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="6"/>
         <v>14336</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1024</v>
       </c>
@@ -27718,24 +31448,27 @@
       <c r="G25">
         <v>143360</v>
       </c>
-      <c r="I25">
+      <c r="H25">
+        <v>217896</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="5"/>
         <v>77824</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="6"/>
         <v>28672</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>2048</v>
       </c>
@@ -27751,24 +31484,27 @@
       <c r="G26">
         <v>286720</v>
       </c>
-      <c r="I26">
+      <c r="H26">
+        <v>436032</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="5"/>
         <v>155648</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="6"/>
         <v>57344</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>4096</v>
       </c>
@@ -27784,24 +31520,27 @@
       <c r="G27">
         <v>573440</v>
       </c>
-      <c r="I27">
+      <c r="H27">
+        <v>872424</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="5"/>
         <v>311296</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="6"/>
         <v>114688</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>8192</v>
       </c>
@@ -27817,24 +31556,27 @@
       <c r="G28">
         <v>1146880</v>
       </c>
-      <c r="I28">
+      <c r="H28">
+        <v>1745296</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="5"/>
         <v>622592</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="6"/>
         <v>229376</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>16384</v>
       </c>
@@ -27850,24 +31592,27 @@
       <c r="G29">
         <v>2293760</v>
       </c>
-      <c r="I29">
+      <c r="H29">
+        <v>3491128</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="5"/>
         <v>1245184</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="6"/>
         <v>458752</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>32768</v>
       </c>
@@ -27883,33 +31628,36 @@
       <c r="G30">
         <v>4587520</v>
       </c>
-      <c r="I30">
+      <c r="H30">
+        <v>6982816</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="5"/>
         <v>2490368</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>1.1875</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="6"/>
         <v>917504</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
-      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -27925,20 +31673,23 @@
       <c r="G33" t="s">
         <v>4</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
         <v>10</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>11</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>13</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>32</v>
       </c>
@@ -27954,24 +31705,27 @@
       <c r="G34">
         <v>6528</v>
       </c>
-      <c r="I34">
+      <c r="H34">
+        <v>8832</v>
+      </c>
+      <c r="J34">
         <f>G34-D34</f>
         <v>2432</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" ref="J34:J44" si="8">I34/D34</f>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:K44" si="8">J34/D34</f>
         <v>0.59375</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f>$G34-E34</f>
         <v>896</v>
       </c>
-      <c r="M34" s="2">
-        <f>L34/G34</f>
+      <c r="N34" s="2">
+        <f>M34/G34</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>64</v>
       </c>
@@ -27987,24 +31741,27 @@
       <c r="G35">
         <v>13056</v>
       </c>
-      <c r="I35">
-        <f t="shared" ref="I35:I44" si="9">G35-D35</f>
+      <c r="H35">
+        <v>17608</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J44" si="9">G35-D35</f>
         <v>4864</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L35">
-        <f t="shared" ref="L35:L44" si="10">$G35-E35</f>
+      <c r="M35">
+        <f t="shared" ref="M35:M44" si="10">$G35-E35</f>
         <v>1792</v>
       </c>
-      <c r="M35" s="2">
-        <f t="shared" ref="M35:M44" si="11">L35/G35</f>
+      <c r="N35" s="2">
+        <f t="shared" ref="N35:N44" si="11">M35/G35</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>128</v>
       </c>
@@ -28020,24 +31777,27 @@
       <c r="G36">
         <v>26112</v>
       </c>
-      <c r="I36">
+      <c r="H36">
+        <v>35312</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="9"/>
         <v>9728</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="10"/>
         <v>3584</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>256</v>
       </c>
@@ -28053,24 +31813,27 @@
       <c r="G37">
         <v>52224</v>
       </c>
-      <c r="I37">
+      <c r="H37">
+        <v>70744</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="9"/>
         <v>19456</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f t="shared" si="10"/>
         <v>7168</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>512</v>
       </c>
@@ -28086,24 +31849,27 @@
       <c r="G38">
         <v>104448</v>
       </c>
-      <c r="I38">
+      <c r="H38">
+        <v>141632</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="9"/>
         <v>38912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="10"/>
         <v>14336</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>1024</v>
       </c>
@@ -28119,24 +31885,27 @@
       <c r="G39">
         <v>208896</v>
       </c>
-      <c r="I39">
+      <c r="H39">
+        <v>283432</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="9"/>
         <v>77824</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f>$G39-E39</f>
         <v>28672</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>2048</v>
       </c>
@@ -28152,24 +31921,27 @@
       <c r="G40">
         <v>417792</v>
       </c>
-      <c r="I40">
+      <c r="H40">
+        <v>567104</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="9"/>
         <v>155648</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="10"/>
         <v>57344</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -28185,24 +31957,27 @@
       <c r="G41">
         <v>835584</v>
       </c>
-      <c r="I41">
+      <c r="H41">
+        <v>1134568</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="9"/>
         <v>311296</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="10"/>
         <v>114688</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>8192</v>
       </c>
@@ -28218,24 +31993,27 @@
       <c r="G42">
         <v>1671168</v>
       </c>
-      <c r="I42">
+      <c r="H42">
+        <v>2269584</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="9"/>
         <v>622592</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="10"/>
         <v>229376</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>16384</v>
       </c>
@@ -28251,24 +32029,27 @@
       <c r="G43">
         <v>3342336</v>
       </c>
-      <c r="I43">
+      <c r="H43">
+        <v>4539704</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="9"/>
         <v>1245184</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f t="shared" si="10"/>
         <v>458752</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>32768</v>
       </c>
@@ -28284,33 +32065,36 @@
       <c r="G44">
         <v>6684672</v>
       </c>
-      <c r="I44">
+      <c r="H44">
+        <v>9079968</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="9"/>
         <v>2490368</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f t="shared" si="10"/>
         <v>917504</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -28326,20 +32110,23 @@
       <c r="G47" t="s">
         <v>4</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
         <v>10</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>13</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>32</v>
       </c>
@@ -28355,24 +32142,27 @@
       <c r="G48">
         <v>10624</v>
       </c>
-      <c r="I48">
+      <c r="H48">
+        <v>12928</v>
+      </c>
+      <c r="J48">
         <f>G48-D48</f>
         <v>2432</v>
       </c>
-      <c r="J48" s="2">
-        <f t="shared" ref="J48:J58" si="12">I48/D48</f>
+      <c r="K48" s="2">
+        <f t="shared" ref="K48:K58" si="12">J48/D48</f>
         <v>0.296875</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <f>$G48-E48</f>
         <v>896</v>
       </c>
-      <c r="M48" s="2">
-        <f>L48/G48</f>
+      <c r="N48" s="2">
+        <f>M48/G48</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>64</v>
       </c>
@@ -28388,24 +32178,27 @@
       <c r="G49">
         <v>21248</v>
       </c>
-      <c r="I49">
-        <f t="shared" ref="I49:I58" si="13">G49-D49</f>
+      <c r="H49">
+        <v>25800</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J58" si="13">G49-D49</f>
         <v>4864</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L49">
-        <f t="shared" ref="L49:L58" si="14">$G49-E49</f>
+      <c r="M49">
+        <f t="shared" ref="M49:M58" si="14">$G49-E49</f>
         <v>1792</v>
       </c>
-      <c r="M49" s="2">
-        <f t="shared" ref="M49:M58" si="15">L49/G49</f>
+      <c r="N49" s="2">
+        <f t="shared" ref="N49:N58" si="15">M49/G49</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>128</v>
       </c>
@@ -28421,24 +32214,27 @@
       <c r="G50">
         <v>42496</v>
       </c>
-      <c r="I50">
+      <c r="H50">
+        <v>51696</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="13"/>
         <v>9728</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <f t="shared" si="14"/>
         <v>3584</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>256</v>
       </c>
@@ -28454,24 +32250,27 @@
       <c r="G51">
         <v>84992</v>
       </c>
-      <c r="I51">
+      <c r="H51">
+        <v>103512</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="13"/>
         <v>19456</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <f>$G51-E51</f>
         <v>7168</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>512</v>
       </c>
@@ -28487,24 +32286,27 @@
       <c r="G52">
         <v>169984</v>
       </c>
-      <c r="I52">
+      <c r="H52">
+        <v>207168</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="13"/>
         <v>38912</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="14"/>
         <v>14336</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>1024</v>
       </c>
@@ -28520,24 +32322,27 @@
       <c r="G53">
         <v>339968</v>
       </c>
-      <c r="I53">
+      <c r="H53">
+        <v>414504</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="13"/>
         <v>77824</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="14"/>
         <v>28672</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>2048</v>
       </c>
@@ -28553,24 +32358,27 @@
       <c r="G54">
         <v>679936</v>
       </c>
-      <c r="I54">
+      <c r="H54">
+        <v>829248</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="13"/>
         <v>155648</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="14"/>
         <v>57344</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>4096</v>
       </c>
@@ -28586,24 +32394,27 @@
       <c r="G55">
         <v>1359872</v>
       </c>
-      <c r="I55">
+      <c r="H55">
+        <v>1658856</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="13"/>
         <v>311296</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f t="shared" si="14"/>
         <v>114688</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>8192</v>
       </c>
@@ -28619,24 +32430,27 @@
       <c r="G56">
         <v>2719744</v>
       </c>
-      <c r="I56">
+      <c r="H56">
+        <v>3318160</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="13"/>
         <v>622592</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="14"/>
         <v>229376</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>16384</v>
       </c>
@@ -28652,24 +32466,27 @@
       <c r="G57">
         <v>5439488</v>
       </c>
-      <c r="I57">
+      <c r="H57">
+        <v>6636856</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="13"/>
         <v>1245184</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <f t="shared" si="14"/>
         <v>458752</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>32768</v>
       </c>
@@ -28685,29 +32502,32 @@
       <c r="G58">
         <v>10878976</v>
       </c>
-      <c r="I58">
+      <c r="H58">
+        <v>13274272</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="13"/>
         <v>2490368</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <f t="shared" si="12"/>
         <v>0.296875</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <f t="shared" si="14"/>
         <v>917504</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -28723,20 +32543,23 @@
       <c r="G61" t="s">
         <v>4</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
         <v>10</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>13</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>32</v>
       </c>
@@ -28752,24 +32575,27 @@
       <c r="G62">
         <v>18816</v>
       </c>
-      <c r="I62">
+      <c r="H62">
+        <v>21120</v>
+      </c>
+      <c r="J62">
         <f>G62-D62</f>
         <v>2432</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" ref="J62:J72" si="16">I62/D62</f>
+      <c r="K62" s="2">
+        <f t="shared" ref="K62:K72" si="16">J62/D62</f>
         <v>0.1484375</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <f>$G62-E62</f>
         <v>896</v>
       </c>
-      <c r="M62" s="2">
-        <f>L62/G62</f>
+      <c r="N62" s="2">
+        <f>M62/G62</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>64</v>
       </c>
@@ -28785,24 +32611,27 @@
       <c r="G63">
         <v>37632</v>
       </c>
-      <c r="I63">
-        <f t="shared" ref="I63:I72" si="17">G63-D63</f>
+      <c r="H63">
+        <v>42184</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J72" si="17">G63-D63</f>
         <v>4864</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L63">
-        <f t="shared" ref="L63:L72" si="18">$G63-E63</f>
+      <c r="M63">
+        <f t="shared" ref="M63:M72" si="18">$G63-E63</f>
         <v>1792</v>
       </c>
-      <c r="M63" s="2">
-        <f t="shared" ref="M63:M72" si="19">L63/G63</f>
+      <c r="N63" s="2">
+        <f t="shared" ref="N63:N72" si="19">M63/G63</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>128</v>
       </c>
@@ -28818,24 +32647,27 @@
       <c r="G64">
         <v>75264</v>
       </c>
-      <c r="I64">
+      <c r="H64">
+        <v>84464</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="17"/>
         <v>9728</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="18"/>
         <v>3584</v>
       </c>
-      <c r="M64" s="2">
+      <c r="N64" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>256</v>
       </c>
@@ -28851,24 +32683,27 @@
       <c r="G65">
         <v>150528</v>
       </c>
-      <c r="I65">
+      <c r="H65">
+        <v>169048</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="17"/>
         <v>19456</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="18"/>
         <v>7168</v>
       </c>
-      <c r="M65" s="2">
+      <c r="N65" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>512</v>
       </c>
@@ -28884,24 +32719,27 @@
       <c r="G66">
         <v>301056</v>
       </c>
-      <c r="I66">
+      <c r="H66">
+        <v>338240</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="17"/>
         <v>38912</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <f t="shared" si="18"/>
         <v>14336</v>
       </c>
-      <c r="M66" s="2">
+      <c r="N66" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>1024</v>
       </c>
@@ -28917,24 +32755,27 @@
       <c r="G67">
         <v>602112</v>
       </c>
-      <c r="I67">
+      <c r="H67">
+        <v>676648</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="17"/>
         <v>77824</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <f t="shared" si="18"/>
         <v>28672</v>
       </c>
-      <c r="M67" s="2">
+      <c r="N67" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>2048</v>
       </c>
@@ -28950,24 +32791,27 @@
       <c r="G68">
         <v>1204224</v>
       </c>
-      <c r="I68">
+      <c r="H68">
+        <v>1353536</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="17"/>
         <v>155648</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="18"/>
         <v>57344</v>
       </c>
-      <c r="M68" s="2">
+      <c r="N68" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>4096</v>
       </c>
@@ -28983,24 +32827,27 @@
       <c r="G69">
         <v>2408448</v>
       </c>
-      <c r="I69">
+      <c r="H69">
+        <v>2707432</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="17"/>
         <v>311296</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <f t="shared" si="18"/>
         <v>114688</v>
       </c>
-      <c r="M69" s="2">
+      <c r="N69" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>8192</v>
       </c>
@@ -29016,24 +32863,27 @@
       <c r="G70">
         <v>4816896</v>
       </c>
-      <c r="I70">
+      <c r="H70">
+        <v>5415312</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="17"/>
         <v>622592</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <f t="shared" si="18"/>
         <v>229376</v>
       </c>
-      <c r="M70" s="2">
+      <c r="N70" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
         <v>16384</v>
       </c>
@@ -29049,24 +32899,27 @@
       <c r="G71">
         <v>9633792</v>
       </c>
-      <c r="I71">
+      <c r="H71">
+        <v>10831160</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="17"/>
         <v>1245184</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <f t="shared" si="18"/>
         <v>458752</v>
       </c>
-      <c r="M71" s="2">
+      <c r="N71" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
         <v>32768</v>
       </c>
@@ -29082,33 +32935,36 @@
       <c r="G72">
         <v>19267584</v>
       </c>
-      <c r="I72">
+      <c r="H72">
+        <v>21662880</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="17"/>
         <v>2490368</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <f t="shared" si="16"/>
         <v>0.1484375</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <f t="shared" si="18"/>
         <v>917504</v>
       </c>
-      <c r="M72" s="2">
+      <c r="N72" s="2">
         <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
-      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -29124,20 +32980,23 @@
       <c r="G75" t="s">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s">
         <v>10</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>11</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>13</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>32</v>
       </c>
@@ -29153,24 +33012,27 @@
       <c r="G76">
         <v>35200</v>
       </c>
-      <c r="I76">
+      <c r="H76">
+        <v>37504</v>
+      </c>
+      <c r="J76">
         <f>G76-D76</f>
         <v>2432</v>
       </c>
-      <c r="J76" s="2">
-        <f t="shared" ref="J76:J86" si="20">I76/D76</f>
+      <c r="K76" s="2">
+        <f t="shared" ref="K76:K86" si="20">J76/D76</f>
         <v>7.421875E-2</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <f>$G76-E76</f>
         <v>896</v>
       </c>
-      <c r="M76" s="2">
-        <f>L76/G76</f>
+      <c r="N76" s="2">
+        <f>M76/G76</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>64</v>
       </c>
@@ -29186,24 +33048,27 @@
       <c r="G77">
         <v>70400</v>
       </c>
-      <c r="I77">
-        <f t="shared" ref="I77:I86" si="21">G77-D77</f>
+      <c r="H77">
+        <v>74952</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J86" si="21">G77-D77</f>
         <v>4864</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L77">
-        <f t="shared" ref="L77:L86" si="22">$G77-E77</f>
+      <c r="M77">
+        <f t="shared" ref="M77:M86" si="22">$G77-E77</f>
         <v>1792</v>
       </c>
-      <c r="M77" s="2">
-        <f t="shared" ref="M77:M86" si="23">L77/G77</f>
+      <c r="N77" s="2">
+        <f t="shared" ref="N77:N86" si="23">M77/G77</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>128</v>
       </c>
@@ -29219,24 +33084,27 @@
       <c r="G78">
         <v>140800</v>
       </c>
-      <c r="I78">
+      <c r="H78">
+        <v>150000</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="21"/>
         <v>9728</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <f t="shared" si="22"/>
         <v>3584</v>
       </c>
-      <c r="M78" s="2">
+      <c r="N78" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>256</v>
       </c>
@@ -29252,24 +33120,27 @@
       <c r="G79">
         <v>281600</v>
       </c>
-      <c r="I79">
+      <c r="H79">
+        <v>300120</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="21"/>
         <v>19456</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <f t="shared" si="22"/>
         <v>7168</v>
       </c>
-      <c r="M79" s="2">
+      <c r="N79" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>512</v>
       </c>
@@ -29285,24 +33156,27 @@
       <c r="G80">
         <v>563200</v>
       </c>
-      <c r="I80">
+      <c r="H80">
+        <v>600384</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="21"/>
         <v>38912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <f t="shared" si="22"/>
         <v>14336</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>1024</v>
       </c>
@@ -29318,24 +33192,27 @@
       <c r="G81">
         <v>1126400</v>
       </c>
-      <c r="I81">
+      <c r="H81">
+        <v>1200936</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="21"/>
         <v>77824</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <f t="shared" si="22"/>
         <v>28672</v>
       </c>
-      <c r="M81" s="2">
+      <c r="N81" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>2048</v>
       </c>
@@ -29351,24 +33228,27 @@
       <c r="G82">
         <v>2252800</v>
       </c>
-      <c r="I82">
+      <c r="H82">
+        <v>2402112</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="21"/>
         <v>155648</v>
       </c>
-      <c r="J82" s="2">
+      <c r="K82" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <f t="shared" si="22"/>
         <v>57344</v>
       </c>
-      <c r="M82" s="2">
+      <c r="N82" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>4096</v>
       </c>
@@ -29384,24 +33264,27 @@
       <c r="G83">
         <v>4505600</v>
       </c>
-      <c r="I83">
+      <c r="H83">
+        <v>4804584</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="21"/>
         <v>311296</v>
       </c>
-      <c r="J83" s="2">
+      <c r="K83" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <f t="shared" si="22"/>
         <v>114688</v>
       </c>
-      <c r="M83" s="2">
+      <c r="N83" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>8192</v>
       </c>
@@ -29417,24 +33300,27 @@
       <c r="G84">
         <v>9011200</v>
       </c>
-      <c r="I84">
+      <c r="H84">
+        <v>9609616</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="21"/>
         <v>622592</v>
       </c>
-      <c r="J84" s="2">
+      <c r="K84" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <f t="shared" si="22"/>
         <v>229376</v>
       </c>
-      <c r="M84" s="2">
+      <c r="N84" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>16384</v>
       </c>
@@ -29450,24 +33336,27 @@
       <c r="G85">
         <v>18022400</v>
       </c>
-      <c r="I85">
+      <c r="H85">
+        <v>19219768</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="21"/>
         <v>1245184</v>
       </c>
-      <c r="J85" s="2">
+      <c r="K85" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <f t="shared" si="22"/>
         <v>458752</v>
       </c>
-      <c r="M85" s="2">
+      <c r="N85" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>32768</v>
       </c>
@@ -29483,32 +33372,35 @@
       <c r="G86">
         <v>36044800</v>
       </c>
-      <c r="I86">
+      <c r="H86">
+        <v>38440096</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="21"/>
         <v>2490368</v>
       </c>
-      <c r="J86" s="2">
+      <c r="K86" s="2">
         <f t="shared" si="20"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <f t="shared" si="22"/>
         <v>917504</v>
       </c>
-      <c r="M86" s="2">
+      <c r="N86" s="2">
         <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>2</v>
       </c>
@@ -29524,20 +33416,23 @@
       <c r="G90" t="s">
         <v>4</v>
       </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
         <v>10</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>11</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>13</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>32</v>
       </c>
@@ -29553,24 +33448,27 @@
       <c r="G91">
         <v>67968</v>
       </c>
-      <c r="I91">
+      <c r="H91">
+        <v>70272</v>
+      </c>
+      <c r="J91">
         <f>G91-D91</f>
         <v>2432</v>
       </c>
-      <c r="J91" s="2">
-        <f t="shared" ref="J91:J101" si="24">I91/D91</f>
+      <c r="K91" s="2">
+        <f t="shared" ref="K91:K101" si="24">J91/D91</f>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <f>$G91-E91</f>
         <v>896</v>
       </c>
-      <c r="M91" s="2">
-        <f>L91/G91</f>
+      <c r="N91" s="2">
+        <f>M91/G91</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>64</v>
       </c>
@@ -29586,24 +33484,27 @@
       <c r="G92">
         <v>135936</v>
       </c>
-      <c r="I92">
-        <f t="shared" ref="I92:I101" si="25">G92-D92</f>
+      <c r="H92">
+        <v>140488</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:J101" si="25">G92-D92</f>
         <v>4864</v>
       </c>
-      <c r="J92" s="2">
+      <c r="K92" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L92">
-        <f t="shared" ref="L92:L101" si="26">$G92-E92</f>
+      <c r="M92">
+        <f t="shared" ref="M92:M101" si="26">$G92-E92</f>
         <v>1792</v>
       </c>
-      <c r="M92" s="2">
-        <f t="shared" ref="M92:M101" si="27">L92/G92</f>
+      <c r="N92" s="2">
+        <f t="shared" ref="N92:N101" si="27">M92/G92</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>128</v>
       </c>
@@ -29619,24 +33520,27 @@
       <c r="G93">
         <v>271872</v>
       </c>
-      <c r="I93">
+      <c r="H93">
+        <v>281072</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="25"/>
         <v>9728</v>
       </c>
-      <c r="J93" s="2">
+      <c r="K93" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <f t="shared" si="26"/>
         <v>3584</v>
       </c>
-      <c r="M93" s="2">
+      <c r="N93" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>256</v>
       </c>
@@ -29652,24 +33556,27 @@
       <c r="G94">
         <v>543744</v>
       </c>
-      <c r="I94">
+      <c r="H94">
+        <v>562264</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="25"/>
         <v>19456</v>
       </c>
-      <c r="J94" s="2">
+      <c r="K94" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <f t="shared" si="26"/>
         <v>7168</v>
       </c>
-      <c r="M94" s="2">
+      <c r="N94" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>512</v>
       </c>
@@ -29685,24 +33592,27 @@
       <c r="G95">
         <v>1087488</v>
       </c>
-      <c r="I95">
+      <c r="H95">
+        <v>1124672</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="25"/>
         <v>38912</v>
       </c>
-      <c r="J95" s="2">
+      <c r="K95" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <f t="shared" si="26"/>
         <v>14336</v>
       </c>
-      <c r="M95" s="2">
+      <c r="N95" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -29718,24 +33628,27 @@
       <c r="G96">
         <v>2174976</v>
       </c>
-      <c r="I96">
+      <c r="H96">
+        <v>2249512</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="25"/>
         <v>77824</v>
       </c>
-      <c r="J96" s="2">
+      <c r="K96" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <f t="shared" si="26"/>
         <v>28672</v>
       </c>
-      <c r="M96" s="2">
+      <c r="N96" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>2048</v>
       </c>
@@ -29751,24 +33664,27 @@
       <c r="G97">
         <v>4349952</v>
       </c>
-      <c r="I97">
+      <c r="H97">
+        <v>4499264</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="25"/>
         <v>155648</v>
       </c>
-      <c r="J97" s="2">
+      <c r="K97" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <f t="shared" si="26"/>
         <v>57344</v>
       </c>
-      <c r="M97" s="2">
+      <c r="N97" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>4096</v>
       </c>
@@ -29784,24 +33700,27 @@
       <c r="G98">
         <v>8699904</v>
       </c>
-      <c r="I98">
+      <c r="H98">
+        <v>8998888</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="25"/>
         <v>311296</v>
       </c>
-      <c r="J98" s="2">
+      <c r="K98" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <f t="shared" si="26"/>
         <v>114688</v>
       </c>
-      <c r="M98" s="2">
+      <c r="N98" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>8192</v>
       </c>
@@ -29817,24 +33736,27 @@
       <c r="G99">
         <v>17399808</v>
       </c>
-      <c r="I99">
+      <c r="H99">
+        <v>17998224</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="25"/>
         <v>622592</v>
       </c>
-      <c r="J99" s="2">
+      <c r="K99" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <f t="shared" si="26"/>
         <v>229376</v>
       </c>
-      <c r="M99" s="2">
+      <c r="N99" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1">
         <v>16384</v>
       </c>
@@ -29850,24 +33772,27 @@
       <c r="G100">
         <v>34799616</v>
       </c>
-      <c r="I100">
+      <c r="H100">
+        <v>35996984</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="25"/>
         <v>1245184</v>
       </c>
-      <c r="J100" s="2">
+      <c r="K100" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <f t="shared" si="26"/>
         <v>458752</v>
       </c>
-      <c r="M100" s="2">
+      <c r="N100" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1">
         <v>32768</v>
       </c>
@@ -29883,37 +33808,40 @@
       <c r="G101">
         <v>69599232</v>
       </c>
-      <c r="I101">
+      <c r="H101">
+        <v>71994528</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="25"/>
         <v>2490368</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2">
         <f t="shared" si="24"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <f t="shared" si="26"/>
         <v>917504</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N101" s="2">
         <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
-      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
-      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>2</v>
       </c>
@@ -29929,20 +33857,23 @@
       <c r="G105" t="s">
         <v>4</v>
       </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s">
         <v>10</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>11</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>13</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>32</v>
       </c>
@@ -29958,24 +33889,27 @@
       <c r="G106">
         <v>133504</v>
       </c>
-      <c r="I106">
+      <c r="H106">
+        <v>135808</v>
+      </c>
+      <c r="J106">
         <f>G106-D106</f>
         <v>2432</v>
       </c>
-      <c r="J106" s="2">
-        <f t="shared" ref="J106:J116" si="28">I106/D106</f>
+      <c r="K106" s="2">
+        <f t="shared" ref="K106:K116" si="28">J106/D106</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <f>$G106-E106</f>
         <v>896</v>
       </c>
-      <c r="M106" s="2">
-        <f>L106/G106</f>
+      <c r="N106" s="2">
+        <f>M106/G106</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>64</v>
       </c>
@@ -29991,24 +33925,27 @@
       <c r="G107">
         <v>267008</v>
       </c>
-      <c r="I107">
-        <f t="shared" ref="I107:I116" si="29">G107-D107</f>
+      <c r="H107">
+        <v>271560</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ref="J107:J116" si="29">G107-D107</f>
         <v>4864</v>
       </c>
-      <c r="J107" s="2">
+      <c r="K107" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L107">
-        <f t="shared" ref="L107:L116" si="30">$G107-E107</f>
+      <c r="M107">
+        <f t="shared" ref="M107:M116" si="30">$G107-E107</f>
         <v>1792</v>
       </c>
-      <c r="M107" s="2">
-        <f t="shared" ref="M107:M116" si="31">L107/G107</f>
+      <c r="N107" s="2">
+        <f t="shared" ref="N107:N116" si="31">M107/G107</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>128</v>
       </c>
@@ -30024,24 +33961,27 @@
       <c r="G108">
         <v>534016</v>
       </c>
-      <c r="I108">
+      <c r="H108">
+        <v>543216</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="29"/>
         <v>9728</v>
       </c>
-      <c r="J108" s="2">
+      <c r="K108" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <f t="shared" si="30"/>
         <v>3584</v>
       </c>
-      <c r="M108" s="2">
+      <c r="N108" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>256</v>
       </c>
@@ -30057,24 +33997,27 @@
       <c r="G109">
         <v>1068032</v>
       </c>
-      <c r="I109">
+      <c r="H109">
+        <v>1086552</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="29"/>
         <v>19456</v>
       </c>
-      <c r="J109" s="2">
+      <c r="K109" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <f t="shared" si="30"/>
         <v>7168</v>
       </c>
-      <c r="M109" s="2">
+      <c r="N109" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>512</v>
       </c>
@@ -30090,24 +34033,27 @@
       <c r="G110">
         <v>2136064</v>
       </c>
-      <c r="I110">
+      <c r="H110">
+        <v>2173248</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="29"/>
         <v>38912</v>
       </c>
-      <c r="J110" s="2">
+      <c r="K110" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <f t="shared" si="30"/>
         <v>14336</v>
       </c>
-      <c r="M110" s="2">
+      <c r="N110" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>1024</v>
       </c>
@@ -30123,24 +34069,27 @@
       <c r="G111">
         <v>4272128</v>
       </c>
-      <c r="I111">
+      <c r="H111">
+        <v>4346664</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="29"/>
         <v>77824</v>
       </c>
-      <c r="J111" s="2">
+      <c r="K111" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <f t="shared" si="30"/>
         <v>28672</v>
       </c>
-      <c r="M111" s="2">
+      <c r="N111" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>2048</v>
       </c>
@@ -30156,24 +34105,27 @@
       <c r="G112">
         <v>8544256</v>
       </c>
-      <c r="I112">
+      <c r="H112">
+        <v>8693568</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="29"/>
         <v>155648</v>
       </c>
-      <c r="J112" s="2">
+      <c r="K112" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <f t="shared" si="30"/>
         <v>57344</v>
       </c>
-      <c r="M112" s="2">
+      <c r="N112" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>4096</v>
       </c>
@@ -30189,24 +34141,27 @@
       <c r="G113">
         <v>17088512</v>
       </c>
-      <c r="I113">
+      <c r="H113">
+        <v>17387496</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="29"/>
         <v>311296</v>
       </c>
-      <c r="J113" s="2">
+      <c r="K113" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <f t="shared" si="30"/>
         <v>114688</v>
       </c>
-      <c r="M113" s="2">
+      <c r="N113" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C114">
         <v>8192</v>
       </c>
@@ -30222,24 +34177,27 @@
       <c r="G114">
         <v>34177024</v>
       </c>
-      <c r="I114">
+      <c r="H114">
+        <v>34775440</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="29"/>
         <v>622592</v>
       </c>
-      <c r="J114" s="2">
+      <c r="K114" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <f t="shared" si="30"/>
         <v>229376</v>
       </c>
-      <c r="M114" s="2">
+      <c r="N114" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C115" s="1">
         <v>16384</v>
       </c>
@@ -30255,24 +34213,27 @@
       <c r="G115">
         <v>68354048</v>
       </c>
-      <c r="I115">
+      <c r="H115">
+        <v>69551416</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="29"/>
         <v>1245184</v>
       </c>
-      <c r="J115" s="2">
+      <c r="K115" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <f t="shared" si="30"/>
         <v>458752</v>
       </c>
-      <c r="M115" s="2">
+      <c r="N115" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C116" s="1">
         <v>32768</v>
       </c>
@@ -30288,24 +34249,27 @@
       <c r="G116">
         <v>136708096</v>
       </c>
-      <c r="I116">
+      <c r="H116">
+        <v>139103392</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="29"/>
         <v>2490368</v>
       </c>
-      <c r="J116" s="2">
+      <c r="K116" s="2">
         <f t="shared" si="28"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <f t="shared" si="30"/>
         <v>917504</v>
       </c>
-      <c r="M116" s="2">
+      <c r="N116" s="2">
         <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>7</v>
       </c>
@@ -30319,7 +34283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>32</v>
       </c>
@@ -30328,15 +34292,15 @@
         <v>2490368</v>
       </c>
       <c r="E119" s="2">
-        <f>J5</f>
+        <f>K5</f>
         <v>2.375</v>
       </c>
       <c r="F119" s="2">
-        <f>M5</f>
+        <f>N5</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>64</v>
       </c>
@@ -30345,15 +34309,15 @@
         <v>2490368</v>
       </c>
       <c r="E120" s="2">
-        <f>J20</f>
+        <f>K20</f>
         <v>1.1875</v>
       </c>
       <c r="F120" s="2">
-        <f>M20</f>
+        <f>N20</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>128</v>
       </c>
@@ -30362,15 +34326,15 @@
         <v>2490368</v>
       </c>
       <c r="E121" s="2">
-        <f>J34</f>
+        <f>K34</f>
         <v>0.59375</v>
       </c>
       <c r="F121" s="2">
-        <f>M34</f>
+        <f>N34</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C122">
         <v>256</v>
       </c>
@@ -30379,15 +34343,15 @@
         <v>2490368</v>
       </c>
       <c r="E122" s="2">
-        <f>J48</f>
+        <f>K48</f>
         <v>0.296875</v>
       </c>
       <c r="F122" s="2">
-        <f>M48</f>
+        <f>N48</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C123">
         <v>512</v>
       </c>
@@ -30396,15 +34360,15 @@
         <v>2490368</v>
       </c>
       <c r="E123" s="2">
-        <f>J62</f>
+        <f>K62</f>
         <v>0.1484375</v>
       </c>
       <c r="F123" s="2">
-        <f>M62</f>
+        <f>N62</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C124">
         <v>1024</v>
       </c>
@@ -30413,15 +34377,15 @@
         <v>2490368</v>
       </c>
       <c r="E124" s="2">
-        <f>J76</f>
+        <f>K76</f>
         <v>7.421875E-2</v>
       </c>
       <c r="F124" s="2">
-        <f>M76</f>
+        <f>N76</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C125">
         <v>2048</v>
       </c>
@@ -30430,15 +34394,15 @@
         <v>2490368</v>
       </c>
       <c r="E125" s="2">
-        <f>J91</f>
+        <f>K91</f>
         <v>3.7109375E-2</v>
       </c>
       <c r="F125" s="2">
-        <f>M91</f>
+        <f>N91</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C126">
         <v>4096</v>
       </c>
@@ -30447,11 +34411,11 @@
         <v>2490368</v>
       </c>
       <c r="E126" s="2">
-        <f>J106</f>
+        <f>K106</f>
         <v>1.85546875E-2</v>
       </c>
       <c r="F126" s="2">
-        <f>M106</f>
+        <f>N106</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
@@ -30463,10 +34427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:J138"/>
+  <dimension ref="B3:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="U165" sqref="U165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30475,6 +34439,12 @@
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -32926,6 +36896,344 @@
       <c r="J138">
         <f>MIN(J124:J134)</f>
         <v>1.1355932203389831</v>
+      </c>
+    </row>
+    <row r="146" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K146" t="s">
+        <v>2</v>
+      </c>
+      <c r="L146" t="s">
+        <v>33</v>
+      </c>
+      <c r="M146" t="s">
+        <v>34</v>
+      </c>
+      <c r="N146" t="s">
+        <v>35</v>
+      </c>
+      <c r="O146" t="s">
+        <v>36</v>
+      </c>
+      <c r="T146" t="s">
+        <v>2</v>
+      </c>
+      <c r="U146" t="s">
+        <v>35</v>
+      </c>
+      <c r="V146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>32</v>
+      </c>
+      <c r="L147">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M147">
+        <v>49.8</v>
+      </c>
+      <c r="N147">
+        <v>63.1</v>
+      </c>
+      <c r="O147">
+        <v>82.9</v>
+      </c>
+      <c r="T147">
+        <v>32</v>
+      </c>
+      <c r="U147">
+        <v>63.1</v>
+      </c>
+      <c r="V147">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="148" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>64</v>
+      </c>
+      <c r="L148">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M148">
+        <v>106</v>
+      </c>
+      <c r="N148">
+        <v>98.4</v>
+      </c>
+      <c r="O148">
+        <v>167</v>
+      </c>
+      <c r="T148">
+        <v>64</v>
+      </c>
+      <c r="U148">
+        <v>98.4</v>
+      </c>
+      <c r="V148">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>128</v>
+      </c>
+      <c r="L149">
+        <v>134</v>
+      </c>
+      <c r="M149">
+        <v>206</v>
+      </c>
+      <c r="N149">
+        <v>187</v>
+      </c>
+      <c r="O149">
+        <v>326</v>
+      </c>
+      <c r="T149">
+        <v>128</v>
+      </c>
+      <c r="U149">
+        <v>187</v>
+      </c>
+      <c r="V149">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>256</v>
+      </c>
+      <c r="L150">
+        <v>264</v>
+      </c>
+      <c r="M150">
+        <v>407</v>
+      </c>
+      <c r="N150">
+        <v>394</v>
+      </c>
+      <c r="O150">
+        <v>649</v>
+      </c>
+      <c r="T150">
+        <v>256</v>
+      </c>
+      <c r="U150">
+        <v>394</v>
+      </c>
+      <c r="V150">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="151" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>512</v>
+      </c>
+      <c r="L151">
+        <v>524</v>
+      </c>
+      <c r="M151">
+        <v>807</v>
+      </c>
+      <c r="N151">
+        <v>804</v>
+      </c>
+      <c r="O151">
+        <v>1293</v>
+      </c>
+      <c r="T151">
+        <v>512</v>
+      </c>
+      <c r="U151">
+        <v>804</v>
+      </c>
+      <c r="V151">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="152" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>1024</v>
+      </c>
+      <c r="L152">
+        <v>1046</v>
+      </c>
+      <c r="M152">
+        <v>1608</v>
+      </c>
+      <c r="N152">
+        <v>1582</v>
+      </c>
+      <c r="O152">
+        <v>2583</v>
+      </c>
+      <c r="T152">
+        <v>1024</v>
+      </c>
+      <c r="U152">
+        <v>1582</v>
+      </c>
+      <c r="V152">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="153" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>2048</v>
+      </c>
+      <c r="L153">
+        <v>2087</v>
+      </c>
+      <c r="M153">
+        <v>7867</v>
+      </c>
+      <c r="N153">
+        <v>5512</v>
+      </c>
+      <c r="O153">
+        <v>9020</v>
+      </c>
+      <c r="T153">
+        <v>2048</v>
+      </c>
+      <c r="U153">
+        <v>5512</v>
+      </c>
+      <c r="V153">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="154" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>4096</v>
+      </c>
+      <c r="L154">
+        <v>5630</v>
+      </c>
+      <c r="M154">
+        <v>16354</v>
+      </c>
+      <c r="N154">
+        <v>11770</v>
+      </c>
+      <c r="O154">
+        <v>17625</v>
+      </c>
+      <c r="T154">
+        <v>4096</v>
+      </c>
+      <c r="U154">
+        <v>11770</v>
+      </c>
+      <c r="V154">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="155" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>8192</v>
+      </c>
+      <c r="L155">
+        <v>11062</v>
+      </c>
+      <c r="M155">
+        <v>34423</v>
+      </c>
+      <c r="N155">
+        <v>24574</v>
+      </c>
+      <c r="O155">
+        <v>37067</v>
+      </c>
+      <c r="T155">
+        <v>8192</v>
+      </c>
+      <c r="U155">
+        <v>24574</v>
+      </c>
+      <c r="V155">
+        <v>37067</v>
+      </c>
+    </row>
+    <row r="156" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K156" s="1">
+        <v>16384</v>
+      </c>
+      <c r="L156">
+        <v>22114</v>
+      </c>
+      <c r="M156">
+        <v>71574</v>
+      </c>
+      <c r="N156">
+        <v>50872</v>
+      </c>
+      <c r="O156">
+        <v>75772</v>
+      </c>
+      <c r="T156" s="1">
+        <v>16384</v>
+      </c>
+      <c r="U156">
+        <v>50872</v>
+      </c>
+      <c r="V156">
+        <v>75772</v>
+      </c>
+    </row>
+    <row r="157" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K157" s="1">
+        <v>32768</v>
+      </c>
+      <c r="L157">
+        <v>44248</v>
+      </c>
+      <c r="M157">
+        <v>146161</v>
+      </c>
+      <c r="N157">
+        <v>100888</v>
+      </c>
+      <c r="O157">
+        <v>153956</v>
+      </c>
+      <c r="T157" s="1">
+        <v>32768</v>
+      </c>
+      <c r="U157">
+        <v>100888</v>
+      </c>
+      <c r="V157">
+        <v>153956</v>
+      </c>
+    </row>
+    <row r="158" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="K158" s="1">
+        <v>65536</v>
+      </c>
+      <c r="L158">
+        <v>93413</v>
+      </c>
+      <c r="M158">
+        <v>318490</v>
+      </c>
+      <c r="N158">
+        <v>223842</v>
+      </c>
+      <c r="O158">
+        <v>337634</v>
+      </c>
+      <c r="T158" s="1">
+        <v>65536</v>
+      </c>
+      <c r="U158">
+        <v>223842</v>
+      </c>
+      <c r="V158">
+        <v>337634</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DB9BD-6912-914B-814A-EDDB73151C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC09DC7-19C2-AB44-A303-964F15AAE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
   <si>
     <t>unordered_map</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>lookup-reverse</t>
+  </si>
+  <si>
+    <t>lookup-reverse-pointer</t>
   </si>
 </sst>
 </file>
@@ -768,6 +771,264 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8C20-524A-A6B2-83B68BBE656E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>370496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1483152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2966840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5934240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE00-2B45-A4C2-CA8BF7835C5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>675816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1352080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2704696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5409952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE00-2B45-A4C2-CA8BF7835C5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1552,6 +1813,264 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6819-D242-A0AE-8476AA72E618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$106:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$106:$H$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>135808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1086552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2173248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4346664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8693568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17387496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34775440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69551416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139103392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7060-EC4F-8E66-AEBB2FF50055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$106:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$106:$I$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>135296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1082456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2165056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4330280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8660800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17321960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34644368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69289272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138579104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7060-EC4F-8E66-AEBB2FF50055}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8500,6 +9019,264 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$20:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1745296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3491128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6982816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20B5-5F41-989E-3F0335B7D6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$20:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>806888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1614224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3228984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6458528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20B5-5F41-989E-3F0335B7D6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -12638,6 +13415,264 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$91:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$91:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>562264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1124672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2249512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4499264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8998888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17998224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35996984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71994528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-032F-5049-9BCB-F4E4FEED82FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$91:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$91:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>558168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1116480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4466496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8933352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17867152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35734840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71470240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-032F-5049-9BCB-F4E4FEED82FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -13419,6 +14454,264 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E347-3340-BB45-117F0D92F634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$76:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$76:$H$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2402112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4804584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9609616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19219768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38440096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F797-FA42-8BA9-84CF8F008867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$76:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$76:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>36992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>592192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1184552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2369344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4739048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9478544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18957624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37915808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F797-FA42-8BA9-84CF8F008867}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14206,6 +15499,264 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$62:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$62:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>21120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>676648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1353536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2707432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5415312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10831160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21662880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27B9-A246-93EA-3D23AC510ABF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$62:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$62:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1320768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2641896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5284240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10569016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21138592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27B9-A246-93EA-3D23AC510ABF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -14514,10 +16065,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$C$48:$C$58</c:f>
+              <c:f>Memory!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -14547,19 +16098,16 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$D$48:$D$58</c:f>
+              <c:f>Memory!$D$48:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8192</c:v>
                 </c:pt>
@@ -14589,9 +16137,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14643,10 +16188,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$C$48:$C$58</c:f>
+              <c:f>Memory!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -14676,19 +16221,16 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$E$48:$E$58</c:f>
+              <c:f>Memory!$E$48:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9728</c:v>
                 </c:pt>
@@ -14718,9 +16260,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4980736</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9961472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14772,10 +16311,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$C$48:$C$58</c:f>
+              <c:f>Memory!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -14805,19 +16344,16 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$F$48:$F$58</c:f>
+              <c:f>Memory!$F$48:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8832</c:v>
                 </c:pt>
@@ -14847,9 +16383,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4521984</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9043968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14901,10 +16434,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$C$48:$C$58</c:f>
+              <c:f>Memory!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -14934,19 +16467,16 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$G$48:$G$58</c:f>
+              <c:f>Memory!$G$48:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10624</c:v>
                 </c:pt>
@@ -14976,9 +16506,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5439488</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10878976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14987,6 +16514,252 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-79A2-5846-8A11-E81FEFD5CF50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$48:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$48:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>829248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3318160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6636856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D129-2141-A603-C92DFDAD34CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$48:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$48:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>796480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1593320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3187088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6374712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D129-2141-A603-C92DFDAD34CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15771,6 +17544,264 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3B0C-6443-AFA2-DD05304987B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$34:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$34:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>283432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>567104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1134568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2269584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4539704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9079968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC87-3B42-A599-4B80474DB040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$34:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$34:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1069032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2138512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4277560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8555680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC87-3B42-A599-4B80474DB040}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16138,7 +18169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$J$34:$J$44</c:f>
+              <c:f>Memory!$K$34:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -29631,13 +31662,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -29667,13 +31698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -29703,13 +31734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -29739,13 +31770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -29775,13 +31806,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -29811,13 +31842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -29847,13 +31878,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -29883,13 +31914,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -29919,13 +31950,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -29955,13 +31986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -30762,11 +32793,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
-  <dimension ref="C3:N126"/>
+  <dimension ref="C3:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30776,18 +32805,19 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -30806,20 +32836,23 @@
       <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>32</v>
       </c>
@@ -30838,24 +32871,27 @@
       <c r="H5">
         <v>5760</v>
       </c>
-      <c r="J5">
+      <c r="I5">
+        <v>5248</v>
+      </c>
+      <c r="K5">
         <f>$G5-D5</f>
         <v>2432</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5:K15" si="0">J5/D5</f>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L15" si="0">K5/D5</f>
         <v>2.375</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f>$G5-E5</f>
         <v>896</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N15" si="1">M5/G5</f>
+      <c r="O5" s="2">
+        <f>N5/G5</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>64</v>
       </c>
@@ -30874,24 +32910,27 @@
       <c r="H6">
         <v>11464</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J15" si="2">$G6-D6</f>
+      <c r="I6">
+        <v>10440</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K15" si="1">$G6-D6</f>
         <v>4864</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">$G6-E6</f>
+      <c r="N6">
+        <f t="shared" ref="N6:N15" si="2">$G6-E6</f>
         <v>1792</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="1"/>
+      <c r="O6" s="2">
+        <f>N6/G6</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>128</v>
       </c>
@@ -30910,24 +32949,27 @@
       <c r="H7">
         <v>23024</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <v>20976</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
         <v>9728</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
+      <c r="N7">
+        <f t="shared" si="2"/>
         <v>3584</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
+      <c r="O7" s="2">
+        <f>N7/G7</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>256</v>
       </c>
@@ -30946,24 +32988,27 @@
       <c r="H8">
         <v>46168</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <v>42072</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
         <v>19456</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
+      <c r="N8">
+        <f t="shared" si="2"/>
         <v>7168</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="1"/>
+      <c r="O8" s="2">
+        <f>N8/G8</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>512</v>
       </c>
@@ -30982,24 +33027,27 @@
       <c r="H9">
         <v>92480</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <v>84288</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
         <v>38912</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="N9">
+        <f t="shared" si="2"/>
         <v>14336</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
+      <c r="O9" s="2">
+        <f>N9/G9</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1024</v>
       </c>
@@ -31018,24 +33066,27 @@
       <c r="H10">
         <v>185128</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
+      <c r="I10">
+        <v>168744</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
         <v>77824</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="N10">
+        <f t="shared" si="2"/>
         <v>28672</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="1"/>
+      <c r="O10" s="2">
+        <f>N10/G10</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -31054,24 +33105,27 @@
       <c r="H11">
         <v>370496</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
+      <c r="I11">
+        <v>337728</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
         <v>155648</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="N11">
+        <f t="shared" si="2"/>
         <v>57344</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="1"/>
+      <c r="O11" s="2">
+        <f>N11/G11</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>4096</v>
       </c>
@@ -31090,24 +33144,27 @@
       <c r="H12">
         <v>741352</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
+      <c r="I12">
+        <v>675816</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
         <v>311296</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
+      <c r="N12">
+        <f t="shared" si="2"/>
         <v>114688</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="1"/>
+      <c r="O12" s="2">
+        <f>N12/G12</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>8192</v>
       </c>
@@ -31126,24 +33183,27 @@
       <c r="H13">
         <v>1483152</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
+      <c r="I13">
+        <v>1352080</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
         <v>622592</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
+      <c r="N13">
+        <f t="shared" si="2"/>
         <v>229376</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
+      <c r="O13" s="2">
+        <f>N13/G13</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>16384</v>
       </c>
@@ -31162,24 +33222,27 @@
       <c r="H14">
         <v>2966840</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
+      <c r="I14">
+        <v>2704696</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
         <v>1245184</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
+      <c r="N14">
+        <f t="shared" si="2"/>
         <v>458752</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="1"/>
+      <c r="O14" s="2">
+        <f>N14/G14</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>32768</v>
       </c>
@@ -31198,29 +33261,32 @@
       <c r="H15">
         <v>5934240</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
+      <c r="I15">
+        <v>5409952</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
         <v>2490368</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
+      <c r="N15">
+        <f t="shared" si="2"/>
         <v>917504</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="1"/>
+      <c r="O15" s="2">
+        <f>N15/G15</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -31239,20 +33305,23 @@
       <c r="H19" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>13</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>32</v>
       </c>
@@ -31271,24 +33340,27 @@
       <c r="H20">
         <v>6784</v>
       </c>
-      <c r="J20">
+      <c r="I20">
+        <v>6272</v>
+      </c>
+      <c r="K20">
         <f>G20-D20</f>
         <v>2432</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" ref="K20:K30" si="4">J20/D20</f>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L30" si="3">K20/D20</f>
         <v>1.1875</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f>$G20-E20</f>
         <v>896</v>
       </c>
-      <c r="N20" s="2">
-        <f>M20/G20</f>
+      <c r="O20" s="2">
+        <f>N20/G20</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>64</v>
       </c>
@@ -31307,24 +33379,27 @@
       <c r="H21">
         <v>13512</v>
       </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J30" si="5">G21-D21</f>
+      <c r="I21">
+        <v>12488</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K30" si="4">G21-D21</f>
         <v>4864</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="4"/>
+      <c r="L21" s="2">
+        <f t="shared" si="3"/>
         <v>1.1875</v>
       </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M30" si="6">$G21-E21</f>
+      <c r="N21">
+        <f t="shared" ref="N21:N30" si="5">$G21-E21</f>
         <v>1792</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21:N30" si="7">M21/G21</f>
+      <c r="O21" s="2">
+        <f t="shared" ref="O21:O30" si="6">N21/G21</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>128</v>
       </c>
@@ -31343,24 +33418,27 @@
       <c r="H22">
         <v>27120</v>
       </c>
-      <c r="J22">
+      <c r="I22">
+        <v>25072</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>9728</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="5"/>
-        <v>9728</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M22">
+        <v>3584</v>
+      </c>
+      <c r="O22" s="2">
         <f t="shared" si="6"/>
-        <v>3584</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>256</v>
       </c>
@@ -31379,24 +33457,27 @@
       <c r="H23">
         <v>54360</v>
       </c>
-      <c r="J23">
+      <c r="I23">
+        <v>50264</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>19456</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="5"/>
-        <v>19456</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M23">
+        <v>7168</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="6"/>
-        <v>7168</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>512</v>
       </c>
@@ -31415,24 +33496,27 @@
       <c r="H24">
         <v>108864</v>
       </c>
-      <c r="J24">
+      <c r="I24">
+        <v>100672</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>38912</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="5"/>
-        <v>38912</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M24">
+        <v>14336</v>
+      </c>
+      <c r="O24" s="2">
         <f t="shared" si="6"/>
-        <v>14336</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1024</v>
       </c>
@@ -31451,24 +33535,27 @@
       <c r="H25">
         <v>217896</v>
       </c>
-      <c r="J25">
+      <c r="I25">
+        <v>201512</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>77824</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="5"/>
-        <v>77824</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M25">
+        <v>28672</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="6"/>
-        <v>28672</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>2048</v>
       </c>
@@ -31487,24 +33574,27 @@
       <c r="H26">
         <v>436032</v>
       </c>
-      <c r="J26">
+      <c r="I26">
+        <v>403264</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>155648</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="5"/>
-        <v>155648</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M26">
+        <v>57344</v>
+      </c>
+      <c r="O26" s="2">
         <f t="shared" si="6"/>
-        <v>57344</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>4096</v>
       </c>
@@ -31523,24 +33613,27 @@
       <c r="H27">
         <v>872424</v>
       </c>
-      <c r="J27">
+      <c r="I27">
+        <v>806888</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>311296</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="5"/>
-        <v>311296</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M27">
+        <v>114688</v>
+      </c>
+      <c r="O27" s="2">
         <f t="shared" si="6"/>
-        <v>114688</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>8192</v>
       </c>
@@ -31559,24 +33652,27 @@
       <c r="H28">
         <v>1745296</v>
       </c>
-      <c r="J28">
+      <c r="I28">
+        <v>1614224</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>622592</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="5"/>
-        <v>622592</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M28">
+        <v>229376</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="6"/>
-        <v>229376</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>16384</v>
       </c>
@@ -31595,24 +33691,27 @@
       <c r="H29">
         <v>3491128</v>
       </c>
-      <c r="J29">
+      <c r="I29">
+        <v>3228984</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1245184</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="5"/>
-        <v>1245184</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M29">
+        <v>458752</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="6"/>
-        <v>458752</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>32768</v>
       </c>
@@ -31631,33 +33730,36 @@
       <c r="H30">
         <v>6982816</v>
       </c>
-      <c r="J30">
+      <c r="I30">
+        <v>6458528</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>2490368</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="5"/>
-        <v>2490368</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1875</v>
-      </c>
-      <c r="M30">
+        <v>917504</v>
+      </c>
+      <c r="O30" s="2">
         <f t="shared" si="6"/>
-        <v>917504</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
-      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -31676,20 +33778,23 @@
       <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
         <v>10</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>11</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>13</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>32</v>
       </c>
@@ -31708,24 +33813,27 @@
       <c r="H34">
         <v>8832</v>
       </c>
-      <c r="J34">
+      <c r="I34">
+        <v>8320</v>
+      </c>
+      <c r="K34">
         <f>G34-D34</f>
         <v>2432</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" ref="K34:K44" si="8">J34/D34</f>
+      <c r="L34" s="2">
+        <f t="shared" ref="L34:L44" si="7">K34/D34</f>
         <v>0.59375</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f>$G34-E34</f>
         <v>896</v>
       </c>
-      <c r="N34" s="2">
-        <f>M34/G34</f>
+      <c r="O34" s="2">
+        <f>N34/G34</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>64</v>
       </c>
@@ -31744,24 +33852,27 @@
       <c r="H35">
         <v>17608</v>
       </c>
-      <c r="J35">
-        <f t="shared" ref="J35:J44" si="9">G35-D35</f>
+      <c r="I35">
+        <v>16584</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K44" si="8">G35-D35</f>
         <v>4864</v>
       </c>
-      <c r="K35" s="2">
-        <f t="shared" si="8"/>
+      <c r="L35" s="2">
+        <f t="shared" si="7"/>
         <v>0.59375</v>
       </c>
-      <c r="M35">
-        <f t="shared" ref="M35:M44" si="10">$G35-E35</f>
+      <c r="N35">
+        <f t="shared" ref="N35:N44" si="9">$G35-E35</f>
         <v>1792</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" ref="N35:N44" si="11">M35/G35</f>
+      <c r="O35" s="2">
+        <f t="shared" ref="O35:O44" si="10">N35/G35</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>128</v>
       </c>
@@ -31780,24 +33891,27 @@
       <c r="H36">
         <v>35312</v>
       </c>
-      <c r="J36">
+      <c r="I36">
+        <v>33264</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>9728</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="9"/>
-        <v>9728</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M36">
+        <v>3584</v>
+      </c>
+      <c r="O36" s="2">
         <f t="shared" si="10"/>
-        <v>3584</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>256</v>
       </c>
@@ -31816,24 +33930,27 @@
       <c r="H37">
         <v>70744</v>
       </c>
-      <c r="J37">
+      <c r="I37">
+        <v>66648</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>19456</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="9"/>
-        <v>19456</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M37">
+        <v>7168</v>
+      </c>
+      <c r="O37" s="2">
         <f t="shared" si="10"/>
-        <v>7168</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>512</v>
       </c>
@@ -31852,24 +33969,27 @@
       <c r="H38">
         <v>141632</v>
       </c>
-      <c r="J38">
+      <c r="I38">
+        <v>133440</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>38912</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="9"/>
-        <v>38912</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M38">
+        <v>14336</v>
+      </c>
+      <c r="O38" s="2">
         <f t="shared" si="10"/>
-        <v>14336</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>1024</v>
       </c>
@@ -31888,24 +34008,27 @@
       <c r="H39">
         <v>283432</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="9"/>
+      <c r="I39">
+        <v>267048</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
         <v>77824</v>
       </c>
-      <c r="K39" s="2">
-        <f t="shared" si="8"/>
+      <c r="L39" s="2">
+        <f t="shared" si="7"/>
         <v>0.59375</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <f>$G39-E39</f>
         <v>28672</v>
       </c>
-      <c r="N39" s="2">
-        <f t="shared" si="11"/>
+      <c r="O39" s="2">
+        <f t="shared" si="10"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>2048</v>
       </c>
@@ -31924,24 +34047,27 @@
       <c r="H40">
         <v>567104</v>
       </c>
-      <c r="J40">
+      <c r="I40">
+        <v>534336</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>155648</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="9"/>
-        <v>155648</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M40">
+        <v>57344</v>
+      </c>
+      <c r="O40" s="2">
         <f t="shared" si="10"/>
-        <v>57344</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -31960,24 +34086,27 @@
       <c r="H41">
         <v>1134568</v>
       </c>
-      <c r="J41">
+      <c r="I41">
+        <v>1069032</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>311296</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="9"/>
-        <v>311296</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M41">
+        <v>114688</v>
+      </c>
+      <c r="O41" s="2">
         <f t="shared" si="10"/>
-        <v>114688</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>8192</v>
       </c>
@@ -31996,24 +34125,27 @@
       <c r="H42">
         <v>2269584</v>
       </c>
-      <c r="J42">
+      <c r="I42">
+        <v>2138512</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>622592</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="9"/>
-        <v>622592</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M42">
+        <v>229376</v>
+      </c>
+      <c r="O42" s="2">
         <f t="shared" si="10"/>
-        <v>229376</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>16384</v>
       </c>
@@ -32032,24 +34164,27 @@
       <c r="H43">
         <v>4539704</v>
       </c>
-      <c r="J43">
+      <c r="I43">
+        <v>4277560</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>1245184</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="9"/>
-        <v>1245184</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M43">
+        <v>458752</v>
+      </c>
+      <c r="O43" s="2">
         <f t="shared" si="10"/>
-        <v>458752</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>32768</v>
       </c>
@@ -32068,33 +34203,36 @@
       <c r="H44">
         <v>9079968</v>
       </c>
-      <c r="J44">
+      <c r="I44">
+        <v>8555680</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>2490368</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="9"/>
-        <v>2490368</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59375</v>
-      </c>
-      <c r="M44">
+        <v>917504</v>
+      </c>
+      <c r="O44" s="2">
         <f t="shared" si="10"/>
-        <v>917504</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="11"/>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -32113,20 +34251,23 @@
       <c r="H47" t="s">
         <v>37</v>
       </c>
-      <c r="J47" t="s">
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>11</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>13</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>32</v>
       </c>
@@ -32145,24 +34286,27 @@
       <c r="H48">
         <v>12928</v>
       </c>
-      <c r="J48">
+      <c r="I48">
+        <v>12416</v>
+      </c>
+      <c r="K48">
         <f>G48-D48</f>
         <v>2432</v>
       </c>
-      <c r="K48" s="2">
-        <f t="shared" ref="K48:K58" si="12">J48/D48</f>
+      <c r="L48" s="2">
+        <f t="shared" ref="L48:L58" si="11">K48/D48</f>
         <v>0.296875</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <f>$G48-E48</f>
         <v>896</v>
       </c>
-      <c r="N48" s="2">
-        <f>M48/G48</f>
+      <c r="O48" s="2">
+        <f>N48/G48</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>64</v>
       </c>
@@ -32181,24 +34325,27 @@
       <c r="H49">
         <v>25800</v>
       </c>
-      <c r="J49">
-        <f t="shared" ref="J49:J58" si="13">G49-D49</f>
+      <c r="I49">
+        <v>24776</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:K58" si="12">G49-D49</f>
         <v>4864</v>
       </c>
-      <c r="K49" s="2">
-        <f t="shared" si="12"/>
+      <c r="L49" s="2">
+        <f t="shared" si="11"/>
         <v>0.296875</v>
       </c>
-      <c r="M49">
-        <f t="shared" ref="M49:M58" si="14">$G49-E49</f>
+      <c r="N49">
+        <f t="shared" ref="N49:N58" si="13">$G49-E49</f>
         <v>1792</v>
       </c>
-      <c r="N49" s="2">
-        <f t="shared" ref="N49:N58" si="15">M49/G49</f>
+      <c r="O49" s="2">
+        <f t="shared" ref="O49:O58" si="14">N49/G49</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>128</v>
       </c>
@@ -32217,24 +34364,27 @@
       <c r="H50">
         <v>51696</v>
       </c>
-      <c r="J50">
+      <c r="I50">
+        <v>49648</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>9728</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="13"/>
-        <v>9728</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M50">
+        <v>3584</v>
+      </c>
+      <c r="O50" s="2">
         <f t="shared" si="14"/>
-        <v>3584</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>256</v>
       </c>
@@ -32253,24 +34403,27 @@
       <c r="H51">
         <v>103512</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="13"/>
+      <c r="I51">
+        <v>99416</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
         <v>19456</v>
       </c>
-      <c r="K51" s="2">
-        <f t="shared" si="12"/>
+      <c r="L51" s="2">
+        <f t="shared" si="11"/>
         <v>0.296875</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <f>$G51-E51</f>
         <v>7168</v>
       </c>
-      <c r="N51" s="2">
-        <f t="shared" si="15"/>
+      <c r="O51" s="2">
+        <f t="shared" si="14"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>512</v>
       </c>
@@ -32289,24 +34442,27 @@
       <c r="H52">
         <v>207168</v>
       </c>
-      <c r="J52">
+      <c r="I52">
+        <v>198976</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>38912</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="13"/>
-        <v>38912</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M52">
+        <v>14336</v>
+      </c>
+      <c r="O52" s="2">
         <f t="shared" si="14"/>
-        <v>14336</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>1024</v>
       </c>
@@ -32325,24 +34481,27 @@
       <c r="H53">
         <v>414504</v>
       </c>
-      <c r="J53">
+      <c r="I53">
+        <v>398120</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>77824</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="13"/>
-        <v>77824</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M53">
+        <v>28672</v>
+      </c>
+      <c r="O53" s="2">
         <f t="shared" si="14"/>
-        <v>28672</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>2048</v>
       </c>
@@ -32361,24 +34520,27 @@
       <c r="H54">
         <v>829248</v>
       </c>
-      <c r="J54">
+      <c r="I54">
+        <v>796480</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>155648</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="13"/>
-        <v>155648</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M54">
+        <v>57344</v>
+      </c>
+      <c r="O54" s="2">
         <f t="shared" si="14"/>
-        <v>57344</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>4096</v>
       </c>
@@ -32397,24 +34559,27 @@
       <c r="H55">
         <v>1658856</v>
       </c>
-      <c r="J55">
+      <c r="I55">
+        <v>1593320</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>311296</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="13"/>
-        <v>311296</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M55">
+        <v>114688</v>
+      </c>
+      <c r="O55" s="2">
         <f t="shared" si="14"/>
-        <v>114688</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>8192</v>
       </c>
@@ -32433,24 +34598,27 @@
       <c r="H56">
         <v>3318160</v>
       </c>
-      <c r="J56">
+      <c r="I56">
+        <v>3187088</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="12"/>
+        <v>622592</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="13"/>
-        <v>622592</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M56">
+        <v>229376</v>
+      </c>
+      <c r="O56" s="2">
         <f t="shared" si="14"/>
-        <v>229376</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>16384</v>
       </c>
@@ -32469,24 +34637,27 @@
       <c r="H57">
         <v>6636856</v>
       </c>
-      <c r="J57">
+      <c r="I57">
+        <v>6374712</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="12"/>
+        <v>1245184</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="13"/>
-        <v>1245184</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M57">
+        <v>458752</v>
+      </c>
+      <c r="O57" s="2">
         <f t="shared" si="14"/>
-        <v>458752</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>32768</v>
       </c>
@@ -32505,29 +34676,32 @@
       <c r="H58">
         <v>13274272</v>
       </c>
-      <c r="J58">
+      <c r="I58">
+        <v>12749984</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="12"/>
+        <v>2490368</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.296875</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="13"/>
-        <v>2490368</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="12"/>
-        <v>0.296875</v>
-      </c>
-      <c r="M58">
+        <v>917504</v>
+      </c>
+      <c r="O58" s="2">
         <f t="shared" si="14"/>
-        <v>917504</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="15"/>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -32546,20 +34720,23 @@
       <c r="H61" t="s">
         <v>37</v>
       </c>
-      <c r="J61" t="s">
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
         <v>10</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>11</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>13</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>32</v>
       </c>
@@ -32578,24 +34755,27 @@
       <c r="H62">
         <v>21120</v>
       </c>
-      <c r="J62">
+      <c r="I62">
+        <v>20608</v>
+      </c>
+      <c r="K62">
         <f>G62-D62</f>
         <v>2432</v>
       </c>
-      <c r="K62" s="2">
-        <f t="shared" ref="K62:K72" si="16">J62/D62</f>
+      <c r="L62" s="2">
+        <f t="shared" ref="L62:L72" si="15">K62/D62</f>
         <v>0.1484375</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <f>$G62-E62</f>
         <v>896</v>
       </c>
-      <c r="N62" s="2">
-        <f>M62/G62</f>
+      <c r="O62" s="2">
+        <f>N62/G62</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>64</v>
       </c>
@@ -32614,24 +34794,27 @@
       <c r="H63">
         <v>42184</v>
       </c>
-      <c r="J63">
-        <f t="shared" ref="J63:J72" si="17">G63-D63</f>
+      <c r="I63">
+        <v>41160</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:K72" si="16">G63-D63</f>
         <v>4864</v>
       </c>
-      <c r="K63" s="2">
-        <f t="shared" si="16"/>
+      <c r="L63" s="2">
+        <f t="shared" si="15"/>
         <v>0.1484375</v>
       </c>
-      <c r="M63">
-        <f t="shared" ref="M63:M72" si="18">$G63-E63</f>
+      <c r="N63">
+        <f t="shared" ref="N63:N72" si="17">$G63-E63</f>
         <v>1792</v>
       </c>
-      <c r="N63" s="2">
-        <f t="shared" ref="N63:N72" si="19">M63/G63</f>
+      <c r="O63" s="2">
+        <f t="shared" ref="O63:O72" si="18">N63/G63</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>128</v>
       </c>
@@ -32650,24 +34833,27 @@
       <c r="H64">
         <v>84464</v>
       </c>
-      <c r="J64">
+      <c r="I64">
+        <v>82416</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="16"/>
+        <v>9728</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="17"/>
-        <v>9728</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M64">
+        <v>3584</v>
+      </c>
+      <c r="O64" s="2">
         <f t="shared" si="18"/>
-        <v>3584</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>256</v>
       </c>
@@ -32686,24 +34872,27 @@
       <c r="H65">
         <v>169048</v>
       </c>
-      <c r="J65">
+      <c r="I65">
+        <v>164952</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="16"/>
+        <v>19456</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="17"/>
-        <v>19456</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M65">
+        <v>7168</v>
+      </c>
+      <c r="O65" s="2">
         <f t="shared" si="18"/>
-        <v>7168</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>512</v>
       </c>
@@ -32722,24 +34911,27 @@
       <c r="H66">
         <v>338240</v>
       </c>
-      <c r="J66">
+      <c r="I66">
+        <v>330048</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="16"/>
+        <v>38912</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="17"/>
-        <v>38912</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M66">
+        <v>14336</v>
+      </c>
+      <c r="O66" s="2">
         <f t="shared" si="18"/>
-        <v>14336</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>1024</v>
       </c>
@@ -32758,24 +34950,27 @@
       <c r="H67">
         <v>676648</v>
       </c>
-      <c r="J67">
+      <c r="I67">
+        <v>660264</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="16"/>
+        <v>77824</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="17"/>
-        <v>77824</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M67">
+        <v>28672</v>
+      </c>
+      <c r="O67" s="2">
         <f t="shared" si="18"/>
-        <v>28672</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>2048</v>
       </c>
@@ -32794,24 +34989,27 @@
       <c r="H68">
         <v>1353536</v>
       </c>
-      <c r="J68">
+      <c r="I68">
+        <v>1320768</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="16"/>
+        <v>155648</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="17"/>
-        <v>155648</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M68">
+        <v>57344</v>
+      </c>
+      <c r="O68" s="2">
         <f t="shared" si="18"/>
-        <v>57344</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>4096</v>
       </c>
@@ -32830,24 +35028,27 @@
       <c r="H69">
         <v>2707432</v>
       </c>
-      <c r="J69">
+      <c r="I69">
+        <v>2641896</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="16"/>
+        <v>311296</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="17"/>
-        <v>311296</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M69">
+        <v>114688</v>
+      </c>
+      <c r="O69" s="2">
         <f t="shared" si="18"/>
-        <v>114688</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>8192</v>
       </c>
@@ -32866,24 +35067,27 @@
       <c r="H70">
         <v>5415312</v>
       </c>
-      <c r="J70">
+      <c r="I70">
+        <v>5284240</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="16"/>
+        <v>622592</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="17"/>
-        <v>622592</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M70">
+        <v>229376</v>
+      </c>
+      <c r="O70" s="2">
         <f t="shared" si="18"/>
-        <v>229376</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
         <v>16384</v>
       </c>
@@ -32902,24 +35106,27 @@
       <c r="H71">
         <v>10831160</v>
       </c>
-      <c r="J71">
+      <c r="I71">
+        <v>10569016</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="16"/>
+        <v>1245184</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="17"/>
-        <v>1245184</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M71">
+        <v>458752</v>
+      </c>
+      <c r="O71" s="2">
         <f t="shared" si="18"/>
-        <v>458752</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
         <v>32768</v>
       </c>
@@ -32938,33 +35145,36 @@
       <c r="H72">
         <v>21662880</v>
       </c>
-      <c r="J72">
+      <c r="I72">
+        <v>21138592</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="16"/>
+        <v>2490368</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="17"/>
-        <v>2490368</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="M72">
+        <v>917504</v>
+      </c>
+      <c r="O72" s="2">
         <f t="shared" si="18"/>
-        <v>917504</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="19"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
-      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -32983,20 +35193,23 @@
       <c r="H75" t="s">
         <v>37</v>
       </c>
-      <c r="J75" t="s">
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" t="s">
         <v>10</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>11</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>13</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>32</v>
       </c>
@@ -33015,24 +35228,27 @@
       <c r="H76">
         <v>37504</v>
       </c>
-      <c r="J76">
+      <c r="I76">
+        <v>36992</v>
+      </c>
+      <c r="K76">
         <f>G76-D76</f>
         <v>2432</v>
       </c>
-      <c r="K76" s="2">
-        <f t="shared" ref="K76:K86" si="20">J76/D76</f>
+      <c r="L76" s="2">
+        <f t="shared" ref="L76:L86" si="19">K76/D76</f>
         <v>7.421875E-2</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <f>$G76-E76</f>
         <v>896</v>
       </c>
-      <c r="N76" s="2">
-        <f>M76/G76</f>
+      <c r="O76" s="2">
+        <f>N76/G76</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>64</v>
       </c>
@@ -33051,24 +35267,27 @@
       <c r="H77">
         <v>74952</v>
       </c>
-      <c r="J77">
-        <f t="shared" ref="J77:J86" si="21">G77-D77</f>
+      <c r="I77">
+        <v>73928</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K86" si="20">G77-D77</f>
         <v>4864</v>
       </c>
-      <c r="K77" s="2">
-        <f t="shared" si="20"/>
+      <c r="L77" s="2">
+        <f t="shared" si="19"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="M77">
-        <f t="shared" ref="M77:M86" si="22">$G77-E77</f>
+      <c r="N77">
+        <f t="shared" ref="N77:N86" si="21">$G77-E77</f>
         <v>1792</v>
       </c>
-      <c r="N77" s="2">
-        <f t="shared" ref="N77:N86" si="23">M77/G77</f>
+      <c r="O77" s="2">
+        <f t="shared" ref="O77:O86" si="22">N77/G77</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>128</v>
       </c>
@@ -33087,24 +35306,27 @@
       <c r="H78">
         <v>150000</v>
       </c>
-      <c r="J78">
+      <c r="I78">
+        <v>147952</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="20"/>
+        <v>9728</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="21"/>
-        <v>9728</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M78">
+        <v>3584</v>
+      </c>
+      <c r="O78" s="2">
         <f t="shared" si="22"/>
-        <v>3584</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>256</v>
       </c>
@@ -33123,24 +35345,27 @@
       <c r="H79">
         <v>300120</v>
       </c>
-      <c r="J79">
+      <c r="I79">
+        <v>296024</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="20"/>
+        <v>19456</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="21"/>
-        <v>19456</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M79">
+        <v>7168</v>
+      </c>
+      <c r="O79" s="2">
         <f t="shared" si="22"/>
-        <v>7168</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>512</v>
       </c>
@@ -33159,24 +35384,27 @@
       <c r="H80">
         <v>600384</v>
       </c>
-      <c r="J80">
+      <c r="I80">
+        <v>592192</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="20"/>
+        <v>38912</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N80">
         <f t="shared" si="21"/>
-        <v>38912</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M80">
+        <v>14336</v>
+      </c>
+      <c r="O80" s="2">
         <f t="shared" si="22"/>
-        <v>14336</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>1024</v>
       </c>
@@ -33195,24 +35423,27 @@
       <c r="H81">
         <v>1200936</v>
       </c>
-      <c r="J81">
+      <c r="I81">
+        <v>1184552</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="20"/>
+        <v>77824</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N81">
         <f t="shared" si="21"/>
-        <v>77824</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M81">
+        <v>28672</v>
+      </c>
+      <c r="O81" s="2">
         <f t="shared" si="22"/>
-        <v>28672</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>2048</v>
       </c>
@@ -33231,24 +35462,27 @@
       <c r="H82">
         <v>2402112</v>
       </c>
-      <c r="J82">
+      <c r="I82">
+        <v>2369344</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="20"/>
+        <v>155648</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="21"/>
-        <v>155648</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M82">
+        <v>57344</v>
+      </c>
+      <c r="O82" s="2">
         <f t="shared" si="22"/>
-        <v>57344</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>4096</v>
       </c>
@@ -33267,24 +35501,27 @@
       <c r="H83">
         <v>4804584</v>
       </c>
-      <c r="J83">
+      <c r="I83">
+        <v>4739048</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="20"/>
+        <v>311296</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N83">
         <f t="shared" si="21"/>
-        <v>311296</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M83">
+        <v>114688</v>
+      </c>
+      <c r="O83" s="2">
         <f t="shared" si="22"/>
-        <v>114688</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>8192</v>
       </c>
@@ -33303,24 +35540,27 @@
       <c r="H84">
         <v>9609616</v>
       </c>
-      <c r="J84">
+      <c r="I84">
+        <v>9478544</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="20"/>
+        <v>622592</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N84">
         <f t="shared" si="21"/>
-        <v>622592</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M84">
+        <v>229376</v>
+      </c>
+      <c r="O84" s="2">
         <f t="shared" si="22"/>
-        <v>229376</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>16384</v>
       </c>
@@ -33339,24 +35579,27 @@
       <c r="H85">
         <v>19219768</v>
       </c>
-      <c r="J85">
+      <c r="I85">
+        <v>18957624</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="20"/>
+        <v>1245184</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="21"/>
-        <v>1245184</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M85">
+        <v>458752</v>
+      </c>
+      <c r="O85" s="2">
         <f t="shared" si="22"/>
-        <v>458752</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>32768</v>
       </c>
@@ -33375,32 +35618,35 @@
       <c r="H86">
         <v>38440096</v>
       </c>
-      <c r="J86">
+      <c r="I86">
+        <v>37915808</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="20"/>
+        <v>2490368</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="19"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="N86">
         <f t="shared" si="21"/>
-        <v>2490368</v>
-      </c>
-      <c r="K86" s="2">
-        <f t="shared" si="20"/>
-        <v>7.421875E-2</v>
-      </c>
-      <c r="M86">
+        <v>917504</v>
+      </c>
+      <c r="O86" s="2">
         <f t="shared" si="22"/>
-        <v>917504</v>
-      </c>
-      <c r="N86" s="2">
-        <f t="shared" si="23"/>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>2</v>
       </c>
@@ -33419,20 +35665,23 @@
       <c r="H90" t="s">
         <v>37</v>
       </c>
-      <c r="J90" t="s">
+      <c r="I90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" t="s">
         <v>10</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>11</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>13</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>32</v>
       </c>
@@ -33451,24 +35700,27 @@
       <c r="H91">
         <v>70272</v>
       </c>
-      <c r="J91">
+      <c r="I91">
+        <v>69760</v>
+      </c>
+      <c r="K91">
         <f>G91-D91</f>
         <v>2432</v>
       </c>
-      <c r="K91" s="2">
-        <f t="shared" ref="K91:K101" si="24">J91/D91</f>
+      <c r="L91" s="2">
+        <f t="shared" ref="L91:L101" si="23">K91/D91</f>
         <v>3.7109375E-2</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <f>$G91-E91</f>
         <v>896</v>
       </c>
-      <c r="N91" s="2">
-        <f>M91/G91</f>
+      <c r="O91" s="2">
+        <f>N91/G91</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>64</v>
       </c>
@@ -33487,24 +35739,27 @@
       <c r="H92">
         <v>140488</v>
       </c>
-      <c r="J92">
-        <f t="shared" ref="J92:J101" si="25">G92-D92</f>
+      <c r="I92">
+        <v>139464</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ref="K92:K101" si="24">G92-D92</f>
         <v>4864</v>
       </c>
-      <c r="K92" s="2">
-        <f t="shared" si="24"/>
+      <c r="L92" s="2">
+        <f t="shared" si="23"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="M92">
-        <f t="shared" ref="M92:M101" si="26">$G92-E92</f>
+      <c r="N92">
+        <f t="shared" ref="N92:N101" si="25">$G92-E92</f>
         <v>1792</v>
       </c>
-      <c r="N92" s="2">
-        <f t="shared" ref="N92:N101" si="27">M92/G92</f>
+      <c r="O92" s="2">
+        <f t="shared" ref="O92:O101" si="26">N92/G92</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>128</v>
       </c>
@@ -33523,24 +35778,27 @@
       <c r="H93">
         <v>281072</v>
       </c>
-      <c r="J93">
+      <c r="I93">
+        <v>279024</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="24"/>
+        <v>9728</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="25"/>
-        <v>9728</v>
-      </c>
-      <c r="K93" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M93">
+        <v>3584</v>
+      </c>
+      <c r="O93" s="2">
         <f t="shared" si="26"/>
-        <v>3584</v>
-      </c>
-      <c r="N93" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>256</v>
       </c>
@@ -33559,24 +35817,27 @@
       <c r="H94">
         <v>562264</v>
       </c>
-      <c r="J94">
+      <c r="I94">
+        <v>558168</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="24"/>
+        <v>19456</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="25"/>
-        <v>19456</v>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M94">
+        <v>7168</v>
+      </c>
+      <c r="O94" s="2">
         <f t="shared" si="26"/>
-        <v>7168</v>
-      </c>
-      <c r="N94" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>512</v>
       </c>
@@ -33595,24 +35856,27 @@
       <c r="H95">
         <v>1124672</v>
       </c>
-      <c r="J95">
+      <c r="I95">
+        <v>1116480</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="24"/>
+        <v>38912</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N95">
         <f t="shared" si="25"/>
-        <v>38912</v>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M95">
+        <v>14336</v>
+      </c>
+      <c r="O95" s="2">
         <f t="shared" si="26"/>
-        <v>14336</v>
-      </c>
-      <c r="N95" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -33631,24 +35895,27 @@
       <c r="H96">
         <v>2249512</v>
       </c>
-      <c r="J96">
+      <c r="I96">
+        <v>2233128</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="24"/>
+        <v>77824</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N96">
         <f t="shared" si="25"/>
-        <v>77824</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M96">
+        <v>28672</v>
+      </c>
+      <c r="O96" s="2">
         <f t="shared" si="26"/>
-        <v>28672</v>
-      </c>
-      <c r="N96" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>2048</v>
       </c>
@@ -33667,24 +35934,27 @@
       <c r="H97">
         <v>4499264</v>
       </c>
-      <c r="J97">
+      <c r="I97">
+        <v>4466496</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="24"/>
+        <v>155648</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N97">
         <f t="shared" si="25"/>
-        <v>155648</v>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M97">
+        <v>57344</v>
+      </c>
+      <c r="O97" s="2">
         <f t="shared" si="26"/>
-        <v>57344</v>
-      </c>
-      <c r="N97" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>4096</v>
       </c>
@@ -33703,24 +35973,27 @@
       <c r="H98">
         <v>8998888</v>
       </c>
-      <c r="J98">
+      <c r="I98">
+        <v>8933352</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="24"/>
+        <v>311296</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N98">
         <f t="shared" si="25"/>
-        <v>311296</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M98">
+        <v>114688</v>
+      </c>
+      <c r="O98" s="2">
         <f t="shared" si="26"/>
-        <v>114688</v>
-      </c>
-      <c r="N98" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>8192</v>
       </c>
@@ -33739,24 +36012,27 @@
       <c r="H99">
         <v>17998224</v>
       </c>
-      <c r="J99">
+      <c r="I99">
+        <v>17867152</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="24"/>
+        <v>622592</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N99">
         <f t="shared" si="25"/>
-        <v>622592</v>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M99">
+        <v>229376</v>
+      </c>
+      <c r="O99" s="2">
         <f t="shared" si="26"/>
-        <v>229376</v>
-      </c>
-      <c r="N99" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1">
         <v>16384</v>
       </c>
@@ -33775,24 +36051,27 @@
       <c r="H100">
         <v>35996984</v>
       </c>
-      <c r="J100">
+      <c r="I100">
+        <v>35734840</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="24"/>
+        <v>1245184</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="25"/>
-        <v>1245184</v>
-      </c>
-      <c r="K100" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M100">
+        <v>458752</v>
+      </c>
+      <c r="O100" s="2">
         <f t="shared" si="26"/>
-        <v>458752</v>
-      </c>
-      <c r="N100" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1">
         <v>32768</v>
       </c>
@@ -33811,37 +36090,40 @@
       <c r="H101">
         <v>71994528</v>
       </c>
-      <c r="J101">
+      <c r="I101">
+        <v>71470240</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="24"/>
+        <v>2490368</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="23"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="N101">
         <f t="shared" si="25"/>
-        <v>2490368</v>
-      </c>
-      <c r="K101" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="M101">
+        <v>917504</v>
+      </c>
+      <c r="O101" s="2">
         <f t="shared" si="26"/>
-        <v>917504</v>
-      </c>
-      <c r="N101" s="2">
-        <f t="shared" si="27"/>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
-      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
-      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>2</v>
       </c>
@@ -33860,20 +36142,23 @@
       <c r="H105" t="s">
         <v>37</v>
       </c>
-      <c r="J105" t="s">
+      <c r="I105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s">
         <v>10</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>11</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>13</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>32</v>
       </c>
@@ -33892,24 +36177,27 @@
       <c r="H106">
         <v>135808</v>
       </c>
-      <c r="J106">
+      <c r="I106">
+        <v>135296</v>
+      </c>
+      <c r="K106">
         <f>G106-D106</f>
         <v>2432</v>
       </c>
-      <c r="K106" s="2">
-        <f t="shared" ref="K106:K116" si="28">J106/D106</f>
+      <c r="L106" s="2">
+        <f t="shared" ref="L106:L116" si="27">K106/D106</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <f>$G106-E106</f>
         <v>896</v>
       </c>
-      <c r="N106" s="2">
-        <f>M106/G106</f>
+      <c r="O106" s="2">
+        <f>N106/G106</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>64</v>
       </c>
@@ -33928,24 +36216,27 @@
       <c r="H107">
         <v>271560</v>
       </c>
-      <c r="J107">
-        <f t="shared" ref="J107:J116" si="29">G107-D107</f>
+      <c r="I107">
+        <v>270536</v>
+      </c>
+      <c r="K107">
+        <f t="shared" ref="K107:K116" si="28">G107-D107</f>
         <v>4864</v>
       </c>
-      <c r="K107" s="2">
-        <f t="shared" si="28"/>
+      <c r="L107" s="2">
+        <f t="shared" si="27"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="M107">
-        <f t="shared" ref="M107:M116" si="30">$G107-E107</f>
+      <c r="N107">
+        <f t="shared" ref="N107:N116" si="29">$G107-E107</f>
         <v>1792</v>
       </c>
-      <c r="N107" s="2">
-        <f t="shared" ref="N107:N116" si="31">M107/G107</f>
+      <c r="O107" s="2">
+        <f t="shared" ref="O107:O116" si="30">N107/G107</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>128</v>
       </c>
@@ -33964,24 +36255,27 @@
       <c r="H108">
         <v>543216</v>
       </c>
-      <c r="J108">
+      <c r="I108">
+        <v>541168</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="28"/>
+        <v>9728</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N108">
         <f t="shared" si="29"/>
-        <v>9728</v>
-      </c>
-      <c r="K108" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M108">
+        <v>3584</v>
+      </c>
+      <c r="O108" s="2">
         <f t="shared" si="30"/>
-        <v>3584</v>
-      </c>
-      <c r="N108" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>256</v>
       </c>
@@ -34000,24 +36294,27 @@
       <c r="H109">
         <v>1086552</v>
       </c>
-      <c r="J109">
+      <c r="I109">
+        <v>1082456</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="28"/>
+        <v>19456</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N109">
         <f t="shared" si="29"/>
-        <v>19456</v>
-      </c>
-      <c r="K109" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M109">
+        <v>7168</v>
+      </c>
+      <c r="O109" s="2">
         <f t="shared" si="30"/>
-        <v>7168</v>
-      </c>
-      <c r="N109" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>512</v>
       </c>
@@ -34036,24 +36333,27 @@
       <c r="H110">
         <v>2173248</v>
       </c>
-      <c r="J110">
+      <c r="I110">
+        <v>2165056</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="28"/>
+        <v>38912</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N110">
         <f t="shared" si="29"/>
-        <v>38912</v>
-      </c>
-      <c r="K110" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M110">
+        <v>14336</v>
+      </c>
+      <c r="O110" s="2">
         <f t="shared" si="30"/>
-        <v>14336</v>
-      </c>
-      <c r="N110" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>1024</v>
       </c>
@@ -34072,24 +36372,27 @@
       <c r="H111">
         <v>4346664</v>
       </c>
-      <c r="J111">
+      <c r="I111">
+        <v>4330280</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="28"/>
+        <v>77824</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="29"/>
-        <v>77824</v>
-      </c>
-      <c r="K111" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M111">
+        <v>28672</v>
+      </c>
+      <c r="O111" s="2">
         <f t="shared" si="30"/>
-        <v>28672</v>
-      </c>
-      <c r="N111" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>2048</v>
       </c>
@@ -34108,24 +36411,27 @@
       <c r="H112">
         <v>8693568</v>
       </c>
-      <c r="J112">
+      <c r="I112">
+        <v>8660800</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="28"/>
+        <v>155648</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="29"/>
-        <v>155648</v>
-      </c>
-      <c r="K112" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M112">
+        <v>57344</v>
+      </c>
+      <c r="O112" s="2">
         <f t="shared" si="30"/>
-        <v>57344</v>
-      </c>
-      <c r="N112" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>4096</v>
       </c>
@@ -34144,24 +36450,27 @@
       <c r="H113">
         <v>17387496</v>
       </c>
-      <c r="J113">
+      <c r="I113">
+        <v>17321960</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="28"/>
+        <v>311296</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="29"/>
-        <v>311296</v>
-      </c>
-      <c r="K113" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M113">
+        <v>114688</v>
+      </c>
+      <c r="O113" s="2">
         <f t="shared" si="30"/>
-        <v>114688</v>
-      </c>
-      <c r="N113" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C114">
         <v>8192</v>
       </c>
@@ -34180,24 +36489,27 @@
       <c r="H114">
         <v>34775440</v>
       </c>
-      <c r="J114">
+      <c r="I114">
+        <v>34644368</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="28"/>
+        <v>622592</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="29"/>
-        <v>622592</v>
-      </c>
-      <c r="K114" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M114">
+        <v>229376</v>
+      </c>
+      <c r="O114" s="2">
         <f t="shared" si="30"/>
-        <v>229376</v>
-      </c>
-      <c r="N114" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="115" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C115" s="1">
         <v>16384</v>
       </c>
@@ -34216,24 +36528,27 @@
       <c r="H115">
         <v>69551416</v>
       </c>
-      <c r="J115">
+      <c r="I115">
+        <v>69289272</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="28"/>
+        <v>1245184</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="29"/>
-        <v>1245184</v>
-      </c>
-      <c r="K115" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M115">
+        <v>458752</v>
+      </c>
+      <c r="O115" s="2">
         <f t="shared" si="30"/>
-        <v>458752</v>
-      </c>
-      <c r="N115" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="116" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C116" s="1">
         <v>32768</v>
       </c>
@@ -34252,24 +36567,27 @@
       <c r="H116">
         <v>139103392</v>
       </c>
-      <c r="J116">
+      <c r="I116">
+        <v>138579104</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="28"/>
+        <v>2490368</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" si="27"/>
+        <v>1.85546875E-2</v>
+      </c>
+      <c r="N116">
         <f t="shared" si="29"/>
-        <v>2490368</v>
-      </c>
-      <c r="K116" s="2">
-        <f t="shared" si="28"/>
-        <v>1.85546875E-2</v>
-      </c>
-      <c r="M116">
+        <v>917504</v>
+      </c>
+      <c r="O116" s="2">
         <f t="shared" si="30"/>
-        <v>917504</v>
-      </c>
-      <c r="N116" s="2">
-        <f t="shared" si="31"/>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="118" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>7</v>
       </c>
@@ -34283,7 +36601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>32</v>
       </c>
@@ -34292,15 +36610,15 @@
         <v>2490368</v>
       </c>
       <c r="E119" s="2">
-        <f>K5</f>
+        <f>L5</f>
         <v>2.375</v>
       </c>
       <c r="F119" s="2">
-        <f>N5</f>
+        <f>O5</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="120" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>64</v>
       </c>
@@ -34309,15 +36627,15 @@
         <v>2490368</v>
       </c>
       <c r="E120" s="2">
-        <f>K20</f>
+        <f>L20</f>
         <v>1.1875</v>
       </c>
       <c r="F120" s="2">
-        <f>N20</f>
+        <f>O20</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>128</v>
       </c>
@@ -34326,15 +36644,15 @@
         <v>2490368</v>
       </c>
       <c r="E121" s="2">
-        <f>K34</f>
+        <f>L34</f>
         <v>0.59375</v>
       </c>
       <c r="F121" s="2">
-        <f>N34</f>
+        <f>O34</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="122" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C122">
         <v>256</v>
       </c>
@@ -34343,15 +36661,15 @@
         <v>2490368</v>
       </c>
       <c r="E122" s="2">
-        <f>K48</f>
+        <f>L48</f>
         <v>0.296875</v>
       </c>
       <c r="F122" s="2">
-        <f>N48</f>
+        <f>O48</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
-    <row r="123" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C123">
         <v>512</v>
       </c>
@@ -34360,15 +36678,15 @@
         <v>2490368</v>
       </c>
       <c r="E123" s="2">
-        <f>K62</f>
+        <f>L62</f>
         <v>0.1484375</v>
       </c>
       <c r="F123" s="2">
-        <f>N62</f>
+        <f>O62</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="124" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C124">
         <v>1024</v>
       </c>
@@ -34377,15 +36695,15 @@
         <v>2490368</v>
       </c>
       <c r="E124" s="2">
-        <f>K76</f>
+        <f>L76</f>
         <v>7.421875E-2</v>
       </c>
       <c r="F124" s="2">
-        <f>N76</f>
+        <f>O76</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
-    <row r="125" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C125">
         <v>2048</v>
       </c>
@@ -34394,15 +36712,15 @@
         <v>2490368</v>
       </c>
       <c r="E125" s="2">
-        <f>K91</f>
+        <f>L91</f>
         <v>3.7109375E-2</v>
       </c>
       <c r="F125" s="2">
-        <f>N91</f>
+        <f>O91</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
-    <row r="126" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C126">
         <v>4096</v>
       </c>
@@ -34411,11 +36729,11 @@
         <v>2490368</v>
       </c>
       <c r="E126" s="2">
-        <f>K106</f>
+        <f>L106</f>
         <v>1.85546875E-2</v>
       </c>
       <c r="F126" s="2">
-        <f>N106</f>
+        <f>O106</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC09DC7-19C2-AB44-A303-964F15AAE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E655C28-227F-764A-B072-7AC50CBB62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
   <si>
     <t>unordered_map</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>lookup-reverse-pointer</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -2939,6 +2942,569 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>element removal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$F$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$E$149:$E$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$F$149:$F$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3882</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F52E-094F-A1E8-EE1FDFB9DE36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$G$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>handle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$E$149:$E$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$G$149:$G$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72838</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F52E-094F-A1E8-EE1FDFB9DE36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="588332111"/>
+        <c:axId val="594499615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588332111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594499615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594499615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588332111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3597,7 +4163,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4270,7 +4836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4943,7 +5509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5625,7 +6191,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6307,7 +6873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6988,7 +7554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -7670,7 +8236,1049 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$D$20:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$E$20:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>458752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>917504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1835008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3670016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>handle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>688128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1376256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2752512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$G$20:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>573440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1146880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2293760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4587520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC09-7F46-AEE3-55FA811BDCAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$H$20:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1745296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3491128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6982816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20B5-5F41-989E-3F0335B7D6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Memory!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lookup-reverse-pointer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Memory!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Memory!$I$20:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>806888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1614224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3228984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6458528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20B5-5F41-989E-3F0335B7D6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1039845280"/>
+        <c:axId val="2008949408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1039845280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008949408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2008949408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039845280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -8453,1049 +10061,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>vector</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$D$20:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2097152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>unordered_map</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$E$20:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>114688</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>458752</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>917504</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1835008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3670016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>handle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$F$20:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2688</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5376</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10752</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>172032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>344064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>688128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1376256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2752512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$G$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lookup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$G$20:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4480</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8960</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17920</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>286720</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>573440</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1146880</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2293760</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4587520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC09-7F46-AEE3-55FA811BDCAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$H$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lookup-reverse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$H$20:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6784</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108864</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>217896</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>436032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>872424</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1745296</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3491128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6982816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20B5-5F41-989E-3F0335B7D6AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memory!$I$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lookup-reverse-pointer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Memory!$C$20:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Memory!$I$20:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25072</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50264</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>403264</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>806888</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1614224</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3228984</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6458528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20B5-5F41-989E-3F0335B7D6AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1039845280"/>
-        <c:axId val="2008949408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1039845280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2008949408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2008949408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1039845280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -10965,7 +11531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -11503,7 +12069,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -12041,7 +12607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -19510,6 +20076,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27531,6 +28137,522 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32051,6 +33173,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BC4256-6D3C-8547-8329-F4DEBD306057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32793,9 +33951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
-  <dimension ref="C3:O126"/>
+  <dimension ref="C3:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36735,6 +37895,149 @@
       <c r="F126" s="2">
         <f>O106</f>
         <v>6.7114093959731542E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>32</v>
+      </c>
+      <c r="F149">
+        <v>6.04</v>
+      </c>
+      <c r="G149">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>64</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>128</v>
+      </c>
+      <c r="F151">
+        <v>21.1</v>
+      </c>
+      <c r="G151">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>256</v>
+      </c>
+      <c r="F152">
+        <v>53.4</v>
+      </c>
+      <c r="G152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>512</v>
+      </c>
+      <c r="F153">
+        <v>91.1</v>
+      </c>
+      <c r="G153">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>1024</v>
+      </c>
+      <c r="F154">
+        <v>172</v>
+      </c>
+      <c r="G154">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>2048</v>
+      </c>
+      <c r="F155">
+        <v>335</v>
+      </c>
+      <c r="G155">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>4096</v>
+      </c>
+      <c r="F156">
+        <v>655</v>
+      </c>
+      <c r="G156">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>8192</v>
+      </c>
+      <c r="F157">
+        <v>1756</v>
+      </c>
+      <c r="G157">
+        <v>16858</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E158" s="1">
+        <v>16384</v>
+      </c>
+      <c r="F158">
+        <v>3882</v>
+      </c>
+      <c r="G158">
+        <v>35970</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E159" s="1">
+        <v>32768</v>
+      </c>
+      <c r="F159">
+        <v>7748</v>
+      </c>
+      <c r="G159">
+        <v>72838</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E160" s="1">
+        <v>65536</v>
+      </c>
+      <c r="F160">
+        <v>15508</v>
+      </c>
+      <c r="G160">
+        <v>161281</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE8CE7-0262-704C-AADF-F740D62C85E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E0407D-A929-5B42-93CE-23D4883EBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="45">
   <si>
     <t>unordered_map</t>
   </si>
@@ -159,6 +159,18 @@
   <si>
     <t>unordered_map/packed-hashtable % diff</t>
   </si>
+  <si>
+    <t>vec/packed-hashtable-rl abs diff</t>
+  </si>
+  <si>
+    <t>vec/packed-hashtable-rl % diff</t>
+  </si>
+  <si>
+    <t>unordered_map/packed-hashtable-rl abs diff</t>
+  </si>
+  <si>
+    <t>unordered_map/packed-hashtable-rl % diff</t>
+  </si>
 </sst>
 </file>
 
@@ -193,10 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33325,16 +33338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33361,16 +33374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33398,15 +33411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33439,7 +33452,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -33469,13 +33482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -33505,13 +33518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
@@ -33541,13 +33554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
@@ -33577,13 +33590,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
@@ -33613,13 +33626,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -33649,13 +33662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -33685,13 +33698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -33721,13 +33734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -34492,10 +34505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
-  <dimension ref="C3:O166"/>
+  <dimension ref="C3:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34510,16 +34523,20 @@
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -34547,14 +34564,26 @@
       <c r="L4" t="s">
         <v>38</v>
       </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
       <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>40</v>
       </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>32</v>
       </c>
@@ -34584,16 +34613,32 @@
         <f>K5/D5</f>
         <v>2.375</v>
       </c>
-      <c r="N5">
-        <f>$H5-E5</f>
+      <c r="M5" s="3">
+        <f>$I5-D5</f>
+        <v>4224</v>
+      </c>
+      <c r="N5" s="2">
+        <f>M5/D5</f>
+        <v>4.125</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P16" si="0">$H5-E5</f>
         <v>896</v>
       </c>
-      <c r="O5" s="2">
-        <f>N5/H5</f>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q16" si="1">P5/H5</f>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R5" s="3">
+        <f>I5-E5</f>
+        <v>2688</v>
+      </c>
+      <c r="S5" s="2">
+        <f>R5/E5</f>
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>64</v>
       </c>
@@ -34620,19 +34665,35 @@
         <v>4864</v>
       </c>
       <c r="L6" s="2">
-        <f>K6/D6</f>
+        <f t="shared" ref="L6:L16" si="2">K6/D6</f>
         <v>2.375</v>
       </c>
-      <c r="N6">
-        <f>$H6-E6</f>
+      <c r="M6" s="3">
+        <f>$I6-D6</f>
+        <v>8392</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N16" si="3">M6/D6</f>
+        <v>4.09765625</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
         <v>1792</v>
       </c>
-      <c r="O6" s="2">
-        <f>N6/H6</f>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R16" si="4">I6-E6</f>
+        <v>5320</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" ref="S6:S16" si="5">R6/E6</f>
+        <v>1.0390625</v>
+      </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>128</v>
       </c>
@@ -34655,23 +34716,39 @@
         <v>20976</v>
       </c>
       <c r="K7">
-        <f>$H7-D7</f>
+        <f t="shared" ref="K7:K16" si="6">$H7-D7</f>
         <v>9728</v>
       </c>
       <c r="L7" s="2">
-        <f>K7/D7</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N7">
-        <f>$H7-E7</f>
+      <c r="M7" s="3">
+        <f t="shared" ref="M7:M16" si="7">$I7-D7</f>
+        <v>16880</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>4.12109375</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
         <v>3584</v>
       </c>
-      <c r="O7" s="2">
-        <f>N7/H7</f>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>10736</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0484374999999999</v>
+      </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>256</v>
       </c>
@@ -34694,23 +34771,39 @@
         <v>42072</v>
       </c>
       <c r="K8">
-        <f>$H8-D8</f>
+        <f t="shared" si="6"/>
         <v>19456</v>
       </c>
       <c r="L8" s="2">
-        <f>K8/D8</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N8">
-        <f>$H8-E8</f>
+      <c r="M8" s="3">
+        <f t="shared" si="7"/>
+        <v>33880</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1357421875</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>7168</v>
       </c>
-      <c r="O8" s="2">
-        <f>N8/H8</f>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>21592</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0542968749999999</v>
+      </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>512</v>
       </c>
@@ -34733,23 +34826,39 @@
         <v>84288</v>
       </c>
       <c r="K9">
-        <f>$H9-D9</f>
+        <f t="shared" si="6"/>
         <v>38912</v>
       </c>
       <c r="L9" s="2">
-        <f>K9/D9</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N9">
-        <f>$H9-E9</f>
+      <c r="M9" s="3">
+        <f t="shared" si="7"/>
+        <v>67904</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>4.14453125</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
         <v>14336</v>
       </c>
-      <c r="O9" s="2">
-        <f>N9/H9</f>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>43328</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0578125</v>
+      </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1024</v>
       </c>
@@ -34772,23 +34881,39 @@
         <v>168744</v>
       </c>
       <c r="K10">
-        <f>$H10-D10</f>
+        <f t="shared" si="6"/>
         <v>77824</v>
       </c>
       <c r="L10" s="2">
-        <f>K10/D10</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N10">
-        <f>$H10-E10</f>
+      <c r="M10" s="3">
+        <f t="shared" si="7"/>
+        <v>135976</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.149658203125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
         <v>28672</v>
       </c>
-      <c r="O10" s="2">
-        <f>N10/H10</f>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>86824</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.05986328125</v>
+      </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -34811,23 +34936,39 @@
         <v>337728</v>
       </c>
       <c r="K11">
-        <f>$H11-D11</f>
+        <f t="shared" si="6"/>
         <v>155648</v>
       </c>
       <c r="L11" s="2">
-        <f>K11/D11</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N11">
-        <f>$H11-E11</f>
+      <c r="M11" s="3">
+        <f t="shared" si="7"/>
+        <v>272192</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1533203125</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
         <v>57344</v>
       </c>
-      <c r="O11" s="2">
-        <f>N11/H11</f>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>173888</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>1.061328125</v>
+      </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>4096</v>
       </c>
@@ -34850,23 +34991,39 @@
         <v>675816</v>
       </c>
       <c r="K12">
-        <f>$H12-D12</f>
+        <f t="shared" si="6"/>
         <v>311296</v>
       </c>
       <c r="L12" s="2">
-        <f>K12/D12</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N12">
-        <f>$H12-E12</f>
+      <c r="M12" s="3">
+        <f t="shared" si="7"/>
+        <v>544744</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>4.15606689453125</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
         <v>114688</v>
       </c>
-      <c r="O12" s="2">
-        <f>N12/H12</f>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>348136</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0624267578125</v>
+      </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>8192</v>
       </c>
@@ -34889,23 +35046,39 @@
         <v>1352080</v>
       </c>
       <c r="K13">
-        <f>$H13-D13</f>
+        <f t="shared" si="6"/>
         <v>622592</v>
       </c>
       <c r="L13" s="2">
-        <f>K13/D13</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N13">
-        <f>$H13-E13</f>
+      <c r="M13" s="3">
+        <f t="shared" si="7"/>
+        <v>1089936</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.15777587890625</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
         <v>229376</v>
       </c>
-      <c r="O13" s="2">
-        <f>N13/H13</f>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>696720</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0631103515625</v>
+      </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>16384</v>
       </c>
@@ -34928,23 +35101,39 @@
         <v>2704696</v>
       </c>
       <c r="K14">
-        <f>$H14-D14</f>
+        <f t="shared" si="6"/>
         <v>1245184</v>
       </c>
       <c r="L14" s="2">
-        <f>K14/D14</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N14">
-        <f>$H14-E14</f>
+      <c r="M14" s="3">
+        <f t="shared" si="7"/>
+        <v>2180408</v>
+      </c>
+      <c r="N14" s="2">
+        <f>M14/D14</f>
+        <v>4.1587982177734375</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
         <v>458752</v>
       </c>
-      <c r="O14" s="2">
-        <f>N14/H14</f>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>1393976</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.063519287109375</v>
+      </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>32768</v>
       </c>
@@ -34967,23 +35156,39 @@
         <v>5409952</v>
       </c>
       <c r="K15">
-        <f>$H15-D15</f>
+        <f t="shared" si="6"/>
         <v>2490368</v>
       </c>
       <c r="L15" s="2">
         <f>K15/D15</f>
         <v>2.375</v>
       </c>
-      <c r="N15">
-        <f>$H15-E15</f>
+      <c r="M15" s="3">
+        <f t="shared" si="7"/>
+        <v>4361376</v>
+      </c>
+      <c r="N15" s="2">
+        <f>M15/D15</f>
+        <v>4.159332275390625</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
         <v>917504</v>
       </c>
-      <c r="O15" s="2">
-        <f>N15/H15</f>
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>2788512</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.06373291015625</v>
+      </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>65536</v>
       </c>
@@ -35006,28 +35211,44 @@
         <v>10820488</v>
       </c>
       <c r="K16">
-        <f>$H16-D16</f>
+        <f t="shared" si="6"/>
         <v>4980736</v>
       </c>
       <c r="L16" s="2">
-        <f>K16/D16</f>
+        <f t="shared" si="2"/>
         <v>2.375</v>
       </c>
-      <c r="N16">
-        <f>$H16-E16</f>
+      <c r="M16" s="3">
+        <f t="shared" si="7"/>
+        <v>8723336</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1596107482910156</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
         <v>1835008</v>
       </c>
-      <c r="O16" s="2">
-        <f>N16/H16</f>
+      <c r="Q16" s="2">
+        <f t="shared" si="1"/>
         <v>0.25925925925925924</v>
       </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>5577608</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0638442993164063</v>
+      </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -35055,14 +35276,26 @@
       <c r="L20" t="s">
         <v>38</v>
       </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
       <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
         <v>39</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>40</v>
       </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>32</v>
       </c>
@@ -35085,23 +35318,39 @@
         <v>6272</v>
       </c>
       <c r="K21">
-        <f>H21-D21</f>
+        <f t="shared" ref="K21:K32" si="8">H21-D21</f>
         <v>2432</v>
       </c>
       <c r="L21" s="2">
-        <f>K21/D21</f>
+        <f t="shared" ref="L21:L32" si="9">K21/D21</f>
         <v>1.1875</v>
       </c>
-      <c r="N21">
-        <f>$H21-E21</f>
+      <c r="M21" s="3">
+        <f>I21-D21</f>
+        <v>4224</v>
+      </c>
+      <c r="N21" s="2">
+        <f>M21/D21</f>
+        <v>2.0625</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P32" si="10">$H21-E21</f>
         <v>896</v>
       </c>
-      <c r="O21" s="2">
-        <f>N21/H21</f>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21:Q32" si="11">P21/H21</f>
         <v>0.2</v>
       </c>
+      <c r="R21" s="3">
+        <f>I21-E21</f>
+        <v>2688</v>
+      </c>
+      <c r="S21" s="2">
+        <f>R21/E21</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>64</v>
       </c>
@@ -35124,23 +35373,39 @@
         <v>12488</v>
       </c>
       <c r="K22">
-        <f>H22-D22</f>
+        <f t="shared" si="8"/>
         <v>4864</v>
       </c>
       <c r="L22" s="2">
-        <f>K22/D22</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N22">
-        <f>$H22-E22</f>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:M31" si="12">I22-D22</f>
+        <v>8392</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ref="N22:N32" si="13">M22/D22</f>
+        <v>2.048828125</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
         <v>1792</v>
       </c>
-      <c r="O22" s="2">
-        <f>N22/H22</f>
+      <c r="Q22" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R22" s="3">
+        <f t="shared" ref="R22:R32" si="14">I22-E22</f>
+        <v>5320</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22:S32" si="15">R22/E22</f>
+        <v>0.7421875</v>
+      </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>128</v>
       </c>
@@ -35163,23 +35428,39 @@
         <v>25072</v>
       </c>
       <c r="K23">
-        <f>H23-D23</f>
+        <f t="shared" si="8"/>
         <v>9728</v>
       </c>
       <c r="L23" s="2">
-        <f>K23/D23</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N23">
-        <f>$H23-E23</f>
+      <c r="M23" s="3">
+        <f t="shared" si="12"/>
+        <v>16880</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="13"/>
+        <v>2.060546875</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
         <v>3584</v>
       </c>
-      <c r="O23" s="2">
-        <f>N23/H23</f>
+      <c r="Q23" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R23" s="3">
+        <f t="shared" si="14"/>
+        <v>10736</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7488839285714286</v>
+      </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>256</v>
       </c>
@@ -35202,23 +35483,39 @@
         <v>50264</v>
       </c>
       <c r="K24">
-        <f>H24-D24</f>
+        <f t="shared" si="8"/>
         <v>19456</v>
       </c>
       <c r="L24" s="2">
-        <f>K24/D24</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N24">
-        <f>$H24-E24</f>
+      <c r="M24" s="3">
+        <f t="shared" si="12"/>
+        <v>33880</v>
+      </c>
+      <c r="N24" s="2">
+        <f>M24/D24</f>
+        <v>2.06787109375</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
         <v>7168</v>
       </c>
-      <c r="O24" s="2">
-        <f>N24/H24</f>
+      <c r="Q24" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R24" s="3">
+        <f t="shared" si="14"/>
+        <v>21592</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7530691964285714</v>
+      </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>512</v>
       </c>
@@ -35241,23 +35538,39 @@
         <v>100672</v>
       </c>
       <c r="K25">
-        <f>H25-D25</f>
+        <f t="shared" si="8"/>
         <v>38912</v>
       </c>
       <c r="L25" s="2">
-        <f>K25/D25</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N25">
-        <f>$H25-E25</f>
+      <c r="M25" s="3">
+        <f t="shared" si="12"/>
+        <v>67904</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="13"/>
+        <v>2.072265625</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
         <v>14336</v>
       </c>
-      <c r="O25" s="2">
-        <f>N25/H25</f>
+      <c r="Q25" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R25" s="3">
+        <f t="shared" si="14"/>
+        <v>43328</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7555803571428571</v>
+      </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1024</v>
       </c>
@@ -35280,23 +35593,39 @@
         <v>201512</v>
       </c>
       <c r="K26">
-        <f>H26-D26</f>
+        <f t="shared" si="8"/>
         <v>77824</v>
       </c>
       <c r="L26" s="2">
-        <f>K26/D26</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N26">
-        <f>$H26-E26</f>
+      <c r="M26" s="3">
+        <f t="shared" si="12"/>
+        <v>135976</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0748291015625</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
         <v>28672</v>
       </c>
-      <c r="O26" s="2">
-        <f>N26/H26</f>
+      <c r="Q26" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R26" s="3">
+        <f t="shared" si="14"/>
+        <v>86824</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7570452008928571</v>
+      </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>2048</v>
       </c>
@@ -35319,23 +35648,39 @@
         <v>403264</v>
       </c>
       <c r="K27">
-        <f>H27-D27</f>
+        <f t="shared" si="8"/>
         <v>155648</v>
       </c>
       <c r="L27" s="2">
-        <f>K27/D27</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N27">
-        <f>$H27-E27</f>
+      <c r="M27" s="3">
+        <f t="shared" si="12"/>
+        <v>272192</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="13"/>
+        <v>2.07666015625</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
         <v>57344</v>
       </c>
-      <c r="O27" s="2">
-        <f>N27/H27</f>
+      <c r="Q27" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R27" s="3">
+        <f t="shared" si="14"/>
+        <v>173888</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7580915178571429</v>
+      </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>4096</v>
       </c>
@@ -35358,23 +35703,39 @@
         <v>806888</v>
       </c>
       <c r="K28">
-        <f>H28-D28</f>
+        <f t="shared" si="8"/>
         <v>311296</v>
       </c>
       <c r="L28" s="2">
-        <f>K28/D28</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N28">
-        <f>$H28-E28</f>
+      <c r="M28" s="3">
+        <f t="shared" si="12"/>
+        <v>544744</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="13"/>
+        <v>2.078033447265625</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
         <v>114688</v>
       </c>
-      <c r="O28" s="2">
-        <f>N28/H28</f>
+      <c r="Q28" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R28" s="3">
+        <f t="shared" si="14"/>
+        <v>348136</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7588762555803571</v>
+      </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>8192</v>
       </c>
@@ -35397,23 +35758,39 @@
         <v>1614224</v>
       </c>
       <c r="K29">
-        <f>H29-D29</f>
+        <f t="shared" si="8"/>
         <v>622592</v>
       </c>
       <c r="L29" s="2">
-        <f>K29/D29</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N29">
-        <f>$H29-E29</f>
+      <c r="M29" s="3">
+        <f t="shared" si="12"/>
+        <v>1089936</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="13"/>
+        <v>2.078887939453125</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
         <v>229376</v>
       </c>
-      <c r="O29" s="2">
-        <f>N29/H29</f>
+      <c r="Q29" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R29" s="3">
+        <f t="shared" si="14"/>
+        <v>696720</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7593645368303571</v>
+      </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>16384</v>
       </c>
@@ -35436,23 +35813,39 @@
         <v>3228984</v>
       </c>
       <c r="K30">
-        <f>H30-D30</f>
+        <f t="shared" si="8"/>
         <v>1245184</v>
       </c>
       <c r="L30" s="2">
-        <f>K30/D30</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N30">
-        <f>$H30-E30</f>
+      <c r="M30" s="3">
+        <f t="shared" si="12"/>
+        <v>2180408</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0793991088867188</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
         <v>458752</v>
       </c>
-      <c r="O30" s="2">
-        <f>N30/H30</f>
+      <c r="Q30" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R30" s="3">
+        <f t="shared" si="14"/>
+        <v>1393976</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7596566336495536</v>
+      </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>32768</v>
       </c>
@@ -35475,23 +35868,39 @@
         <v>6458528</v>
       </c>
       <c r="K31">
-        <f>H31-D31</f>
+        <f t="shared" si="8"/>
         <v>2490368</v>
       </c>
       <c r="L31" s="2">
-        <f>K31/D31</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N31">
-        <f>$H31-E31</f>
+      <c r="M31" s="3">
+        <f t="shared" si="12"/>
+        <v>4361376</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0796661376953125</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
         <v>917504</v>
       </c>
-      <c r="O31" s="2">
-        <f>N31/H31</f>
+      <c r="Q31" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R31" s="3">
+        <f t="shared" si="14"/>
+        <v>2788512</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7598092215401786</v>
+      </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>65536</v>
       </c>
@@ -35514,32 +35923,50 @@
         <v>12917640</v>
       </c>
       <c r="K32">
-        <f>H32-D32</f>
+        <f t="shared" si="8"/>
         <v>4980736</v>
       </c>
       <c r="L32" s="2">
-        <f>K32/D32</f>
+        <f t="shared" si="9"/>
         <v>1.1875</v>
       </c>
-      <c r="N32">
-        <f>$H32-E32</f>
+      <c r="M32" s="3">
+        <f>I32-D32</f>
+        <v>8723336</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0798053741455078</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
         <v>1835008</v>
       </c>
-      <c r="O32" s="2">
-        <f>N32/H32</f>
+      <c r="Q32" s="2">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
+      <c r="R32" s="3">
+        <f t="shared" si="14"/>
+        <v>5577608</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="15"/>
+        <v>0.75988878522600445</v>
+      </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -35567,14 +35994,26 @@
       <c r="L35" t="s">
         <v>38</v>
       </c>
+      <c r="M35" t="s">
+        <v>41</v>
+      </c>
       <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
         <v>39</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>40</v>
       </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>32</v>
       </c>
@@ -35597,23 +36036,39 @@
         <v>8320</v>
       </c>
       <c r="K36">
-        <f>H36-D36</f>
+        <f t="shared" ref="K36:K47" si="16">H36-D36</f>
         <v>2432</v>
       </c>
       <c r="L36" s="2">
-        <f>K36/D36</f>
+        <f t="shared" ref="L36:L47" si="17">K36/D36</f>
         <v>0.59375</v>
       </c>
-      <c r="N36">
-        <f>$H36-E36</f>
+      <c r="M36" s="3">
+        <f>I36-D36</f>
+        <v>4224</v>
+      </c>
+      <c r="N36" s="2">
+        <f>M36/D36</f>
+        <v>1.03125</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="P36:P47" si="18">$H36-E36</f>
         <v>896</v>
       </c>
-      <c r="O36" s="2">
-        <f>N36/H36</f>
+      <c r="Q36" s="2">
+        <f t="shared" ref="Q36:Q47" si="19">P36/H36</f>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R36" s="3">
+        <f>I36-E36</f>
+        <v>2688</v>
+      </c>
+      <c r="S36" s="2">
+        <f>R36/E36</f>
+        <v>0.47727272727272729</v>
+      </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>64</v>
       </c>
@@ -35636,23 +36091,39 @@
         <v>16584</v>
       </c>
       <c r="K37">
-        <f>H37-D37</f>
+        <f t="shared" si="16"/>
         <v>4864</v>
       </c>
       <c r="L37" s="2">
-        <f>K37/D37</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N37">
-        <f>$H37-E37</f>
+      <c r="M37" s="3">
+        <f t="shared" ref="M37:M47" si="20">I37-D37</f>
+        <v>8392</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" ref="N37:N47" si="21">M37/D37</f>
+        <v>1.0244140625</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
         <v>1792</v>
       </c>
-      <c r="O37" s="2">
-        <f>N37/H37</f>
+      <c r="Q37" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R37" s="3">
+        <f t="shared" ref="R37:R47" si="22">I37-E37</f>
+        <v>5320</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" ref="S37:S47" si="23">R37/E37</f>
+        <v>0.47230113636363635</v>
+      </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>128</v>
       </c>
@@ -35675,23 +36146,39 @@
         <v>33264</v>
       </c>
       <c r="K38">
-        <f>H38-D38</f>
+        <f t="shared" si="16"/>
         <v>9728</v>
       </c>
       <c r="L38" s="2">
-        <f>K38/D38</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N38">
-        <f>$H38-E38</f>
+      <c r="M38" s="3">
+        <f t="shared" si="20"/>
+        <v>16880</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0302734375</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="18"/>
         <v>3584</v>
       </c>
-      <c r="O38" s="2">
-        <f>N38/H38</f>
+      <c r="Q38" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R38" s="3">
+        <f t="shared" si="22"/>
+        <v>10736</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4765625</v>
+      </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>256</v>
       </c>
@@ -35714,23 +36201,39 @@
         <v>66648</v>
       </c>
       <c r="K39">
-        <f>H39-D39</f>
+        <f t="shared" si="16"/>
         <v>19456</v>
       </c>
       <c r="L39" s="2">
-        <f>K39/D39</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N39">
-        <f>$H39-E39</f>
+      <c r="M39" s="3">
+        <f t="shared" si="20"/>
+        <v>33880</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="21"/>
+        <v>1.033935546875</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="18"/>
         <v>7168</v>
       </c>
-      <c r="O39" s="2">
-        <f>N39/H39</f>
+      <c r="Q39" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R39" s="3">
+        <f t="shared" si="22"/>
+        <v>21592</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="23"/>
+        <v>0.47922585227272729</v>
+      </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>512</v>
       </c>
@@ -35753,23 +36256,39 @@
         <v>133440</v>
       </c>
       <c r="K40">
-        <f>H40-D40</f>
+        <f t="shared" si="16"/>
         <v>38912</v>
       </c>
       <c r="L40" s="2">
-        <f>K40/D40</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N40">
-        <f>$H40-E40</f>
+      <c r="M40" s="3">
+        <f t="shared" si="20"/>
+        <v>67904</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0361328125</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="18"/>
         <v>14336</v>
       </c>
-      <c r="O40" s="2">
-        <f>N40/H40</f>
+      <c r="Q40" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R40" s="3">
+        <f t="shared" si="22"/>
+        <v>43328</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48082386363636365</v>
+      </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>1024</v>
       </c>
@@ -35792,23 +36311,39 @@
         <v>267048</v>
       </c>
       <c r="K41">
-        <f>H41-D41</f>
+        <f t="shared" si="16"/>
         <v>77824</v>
       </c>
       <c r="L41" s="2">
-        <f>K41/D41</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N41">
-        <f>$H41-E41</f>
+      <c r="M41" s="3">
+        <f t="shared" si="20"/>
+        <v>135976</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="21"/>
+        <v>1.03741455078125</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="18"/>
         <v>28672</v>
       </c>
-      <c r="O41" s="2">
-        <f>N41/H41</f>
+      <c r="Q41" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R41" s="3">
+        <f t="shared" si="22"/>
+        <v>86824</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48175603693181818</v>
+      </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>2048</v>
       </c>
@@ -35831,23 +36366,39 @@
         <v>534336</v>
       </c>
       <c r="K42">
-        <f>H42-D42</f>
+        <f t="shared" si="16"/>
         <v>155648</v>
       </c>
       <c r="L42" s="2">
-        <f>K42/D42</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N42">
-        <f>$H42-E42</f>
+      <c r="M42" s="3">
+        <f t="shared" si="20"/>
+        <v>272192</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="21"/>
+        <v>1.038330078125</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="18"/>
         <v>57344</v>
       </c>
-      <c r="O42" s="2">
-        <f>N42/H42</f>
+      <c r="Q42" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R42" s="3">
+        <f t="shared" si="22"/>
+        <v>173888</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="23"/>
+        <v>0.482421875</v>
+      </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -35870,23 +36421,39 @@
         <v>1069032</v>
       </c>
       <c r="K43">
-        <f>H43-D43</f>
+        <f t="shared" si="16"/>
         <v>311296</v>
       </c>
       <c r="L43" s="2">
-        <f>K43/D43</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N43">
-        <f>$H43-E43</f>
+      <c r="M43" s="3">
+        <f t="shared" si="20"/>
+        <v>544744</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0390167236328125</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="18"/>
         <v>114688</v>
       </c>
-      <c r="O43" s="2">
-        <f>N43/H43</f>
+      <c r="Q43" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R43" s="3">
+        <f t="shared" si="22"/>
+        <v>348136</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48292125355113635</v>
+      </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>8192</v>
       </c>
@@ -35909,23 +36476,39 @@
         <v>2138512</v>
       </c>
       <c r="K44">
-        <f>H44-D44</f>
+        <f t="shared" si="16"/>
         <v>622592</v>
       </c>
       <c r="L44" s="2">
-        <f>K44/D44</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N44">
-        <f>$H44-E44</f>
+      <c r="M44" s="3">
+        <f t="shared" si="20"/>
+        <v>1089936</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0394439697265625</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="18"/>
         <v>229376</v>
       </c>
-      <c r="O44" s="2">
-        <f>N44/H44</f>
+      <c r="Q44" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R44" s="3">
+        <f t="shared" si="22"/>
+        <v>696720</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48323197798295453</v>
+      </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <v>16384</v>
       </c>
@@ -35948,23 +36531,39 @@
         <v>4277560</v>
       </c>
       <c r="K45">
-        <f>H45-D45</f>
+        <f t="shared" si="16"/>
         <v>1245184</v>
       </c>
       <c r="L45" s="2">
-        <f>K45/D45</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N45">
-        <f>$H45-E45</f>
+      <c r="M45" s="3">
+        <f t="shared" si="20"/>
+        <v>2180408</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0396995544433594</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="18"/>
         <v>458752</v>
       </c>
-      <c r="O45" s="2">
-        <f>N45/H45</f>
+      <c r="Q45" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R45" s="3">
+        <f t="shared" si="22"/>
+        <v>1393976</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48341785777698865</v>
+      </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>32768</v>
       </c>
@@ -35987,23 +36586,39 @@
         <v>8555680</v>
       </c>
       <c r="K46">
-        <f>H46-D46</f>
+        <f t="shared" si="16"/>
         <v>2490368</v>
       </c>
       <c r="L46" s="2">
-        <f>K46/D46</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N46">
-        <f>$H46-E46</f>
+      <c r="M46" s="3">
+        <f t="shared" si="20"/>
+        <v>4361376</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0398330688476562</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="18"/>
         <v>917504</v>
       </c>
-      <c r="O46" s="2">
-        <f>N46/H46</f>
+      <c r="Q46" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R46" s="3">
+        <f t="shared" si="22"/>
+        <v>2788512</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48351495916193182</v>
+      </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>65536</v>
       </c>
@@ -36026,32 +36641,50 @@
         <v>17111944</v>
       </c>
       <c r="K47">
-        <f>H47-D47</f>
+        <f t="shared" si="16"/>
         <v>4980736</v>
       </c>
       <c r="L47" s="2">
-        <f>K47/D47</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
-      <c r="N47">
-        <f>$H47-E47</f>
+      <c r="M47" s="3">
+        <f t="shared" si="20"/>
+        <v>8723336</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0399026870727539</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="18"/>
         <v>1835008</v>
       </c>
-      <c r="O47" s="2">
-        <f>N47/H47</f>
+      <c r="Q47" s="2">
+        <f t="shared" si="19"/>
         <v>0.13725490196078433</v>
       </c>
+      <c r="R47" s="3">
+        <f t="shared" si="22"/>
+        <v>5577608</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="23"/>
+        <v>0.48356559059836646</v>
+      </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -36079,14 +36712,26 @@
       <c r="L50" t="s">
         <v>38</v>
       </c>
+      <c r="M50" t="s">
+        <v>41</v>
+      </c>
       <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
         <v>39</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>40</v>
       </c>
+      <c r="R50" t="s">
+        <v>43</v>
+      </c>
+      <c r="S50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>32</v>
       </c>
@@ -36109,23 +36754,39 @@
         <v>12416</v>
       </c>
       <c r="K51">
-        <f>H51-D51</f>
+        <f t="shared" ref="K51:K62" si="24">H51-D51</f>
         <v>2432</v>
       </c>
       <c r="L51" s="2">
-        <f>K51/D51</f>
+        <f t="shared" ref="L51:L62" si="25">K51/D51</f>
         <v>0.296875</v>
       </c>
-      <c r="N51">
-        <f>$H51-E51</f>
+      <c r="M51" s="3">
+        <f>I51-D51</f>
+        <v>4224</v>
+      </c>
+      <c r="N51" s="2">
+        <f>M51/D51</f>
+        <v>0.515625</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ref="P51:P62" si="26">$H51-E51</f>
         <v>896</v>
       </c>
-      <c r="O51" s="2">
-        <f>N51/H51</f>
+      <c r="Q51" s="2">
+        <f t="shared" ref="Q51:Q62" si="27">P51/H51</f>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R51" s="3">
+        <f>I51-E51</f>
+        <v>2688</v>
+      </c>
+      <c r="S51" s="2">
+        <f>R51/E51</f>
+        <v>0.27631578947368424</v>
+      </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>64</v>
       </c>
@@ -36148,23 +36809,39 @@
         <v>24776</v>
       </c>
       <c r="K52">
-        <f>H52-D52</f>
+        <f t="shared" si="24"/>
         <v>4864</v>
       </c>
       <c r="L52" s="2">
-        <f>K52/D52</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N52">
-        <f>$H52-E52</f>
+      <c r="M52" s="3">
+        <f t="shared" ref="M52:M62" si="28">I52-D52</f>
+        <v>8392</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" ref="N52:N62" si="29">M52/D52</f>
+        <v>0.51220703125</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="26"/>
         <v>1792</v>
       </c>
-      <c r="O52" s="2">
-        <f>N52/H52</f>
+      <c r="Q52" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R52" s="3">
+        <f t="shared" ref="R52:R62" si="30">I52-E52</f>
+        <v>5320</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" ref="S52:S62" si="31">R52/E52</f>
+        <v>0.2734375</v>
+      </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>128</v>
       </c>
@@ -36187,23 +36864,39 @@
         <v>49648</v>
       </c>
       <c r="K53">
-        <f>H53-D53</f>
+        <f t="shared" si="24"/>
         <v>9728</v>
       </c>
       <c r="L53" s="2">
-        <f>K53/D53</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N53">
-        <f>$H53-E53</f>
+      <c r="M53" s="3">
+        <f t="shared" si="28"/>
+        <v>16880</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51513671875</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="26"/>
         <v>3584</v>
       </c>
-      <c r="O53" s="2">
-        <f>N53/H53</f>
+      <c r="Q53" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R53" s="3">
+        <f t="shared" si="30"/>
+        <v>10736</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27590460526315791</v>
+      </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>256</v>
       </c>
@@ -36226,23 +36919,39 @@
         <v>99416</v>
       </c>
       <c r="K54">
-        <f>H54-D54</f>
+        <f t="shared" si="24"/>
         <v>19456</v>
       </c>
       <c r="L54" s="2">
-        <f>K54/D54</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N54">
-        <f>$H54-E54</f>
+      <c r="M54" s="3">
+        <f t="shared" si="28"/>
+        <v>33880</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="29"/>
+        <v>0.5169677734375</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="26"/>
         <v>7168</v>
       </c>
-      <c r="O54" s="2">
-        <f>N54/H54</f>
+      <c r="Q54" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R54" s="3">
+        <f t="shared" si="30"/>
+        <v>21592</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27744654605263158</v>
+      </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>512</v>
       </c>
@@ -36265,23 +36974,39 @@
         <v>198976</v>
       </c>
       <c r="K55">
-        <f>H55-D55</f>
+        <f t="shared" si="24"/>
         <v>38912</v>
       </c>
       <c r="L55" s="2">
-        <f>K55/D55</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N55">
-        <f>$H55-E55</f>
+      <c r="M55" s="3">
+        <f t="shared" si="28"/>
+        <v>67904</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51806640625</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="26"/>
         <v>14336</v>
       </c>
-      <c r="O55" s="2">
-        <f>N55/H55</f>
+      <c r="Q55" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R55" s="3">
+        <f t="shared" si="30"/>
+        <v>43328</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27837171052631576</v>
+      </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>1024</v>
       </c>
@@ -36304,23 +37029,39 @@
         <v>398120</v>
       </c>
       <c r="K56">
-        <f>H56-D56</f>
+        <f t="shared" si="24"/>
         <v>77824</v>
       </c>
       <c r="L56" s="2">
-        <f>K56/D56</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N56">
-        <f>$H56-E56</f>
+      <c r="M56" s="3">
+        <f t="shared" si="28"/>
+        <v>135976</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="29"/>
+        <v>0.518707275390625</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="26"/>
         <v>28672</v>
       </c>
-      <c r="O56" s="2">
-        <f>N56/H56</f>
+      <c r="Q56" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R56" s="3">
+        <f t="shared" si="30"/>
+        <v>86824</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27891138980263158</v>
+      </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>2048</v>
       </c>
@@ -36343,23 +37084,39 @@
         <v>796480</v>
       </c>
       <c r="K57">
-        <f>H57-D57</f>
+        <f t="shared" si="24"/>
         <v>155648</v>
       </c>
       <c r="L57" s="2">
-        <f>K57/D57</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N57">
-        <f>$H57-E57</f>
+      <c r="M57" s="3">
+        <f t="shared" si="28"/>
+        <v>272192</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="29"/>
+        <v>0.5191650390625</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="26"/>
         <v>57344</v>
       </c>
-      <c r="O57" s="2">
-        <f>N57/H57</f>
+      <c r="Q57" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R57" s="3">
+        <f t="shared" si="30"/>
+        <v>173888</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="31"/>
+        <v>0.279296875</v>
+      </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>4096</v>
       </c>
@@ -36382,23 +37139,39 @@
         <v>1593320</v>
       </c>
       <c r="K58">
-        <f>H58-D58</f>
+        <f t="shared" si="24"/>
         <v>311296</v>
       </c>
       <c r="L58" s="2">
-        <f>K58/D58</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N58">
-        <f>$H58-E58</f>
+      <c r="M58" s="3">
+        <f t="shared" si="28"/>
+        <v>544744</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51950836181640625</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="26"/>
         <v>114688</v>
       </c>
-      <c r="O58" s="2">
-        <f>N58/H58</f>
+      <c r="Q58" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R58" s="3">
+        <f t="shared" si="30"/>
+        <v>348136</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27958598889802633</v>
+      </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>8192</v>
       </c>
@@ -36421,23 +37194,39 @@
         <v>3187088</v>
       </c>
       <c r="K59">
-        <f>H59-D59</f>
+        <f t="shared" si="24"/>
         <v>622592</v>
       </c>
       <c r="L59" s="2">
-        <f>K59/D59</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N59">
-        <f>$H59-E59</f>
+      <c r="M59" s="3">
+        <f t="shared" si="28"/>
+        <v>1089936</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51972198486328125</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="26"/>
         <v>229376</v>
       </c>
-      <c r="O59" s="2">
-        <f>N59/H59</f>
+      <c r="Q59" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R59" s="3">
+        <f t="shared" si="30"/>
+        <v>696720</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27976588199013158</v>
+      </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>16384</v>
       </c>
@@ -36460,23 +37249,39 @@
         <v>6374712</v>
       </c>
       <c r="K60">
-        <f>H60-D60</f>
+        <f t="shared" si="24"/>
         <v>1245184</v>
       </c>
       <c r="L60" s="2">
-        <f>K60/D60</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N60">
-        <f>$H60-E60</f>
+      <c r="M60" s="3">
+        <f t="shared" si="28"/>
+        <v>2180408</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51984977722167969</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="26"/>
         <v>458752</v>
       </c>
-      <c r="O60" s="2">
-        <f>N60/H60</f>
+      <c r="Q60" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R60" s="3">
+        <f t="shared" si="30"/>
+        <v>1393976</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27987349660773025</v>
+      </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
         <v>32768</v>
       </c>
@@ -36499,23 +37304,39 @@
         <v>12749984</v>
       </c>
       <c r="K61">
-        <f>H61-D61</f>
+        <f t="shared" si="24"/>
         <v>2490368</v>
       </c>
       <c r="L61" s="2">
-        <f>K61/D61</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N61">
-        <f>$H61-E61</f>
+      <c r="M61" s="3">
+        <f t="shared" si="28"/>
+        <v>4361376</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51991653442382812</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="26"/>
         <v>917504</v>
       </c>
-      <c r="O61" s="2">
-        <f>N61/H61</f>
+      <c r="Q61" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R61" s="3">
+        <f t="shared" si="30"/>
+        <v>2788512</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="31"/>
+        <v>0.27992971319901316</v>
+      </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>65536</v>
       </c>
@@ -36538,28 +37359,44 @@
         <v>25500552</v>
       </c>
       <c r="K62">
-        <f>H62-D62</f>
+        <f t="shared" si="24"/>
         <v>4980736</v>
       </c>
       <c r="L62" s="2">
-        <f>K62/D62</f>
+        <f t="shared" si="25"/>
         <v>0.296875</v>
       </c>
-      <c r="N62">
-        <f>$H62-E62</f>
+      <c r="M62" s="3">
+        <f t="shared" si="28"/>
+        <v>8723336</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="29"/>
+        <v>0.51995134353637695</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="26"/>
         <v>1835008</v>
       </c>
-      <c r="O62" s="2">
-        <f>N62/H62</f>
+      <c r="Q62" s="2">
+        <f t="shared" si="27"/>
         <v>8.4337349397590355E-2</v>
       </c>
+      <c r="R62" s="3">
+        <f t="shared" si="30"/>
+        <v>5577608</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="31"/>
+        <v>0.2799590261358964</v>
+      </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -36587,14 +37424,26 @@
       <c r="L65" t="s">
         <v>38</v>
       </c>
+      <c r="M65" t="s">
+        <v>41</v>
+      </c>
       <c r="N65" t="s">
+        <v>42</v>
+      </c>
+      <c r="P65" t="s">
         <v>39</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>40</v>
       </c>
+      <c r="R65" t="s">
+        <v>43</v>
+      </c>
+      <c r="S65" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>32</v>
       </c>
@@ -36617,23 +37466,39 @@
         <v>20608</v>
       </c>
       <c r="K66">
-        <f>H66-D66</f>
+        <f t="shared" ref="K66:K77" si="32">H66-D66</f>
         <v>2432</v>
       </c>
       <c r="L66" s="2">
-        <f>K66/D66</f>
+        <f t="shared" ref="L66:L77" si="33">K66/D66</f>
         <v>0.1484375</v>
       </c>
-      <c r="N66">
-        <f>$H66-E66</f>
+      <c r="M66" s="3">
+        <f>I66-D66</f>
+        <v>4224</v>
+      </c>
+      <c r="N66" s="2">
+        <f>M66/D66</f>
+        <v>0.2578125</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P77" si="34">$H66-E66</f>
         <v>896</v>
       </c>
-      <c r="O66" s="2">
-        <f>N66/H66</f>
+      <c r="Q66" s="2">
+        <f t="shared" ref="Q66:Q77" si="35">P66/H66</f>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R66" s="3">
+        <f>I66-E66</f>
+        <v>2688</v>
+      </c>
+      <c r="S66" s="2">
+        <f>R66/E66</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>64</v>
       </c>
@@ -36656,23 +37521,39 @@
         <v>41160</v>
       </c>
       <c r="K67">
-        <f>H67-D67</f>
+        <f t="shared" si="32"/>
         <v>4864</v>
       </c>
       <c r="L67" s="2">
-        <f>K67/D67</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N67">
-        <f>$H67-E67</f>
+      <c r="M67" s="3">
+        <f t="shared" ref="M67:M77" si="36">I67-D67</f>
+        <v>8392</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" ref="N67:N77" si="37">M67/D67</f>
+        <v>0.256103515625</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="34"/>
         <v>1792</v>
       </c>
-      <c r="O67" s="2">
-        <f>N67/H67</f>
+      <c r="Q67" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R67" s="3">
+        <f t="shared" ref="R67:R77" si="38">I67-E67</f>
+        <v>5320</v>
+      </c>
+      <c r="S67" s="2">
+        <f t="shared" ref="S67:S77" si="39">R67/E67</f>
+        <v>0.1484375</v>
+      </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>128</v>
       </c>
@@ -36695,23 +37576,39 @@
         <v>82416</v>
       </c>
       <c r="K68">
-        <f>H68-D68</f>
+        <f t="shared" si="32"/>
         <v>9728</v>
       </c>
       <c r="L68" s="2">
-        <f>K68/D68</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N68">
-        <f>$H68-E68</f>
+      <c r="M68" s="3">
+        <f t="shared" si="36"/>
+        <v>16880</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="37"/>
+        <v>0.257568359375</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="34"/>
         <v>3584</v>
       </c>
-      <c r="O68" s="2">
-        <f>N68/H68</f>
+      <c r="Q68" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R68" s="3">
+        <f t="shared" si="38"/>
+        <v>10736</v>
+      </c>
+      <c r="S68" s="2">
+        <f t="shared" si="39"/>
+        <v>0.14977678571428571</v>
+      </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>256</v>
       </c>
@@ -36734,23 +37631,39 @@
         <v>164952</v>
       </c>
       <c r="K69">
-        <f>H69-D69</f>
+        <f t="shared" si="32"/>
         <v>19456</v>
       </c>
       <c r="L69" s="2">
-        <f>K69/D69</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N69">
-        <f>$H69-E69</f>
+      <c r="M69" s="3">
+        <f t="shared" si="36"/>
+        <v>33880</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25848388671875</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="34"/>
         <v>7168</v>
       </c>
-      <c r="O69" s="2">
-        <f>N69/H69</f>
+      <c r="Q69" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R69" s="3">
+        <f t="shared" si="38"/>
+        <v>21592</v>
+      </c>
+      <c r="S69" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15061383928571428</v>
+      </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>512</v>
       </c>
@@ -36773,23 +37686,39 @@
         <v>330048</v>
       </c>
       <c r="K70">
-        <f>H70-D70</f>
+        <f t="shared" si="32"/>
         <v>38912</v>
       </c>
       <c r="L70" s="2">
-        <f>K70/D70</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N70">
-        <f>$H70-E70</f>
+      <c r="M70" s="3">
+        <f t="shared" si="36"/>
+        <v>67904</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="37"/>
+        <v>0.259033203125</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="34"/>
         <v>14336</v>
       </c>
-      <c r="O70" s="2">
-        <f>N70/H70</f>
+      <c r="Q70" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R70" s="3">
+        <f t="shared" si="38"/>
+        <v>43328</v>
+      </c>
+      <c r="S70" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15111607142857142</v>
+      </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>1024</v>
       </c>
@@ -36812,23 +37741,39 @@
         <v>660264</v>
       </c>
       <c r="K71">
-        <f>H71-D71</f>
+        <f t="shared" si="32"/>
         <v>77824</v>
       </c>
       <c r="L71" s="2">
-        <f>K71/D71</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N71">
-        <f>$H71-E71</f>
+      <c r="M71" s="3">
+        <f t="shared" si="36"/>
+        <v>135976</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="37"/>
+        <v>0.2593536376953125</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="34"/>
         <v>28672</v>
       </c>
-      <c r="O71" s="2">
-        <f>N71/H71</f>
+      <c r="Q71" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R71" s="3">
+        <f t="shared" si="38"/>
+        <v>86824</v>
+      </c>
+      <c r="S71" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15140904017857143</v>
+      </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>2048</v>
       </c>
@@ -36851,23 +37796,39 @@
         <v>1320768</v>
       </c>
       <c r="K72">
-        <f>H72-D72</f>
+        <f t="shared" si="32"/>
         <v>155648</v>
       </c>
       <c r="L72" s="2">
-        <f>K72/D72</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N72">
-        <f>$H72-E72</f>
+      <c r="M72" s="3">
+        <f t="shared" si="36"/>
+        <v>272192</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25958251953125</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="34"/>
         <v>57344</v>
       </c>
-      <c r="O72" s="2">
-        <f>N72/H72</f>
+      <c r="Q72" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R72" s="3">
+        <f t="shared" si="38"/>
+        <v>173888</v>
+      </c>
+      <c r="S72" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15161830357142858</v>
+      </c>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>4096</v>
       </c>
@@ -36890,23 +37851,39 @@
         <v>2641896</v>
       </c>
       <c r="K73">
-        <f>H73-D73</f>
+        <f t="shared" si="32"/>
         <v>311296</v>
       </c>
       <c r="L73" s="2">
-        <f>K73/D73</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N73">
-        <f>$H73-E73</f>
+      <c r="M73" s="3">
+        <f t="shared" si="36"/>
+        <v>544744</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25975418090820312</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="34"/>
         <v>114688</v>
       </c>
-      <c r="O73" s="2">
-        <f>N73/H73</f>
+      <c r="Q73" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R73" s="3">
+        <f t="shared" si="38"/>
+        <v>348136</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15177525111607143</v>
+      </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>8192</v>
       </c>
@@ -36929,23 +37906,39 @@
         <v>5284240</v>
       </c>
       <c r="K74">
-        <f>H74-D74</f>
+        <f t="shared" si="32"/>
         <v>622592</v>
       </c>
       <c r="L74" s="2">
-        <f>K74/D74</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N74">
-        <f>$H74-E74</f>
+      <c r="M74" s="3">
+        <f t="shared" si="36"/>
+        <v>1089936</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25986099243164062</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="34"/>
         <v>229376</v>
       </c>
-      <c r="O74" s="2">
-        <f>N74/H74</f>
+      <c r="Q74" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R74" s="3">
+        <f t="shared" si="38"/>
+        <v>696720</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15187290736607142</v>
+      </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <v>16384</v>
       </c>
@@ -36968,23 +37961,39 @@
         <v>10569016</v>
       </c>
       <c r="K75">
-        <f>H75-D75</f>
+        <f t="shared" si="32"/>
         <v>1245184</v>
       </c>
       <c r="L75" s="2">
-        <f>K75/D75</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N75">
-        <f>$H75-E75</f>
+      <c r="M75" s="3">
+        <f t="shared" si="36"/>
+        <v>2180408</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25992488861083984</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="34"/>
         <v>458752</v>
       </c>
-      <c r="O75" s="2">
-        <f>N75/H75</f>
+      <c r="Q75" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R75" s="3">
+        <f t="shared" si="38"/>
+        <v>1393976</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15193132672991072</v>
+      </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
         <v>32768</v>
       </c>
@@ -37007,23 +38016,39 @@
         <v>21138592</v>
       </c>
       <c r="K76">
-        <f>H76-D76</f>
+        <f t="shared" si="32"/>
         <v>2490368</v>
       </c>
       <c r="L76" s="2">
-        <f>K76/D76</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N76">
-        <f>$H76-E76</f>
+      <c r="M76" s="3">
+        <f t="shared" si="36"/>
+        <v>4361376</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25995826721191406</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="34"/>
         <v>917504</v>
       </c>
-      <c r="O76" s="2">
-        <f>N76/H76</f>
+      <c r="Q76" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R76" s="3">
+        <f t="shared" si="38"/>
+        <v>2788512</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15196184430803572</v>
+      </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <v>65536</v>
       </c>
@@ -37046,32 +38071,50 @@
         <v>42277768</v>
       </c>
       <c r="K77">
-        <f>H77-D77</f>
+        <f t="shared" si="32"/>
         <v>4980736</v>
       </c>
       <c r="L77" s="2">
-        <f>K77/D77</f>
+        <f t="shared" si="33"/>
         <v>0.1484375</v>
       </c>
-      <c r="N77">
-        <f>$H77-E77</f>
+      <c r="M77" s="3">
+        <f t="shared" si="36"/>
+        <v>8723336</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="37"/>
+        <v>0.25997567176818848</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="34"/>
         <v>1835008</v>
       </c>
-      <c r="O77" s="2">
-        <f>N77/H77</f>
+      <c r="Q77" s="2">
+        <f t="shared" si="35"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="R77" s="3">
+        <f t="shared" si="38"/>
+        <v>5577608</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="39"/>
+        <v>0.15197775704520089</v>
+      </c>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
       <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -37099,14 +38142,26 @@
       <c r="L80" t="s">
         <v>38</v>
       </c>
+      <c r="M80" t="s">
+        <v>41</v>
+      </c>
       <c r="N80" t="s">
+        <v>42</v>
+      </c>
+      <c r="P80" t="s">
         <v>39</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>40</v>
       </c>
+      <c r="R80" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>32</v>
       </c>
@@ -37129,23 +38184,39 @@
         <v>36992</v>
       </c>
       <c r="K81">
-        <f>H81-D81</f>
+        <f t="shared" ref="K81:K92" si="40">H81-D81</f>
         <v>2432</v>
       </c>
       <c r="L81" s="2">
-        <f>K81/D81</f>
+        <f t="shared" ref="L81:L92" si="41">K81/D81</f>
         <v>7.421875E-2</v>
       </c>
-      <c r="N81">
-        <f>$H81-E81</f>
+      <c r="M81" s="3">
+        <f>I81-D81</f>
+        <v>4224</v>
+      </c>
+      <c r="N81" s="2">
+        <f>M81/D81</f>
+        <v>0.12890625</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ref="P81:P92" si="42">$H81-E81</f>
         <v>896</v>
       </c>
-      <c r="O81" s="2">
-        <f>N81/H81</f>
+      <c r="Q81" s="2">
+        <f t="shared" ref="Q81:Q92" si="43">P81/H81</f>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R81" s="3">
+        <f>I81-E81</f>
+        <v>2688</v>
+      </c>
+      <c r="S81" s="2">
+        <f>R81/E81</f>
+        <v>7.8358208955223885E-2</v>
+      </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>64</v>
       </c>
@@ -37168,23 +38239,39 @@
         <v>73928</v>
       </c>
       <c r="K82">
-        <f>H82-D82</f>
+        <f t="shared" si="40"/>
         <v>4864</v>
       </c>
       <c r="L82" s="2">
-        <f>K82/D82</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N82">
-        <f>$H82-E82</f>
+      <c r="M82" s="3">
+        <f t="shared" ref="M82:M92" si="44">I82-D82</f>
+        <v>8392</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" ref="N82:N92" si="45">M82/D82</f>
+        <v>0.1280517578125</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="42"/>
         <v>1792</v>
       </c>
-      <c r="O82" s="2">
-        <f>N82/H82</f>
+      <c r="Q82" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R82" s="3">
+        <f t="shared" ref="R82:R92" si="46">I82-E82</f>
+        <v>5320</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" ref="S82:S92" si="47">R82/E82</f>
+        <v>7.7541977611940302E-2</v>
+      </c>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>128</v>
       </c>
@@ -37207,23 +38294,39 @@
         <v>147952</v>
       </c>
       <c r="K83">
-        <f>H83-D83</f>
+        <f t="shared" si="40"/>
         <v>9728</v>
       </c>
       <c r="L83" s="2">
-        <f>K83/D83</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N83">
-        <f>$H83-E83</f>
+      <c r="M83" s="3">
+        <f t="shared" si="44"/>
+        <v>16880</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="45"/>
+        <v>0.1287841796875</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="42"/>
         <v>3584</v>
       </c>
-      <c r="O83" s="2">
-        <f>N83/H83</f>
+      <c r="Q83" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R83" s="3">
+        <f t="shared" si="46"/>
+        <v>10736</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" si="47"/>
+        <v>7.8241604477611942E-2</v>
+      </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>256</v>
       </c>
@@ -37246,23 +38349,39 @@
         <v>296024</v>
       </c>
       <c r="K84">
-        <f>H84-D84</f>
+        <f t="shared" si="40"/>
         <v>19456</v>
       </c>
       <c r="L84" s="2">
-        <f>K84/D84</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N84">
-        <f>$H84-E84</f>
+      <c r="M84" s="3">
+        <f t="shared" si="44"/>
+        <v>33880</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="45"/>
+        <v>0.129241943359375</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="42"/>
         <v>7168</v>
       </c>
-      <c r="O84" s="2">
-        <f>N84/H84</f>
+      <c r="Q84" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R84" s="3">
+        <f t="shared" si="46"/>
+        <v>21592</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" si="47"/>
+        <v>7.8678871268656719E-2</v>
+      </c>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>512</v>
       </c>
@@ -37285,23 +38404,39 @@
         <v>592192</v>
       </c>
       <c r="K85">
-        <f>H85-D85</f>
+        <f t="shared" si="40"/>
         <v>38912</v>
       </c>
       <c r="L85" s="2">
-        <f>K85/D85</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N85">
-        <f>$H85-E85</f>
+      <c r="M85" s="3">
+        <f t="shared" si="44"/>
+        <v>67904</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="45"/>
+        <v>0.1295166015625</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="42"/>
         <v>14336</v>
       </c>
-      <c r="O85" s="2">
-        <f>N85/H85</f>
+      <c r="Q85" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R85" s="3">
+        <f t="shared" si="46"/>
+        <v>43328</v>
+      </c>
+      <c r="S85" s="2">
+        <f t="shared" si="47"/>
+        <v>7.8941231343283583E-2</v>
+      </c>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>1024</v>
       </c>
@@ -37324,23 +38459,39 @@
         <v>1184552</v>
       </c>
       <c r="K86">
-        <f>H86-D86</f>
+        <f t="shared" si="40"/>
         <v>77824</v>
       </c>
       <c r="L86" s="2">
-        <f>K86/D86</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N86">
-        <f>$H86-E86</f>
+      <c r="M86" s="3">
+        <f t="shared" si="44"/>
+        <v>135976</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12967681884765625</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="42"/>
         <v>28672</v>
       </c>
-      <c r="O86" s="2">
-        <f>N86/H86</f>
+      <c r="Q86" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R86" s="3">
+        <f t="shared" si="46"/>
+        <v>86824</v>
+      </c>
+      <c r="S86" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9094274720149252E-2</v>
+      </c>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>2048</v>
       </c>
@@ -37363,23 +38514,39 @@
         <v>2369344</v>
       </c>
       <c r="K87">
-        <f>H87-D87</f>
+        <f t="shared" si="40"/>
         <v>155648</v>
       </c>
       <c r="L87" s="2">
-        <f>K87/D87</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N87">
-        <f>$H87-E87</f>
+      <c r="M87" s="3">
+        <f t="shared" si="44"/>
+        <v>272192</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="45"/>
+        <v>0.129791259765625</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="42"/>
         <v>57344</v>
       </c>
-      <c r="O87" s="2">
-        <f>N87/H87</f>
+      <c r="Q87" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R87" s="3">
+        <f t="shared" si="46"/>
+        <v>173888</v>
+      </c>
+      <c r="S87" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9203591417910446E-2</v>
+      </c>
     </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>4096</v>
       </c>
@@ -37402,23 +38569,39 @@
         <v>4739048</v>
       </c>
       <c r="K88">
-        <f>H88-D88</f>
+        <f t="shared" si="40"/>
         <v>311296</v>
       </c>
       <c r="L88" s="2">
-        <f>K88/D88</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N88">
-        <f>$H88-E88</f>
+      <c r="M88" s="3">
+        <f t="shared" si="44"/>
+        <v>544744</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12987709045410156</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="42"/>
         <v>114688</v>
       </c>
-      <c r="O88" s="2">
-        <f>N88/H88</f>
+      <c r="Q88" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R88" s="3">
+        <f t="shared" si="46"/>
+        <v>348136</v>
+      </c>
+      <c r="S88" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9285578941231338E-2</v>
+      </c>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>8192</v>
       </c>
@@ -37441,23 +38624,39 @@
         <v>9478544</v>
       </c>
       <c r="K89">
-        <f>H89-D89</f>
+        <f t="shared" si="40"/>
         <v>622592</v>
       </c>
       <c r="L89" s="2">
-        <f>K89/D89</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N89">
-        <f>$H89-E89</f>
+      <c r="M89" s="3">
+        <f t="shared" si="44"/>
+        <v>1089936</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12993049621582031</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="42"/>
         <v>229376</v>
       </c>
-      <c r="O89" s="2">
-        <f>N89/H89</f>
+      <c r="Q89" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R89" s="3">
+        <f t="shared" si="46"/>
+        <v>696720</v>
+      </c>
+      <c r="S89" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9336593400186561E-2</v>
+      </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1">
         <v>16384</v>
       </c>
@@ -37480,23 +38679,39 @@
         <v>18957624</v>
       </c>
       <c r="K90">
-        <f>H90-D90</f>
+        <f t="shared" si="40"/>
         <v>1245184</v>
       </c>
       <c r="L90" s="2">
-        <f>K90/D90</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N90">
-        <f>$H90-E90</f>
+      <c r="M90" s="3">
+        <f t="shared" si="44"/>
+        <v>2180408</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12996244430541992</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="42"/>
         <v>458752</v>
       </c>
-      <c r="O90" s="2">
-        <f>N90/H90</f>
+      <c r="Q90" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R90" s="3">
+        <f t="shared" si="46"/>
+        <v>1393976</v>
+      </c>
+      <c r="S90" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9367110978311561E-2</v>
+      </c>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1">
         <v>32768</v>
       </c>
@@ -37519,23 +38734,39 @@
         <v>37915808</v>
       </c>
       <c r="K91">
-        <f>H91-D91</f>
+        <f t="shared" si="40"/>
         <v>2490368</v>
       </c>
       <c r="L91" s="2">
-        <f>K91/D91</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N91">
-        <f>$H91-E91</f>
+      <c r="M91" s="3">
+        <f t="shared" si="44"/>
+        <v>4361376</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12997913360595703</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="42"/>
         <v>917504</v>
       </c>
-      <c r="O91" s="2">
-        <f>N91/H91</f>
+      <c r="Q91" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R91" s="3">
+        <f t="shared" si="46"/>
+        <v>2788512</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9383052996735079E-2</v>
+      </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>65536</v>
       </c>
@@ -37558,31 +38789,47 @@
         <v>75832200</v>
       </c>
       <c r="K92">
-        <f>H92-D92</f>
+        <f t="shared" si="40"/>
         <v>4980736</v>
       </c>
       <c r="L92" s="2">
-        <f>K92/D92</f>
+        <f t="shared" si="41"/>
         <v>7.421875E-2</v>
       </c>
-      <c r="N92">
-        <f>$H92-E92</f>
+      <c r="M92" s="3">
+        <f t="shared" si="44"/>
+        <v>8723336</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12998783588409424</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="42"/>
         <v>1835008</v>
       </c>
-      <c r="O92" s="2">
-        <f>N92/H92</f>
+      <c r="Q92" s="2">
+        <f t="shared" si="43"/>
         <v>2.5454545454545455E-2</v>
       </c>
+      <c r="R92" s="3">
+        <f t="shared" si="46"/>
+        <v>5577608</v>
+      </c>
+      <c r="S92" s="2">
+        <f t="shared" si="47"/>
+        <v>7.9391365620627333E-2</v>
+      </c>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>2</v>
       </c>
@@ -37610,14 +38857,26 @@
       <c r="L95" t="s">
         <v>38</v>
       </c>
+      <c r="M95" t="s">
+        <v>41</v>
+      </c>
       <c r="N95" t="s">
+        <v>42</v>
+      </c>
+      <c r="P95" t="s">
         <v>39</v>
       </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>40</v>
       </c>
+      <c r="R95" t="s">
+        <v>43</v>
+      </c>
+      <c r="S95" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>32</v>
       </c>
@@ -37640,23 +38899,39 @@
         <v>69760</v>
       </c>
       <c r="K96">
-        <f>H96-D96</f>
+        <f t="shared" ref="K96:K107" si="48">H96-D96</f>
         <v>2432</v>
       </c>
       <c r="L96" s="2">
-        <f>K96/D96</f>
+        <f t="shared" ref="L96:L107" si="49">K96/D96</f>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N96">
-        <f>$H96-E96</f>
+      <c r="M96" s="3">
+        <f>I96-D96</f>
+        <v>4224</v>
+      </c>
+      <c r="N96" s="2">
+        <f>M96/D96</f>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ref="P96:P107" si="50">$H96-E96</f>
         <v>896</v>
       </c>
-      <c r="O96" s="2">
-        <f>N96/H96</f>
+      <c r="Q96" s="2">
+        <f t="shared" ref="Q96:Q107" si="51">P96/H96</f>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R96" s="3">
+        <f>I96-E96</f>
+        <v>2688</v>
+      </c>
+      <c r="S96" s="2">
+        <f>R96/E96</f>
+        <v>4.0076335877862593E-2</v>
+      </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>64</v>
       </c>
@@ -37679,23 +38954,39 @@
         <v>139464</v>
       </c>
       <c r="K97">
-        <f>H97-D97</f>
+        <f t="shared" si="48"/>
         <v>4864</v>
       </c>
       <c r="L97" s="2">
-        <f>K97/D97</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N97">
-        <f>$H97-E97</f>
+      <c r="M97" s="3">
+        <f t="shared" ref="M97:M107" si="52">I97-D97</f>
+        <v>8392</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" ref="N97:N107" si="53">M97/D97</f>
+        <v>6.402587890625E-2</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="50"/>
         <v>1792</v>
       </c>
-      <c r="O97" s="2">
-        <f>N97/H97</f>
+      <c r="Q97" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R97" s="3">
+        <f t="shared" ref="R97:R107" si="54">I97-E97</f>
+        <v>5320</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" ref="S97:S107" si="55">R97/E97</f>
+        <v>3.9658874045801526E-2</v>
+      </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>128</v>
       </c>
@@ -37718,23 +39009,39 @@
         <v>279024</v>
       </c>
       <c r="K98">
-        <f>H98-D98</f>
+        <f t="shared" si="48"/>
         <v>9728</v>
       </c>
       <c r="L98" s="2">
-        <f>K98/D98</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N98">
-        <f>$H98-E98</f>
+      <c r="M98" s="3">
+        <f t="shared" si="52"/>
+        <v>16880</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="53"/>
+        <v>6.439208984375E-2</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="50"/>
         <v>3584</v>
       </c>
-      <c r="O98" s="2">
-        <f>N98/H98</f>
+      <c r="Q98" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R98" s="3">
+        <f t="shared" si="54"/>
+        <v>10736</v>
+      </c>
+      <c r="S98" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0016698473282444E-2</v>
+      </c>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>256</v>
       </c>
@@ -37757,23 +39064,39 @@
         <v>558168</v>
       </c>
       <c r="K99">
-        <f>H99-D99</f>
+        <f t="shared" si="48"/>
         <v>19456</v>
       </c>
       <c r="L99" s="2">
-        <f>K99/D99</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N99">
-        <f>$H99-E99</f>
+      <c r="M99" s="3">
+        <f t="shared" si="52"/>
+        <v>33880</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" si="53"/>
+        <v>6.46209716796875E-2</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="50"/>
         <v>7168</v>
       </c>
-      <c r="O99" s="2">
-        <f>N99/H99</f>
+      <c r="Q99" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R99" s="3">
+        <f t="shared" si="54"/>
+        <v>21592</v>
+      </c>
+      <c r="S99" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0240338740458015E-2</v>
+      </c>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>512</v>
       </c>
@@ -37796,23 +39119,39 @@
         <v>1116480</v>
       </c>
       <c r="K100">
-        <f>H100-D100</f>
+        <f t="shared" si="48"/>
         <v>38912</v>
       </c>
       <c r="L100" s="2">
-        <f>K100/D100</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N100">
-        <f>$H100-E100</f>
+      <c r="M100" s="3">
+        <f t="shared" si="52"/>
+        <v>67904</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="53"/>
+        <v>6.475830078125E-2</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="50"/>
         <v>14336</v>
       </c>
-      <c r="O100" s="2">
-        <f>N100/H100</f>
+      <c r="Q100" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R100" s="3">
+        <f t="shared" si="54"/>
+        <v>43328</v>
+      </c>
+      <c r="S100" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0374522900763356E-2</v>
+      </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>1024</v>
       </c>
@@ -37835,23 +39174,39 @@
         <v>2233128</v>
       </c>
       <c r="K101">
-        <f>H101-D101</f>
+        <f t="shared" si="48"/>
         <v>77824</v>
       </c>
       <c r="L101" s="2">
-        <f>K101/D101</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N101">
-        <f>$H101-E101</f>
+      <c r="M101" s="3">
+        <f t="shared" si="52"/>
+        <v>135976</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4838409423828125E-2</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="50"/>
         <v>28672</v>
       </c>
-      <c r="O101" s="2">
-        <f>N101/H101</f>
+      <c r="Q101" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R101" s="3">
+        <f t="shared" si="54"/>
+        <v>86824</v>
+      </c>
+      <c r="S101" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0452796994274808E-2</v>
+      </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>2048</v>
       </c>
@@ -37874,23 +39229,39 @@
         <v>4466496</v>
       </c>
       <c r="K102">
-        <f>H102-D102</f>
+        <f t="shared" si="48"/>
         <v>155648</v>
       </c>
       <c r="L102" s="2">
-        <f>K102/D102</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N102">
-        <f>$H102-E102</f>
+      <c r="M102" s="3">
+        <f t="shared" si="52"/>
+        <v>272192</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="53"/>
+        <v>6.48956298828125E-2</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="50"/>
         <v>57344</v>
       </c>
-      <c r="O102" s="2">
-        <f>N102/H102</f>
+      <c r="Q102" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R102" s="3">
+        <f t="shared" si="54"/>
+        <v>173888</v>
+      </c>
+      <c r="S102" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0508707061068704E-2</v>
+      </c>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>4096</v>
       </c>
@@ -37913,23 +39284,39 @@
         <v>8933352</v>
       </c>
       <c r="K103">
-        <f>H103-D103</f>
+        <f t="shared" si="48"/>
         <v>311296</v>
       </c>
       <c r="L103" s="2">
-        <f>K103/D103</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N103">
-        <f>$H103-E103</f>
+      <c r="M103" s="3">
+        <f t="shared" si="52"/>
+        <v>544744</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4938545227050781E-2</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="50"/>
         <v>114688</v>
       </c>
-      <c r="O103" s="2">
-        <f>N103/H103</f>
+      <c r="Q103" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R103" s="3">
+        <f t="shared" si="54"/>
+        <v>348136</v>
+      </c>
+      <c r="S103" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0550639611164119E-2</v>
+      </c>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C104">
         <v>8192</v>
       </c>
@@ -37952,23 +39339,39 @@
         <v>17867152</v>
       </c>
       <c r="K104">
-        <f>H104-D104</f>
+        <f t="shared" si="48"/>
         <v>622592</v>
       </c>
       <c r="L104" s="2">
-        <f>K104/D104</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N104">
-        <f>$H104-E104</f>
+      <c r="M104" s="3">
+        <f t="shared" si="52"/>
+        <v>1089936</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4965248107910156E-2</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="50"/>
         <v>229376</v>
       </c>
-      <c r="O104" s="2">
-        <f>N104/H104</f>
+      <c r="Q104" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R104" s="3">
+        <f t="shared" si="54"/>
+        <v>696720</v>
+      </c>
+      <c r="S104" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0576730975667941E-2</v>
+      </c>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C105" s="1">
         <v>16384</v>
       </c>
@@ -37991,23 +39394,39 @@
         <v>35734840</v>
       </c>
       <c r="K105">
-        <f>H105-D105</f>
+        <f t="shared" si="48"/>
         <v>1245184</v>
       </c>
       <c r="L105" s="2">
-        <f>K105/D105</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N105">
-        <f>$H105-E105</f>
+      <c r="M105" s="3">
+        <f t="shared" si="52"/>
+        <v>2180408</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4981222152709961E-2</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="50"/>
         <v>458752</v>
       </c>
-      <c r="O105" s="2">
-        <f>N105/H105</f>
+      <c r="Q105" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R105" s="3">
+        <f t="shared" si="54"/>
+        <v>1393976</v>
+      </c>
+      <c r="S105" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0592339202647904E-2</v>
+      </c>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C106" s="1">
         <v>32768</v>
       </c>
@@ -38030,23 +39449,39 @@
         <v>71470240</v>
       </c>
       <c r="K106">
-        <f>H106-D106</f>
+        <f t="shared" si="48"/>
         <v>2490368</v>
       </c>
       <c r="L106" s="2">
-        <f>K106/D106</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N106">
-        <f>$H106-E106</f>
+      <c r="M106" s="3">
+        <f t="shared" si="52"/>
+        <v>4361376</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4989566802978516E-2</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="50"/>
         <v>917504</v>
       </c>
-      <c r="O106" s="2">
-        <f>N106/H106</f>
+      <c r="Q106" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R106" s="3">
+        <f t="shared" si="54"/>
+        <v>2788512</v>
+      </c>
+      <c r="S106" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0600492754055341E-2</v>
+      </c>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C107" s="1">
         <v>65536</v>
       </c>
@@ -38069,32 +39504,50 @@
         <v>142941064</v>
       </c>
       <c r="K107">
-        <f>H107-D107</f>
+        <f t="shared" si="48"/>
         <v>4980736</v>
       </c>
       <c r="L107" s="2">
-        <f>K107/D107</f>
+        <f t="shared" si="49"/>
         <v>3.7109375E-2</v>
       </c>
-      <c r="N107">
-        <f>$H107-E107</f>
+      <c r="M107" s="3">
+        <f t="shared" si="52"/>
+        <v>8723336</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="53"/>
+        <v>6.4993917942047119E-2</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="50"/>
         <v>1835008</v>
       </c>
-      <c r="O107" s="2">
-        <f>N107/H107</f>
+      <c r="Q107" s="2">
+        <f t="shared" si="51"/>
         <v>1.3182674199623353E-2</v>
       </c>
+      <c r="R107" s="3">
+        <f t="shared" si="54"/>
+        <v>5577608</v>
+      </c>
+      <c r="S107" s="2">
+        <f t="shared" si="55"/>
+        <v>4.0604744248717795E-2</v>
+      </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
       <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>2</v>
       </c>
@@ -38122,14 +39575,26 @@
       <c r="L110" t="s">
         <v>38</v>
       </c>
+      <c r="M110" t="s">
+        <v>41</v>
+      </c>
       <c r="N110" t="s">
+        <v>42</v>
+      </c>
+      <c r="P110" t="s">
         <v>39</v>
       </c>
-      <c r="O110" t="s">
+      <c r="Q110" t="s">
         <v>40</v>
       </c>
+      <c r="R110" t="s">
+        <v>43</v>
+      </c>
+      <c r="S110" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>32</v>
       </c>
@@ -38152,23 +39617,39 @@
         <v>135296</v>
       </c>
       <c r="K111">
-        <f>H111-D111</f>
+        <f t="shared" ref="K111:K122" si="56">H111-D111</f>
         <v>2432</v>
       </c>
       <c r="L111" s="2">
-        <f>K111/D111</f>
+        <f t="shared" ref="L111:L122" si="57">K111/D111</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N111">
-        <f>$H111-E111</f>
+      <c r="M111" s="3">
+        <f>I111-D111</f>
+        <v>4224</v>
+      </c>
+      <c r="N111" s="2">
+        <f>M111/D111</f>
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="P111">
+        <f t="shared" ref="P111:P122" si="58">$H111-E111</f>
         <v>896</v>
       </c>
-      <c r="O111" s="2">
-        <f>N111/H111</f>
+      <c r="Q111" s="2">
+        <f t="shared" ref="Q111:Q122" si="59">P111/H111</f>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R111" s="3">
+        <f>I111-E111</f>
+        <v>2688</v>
+      </c>
+      <c r="S111" s="2">
+        <f>R111/E111</f>
+        <v>2.0270270270270271E-2</v>
+      </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>64</v>
       </c>
@@ -38191,23 +39672,39 @@
         <v>270536</v>
       </c>
       <c r="K112">
-        <f>H112-D112</f>
+        <f t="shared" si="56"/>
         <v>4864</v>
       </c>
       <c r="L112" s="2">
-        <f>K112/D112</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N112">
-        <f>$H112-E112</f>
+      <c r="M112" s="3">
+        <f t="shared" ref="M112:M122" si="60">I112-D112</f>
+        <v>8392</v>
+      </c>
+      <c r="N112" s="2">
+        <f>M112/D112</f>
+        <v>3.2012939453125E-2</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="58"/>
         <v>1792</v>
       </c>
-      <c r="O112" s="2">
-        <f>N112/H112</f>
+      <c r="Q112" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R112" s="3">
+        <f t="shared" ref="R112:R122" si="61">I112-E112</f>
+        <v>5320</v>
+      </c>
+      <c r="S112" s="2">
+        <f t="shared" ref="S112:S122" si="62">R112/E112</f>
+        <v>2.0059121621621621E-2</v>
+      </c>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>128</v>
       </c>
@@ -38230,23 +39727,39 @@
         <v>541168</v>
       </c>
       <c r="K113">
-        <f>H113-D113</f>
+        <f t="shared" si="56"/>
         <v>9728</v>
       </c>
       <c r="L113" s="2">
-        <f>K113/D113</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N113">
-        <f>$H113-E113</f>
+      <c r="M113" s="3">
+        <f t="shared" si="60"/>
+        <v>16880</v>
+      </c>
+      <c r="N113" s="2">
+        <f t="shared" ref="N113:N122" si="63">M113/D113</f>
+        <v>3.2196044921875E-2</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="58"/>
         <v>3584</v>
       </c>
-      <c r="O113" s="2">
-        <f>N113/H113</f>
+      <c r="Q113" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R113" s="3">
+        <f t="shared" si="61"/>
+        <v>10736</v>
+      </c>
+      <c r="S113" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0240106177606177E-2</v>
+      </c>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C114">
         <v>256</v>
       </c>
@@ -38269,23 +39782,39 @@
         <v>1082456</v>
       </c>
       <c r="K114">
-        <f>H114-D114</f>
+        <f t="shared" si="56"/>
         <v>19456</v>
       </c>
       <c r="L114" s="2">
         <f>K114/D114</f>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N114">
-        <f>$H114-E114</f>
+      <c r="M114" s="3">
+        <f t="shared" si="60"/>
+        <v>33880</v>
+      </c>
+      <c r="N114" s="2">
+        <f t="shared" si="63"/>
+        <v>3.231048583984375E-2</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="58"/>
         <v>7168</v>
       </c>
-      <c r="O114" s="2">
-        <f>N114/H114</f>
+      <c r="Q114" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R114" s="3">
+        <f t="shared" si="61"/>
+        <v>21592</v>
+      </c>
+      <c r="S114" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0353221525096526E-2</v>
+      </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C115">
         <v>512</v>
       </c>
@@ -38308,23 +39837,39 @@
         <v>2165056</v>
       </c>
       <c r="K115">
-        <f>H115-D115</f>
+        <f t="shared" si="56"/>
         <v>38912</v>
       </c>
       <c r="L115" s="2">
-        <f>K115/D115</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N115">
-        <f>$H115-E115</f>
+      <c r="M115" s="3">
+        <f t="shared" si="60"/>
+        <v>67904</v>
+      </c>
+      <c r="N115" s="2">
+        <f t="shared" si="63"/>
+        <v>3.2379150390625E-2</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="58"/>
         <v>14336</v>
       </c>
-      <c r="O115" s="2">
-        <f>N115/H115</f>
+      <c r="Q115" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R115" s="3">
+        <f t="shared" si="61"/>
+        <v>43328</v>
+      </c>
+      <c r="S115" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0421090733590733E-2</v>
+      </c>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C116">
         <v>1024</v>
       </c>
@@ -38347,23 +39892,39 @@
         <v>4330280</v>
       </c>
       <c r="K116">
-        <f>H116-D116</f>
+        <f t="shared" si="56"/>
         <v>77824</v>
       </c>
       <c r="L116" s="2">
-        <f>K116/D116</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N116">
-        <f>$H116-E116</f>
+      <c r="M116" s="3">
+        <f t="shared" si="60"/>
+        <v>135976</v>
+      </c>
+      <c r="N116" s="2">
+        <f t="shared" si="63"/>
+        <v>3.2419204711914062E-2</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="58"/>
         <v>28672</v>
       </c>
-      <c r="O116" s="2">
-        <f>N116/H116</f>
+      <c r="Q116" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R116" s="3">
+        <f t="shared" si="61"/>
+        <v>86824</v>
+      </c>
+      <c r="S116" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0460681105212354E-2</v>
+      </c>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C117">
         <v>2048</v>
       </c>
@@ -38386,23 +39947,39 @@
         <v>8660800</v>
       </c>
       <c r="K117">
-        <f>H117-D117</f>
+        <f t="shared" si="56"/>
         <v>155648</v>
       </c>
       <c r="L117" s="2">
-        <f>K117/D117</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N117">
-        <f>$H117-E117</f>
+      <c r="M117" s="3">
+        <f t="shared" si="60"/>
+        <v>272192</v>
+      </c>
+      <c r="N117" s="2">
+        <f t="shared" si="63"/>
+        <v>3.244781494140625E-2</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="58"/>
         <v>57344</v>
       </c>
-      <c r="O117" s="2">
-        <f>N117/H117</f>
+      <c r="Q117" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R117" s="3">
+        <f t="shared" si="61"/>
+        <v>173888</v>
+      </c>
+      <c r="S117" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0488959942084942E-2</v>
+      </c>
     </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C118">
         <v>4096</v>
       </c>
@@ -38425,23 +40002,39 @@
         <v>17321960</v>
       </c>
       <c r="K118">
-        <f>H118-D118</f>
+        <f t="shared" si="56"/>
         <v>311296</v>
       </c>
       <c r="L118" s="2">
-        <f>K118/D118</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N118">
-        <f>$H118-E118</f>
+      <c r="M118" s="3">
+        <f t="shared" si="60"/>
+        <v>544744</v>
+      </c>
+      <c r="N118" s="2">
+        <f t="shared" si="63"/>
+        <v>3.2469272613525391E-2</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="58"/>
         <v>114688</v>
       </c>
-      <c r="O118" s="2">
-        <f>N118/H118</f>
+      <c r="Q118" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R118" s="3">
+        <f t="shared" si="61"/>
+        <v>348136</v>
+      </c>
+      <c r="S118" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0510169069739383E-2</v>
+      </c>
     </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>8192</v>
       </c>
@@ -38464,23 +40057,39 @@
         <v>34644368</v>
       </c>
       <c r="K119">
-        <f>H119-D119</f>
+        <f t="shared" si="56"/>
         <v>622592</v>
       </c>
       <c r="L119" s="2">
-        <f>K119/D119</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N119">
-        <f>$H119-E119</f>
+      <c r="M119" s="3">
+        <f t="shared" si="60"/>
+        <v>1089936</v>
+      </c>
+      <c r="N119" s="2">
+        <f t="shared" si="63"/>
+        <v>3.2482624053955078E-2</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="58"/>
         <v>229376</v>
       </c>
-      <c r="O119" s="2">
-        <f>N119/H119</f>
+      <c r="Q119" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R119" s="3">
+        <f t="shared" si="61"/>
+        <v>696720</v>
+      </c>
+      <c r="S119" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0523365860279922E-2</v>
+      </c>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C120" s="1">
         <v>16384</v>
       </c>
@@ -38503,23 +40112,39 @@
         <v>69289272</v>
       </c>
       <c r="K120">
-        <f>H120-D120</f>
+        <f t="shared" si="56"/>
         <v>1245184</v>
       </c>
       <c r="L120" s="2">
-        <f>K120/D120</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N120">
-        <f>$H120-E120</f>
+      <c r="M120" s="3">
+        <f t="shared" si="60"/>
+        <v>2180408</v>
+      </c>
+      <c r="N120" s="2">
+        <f t="shared" si="63"/>
+        <v>3.249061107635498E-2</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="58"/>
         <v>458752</v>
       </c>
-      <c r="O120" s="2">
-        <f>N120/H120</f>
+      <c r="Q120" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R120" s="3">
+        <f t="shared" si="61"/>
+        <v>1393976</v>
+      </c>
+      <c r="S120" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0531260368906852E-2</v>
+      </c>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C121" s="1">
         <v>32768</v>
       </c>
@@ -38542,23 +40167,39 @@
         <v>138579104</v>
       </c>
       <c r="K121">
-        <f>H121-D121</f>
+        <f t="shared" si="56"/>
         <v>2490368</v>
       </c>
       <c r="L121" s="2">
-        <f>K121/D121</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N121">
-        <f>$H121-E121</f>
+      <c r="M121" s="3">
+        <f t="shared" si="60"/>
+        <v>4361376</v>
+      </c>
+      <c r="N121" s="2">
+        <f t="shared" si="63"/>
+        <v>3.2494783401489258E-2</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="58"/>
         <v>917504</v>
       </c>
-      <c r="O121" s="2">
-        <f>N121/H121</f>
+      <c r="Q121" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R121" s="3">
+        <f t="shared" si="61"/>
+        <v>2788512</v>
+      </c>
+      <c r="S121" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0535384365950773E-2</v>
+      </c>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C122" s="1">
         <v>65536</v>
       </c>
@@ -38581,23 +40222,39 @@
         <v>277158792</v>
       </c>
       <c r="K122">
-        <f>H122-D122</f>
+        <f t="shared" si="56"/>
         <v>4980736</v>
       </c>
       <c r="L122" s="2">
-        <f>K122/D122</f>
+        <f t="shared" si="57"/>
         <v>1.85546875E-2</v>
       </c>
-      <c r="N122">
-        <f>$H122-E122</f>
+      <c r="M122" s="3">
+        <f t="shared" si="60"/>
+        <v>8723336</v>
+      </c>
+      <c r="N122" s="2">
+        <f t="shared" si="63"/>
+        <v>3.249695897102356E-2</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="58"/>
         <v>1835008</v>
       </c>
-      <c r="O122" s="2">
-        <f>N122/H122</f>
+      <c r="Q122" s="2">
+        <f t="shared" si="59"/>
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="R122" s="3">
+        <f t="shared" si="61"/>
+        <v>5577608</v>
+      </c>
+      <c r="S122" s="2">
+        <f t="shared" si="62"/>
+        <v>2.053753473583796E-2</v>
+      </c>
     </row>
-    <row r="124" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>7</v>
       </c>
@@ -38611,7 +40268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C125">
         <v>32</v>
       </c>
@@ -38624,11 +40281,11 @@
         <v>2.375</v>
       </c>
       <c r="F125" s="2">
-        <f>O5</f>
+        <f>Q5</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="126" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C126">
         <v>64</v>
       </c>
@@ -38641,11 +40298,11 @@
         <v>1.1875</v>
       </c>
       <c r="F126" s="2">
-        <f>O21</f>
+        <f>Q21</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C127">
         <v>128</v>
       </c>
@@ -38658,11 +40315,11 @@
         <v>0.59375</v>
       </c>
       <c r="F127" s="2">
-        <f>O36</f>
+        <f>Q36</f>
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="128" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C128">
         <v>256</v>
       </c>
@@ -38675,7 +40332,7 @@
         <v>0.296875</v>
       </c>
       <c r="F128" s="2">
-        <f>O51</f>
+        <f>Q51</f>
         <v>8.4337349397590355E-2</v>
       </c>
     </row>
@@ -38692,7 +40349,7 @@
         <v>0.1484375</v>
       </c>
       <c r="F129" s="2">
-        <f>O66</f>
+        <f>Q66</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
@@ -38709,7 +40366,7 @@
         <v>7.421875E-2</v>
       </c>
       <c r="F130" s="2">
-        <f>O81</f>
+        <f>Q81</f>
         <v>2.5454545454545455E-2</v>
       </c>
     </row>
@@ -38726,7 +40383,7 @@
         <v>3.7109375E-2</v>
       </c>
       <c r="F131" s="2">
-        <f>O96</f>
+        <f>Q96</f>
         <v>1.3182674199623353E-2</v>
       </c>
     </row>
@@ -38743,7 +40400,7 @@
         <v>1.85546875E-2</v>
       </c>
       <c r="F132" s="2">
-        <f>O111</f>
+        <f>Q111</f>
         <v>6.7114093959731542E-3</v>
       </c>
     </row>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E0407D-A929-5B42-93CE-23D4883EBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0EF9E-E68F-314D-B39C-E4DE1D630C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
+    <workbookView xWindow="920" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
   <si>
     <t>unordered_map</t>
   </si>
@@ -170,6 +170,24 @@
   </si>
   <si>
     <t>unordered_map/packed-hashtable-rl % diff</t>
+  </si>
+  <si>
+    <t>packed-hashtable remove values</t>
+  </si>
+  <si>
+    <t>packed-hashtable-rl remove values</t>
+  </si>
+  <si>
+    <t>packed-hashtable-rl add values</t>
+  </si>
+  <si>
+    <t>unordered-map remove values</t>
+  </si>
+  <si>
+    <t>unordered-map add values</t>
+  </si>
+  <si>
+    <t>packed-hashtable add values</t>
   </si>
 </sst>
 </file>
@@ -13189,6 +13207,1412 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1201023680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>remove</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$V$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed-hashtable-rl remove values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$163:$U$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$V$163:$V$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFE9-6C48-8E6E-D73A947C4F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$W$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed-hashtable remove values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$163:$U$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$W$163:$W$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFE9-6C48-8E6E-D73A947C4F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$X$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered-map remove values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$163:$U$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$X$163:$X$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FFE9-6C48-8E6E-D73A947C4F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556607119"/>
+        <c:axId val="623065647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556607119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623065647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623065647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556607119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>add</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$V$176</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed-hashtable-rl add values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$177:$U$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$V$177:$V$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F44D-0746-B9DB-AE75FACDD8E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$W$176</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>packed-hashtable add values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$177:$U$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$W$177:$W$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F44D-0746-B9DB-AE75FACDD8E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$X$176</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unordered-map add values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$U$177:$U$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$X$177:$X$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F44D-0746-B9DB-AE75FACDD8E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1044816399"/>
+        <c:axId val="1045221119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1044816399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045221119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1045221119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044816399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20670,6 +22094,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -29207,6 +30711,1038 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34171,16 +36707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34200,6 +36736,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B293D2-FD56-5840-BE71-C320E3A98204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52759DCC-9383-3D49-926F-287C20A59CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34507,8 +37115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
   <dimension ref="C3:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40558,10 +43166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="B3:V158"/>
+  <dimension ref="B3:X188"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="U165" sqref="U165"/>
+    <sheetView tabSelected="1" topLeftCell="C140" workbookViewId="0">
+      <selection activeCell="AF181" sqref="AF181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40573,9 +43181,13 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -43365,6 +45977,370 @@
       </c>
       <c r="V158">
         <v>337634</v>
+      </c>
+    </row>
+    <row r="162" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U162" t="s">
+        <v>2</v>
+      </c>
+      <c r="V162" t="s">
+        <v>46</v>
+      </c>
+      <c r="W162" t="s">
+        <v>45</v>
+      </c>
+      <c r="X162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U163">
+        <v>32</v>
+      </c>
+      <c r="V163">
+        <v>5.9</v>
+      </c>
+      <c r="W163">
+        <v>16.7</v>
+      </c>
+      <c r="X163">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="164" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U164">
+        <v>64</v>
+      </c>
+      <c r="V164">
+        <v>10.9</v>
+      </c>
+      <c r="W164">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X164">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="165" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U165">
+        <v>128</v>
+      </c>
+      <c r="V165">
+        <v>21</v>
+      </c>
+      <c r="W165">
+        <v>70.2</v>
+      </c>
+      <c r="X165">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="166" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U166">
+        <v>256</v>
+      </c>
+      <c r="V166">
+        <v>53.3</v>
+      </c>
+      <c r="W166">
+        <v>150</v>
+      </c>
+      <c r="X166">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U167">
+        <v>512</v>
+      </c>
+      <c r="V167">
+        <v>90.8</v>
+      </c>
+      <c r="W167">
+        <v>289</v>
+      </c>
+      <c r="X167">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U168">
+        <v>1024</v>
+      </c>
+      <c r="V168">
+        <v>171</v>
+      </c>
+      <c r="W168">
+        <v>573</v>
+      </c>
+      <c r="X168">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>2048</v>
+      </c>
+      <c r="V169">
+        <v>331</v>
+      </c>
+      <c r="W169">
+        <v>4304</v>
+      </c>
+      <c r="X169">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="170" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U170">
+        <v>4096</v>
+      </c>
+      <c r="V170">
+        <v>648</v>
+      </c>
+      <c r="W170">
+        <v>7386</v>
+      </c>
+      <c r="X170">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="171" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U171">
+        <v>8192</v>
+      </c>
+      <c r="V171">
+        <v>1739</v>
+      </c>
+      <c r="W171">
+        <v>17420</v>
+      </c>
+      <c r="X171">
+        <v>20096</v>
+      </c>
+    </row>
+    <row r="172" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U172" s="1">
+        <v>16384</v>
+      </c>
+      <c r="V172">
+        <v>3832</v>
+      </c>
+      <c r="W172">
+        <v>36329</v>
+      </c>
+      <c r="X172">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="173" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U173" s="1">
+        <v>32768</v>
+      </c>
+      <c r="V173">
+        <v>7679</v>
+      </c>
+      <c r="W173">
+        <v>72027</v>
+      </c>
+      <c r="X173">
+        <v>79059</v>
+      </c>
+    </row>
+    <row r="174" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U174" s="1">
+        <v>65536</v>
+      </c>
+      <c r="V174">
+        <v>15652</v>
+      </c>
+      <c r="W174">
+        <v>163285</v>
+      </c>
+      <c r="X174">
+        <v>171665</v>
+      </c>
+    </row>
+    <row r="176" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U176" t="s">
+        <v>2</v>
+      </c>
+      <c r="V176" t="s">
+        <v>47</v>
+      </c>
+      <c r="W176" t="s">
+        <v>50</v>
+      </c>
+      <c r="X176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U177">
+        <v>32</v>
+      </c>
+      <c r="V177">
+        <v>96</v>
+      </c>
+      <c r="W177">
+        <v>88.1</v>
+      </c>
+      <c r="X177">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="178" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U178">
+        <v>64</v>
+      </c>
+      <c r="V178">
+        <v>186</v>
+      </c>
+      <c r="W178">
+        <v>167</v>
+      </c>
+      <c r="X178">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="179" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U179">
+        <v>128</v>
+      </c>
+      <c r="V179">
+        <v>365</v>
+      </c>
+      <c r="W179">
+        <v>325</v>
+      </c>
+      <c r="X179">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U180">
+        <v>256</v>
+      </c>
+      <c r="V180">
+        <v>722</v>
+      </c>
+      <c r="W180">
+        <v>643</v>
+      </c>
+      <c r="X180">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>512</v>
+      </c>
+      <c r="V181">
+        <v>1440</v>
+      </c>
+      <c r="W181">
+        <v>1279</v>
+      </c>
+      <c r="X181">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="182" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U182">
+        <v>1024</v>
+      </c>
+      <c r="V182">
+        <v>2871</v>
+      </c>
+      <c r="W182">
+        <v>2551</v>
+      </c>
+      <c r="X182">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="183" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U183">
+        <v>2048</v>
+      </c>
+      <c r="V183">
+        <v>5743</v>
+      </c>
+      <c r="W183">
+        <v>5090</v>
+      </c>
+      <c r="X183">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="184" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U184">
+        <v>4096</v>
+      </c>
+      <c r="V184">
+        <v>11469</v>
+      </c>
+      <c r="W184">
+        <v>10187</v>
+      </c>
+      <c r="X184">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="185" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U185">
+        <v>8192</v>
+      </c>
+      <c r="V185">
+        <v>22922</v>
+      </c>
+      <c r="W185">
+        <v>20379</v>
+      </c>
+      <c r="X185">
+        <v>10712</v>
+      </c>
+    </row>
+    <row r="186" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U186" s="1">
+        <v>16384</v>
+      </c>
+      <c r="V186">
+        <v>45833</v>
+      </c>
+      <c r="W186">
+        <v>40716</v>
+      </c>
+      <c r="X186">
+        <v>21090</v>
+      </c>
+    </row>
+    <row r="187" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U187" s="1">
+        <v>32768</v>
+      </c>
+      <c r="V187">
+        <v>91785</v>
+      </c>
+      <c r="W187">
+        <v>81612</v>
+      </c>
+      <c r="X187">
+        <v>42211</v>
+      </c>
+    </row>
+    <row r="188" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U188" s="1">
+        <v>65536</v>
+      </c>
+      <c r="V188">
+        <v>184051</v>
+      </c>
+      <c r="W188">
+        <v>163207</v>
+      </c>
+      <c r="X188">
+        <v>86042</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02817AC0-53F4-0C48-9F44-43E2EE55D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EDA0C-4F11-AD41-A374-780453BD1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="740" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>unordered_map</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>absl flat_hash_map</t>
+  </si>
+  <si>
+    <t>robin hood unordered_flat_map</t>
   </si>
 </sst>
 </file>
@@ -4569,7 +4572,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$H$102</c:f>
+              <c:f>Performance!$G$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4649,7 +4652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$H$103:$H$114</c:f>
+              <c:f>Performance!$G$103:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4704,7 +4707,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$I$102</c:f>
+              <c:f>Performance!$H$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4784,7 +4787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$I$103:$I$114</c:f>
+              <c:f>Performance!$H$103:$H$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4839,7 +4842,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$J$102</c:f>
+              <c:f>Performance!$I$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4925,7 +4928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$J$103:$J$114</c:f>
+              <c:f>Performance!$I$103:$I$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4980,7 +4983,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$K$102</c:f>
+              <c:f>Performance!$J$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5066,7 +5069,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$K$103:$K$114</c:f>
+              <c:f>Performance!$J$103:$J$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5524,7 +5527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$121</c:f>
+              <c:f>Performance!$C$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5559,7 +5562,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5604,7 +5607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$122:$C$133</c:f>
+              <c:f>Performance!$C$120:$C$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5659,7 +5662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$121</c:f>
+              <c:f>Performance!$D$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5694,7 +5697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5739,7 +5742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$122:$D$133</c:f>
+              <c:f>Performance!$D$120:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6092,7 +6095,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$P$124</c:f>
+              <c:f>Performance!$K$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6127,7 +6130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$125:$O$136</c:f>
+              <c:f>Performance!$J$124:$J$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6172,7 +6175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$P$125:$P$136</c:f>
+              <c:f>Performance!$K$124:$K$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6227,7 +6230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$Q$124</c:f>
+              <c:f>Performance!$L$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6262,7 +6265,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$125:$O$136</c:f>
+              <c:f>Performance!$J$124:$J$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6307,7 +6310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$Q$125:$Q$136</c:f>
+              <c:f>Performance!$L$124:$L$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6660,7 +6663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$C$121</c:f>
+              <c:f>Performance!$C$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6695,7 +6698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6740,7 +6743,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$122:$C$133</c:f>
+              <c:f>Performance!$C$120:$C$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6795,7 +6798,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$121</c:f>
+              <c:f>Performance!$D$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6830,7 +6833,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6875,7 +6878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$D$122:$D$133</c:f>
+              <c:f>Performance!$D$120:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6930,7 +6933,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$121</c:f>
+              <c:f>Performance!$E$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6965,7 +6968,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7010,7 +7013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$122:$E$133</c:f>
+              <c:f>Performance!$E$120:$E$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7065,7 +7068,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$F$121</c:f>
+              <c:f>Performance!$F$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7100,7 +7103,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$B$122:$B$133</c:f>
+              <c:f>Performance!$B$120:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7145,7 +7148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$F$122:$F$133</c:f>
+              <c:f>Performance!$F$120:$F$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7498,7 +7501,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$P$138</c:f>
+              <c:f>Performance!$K$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7533,7 +7536,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$139:$O$150</c:f>
+              <c:f>Performance!$J$138:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7578,7 +7581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$P$139:$P$150</c:f>
+              <c:f>Performance!$K$138:$K$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7633,7 +7636,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$Q$138</c:f>
+              <c:f>Performance!$L$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7668,7 +7671,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$139:$O$150</c:f>
+              <c:f>Performance!$J$138:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7713,7 +7716,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$Q$139:$Q$150</c:f>
+              <c:f>Performance!$L$138:$L$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7768,7 +7771,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$R$138</c:f>
+              <c:f>Performance!$M$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7803,7 +7806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$139:$O$150</c:f>
+              <c:f>Performance!$J$138:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7848,7 +7851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$R$139:$R$150</c:f>
+              <c:f>Performance!$M$138:$M$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8201,7 +8204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$P$152</c:f>
+              <c:f>Performance!$K$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8236,7 +8239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$153:$O$164</c:f>
+              <c:f>Performance!$J$152:$J$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8281,7 +8284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$P$153:$P$164</c:f>
+              <c:f>Performance!$K$152:$K$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8336,7 +8339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$Q$152</c:f>
+              <c:f>Performance!$L$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8371,7 +8374,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$153:$O$164</c:f>
+              <c:f>Performance!$J$152:$J$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8416,7 +8419,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$Q$153:$Q$164</c:f>
+              <c:f>Performance!$L$152:$L$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8471,7 +8474,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$R$152</c:f>
+              <c:f>Performance!$M$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8506,7 +8509,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$O$153:$O$164</c:f>
+              <c:f>Performance!$J$152:$J$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8551,7 +8554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$R$153:$R$164</c:f>
+              <c:f>Performance!$M$152:$M$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9566,6 +9569,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E72F-2448-BEBD-0429B21166A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$89:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$89:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21850</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D3B-9E45-B66F-F70BC559879F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11009,6 +11147,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$77:$B$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$77:$H$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0D4-6440-873A-037A51D3C612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -11982,6 +12255,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$65:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$65:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19FB-0848-94DA-D6160B6B5475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -12947,6 +13355,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9957-2442-A888-248EA32230E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$53:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$53:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6E2-F340-861F-176795A380FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13915,6 +14458,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA53-1845-9E58-237E2AD8DA6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$41:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$41:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>199028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BE5-B549-9530-3820E89DAD70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14891,6 +15569,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$29:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85533</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAC0-7A40-ADA5-2A308FA5AF22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -15856,6 +16669,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B582-104C-87DB-62584EDB1D82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$17:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$17:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F9D-674C-BCEB-9AFFC95A44DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16824,6 +17772,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9697-4D43-9891-A345C2469ADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>robin hood unordered_flat_map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$5:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F5C-C145-953B-555EA8CCDEC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17284,10 +18367,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$116:$K$116</c:f>
+              <c:f>Performance!$C$116:$J$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12.103613749877583</c:v>
                 </c:pt>
@@ -17300,16 +18383,16 @@
                 <c:pt idx="3">
                   <c:v>10.573198627525734</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.458307597282273</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.458307597282273</c:v>
+                  <c:v>21.971772157082214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.971772157082214</c:v>
+                  <c:v>20.727859602749998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.727859602749998</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>17.397805101927595</c:v>
                 </c:pt>
               </c:numCache>
@@ -17387,10 +18470,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$C$117:$K$117</c:f>
+              <c:f>Performance!$C$117:$J$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.9739776951672865</c:v>
                 </c:pt>
@@ -17403,16 +18486,16 @@
                 <c:pt idx="3">
                   <c:v>1.6682692307692308</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6156250000000001</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6156250000000001</c:v>
+                  <c:v>1.9245283018867925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9245283018867925</c:v>
+                  <c:v>1.6477987421383649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6477987421383649</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1.1355932203389831</c:v>
                 </c:pt>
               </c:numCache>
@@ -38657,13 +39740,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -38693,16 +39776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1263650</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1896533</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>2175933</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38729,16 +39812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>467784</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>823384</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:rowOff>35984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>954617</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>23284</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1488017</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>124884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38766,15 +39849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103718</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>188384</xdr:rowOff>
+      <xdr:colOff>52918</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>86784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>567267</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>86784</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>188384</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38801,16 +39884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38837,16 +39920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38873,13 +39956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>91015</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>116738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>155029</xdr:rowOff>
@@ -38909,13 +39992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>91842</xdr:rowOff>
@@ -38945,13 +40028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>119379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>147468</xdr:rowOff>
@@ -38981,13 +40064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>68532</xdr:rowOff>
@@ -39017,13 +40100,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>182546</xdr:rowOff>
@@ -39053,13 +40136,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>124883</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>77151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>138439</xdr:rowOff>
@@ -39089,13 +40172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>112183</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>442938</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -39125,13 +40208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>129117</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>80432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>24779</xdr:rowOff>
@@ -45512,10 +46595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
-  <dimension ref="A4:R164"/>
+  <dimension ref="A4:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G100"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45525,22 +46608,23 @@
     <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -45563,10 +46647,13 @@
         <v>52</v>
       </c>
       <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>32</v>
       </c>
@@ -45586,11 +46673,14 @@
         <v>48.2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H36" si="0">C5/E5</f>
+        <v>62.6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I36" si="0">C5/E5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>64</v>
       </c>
@@ -45610,11 +46700,14 @@
         <v>113</v>
       </c>
       <c r="H6">
+        <v>148</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>1.9739776951672865</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>128</v>
       </c>
@@ -45634,11 +46727,14 @@
         <v>272</v>
       </c>
       <c r="H7">
+        <v>336</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>2.7974947807933197</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>256</v>
       </c>
@@ -45658,11 +46754,14 @@
         <v>503</v>
       </c>
       <c r="H8">
+        <v>672</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>2.9438202247191012</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>512</v>
       </c>
@@ -45682,11 +46781,14 @@
         <v>1088</v>
       </c>
       <c r="H9">
+        <v>1335</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>3.0710059171597632</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1024</v>
       </c>
@@ -45706,11 +46808,14 @@
         <v>2166</v>
       </c>
       <c r="H10">
+        <v>2644</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>3.1432926829268291</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2048</v>
       </c>
@@ -45730,11 +46835,14 @@
         <v>4619</v>
       </c>
       <c r="H11">
+        <v>5555</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>10.58204334365325</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>4096</v>
       </c>
@@ -45754,11 +46862,14 @@
         <v>9160</v>
       </c>
       <c r="H12">
+        <v>10867</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>9.8594720496894404</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8192</v>
       </c>
@@ -45778,11 +46889,14 @@
         <v>22021</v>
       </c>
       <c r="H13">
+        <v>21840</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>10.631354287931703</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>16384</v>
       </c>
@@ -45802,11 +46916,14 @@
         <v>62595</v>
       </c>
       <c r="H14">
+        <v>43418</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>11.0140707445769</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>32768</v>
       </c>
@@ -45826,11 +46943,14 @@
         <v>130687</v>
       </c>
       <c r="H15">
+        <v>86374</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>12.103613749877583</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>65536</v>
       </c>
@@ -45850,11 +46970,14 @@
         <v>274770</v>
       </c>
       <c r="H16">
+        <v>172196</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>12.529093369418133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -45877,11 +47000,14 @@
         <v>50.7</v>
       </c>
       <c r="H17">
+        <v>62.6</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>1.9811320754716981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>64</v>
       </c>
@@ -45901,11 +47027,14 @@
         <v>113</v>
       </c>
       <c r="H18">
+        <v>148</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>2.07421875</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>128</v>
       </c>
@@ -45925,11 +47054,14 @@
         <v>281</v>
       </c>
       <c r="H19">
+        <v>336</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>2.7974947807933197</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>256</v>
       </c>
@@ -45949,11 +47081,14 @@
         <v>504</v>
       </c>
       <c r="H20">
+        <v>673</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>2.9405162738496076</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>512</v>
       </c>
@@ -45973,11 +47108,14 @@
         <v>1088</v>
       </c>
       <c r="H21">
+        <v>1335</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>3.0710059171597632</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1024</v>
       </c>
@@ -45997,11 +47135,14 @@
         <v>2297</v>
       </c>
       <c r="H22">
+        <v>2874</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>3.1463414634146343</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>2048</v>
       </c>
@@ -46021,11 +47162,14 @@
         <v>4805</v>
       </c>
       <c r="H23">
+        <v>5583</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>10.320610687022901</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>4096</v>
       </c>
@@ -46045,11 +47189,14 @@
         <v>9711</v>
       </c>
       <c r="H24">
+        <v>10983</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>6.0756578947368425</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8192</v>
       </c>
@@ -46069,11 +47216,14 @@
         <v>24805</v>
       </c>
       <c r="H25">
+        <v>22663</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>6.0479559748427674</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>16384</v>
       </c>
@@ -46093,11 +47243,14 @@
         <v>57320</v>
       </c>
       <c r="H26">
+        <v>45996</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>6.4739117618158595</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>32768</v>
       </c>
@@ -46117,11 +47270,14 @@
         <v>136132</v>
       </c>
       <c r="H27">
+        <v>92488</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>6.7794536700402865</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>65536</v>
       </c>
@@ -46141,11 +47297,14 @@
         <v>276219</v>
       </c>
       <c r="H28">
+        <v>174356</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>7.3970777408315334</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -46168,11 +47327,14 @@
         <v>48.1</v>
       </c>
       <c r="H29">
+        <v>62.8</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>1.9811320754716981</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>64</v>
       </c>
@@ -46192,11 +47354,14 @@
         <v>118</v>
       </c>
       <c r="H30">
+        <v>148</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>2.5902439024390245</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>128</v>
       </c>
@@ -46216,11 +47381,14 @@
         <v>268</v>
       </c>
       <c r="H31">
+        <v>336</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>2.7974947807933197</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>256</v>
       </c>
@@ -46240,11 +47408,14 @@
         <v>504</v>
       </c>
       <c r="H32">
+        <v>673</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>2.9438202247191012</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>512</v>
       </c>
@@ -46264,11 +47435,14 @@
         <v>1109</v>
       </c>
       <c r="H33">
+        <v>1334</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>3.0892857142857144</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1024</v>
       </c>
@@ -46288,11 +47462,14 @@
         <v>2143</v>
       </c>
       <c r="H34">
+        <v>2636</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>2048</v>
       </c>
@@ -46312,11 +47489,14 @@
         <v>4804</v>
       </c>
       <c r="H35">
+        <v>5699</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>7.8491484184914846</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>4096</v>
       </c>
@@ -46336,11 +47516,14 @@
         <v>9373</v>
       </c>
       <c r="H36">
+        <v>10706</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>7.5249508840864436</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>8192</v>
       </c>
@@ -46360,11 +47543,14 @@
         <v>25305</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H68" si="1">C37/E37</f>
+        <v>21428</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:I68" si="1">C37/E37</f>
         <v>7.6329014526894383</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>16384</v>
       </c>
@@ -46384,11 +47570,14 @@
         <v>59778</v>
       </c>
       <c r="H38">
+        <v>42898</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>7.7904715127701376</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>32768</v>
       </c>
@@ -46408,11 +47597,14 @@
         <v>133658</v>
       </c>
       <c r="H39">
+        <v>85533</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>8.0891499317605771</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>65536</v>
       </c>
@@ -46432,11 +47624,14 @@
         <v>293376</v>
       </c>
       <c r="H40">
+        <v>193990</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>12.949504117594971</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -46459,11 +47654,14 @@
         <v>59.2</v>
       </c>
       <c r="H41">
+        <v>62.6</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>1.9811320754716981</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>64</v>
       </c>
@@ -46483,11 +47681,14 @@
         <v>124</v>
       </c>
       <c r="H42">
+        <v>148</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>2.0784313725490198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>128</v>
       </c>
@@ -46507,11 +47708,14 @@
         <v>276</v>
       </c>
       <c r="H43">
+        <v>336</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>2.8033472803347284</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>256</v>
       </c>
@@ -46531,11 +47735,14 @@
         <v>525</v>
       </c>
       <c r="H44">
+        <v>672</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>2.9438202247191012</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>512</v>
       </c>
@@ -46555,11 +47762,14 @@
         <v>1109</v>
       </c>
       <c r="H45">
+        <v>1334</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1024</v>
       </c>
@@ -46579,11 +47789,14 @@
         <v>2210</v>
       </c>
       <c r="H46">
+        <v>2637</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="1"/>
         <v>1.6682692307692308</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2048</v>
       </c>
@@ -46603,11 +47816,14 @@
         <v>4596</v>
       </c>
       <c r="H47">
+        <v>5612</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="1"/>
         <v>9.4163393558523172</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>4096</v>
       </c>
@@ -46627,11 +47843,14 @@
         <v>8945</v>
       </c>
       <c r="H48">
+        <v>10726</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="1"/>
         <v>9.7047506870828428</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>8192</v>
       </c>
@@ -46651,11 +47870,14 @@
         <v>21490</v>
       </c>
       <c r="H49">
+        <v>21417</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="1"/>
         <v>9.58955223880597</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>16384</v>
       </c>
@@ -46675,11 +47897,14 @@
         <v>58100</v>
       </c>
       <c r="H50">
+        <v>42850</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
         <v>9.8131450827653364</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>32768</v>
       </c>
@@ -46699,11 +47924,14 @@
         <v>131774</v>
       </c>
       <c r="H51">
+        <v>85289</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="1"/>
         <v>10.573198627525734</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -46723,11 +47951,14 @@
         <v>283007</v>
       </c>
       <c r="H52">
+        <v>199028</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="1"/>
         <v>13.850166445553176</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -46750,11 +47981,14 @@
         <v>56.2</v>
       </c>
       <c r="H53">
+        <v>62.6</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="1"/>
         <v>1.9811320754716981</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>64</v>
       </c>
@@ -46774,11 +48008,14 @@
         <v>123</v>
       </c>
       <c r="H54">
+        <v>148</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="1"/>
         <v>1.945054945054945</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>128</v>
       </c>
@@ -46798,11 +48035,14 @@
         <v>269</v>
       </c>
       <c r="H55">
+        <v>336</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="1"/>
         <v>2.8092243186582806</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>256</v>
       </c>
@@ -46822,11 +48062,14 @@
         <v>492</v>
       </c>
       <c r="H56">
+        <v>672</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>2.9471316085489314</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>512</v>
       </c>
@@ -46846,11 +48089,14 @@
         <v>1122</v>
       </c>
       <c r="H57">
+        <v>1334</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="1"/>
         <v>1.6156250000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1024</v>
       </c>
@@ -46870,11 +48116,14 @@
         <v>2148</v>
       </c>
       <c r="H58">
+        <v>2685</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="1"/>
         <v>1.6462264150943395</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>2048</v>
       </c>
@@ -46894,11 +48143,14 @@
         <v>4622</v>
       </c>
       <c r="H59">
+        <v>5511</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="1"/>
         <v>9.7002360346184116</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4096</v>
       </c>
@@ -46918,11 +48170,14 @@
         <v>9115</v>
       </c>
       <c r="H60">
+        <v>10775</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="1"/>
         <v>9.4411648957103509</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>8192</v>
       </c>
@@ -46942,11 +48197,14 @@
         <v>23795</v>
       </c>
       <c r="H61">
+        <v>21629</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="1"/>
         <v>9.7214745465184311</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>16384</v>
       </c>
@@ -46966,11 +48224,14 @@
         <v>59323</v>
       </c>
       <c r="H62">
+        <v>42908</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="1"/>
         <v>8.4152529420755009</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>32768</v>
       </c>
@@ -46990,11 +48251,14 @@
         <v>131389</v>
       </c>
       <c r="H63">
+        <v>86456</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="1"/>
         <v>10.458307597282273</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>65536</v>
       </c>
@@ -47014,11 +48278,14 @@
         <v>276222</v>
       </c>
       <c r="H64">
+        <v>182206</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="1"/>
         <v>22.389139483951443</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -47041,11 +48308,14 @@
         <v>48.6</v>
       </c>
       <c r="H65">
+        <v>63.1</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>2.1809523809523808</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>64</v>
       </c>
@@ -47065,11 +48335,14 @@
         <v>123</v>
       </c>
       <c r="H66">
+        <v>150</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="1"/>
         <v>2.6699029126213589</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>128</v>
       </c>
@@ -47089,11 +48362,14 @@
         <v>270</v>
       </c>
       <c r="H67">
+        <v>338</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>256</v>
       </c>
@@ -47113,11 +48389,14 @@
         <v>551</v>
       </c>
       <c r="H68">
+        <v>679</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="1"/>
         <v>1.9245283018867925</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>512</v>
       </c>
@@ -47137,11 +48416,14 @@
         <v>1097</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H100" si="2">C69/E69</f>
+        <v>1358</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I100" si="2">C69/E69</f>
         <v>8.730407523510971</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>1024</v>
       </c>
@@ -47161,11 +48443,14 @@
         <v>2169</v>
       </c>
       <c r="H70">
+        <v>2660</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="2"/>
         <v>8.7351097178683386</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>2048</v>
       </c>
@@ -47185,11 +48470,14 @@
         <v>4707</v>
       </c>
       <c r="H71">
+        <v>5958</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="2"/>
         <v>8.8947368421052637</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>4096</v>
       </c>
@@ -47209,11 +48497,14 @@
         <v>9201</v>
       </c>
       <c r="H72">
+        <v>11189</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="2"/>
         <v>9.5785575048732952</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>8192</v>
       </c>
@@ -47233,11 +48524,14 @@
         <v>21543</v>
       </c>
       <c r="H73">
+        <v>27825</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="2"/>
         <v>8.2117102744097004</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>16384</v>
       </c>
@@ -47257,11 +48551,14 @@
         <v>56573</v>
       </c>
       <c r="H74">
+        <v>43257</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="2"/>
         <v>5.1900655188176135</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>32768</v>
       </c>
@@ -47281,11 +48578,14 @@
         <v>136072</v>
       </c>
       <c r="H75">
+        <v>86522</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="2"/>
         <v>21.971772157082214</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>65536</v>
       </c>
@@ -47305,11 +48605,14 @@
         <v>278482</v>
       </c>
       <c r="H76">
+        <v>187557</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="2"/>
         <v>23.36347713266299</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -47332,11 +48635,14 @@
         <v>50.7</v>
       </c>
       <c r="H77">
+        <v>63</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="2"/>
         <v>2.1698113207547172</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>64</v>
       </c>
@@ -47356,11 +48662,14 @@
         <v>118</v>
       </c>
       <c r="H78">
+        <v>150</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="2"/>
         <v>2.1653543307086616</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>128</v>
       </c>
@@ -47380,11 +48689,14 @@
         <v>280</v>
       </c>
       <c r="H79">
+        <v>339</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="2"/>
         <v>2.31433506044905</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>256</v>
       </c>
@@ -47404,11 +48716,14 @@
         <v>519</v>
       </c>
       <c r="H80">
+        <v>727</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="2"/>
         <v>1.6477987421383649</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>512</v>
       </c>
@@ -47428,11 +48743,14 @@
         <v>1114</v>
       </c>
       <c r="H81">
+        <v>1334</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="2"/>
         <v>8.7156249999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>1024</v>
       </c>
@@ -47452,11 +48770,14 @@
         <v>2228</v>
       </c>
       <c r="H82">
+        <v>2671</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="2"/>
         <v>8.9140625</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>2048</v>
       </c>
@@ -47476,11 +48797,14 @@
         <v>4614</v>
       </c>
       <c r="H83">
+        <v>5521</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="2"/>
         <v>9.7042471042471039</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>4096</v>
       </c>
@@ -47500,11 +48824,14 @@
         <v>9015</v>
       </c>
       <c r="H84">
+        <v>10711</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="2"/>
         <v>8.7279338842975207</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>8192</v>
       </c>
@@ -47524,11 +48851,14 @@
         <v>22194</v>
       </c>
       <c r="H85">
+        <v>21535</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="2"/>
         <v>3.2798314840087817</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>16384</v>
       </c>
@@ -47548,11 +48878,14 @@
         <v>60629</v>
       </c>
       <c r="H86">
+        <v>43591</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="2"/>
         <v>4.7712178104444618</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>32768</v>
       </c>
@@ -47572,11 +48905,14 @@
         <v>130151</v>
       </c>
       <c r="H87">
+        <v>86759</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="2"/>
         <v>20.727859602749998</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>65536</v>
       </c>
@@ -47596,11 +48932,14 @@
         <v>272287</v>
       </c>
       <c r="H88">
+        <v>184929</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="2"/>
         <v>24.074776908137128</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -47623,11 +48962,14 @@
         <v>57.1</v>
       </c>
       <c r="H89">
+        <v>62.6</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="2"/>
         <v>1.7037037037037037</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>64</v>
       </c>
@@ -47647,11 +48989,14 @@
         <v>111</v>
       </c>
       <c r="H90">
+        <v>148</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="2"/>
         <v>1.8394648829431439</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>128</v>
       </c>
@@ -47671,11 +49016,14 @@
         <v>274</v>
       </c>
       <c r="H91">
+        <v>336</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="2"/>
         <v>1.1355932203389831</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>256</v>
       </c>
@@ -47695,11 +49043,14 @@
         <v>509</v>
       </c>
       <c r="H92">
+        <v>681</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="2"/>
         <v>1.2899159663865547</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>512</v>
       </c>
@@ -47719,11 +49070,14 @@
         <v>1126</v>
       </c>
       <c r="H93">
+        <v>1362</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="2"/>
         <v>5.968220338983051</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>1024</v>
       </c>
@@ -47743,11 +49097,14 @@
         <v>2148</v>
       </c>
       <c r="H94">
+        <v>2693</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="2"/>
         <v>6.7058823529411766</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>2048</v>
       </c>
@@ -47767,11 +49124,14 @@
         <v>4628</v>
       </c>
       <c r="H95">
+        <v>5689</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="2"/>
         <v>7.0194532071503684</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>4096</v>
       </c>
@@ -47791,11 +49151,14 @@
         <v>9057</v>
       </c>
       <c r="H96">
+        <v>10842</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="2"/>
         <v>2.6241912798874822</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>8192</v>
       </c>
@@ -47815,11 +49178,14 @@
         <v>22747</v>
       </c>
       <c r="H97">
+        <v>21850</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="2"/>
         <v>2.4537515220220851</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>16384</v>
       </c>
@@ -47839,11 +49205,14 @@
         <v>58026</v>
       </c>
       <c r="H98">
+        <v>45659</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="2"/>
         <v>4.1800039401103231</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>32768</v>
       </c>
@@ -47863,11 +49232,14 @@
         <v>130152</v>
       </c>
       <c r="H99">
+        <v>90267</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="2"/>
         <v>17.397805101927595</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>65536</v>
       </c>
@@ -47887,11 +49259,14 @@
         <v>279714</v>
       </c>
       <c r="H100">
+        <v>228555</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="2"/>
         <v>19.921859902757614</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>2</v>
       </c>
@@ -47907,57 +49282,57 @@
       <c r="F102" t="s">
         <v>19</v>
       </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
-      </c>
-      <c r="K102" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>32</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:C114" si="3">H5</f>
+        <f t="shared" ref="C103:C114" si="3">I5</f>
         <v>2</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:D114" si="4">H17</f>
+        <f t="shared" ref="D103:D114" si="4">I17</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E114" si="5">H29</f>
+        <f t="shared" ref="E103:E114" si="5">I29</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:F114" si="6">H41</f>
+        <f t="shared" ref="F103:F114" si="6">I41</f>
         <v>1.9811320754716981</v>
       </c>
+      <c r="G103">
+        <f>I53</f>
+        <v>1.9811320754716981</v>
+      </c>
       <c r="H103">
-        <f t="shared" ref="H103:H114" si="7">H53</f>
-        <v>1.9811320754716981</v>
+        <f>I65</f>
+        <v>2.1809523809523808</v>
       </c>
       <c r="I103">
-        <f t="shared" ref="I103:I114" si="8">H65</f>
-        <v>2.1809523809523808</v>
+        <f>I77</f>
+        <v>2.1698113207547172</v>
       </c>
       <c r="J103">
-        <f t="shared" ref="J103:J114" si="9">H77</f>
-        <v>2.1698113207547172</v>
-      </c>
-      <c r="K103">
-        <f t="shared" ref="K103:K114" si="10">H89</f>
+        <f>I89</f>
         <v>1.7037037037037037</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>64</v>
       </c>
@@ -47977,24 +49352,24 @@
         <f t="shared" si="6"/>
         <v>2.0784313725490198</v>
       </c>
+      <c r="G104">
+        <f>I54</f>
+        <v>1.945054945054945</v>
+      </c>
       <c r="H104">
-        <f t="shared" si="7"/>
-        <v>1.945054945054945</v>
+        <f>I66</f>
+        <v>2.6699029126213589</v>
       </c>
       <c r="I104">
-        <f t="shared" si="8"/>
-        <v>2.6699029126213589</v>
+        <f>I78</f>
+        <v>2.1653543307086616</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
-        <v>2.1653543307086616</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="10"/>
+        <f>I90</f>
         <v>1.8394648829431439</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>128</v>
       </c>
@@ -48014,24 +49389,24 @@
         <f t="shared" si="6"/>
         <v>2.8033472803347284</v>
       </c>
+      <c r="G105">
+        <f>I55</f>
+        <v>2.8092243186582806</v>
+      </c>
       <c r="H105">
-        <f t="shared" si="7"/>
-        <v>2.8092243186582806</v>
+        <f>I67</f>
+        <v>2.8125</v>
       </c>
       <c r="I105">
-        <f t="shared" si="8"/>
-        <v>2.8125</v>
+        <f>I79</f>
+        <v>2.31433506044905</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
-        <v>2.31433506044905</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="10"/>
+        <f>I91</f>
         <v>1.1355932203389831</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>256</v>
       </c>
@@ -48051,24 +49426,24 @@
         <f t="shared" si="6"/>
         <v>2.9438202247191012</v>
       </c>
+      <c r="G106">
+        <f>I56</f>
+        <v>2.9471316085489314</v>
+      </c>
       <c r="H106">
-        <f t="shared" si="7"/>
-        <v>2.9471316085489314</v>
+        <f>I68</f>
+        <v>1.9245283018867925</v>
       </c>
       <c r="I106">
-        <f t="shared" si="8"/>
-        <v>1.9245283018867925</v>
+        <f>I80</f>
+        <v>1.6477987421383649</v>
       </c>
       <c r="J106">
-        <f t="shared" si="9"/>
-        <v>1.6477987421383649</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="10"/>
+        <f>I92</f>
         <v>1.2899159663865547</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>512</v>
       </c>
@@ -48088,24 +49463,24 @@
         <f t="shared" si="6"/>
         <v>3.0833333333333335</v>
       </c>
+      <c r="G107">
+        <f>I57</f>
+        <v>1.6156250000000001</v>
+      </c>
       <c r="H107">
-        <f t="shared" si="7"/>
-        <v>1.6156250000000001</v>
+        <f>I69</f>
+        <v>8.730407523510971</v>
       </c>
       <c r="I107">
-        <f t="shared" si="8"/>
-        <v>8.730407523510971</v>
+        <f>I81</f>
+        <v>8.7156249999999993</v>
       </c>
       <c r="J107">
-        <f t="shared" si="9"/>
-        <v>8.7156249999999993</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="10"/>
+        <f>I93</f>
         <v>5.968220338983051</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>1024</v>
       </c>
@@ -48125,24 +49500,24 @@
         <f t="shared" si="6"/>
         <v>1.6682692307692308</v>
       </c>
+      <c r="G108">
+        <f>I58</f>
+        <v>1.6462264150943395</v>
+      </c>
       <c r="H108">
-        <f t="shared" si="7"/>
-        <v>1.6462264150943395</v>
+        <f>I70</f>
+        <v>8.7351097178683386</v>
       </c>
       <c r="I108">
-        <f t="shared" si="8"/>
-        <v>8.7351097178683386</v>
+        <f>I82</f>
+        <v>8.9140625</v>
       </c>
       <c r="J108">
-        <f t="shared" si="9"/>
-        <v>8.9140625</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="10"/>
+        <f>I94</f>
         <v>6.7058823529411766</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>2048</v>
       </c>
@@ -48162,24 +49537,24 @@
         <f t="shared" si="6"/>
         <v>9.4163393558523172</v>
       </c>
+      <c r="G109">
+        <f>I59</f>
+        <v>9.7002360346184116</v>
+      </c>
       <c r="H109">
-        <f t="shared" si="7"/>
-        <v>9.7002360346184116</v>
+        <f>I71</f>
+        <v>8.8947368421052637</v>
       </c>
       <c r="I109">
-        <f t="shared" si="8"/>
-        <v>8.8947368421052637</v>
+        <f>I83</f>
+        <v>9.7042471042471039</v>
       </c>
       <c r="J109">
-        <f t="shared" si="9"/>
-        <v>9.7042471042471039</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="10"/>
+        <f>I95</f>
         <v>7.0194532071503684</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>4096</v>
       </c>
@@ -48199,24 +49574,24 @@
         <f t="shared" si="6"/>
         <v>9.7047506870828428</v>
       </c>
+      <c r="G110">
+        <f>I60</f>
+        <v>9.4411648957103509</v>
+      </c>
       <c r="H110">
-        <f t="shared" si="7"/>
-        <v>9.4411648957103509</v>
+        <f>I72</f>
+        <v>9.5785575048732952</v>
       </c>
       <c r="I110">
-        <f t="shared" si="8"/>
-        <v>9.5785575048732952</v>
+        <f>I84</f>
+        <v>8.7279338842975207</v>
       </c>
       <c r="J110">
-        <f t="shared" si="9"/>
-        <v>8.7279338842975207</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="10"/>
+        <f>I96</f>
         <v>2.6241912798874822</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>8192</v>
       </c>
@@ -48236,24 +49611,24 @@
         <f t="shared" si="6"/>
         <v>9.58955223880597</v>
       </c>
+      <c r="G111">
+        <f>I61</f>
+        <v>9.7214745465184311</v>
+      </c>
       <c r="H111">
-        <f t="shared" si="7"/>
-        <v>9.7214745465184311</v>
+        <f>I73</f>
+        <v>8.2117102744097004</v>
       </c>
       <c r="I111">
-        <f t="shared" si="8"/>
-        <v>8.2117102744097004</v>
+        <f>I85</f>
+        <v>3.2798314840087817</v>
       </c>
       <c r="J111">
-        <f t="shared" si="9"/>
-        <v>3.2798314840087817</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="10"/>
+        <f>I97</f>
         <v>2.4537515220220851</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>16384</v>
       </c>
@@ -48273,24 +49648,24 @@
         <f t="shared" si="6"/>
         <v>9.8131450827653364</v>
       </c>
+      <c r="G112">
+        <f>I62</f>
+        <v>8.4152529420755009</v>
+      </c>
       <c r="H112">
-        <f t="shared" si="7"/>
-        <v>8.4152529420755009</v>
+        <f>I74</f>
+        <v>5.1900655188176135</v>
       </c>
       <c r="I112">
-        <f t="shared" si="8"/>
-        <v>5.1900655188176135</v>
+        <f>I86</f>
+        <v>4.7712178104444618</v>
       </c>
       <c r="J112">
-        <f t="shared" si="9"/>
-        <v>4.7712178104444618</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="10"/>
+        <f>I98</f>
         <v>4.1800039401103231</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>32768</v>
       </c>
@@ -48310,24 +49685,24 @@
         <f t="shared" si="6"/>
         <v>10.573198627525734</v>
       </c>
+      <c r="G113">
+        <f>I63</f>
+        <v>10.458307597282273</v>
+      </c>
       <c r="H113">
-        <f t="shared" si="7"/>
-        <v>10.458307597282273</v>
+        <f>I75</f>
+        <v>21.971772157082214</v>
       </c>
       <c r="I113">
-        <f t="shared" si="8"/>
-        <v>21.971772157082214</v>
+        <f>I87</f>
+        <v>20.727859602749998</v>
       </c>
       <c r="J113">
-        <f t="shared" si="9"/>
-        <v>20.727859602749998</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="10"/>
+        <f>I99</f>
         <v>17.397805101927595</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>65536</v>
       </c>
@@ -48347,24 +49722,24 @@
         <f t="shared" si="6"/>
         <v>13.850166445553176</v>
       </c>
+      <c r="G114">
+        <f>I64</f>
+        <v>22.389139483951443</v>
+      </c>
       <c r="H114">
-        <f t="shared" si="7"/>
-        <v>22.389139483951443</v>
+        <f>I76</f>
+        <v>23.36347713266299</v>
       </c>
       <c r="I114">
-        <f t="shared" si="8"/>
-        <v>23.36347713266299</v>
+        <f>I88</f>
+        <v>24.074776908137128</v>
       </c>
       <c r="J114">
-        <f t="shared" si="9"/>
-        <v>24.074776908137128</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="10"/>
+        <f>I100</f>
         <v>19.921859902757614</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>24</v>
       </c>
@@ -48373,35 +49748,35 @@
         <v>12.103613749877583</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116" si="11">MAX(D103:D113)</f>
+        <f t="shared" ref="D116" si="7">MAX(D103:D113)</f>
         <v>10.320610687022901</v>
       </c>
       <c r="E116">
-        <f t="shared" ref="E116" si="12">MAX(E103:E113)</f>
+        <f t="shared" ref="E116" si="8">MAX(E103:E113)</f>
         <v>13.75</v>
       </c>
       <c r="F116">
         <f>MAX(F103:F113)</f>
         <v>10.573198627525734</v>
       </c>
+      <c r="G116">
+        <f>MAX(G103:G113)</f>
+        <v>10.458307597282273</v>
+      </c>
       <c r="H116">
         <f>MAX(H103:H113)</f>
-        <v>10.458307597282273</v>
+        <v>21.971772157082214</v>
       </c>
       <c r="I116">
         <f>MAX(I103:I113)</f>
-        <v>21.971772157082214</v>
+        <v>20.727859602749998</v>
       </c>
       <c r="J116">
         <f>MAX(J103:J113)</f>
-        <v>20.727859602749998</v>
-      </c>
-      <c r="K116">
-        <f>MAX(K103:K113)</f>
         <v>17.397805101927595</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>25</v>
       </c>
@@ -48410,739 +49785,741 @@
         <v>1.9739776951672865</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117" si="13">MIN(D103:D113)</f>
+        <f t="shared" ref="D117" si="9">MIN(D103:D113)</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="E117">
-        <f t="shared" ref="E117:K117" si="14">MIN(E103:E113)</f>
+        <f t="shared" ref="E117:L117" si="10">MIN(E103:E113)</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="F117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.6682692307692308</v>
       </c>
+      <c r="G117">
+        <f>MIN(G103:G113)</f>
+        <v>1.6156250000000001</v>
+      </c>
       <c r="H117">
-        <f t="shared" si="14"/>
-        <v>1.6156250000000001</v>
+        <f>MIN(H103:H113)</f>
+        <v>1.9245283018867925</v>
       </c>
       <c r="I117">
-        <f t="shared" si="14"/>
-        <v>1.9245283018867925</v>
+        <f>MIN(I103:I113)</f>
+        <v>1.6477987421383649</v>
       </c>
       <c r="J117">
-        <f t="shared" si="14"/>
-        <v>1.6477987421383649</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="14"/>
+        <f>MIN(J103:J113)</f>
         <v>1.1355932203389831</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>2</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C119" t="s">
         <v>26</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D119" t="s">
         <v>27</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E119" t="s">
         <v>28</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>32</v>
+      </c>
+      <c r="C120">
+        <v>33.6</v>
+      </c>
+      <c r="D120">
+        <v>50.1</v>
+      </c>
+      <c r="E120">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F120">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>66.3</v>
+      </c>
+      <c r="D121">
+        <v>107</v>
+      </c>
+      <c r="E121">
+        <v>167</v>
+      </c>
+      <c r="F121">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>135</v>
+      </c>
+      <c r="D122">
+        <v>208</v>
+      </c>
+      <c r="E122">
+        <v>328</v>
+      </c>
+      <c r="F122">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>256</v>
+      </c>
+      <c r="C123">
+        <v>266</v>
+      </c>
+      <c r="D123">
+        <v>411</v>
+      </c>
+      <c r="E123">
+        <v>653</v>
+      </c>
+      <c r="F123">
+        <v>649</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>512</v>
+      </c>
+      <c r="C124">
+        <v>527</v>
+      </c>
+      <c r="D124">
+        <v>814</v>
+      </c>
+      <c r="E124">
+        <v>1301</v>
+      </c>
+      <c r="F124">
+        <v>1293</v>
+      </c>
+      <c r="J124">
         <v>32</v>
       </c>
-      <c r="C122">
-        <v>33.6</v>
-      </c>
-      <c r="D122">
-        <v>50.1</v>
-      </c>
-      <c r="E122">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="F122">
+      <c r="K124">
+        <v>63.1</v>
+      </c>
+      <c r="L124">
         <v>82.9</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B123">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>1024</v>
+      </c>
+      <c r="C125">
+        <v>1053</v>
+      </c>
+      <c r="D125">
+        <v>1624</v>
+      </c>
+      <c r="E125">
+        <v>2600</v>
+      </c>
+      <c r="F125">
+        <v>2583</v>
+      </c>
+      <c r="J125">
         <v>64</v>
       </c>
-      <c r="C123">
-        <v>66.3</v>
-      </c>
-      <c r="D123">
-        <v>107</v>
-      </c>
-      <c r="E123">
+      <c r="K125">
+        <v>98.4</v>
+      </c>
+      <c r="L125">
         <v>167</v>
       </c>
-      <c r="F123">
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>2048</v>
+      </c>
+      <c r="C126">
+        <v>2102</v>
+      </c>
+      <c r="D126">
+        <v>7884</v>
+      </c>
+      <c r="E126">
+        <v>8233</v>
+      </c>
+      <c r="F126">
+        <v>9020</v>
+      </c>
+      <c r="J126">
+        <v>128</v>
+      </c>
+      <c r="K126">
+        <v>187</v>
+      </c>
+      <c r="L126">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>4096</v>
+      </c>
+      <c r="C127">
+        <v>5727</v>
+      </c>
+      <c r="D127">
+        <v>18007</v>
+      </c>
+      <c r="E127">
+        <v>18149</v>
+      </c>
+      <c r="F127">
+        <v>17625</v>
+      </c>
+      <c r="J127">
+        <v>256</v>
+      </c>
+      <c r="K127">
+        <v>394</v>
+      </c>
+      <c r="L127">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>8192</v>
+      </c>
+      <c r="C128">
+        <v>11149</v>
+      </c>
+      <c r="D128">
+        <v>35281</v>
+      </c>
+      <c r="E128">
+        <v>37062</v>
+      </c>
+      <c r="F128">
+        <v>37067</v>
+      </c>
+      <c r="J128">
+        <v>512</v>
+      </c>
+      <c r="K128">
+        <v>804</v>
+      </c>
+      <c r="L128">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C129">
+        <v>22590</v>
+      </c>
+      <c r="D129">
+        <v>72797</v>
+      </c>
+      <c r="E129">
+        <v>76646</v>
+      </c>
+      <c r="F129">
+        <v>75772</v>
+      </c>
+      <c r="J129">
+        <v>1024</v>
+      </c>
+      <c r="K129">
+        <v>1582</v>
+      </c>
+      <c r="L129">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C130">
+        <v>44698</v>
+      </c>
+      <c r="D130">
+        <v>148145</v>
+      </c>
+      <c r="E130">
+        <v>156466</v>
+      </c>
+      <c r="F130">
+        <v>153956</v>
+      </c>
+      <c r="J130">
+        <v>2048</v>
+      </c>
+      <c r="K130">
+        <v>5512</v>
+      </c>
+      <c r="L130">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C131">
+        <v>94174</v>
+      </c>
+      <c r="D131">
+        <v>330091</v>
+      </c>
+      <c r="E131">
+        <v>353283</v>
+      </c>
+      <c r="F131">
+        <v>337634</v>
+      </c>
+      <c r="J131">
+        <v>4096</v>
+      </c>
+      <c r="K131">
+        <v>11770</v>
+      </c>
+      <c r="L131">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>8192</v>
+      </c>
+      <c r="K132">
+        <v>24574</v>
+      </c>
+      <c r="L132">
+        <v>37067</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J133" s="1">
+        <v>16384</v>
+      </c>
+      <c r="K133">
+        <v>50872</v>
+      </c>
+      <c r="L133">
+        <v>75772</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J134" s="1">
+        <v>32768</v>
+      </c>
+      <c r="K134">
+        <v>100888</v>
+      </c>
+      <c r="L134">
+        <v>153956</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J135" s="1">
+        <v>65536</v>
+      </c>
+      <c r="K135">
+        <v>223842</v>
+      </c>
+      <c r="L135">
+        <v>337634</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>2</v>
+      </c>
+      <c r="K137" t="s">
+        <v>44</v>
+      </c>
+      <c r="L137" t="s">
+        <v>43</v>
+      </c>
+      <c r="M137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>32</v>
+      </c>
+      <c r="K138">
+        <v>5.9</v>
+      </c>
+      <c r="L138">
+        <v>16.7</v>
+      </c>
+      <c r="M138">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>64</v>
+      </c>
+      <c r="K139">
+        <v>10.9</v>
+      </c>
+      <c r="L139">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M139">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>128</v>
+      </c>
+      <c r="K140">
+        <v>21</v>
+      </c>
+      <c r="L140">
+        <v>70.2</v>
+      </c>
+      <c r="M140">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>256</v>
+      </c>
+      <c r="K141">
+        <v>53.3</v>
+      </c>
+      <c r="L141">
+        <v>150</v>
+      </c>
+      <c r="M141">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>512</v>
+      </c>
+      <c r="K142">
+        <v>90.8</v>
+      </c>
+      <c r="L142">
+        <v>289</v>
+      </c>
+      <c r="M142">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>1024</v>
+      </c>
+      <c r="K143">
+        <v>171</v>
+      </c>
+      <c r="L143">
+        <v>573</v>
+      </c>
+      <c r="M143">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>2048</v>
+      </c>
+      <c r="K144">
+        <v>331</v>
+      </c>
+      <c r="L144">
+        <v>4304</v>
+      </c>
+      <c r="M144">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="145" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>4096</v>
+      </c>
+      <c r="K145">
+        <v>648</v>
+      </c>
+      <c r="L145">
+        <v>7386</v>
+      </c>
+      <c r="M145">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="146" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>8192</v>
+      </c>
+      <c r="K146">
+        <v>1739</v>
+      </c>
+      <c r="L146">
+        <v>17420</v>
+      </c>
+      <c r="M146">
+        <v>20096</v>
+      </c>
+    </row>
+    <row r="147" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J147" s="1">
+        <v>16384</v>
+      </c>
+      <c r="K147">
+        <v>3832</v>
+      </c>
+      <c r="L147">
+        <v>36329</v>
+      </c>
+      <c r="M147">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="148" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J148" s="1">
+        <v>32768</v>
+      </c>
+      <c r="K148">
+        <v>7679</v>
+      </c>
+      <c r="L148">
+        <v>72027</v>
+      </c>
+      <c r="M148">
+        <v>79059</v>
+      </c>
+    </row>
+    <row r="149" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J149" s="1">
+        <v>65536</v>
+      </c>
+      <c r="K149">
+        <v>15652</v>
+      </c>
+      <c r="L149">
+        <v>163285</v>
+      </c>
+      <c r="M149">
+        <v>171665</v>
+      </c>
+    </row>
+    <row r="151" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J151" t="s">
+        <v>2</v>
+      </c>
+      <c r="K151" t="s">
+        <v>45</v>
+      </c>
+      <c r="L151" t="s">
+        <v>48</v>
+      </c>
+      <c r="M151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>32</v>
+      </c>
+      <c r="K152">
+        <v>96</v>
+      </c>
+      <c r="L152">
+        <v>88.1</v>
+      </c>
+      <c r="M152">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="153" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>64</v>
+      </c>
+      <c r="K153">
+        <v>186</v>
+      </c>
+      <c r="L153">
         <v>167</v>
       </c>
+      <c r="M153">
+        <v>86.3</v>
+      </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B124">
+    <row r="154" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J154">
         <v>128</v>
       </c>
-      <c r="C124">
-        <v>135</v>
-      </c>
-      <c r="D124">
-        <v>208</v>
-      </c>
-      <c r="E124">
-        <v>328</v>
-      </c>
-      <c r="F124">
-        <v>326</v>
-      </c>
-      <c r="O124" t="s">
-        <v>2</v>
-      </c>
-      <c r="P124" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>29</v>
+      <c r="K154">
+        <v>365</v>
+      </c>
+      <c r="L154">
+        <v>325</v>
+      </c>
+      <c r="M154">
+        <v>165</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B125">
+    <row r="155" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J155">
         <v>256</v>
       </c>
-      <c r="C125">
-        <v>266</v>
-      </c>
-      <c r="D125">
-        <v>411</v>
-      </c>
-      <c r="E125">
-        <v>653</v>
-      </c>
-      <c r="F125">
-        <v>649</v>
-      </c>
-      <c r="O125">
-        <v>32</v>
-      </c>
-      <c r="P125">
-        <v>63.1</v>
-      </c>
-      <c r="Q125">
-        <v>82.9</v>
+      <c r="K155">
+        <v>722</v>
+      </c>
+      <c r="L155">
+        <v>643</v>
+      </c>
+      <c r="M155">
+        <v>324</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B126">
+    <row r="156" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J156">
         <v>512</v>
       </c>
-      <c r="C126">
-        <v>527</v>
-      </c>
-      <c r="D126">
-        <v>814</v>
-      </c>
-      <c r="E126">
-        <v>1301</v>
-      </c>
-      <c r="F126">
-        <v>1293</v>
-      </c>
-      <c r="O126">
-        <v>64</v>
-      </c>
-      <c r="P126">
-        <v>98.4</v>
-      </c>
-      <c r="Q126">
-        <v>167</v>
+      <c r="K156">
+        <v>1440</v>
+      </c>
+      <c r="L156">
+        <v>1279</v>
+      </c>
+      <c r="M156">
+        <v>644</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B127">
+    <row r="157" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J157">
         <v>1024</v>
       </c>
-      <c r="C127">
-        <v>1053</v>
-      </c>
-      <c r="D127">
-        <v>1624</v>
-      </c>
-      <c r="E127">
-        <v>2600</v>
-      </c>
-      <c r="F127">
-        <v>2583</v>
-      </c>
-      <c r="O127">
-        <v>128</v>
-      </c>
-      <c r="P127">
-        <v>187</v>
-      </c>
-      <c r="Q127">
-        <v>326</v>
+      <c r="K157">
+        <v>2871</v>
+      </c>
+      <c r="L157">
+        <v>2551</v>
+      </c>
+      <c r="M157">
+        <v>1278</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B128">
+    <row r="158" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J158">
         <v>2048</v>
       </c>
-      <c r="C128">
-        <v>2102</v>
-      </c>
-      <c r="D128">
-        <v>7884</v>
-      </c>
-      <c r="E128">
-        <v>8233</v>
-      </c>
-      <c r="F128">
-        <v>9020</v>
-      </c>
-      <c r="O128">
-        <v>256</v>
-      </c>
-      <c r="P128">
-        <v>394</v>
-      </c>
-      <c r="Q128">
-        <v>649</v>
+      <c r="K158">
+        <v>5743</v>
+      </c>
+      <c r="L158">
+        <v>5090</v>
+      </c>
+      <c r="M158">
+        <v>2898</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129">
+    <row r="159" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J159">
         <v>4096</v>
       </c>
-      <c r="C129">
-        <v>5727</v>
-      </c>
-      <c r="D129">
-        <v>18007</v>
-      </c>
-      <c r="E129">
-        <v>18149</v>
-      </c>
-      <c r="F129">
-        <v>17625</v>
-      </c>
-      <c r="O129">
-        <v>512</v>
-      </c>
-      <c r="P129">
-        <v>804</v>
-      </c>
-      <c r="Q129">
-        <v>1293</v>
+      <c r="K159">
+        <v>11469</v>
+      </c>
+      <c r="L159">
+        <v>10187</v>
+      </c>
+      <c r="M159">
+        <v>5338</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130">
+    <row r="160" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J160">
         <v>8192</v>
       </c>
-      <c r="C130">
-        <v>11149</v>
-      </c>
-      <c r="D130">
-        <v>35281</v>
-      </c>
-      <c r="E130">
-        <v>37062</v>
-      </c>
-      <c r="F130">
-        <v>37067</v>
-      </c>
-      <c r="O130">
-        <v>1024</v>
-      </c>
-      <c r="P130">
-        <v>1582</v>
-      </c>
-      <c r="Q130">
-        <v>2583</v>
+      <c r="K160">
+        <v>22922</v>
+      </c>
+      <c r="L160">
+        <v>20379</v>
+      </c>
+      <c r="M160">
+        <v>10712</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="1">
+    <row r="161" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J161" s="1">
         <v>16384</v>
       </c>
-      <c r="C131">
-        <v>22590</v>
-      </c>
-      <c r="D131">
-        <v>72797</v>
-      </c>
-      <c r="E131">
-        <v>76646</v>
-      </c>
-      <c r="F131">
-        <v>75772</v>
-      </c>
-      <c r="O131">
-        <v>2048</v>
-      </c>
-      <c r="P131">
-        <v>5512</v>
-      </c>
-      <c r="Q131">
-        <v>9020</v>
+      <c r="K161">
+        <v>45833</v>
+      </c>
+      <c r="L161">
+        <v>40716</v>
+      </c>
+      <c r="M161">
+        <v>21090</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="1">
+    <row r="162" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J162" s="1">
         <v>32768</v>
       </c>
-      <c r="C132">
-        <v>44698</v>
-      </c>
-      <c r="D132">
-        <v>148145</v>
-      </c>
-      <c r="E132">
-        <v>156466</v>
-      </c>
-      <c r="F132">
-        <v>153956</v>
-      </c>
-      <c r="O132">
-        <v>4096</v>
-      </c>
-      <c r="P132">
-        <v>11770</v>
-      </c>
-      <c r="Q132">
-        <v>17625</v>
+      <c r="K162">
+        <v>91785</v>
+      </c>
+      <c r="L162">
+        <v>81612</v>
+      </c>
+      <c r="M162">
+        <v>42211</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="1">
+    <row r="163" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J163" s="1">
         <v>65536</v>
       </c>
-      <c r="C133">
-        <v>94174</v>
-      </c>
-      <c r="D133">
-        <v>330091</v>
-      </c>
-      <c r="E133">
-        <v>353283</v>
-      </c>
-      <c r="F133">
-        <v>337634</v>
-      </c>
-      <c r="O133">
-        <v>8192</v>
-      </c>
-      <c r="P133">
-        <v>24574</v>
-      </c>
-      <c r="Q133">
-        <v>37067</v>
-      </c>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O134" s="1">
-        <v>16384</v>
-      </c>
-      <c r="P134">
-        <v>50872</v>
-      </c>
-      <c r="Q134">
-        <v>75772</v>
-      </c>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O135" s="1">
-        <v>32768</v>
-      </c>
-      <c r="P135">
-        <v>100888</v>
-      </c>
-      <c r="Q135">
-        <v>153956</v>
-      </c>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O136" s="1">
-        <v>65536</v>
-      </c>
-      <c r="P136">
-        <v>223842</v>
-      </c>
-      <c r="Q136">
-        <v>337634</v>
-      </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O138" t="s">
-        <v>2</v>
-      </c>
-      <c r="P138" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>43</v>
-      </c>
-      <c r="R138" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O139">
-        <v>32</v>
-      </c>
-      <c r="P139">
-        <v>5.9</v>
-      </c>
-      <c r="Q139">
-        <v>16.7</v>
-      </c>
-      <c r="R139">
-        <v>6.64</v>
-      </c>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O140">
-        <v>64</v>
-      </c>
-      <c r="P140">
-        <v>10.9</v>
-      </c>
-      <c r="Q140">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="R140">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O141">
-        <v>128</v>
-      </c>
-      <c r="P141">
-        <v>21</v>
-      </c>
-      <c r="Q141">
-        <v>70.2</v>
-      </c>
-      <c r="R141">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O142">
-        <v>256</v>
-      </c>
-      <c r="P142">
-        <v>53.3</v>
-      </c>
-      <c r="Q142">
-        <v>150</v>
-      </c>
-      <c r="R142">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O143">
-        <v>512</v>
-      </c>
-      <c r="P143">
-        <v>90.8</v>
-      </c>
-      <c r="Q143">
-        <v>289</v>
-      </c>
-      <c r="R143">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O144">
-        <v>1024</v>
-      </c>
-      <c r="P144">
-        <v>171</v>
-      </c>
-      <c r="Q144">
-        <v>573</v>
-      </c>
-      <c r="R144">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="145" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O145">
-        <v>2048</v>
-      </c>
-      <c r="P145">
-        <v>331</v>
-      </c>
-      <c r="Q145">
-        <v>4304</v>
-      </c>
-      <c r="R145">
-        <v>3804</v>
-      </c>
-    </row>
-    <row r="146" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O146">
-        <v>4096</v>
-      </c>
-      <c r="P146">
-        <v>648</v>
-      </c>
-      <c r="Q146">
-        <v>7386</v>
-      </c>
-      <c r="R146">
-        <v>7666</v>
-      </c>
-    </row>
-    <row r="147" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O147">
-        <v>8192</v>
-      </c>
-      <c r="P147">
-        <v>1739</v>
-      </c>
-      <c r="Q147">
-        <v>17420</v>
-      </c>
-      <c r="R147">
-        <v>20096</v>
-      </c>
-    </row>
-    <row r="148" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O148" s="1">
-        <v>16384</v>
-      </c>
-      <c r="P148">
-        <v>3832</v>
-      </c>
-      <c r="Q148">
-        <v>36329</v>
-      </c>
-      <c r="R148">
-        <v>40786</v>
-      </c>
-    </row>
-    <row r="149" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O149" s="1">
-        <v>32768</v>
-      </c>
-      <c r="P149">
-        <v>7679</v>
-      </c>
-      <c r="Q149">
-        <v>72027</v>
-      </c>
-      <c r="R149">
-        <v>79059</v>
-      </c>
-    </row>
-    <row r="150" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O150" s="1">
-        <v>65536</v>
-      </c>
-      <c r="P150">
-        <v>15652</v>
-      </c>
-      <c r="Q150">
-        <v>163285</v>
-      </c>
-      <c r="R150">
-        <v>171665</v>
-      </c>
-    </row>
-    <row r="152" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O152" t="s">
-        <v>2</v>
-      </c>
-      <c r="P152" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>48</v>
-      </c>
-      <c r="R152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O153">
-        <v>32</v>
-      </c>
-      <c r="P153">
-        <v>96</v>
-      </c>
-      <c r="Q153">
-        <v>88.1</v>
-      </c>
-      <c r="R153">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="154" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O154">
-        <v>64</v>
-      </c>
-      <c r="P154">
-        <v>186</v>
-      </c>
-      <c r="Q154">
-        <v>167</v>
-      </c>
-      <c r="R154">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="155" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O155">
-        <v>128</v>
-      </c>
-      <c r="P155">
-        <v>365</v>
-      </c>
-      <c r="Q155">
-        <v>325</v>
-      </c>
-      <c r="R155">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O156">
-        <v>256</v>
-      </c>
-      <c r="P156">
-        <v>722</v>
-      </c>
-      <c r="Q156">
-        <v>643</v>
-      </c>
-      <c r="R156">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="157" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O157">
-        <v>512</v>
-      </c>
-      <c r="P157">
-        <v>1440</v>
-      </c>
-      <c r="Q157">
-        <v>1279</v>
-      </c>
-      <c r="R157">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="158" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O158">
-        <v>1024</v>
-      </c>
-      <c r="P158">
-        <v>2871</v>
-      </c>
-      <c r="Q158">
-        <v>2551</v>
-      </c>
-      <c r="R158">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="159" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O159">
-        <v>2048</v>
-      </c>
-      <c r="P159">
-        <v>5743</v>
-      </c>
-      <c r="Q159">
-        <v>5090</v>
-      </c>
-      <c r="R159">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="160" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O160">
-        <v>4096</v>
-      </c>
-      <c r="P160">
-        <v>11469</v>
-      </c>
-      <c r="Q160">
-        <v>10187</v>
-      </c>
-      <c r="R160">
-        <v>5338</v>
-      </c>
-    </row>
-    <row r="161" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O161">
-        <v>8192</v>
-      </c>
-      <c r="P161">
-        <v>22922</v>
-      </c>
-      <c r="Q161">
-        <v>20379</v>
-      </c>
-      <c r="R161">
-        <v>10712</v>
-      </c>
-    </row>
-    <row r="162" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O162" s="1">
-        <v>16384</v>
-      </c>
-      <c r="P162">
-        <v>45833</v>
-      </c>
-      <c r="Q162">
-        <v>40716</v>
-      </c>
-      <c r="R162">
-        <v>21090</v>
-      </c>
-    </row>
-    <row r="163" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O163" s="1">
-        <v>32768</v>
-      </c>
-      <c r="P163">
-        <v>91785</v>
-      </c>
-      <c r="Q163">
-        <v>81612</v>
-      </c>
-      <c r="R163">
-        <v>42211</v>
-      </c>
-    </row>
-    <row r="164" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O164" s="1">
-        <v>65536</v>
-      </c>
-      <c r="P164">
+      <c r="K163">
         <v>184051</v>
       </c>
-      <c r="Q164">
+      <c r="L163">
         <v>163207</v>
       </c>
-      <c r="R164">
+      <c r="M163">
         <v>86042</v>
       </c>
     </row>

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EDA0C-4F11-AD41-A374-780453BD1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97FCBD-4822-6841-B4BC-744B05664741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="740" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
@@ -8857,7 +8857,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>iteration performance</a:t>
+              <a:t>iteration performance (4096 byte element)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9739,6 +9739,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9801,6 +9856,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14853,7 +14968,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> performance</a:t>
+              <a:t> performance (128 byte element)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -15736,6 +15851,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15798,6 +15972,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -17060,7 +17294,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>iteration performance</a:t>
+              <a:t>iteration performance (32 byte element)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17942,6 +18176,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18004,6 +18293,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18042,6 +18391,685 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="403065023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>iteration performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (4096 byte element)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>packed-hashtable values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$89:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$89:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD03-7C4F-87C1-59F5C5D821DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>absl::flat_hash_map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$89:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$G$89:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>279714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FD03-7C4F-87C1-59F5C5D821DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>robin_hood::unordered_flat_map</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$89:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$H$89:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21850</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FD03-7C4F-87C1-59F5C5D821DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="992529071"/>
+        <c:axId val="1031730959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="992529071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031730959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1031730959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992529071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18840,7 +19868,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$G$154</c:f>
+              <c:f>Memory!$F$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18875,7 +19903,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$E$155:$E$166</c:f>
+              <c:f>Memory!$E$157:$E$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -18920,7 +19948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$G$155:$G$166</c:f>
+              <c:f>Memory!$F$157:$F$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -18975,7 +20003,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Memory!$H$154</c:f>
+              <c:f>Memory!$G$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19010,7 +20038,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Memory!$E$155:$E$166</c:f>
+              <c:f>Memory!$E$157:$E$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -19055,7 +20083,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Memory!$H$155:$H$166</c:f>
+              <c:f>Memory!$G$157:$G$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -25603,6 +26631,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -35687,6 +36755,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -39346,9 +40930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>256702</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>94574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39411,16 +40995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300342</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>187393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1242979</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39849,13 +41433,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52918</xdr:colOff>
+      <xdr:colOff>52919</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>86784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>516467</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>188384</xdr:rowOff>
     </xdr:to>
@@ -39957,15 +41541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91015</xdr:colOff>
+      <xdr:colOff>40216</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>116738</xdr:rowOff>
+      <xdr:rowOff>32072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>155029</xdr:rowOff>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40137,15 +41721,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>124883</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77151</xdr:rowOff>
+      <xdr:colOff>102021</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>423333</xdr:colOff>
+      <xdr:colOff>440266</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>138439</xdr:rowOff>
+      <xdr:rowOff>37468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40173,15 +41757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>112183</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>442938</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>476804</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40209,15 +41793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>129117</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>80432</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:colOff>464029</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>24779</xdr:rowOff>
+      <xdr:rowOff>33868</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40237,6 +41821,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>722490</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>448394</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>115711</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C135AEE3-34D4-F01F-12A7-A2FDAACEB248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40542,10 +42162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
-  <dimension ref="C3:S166"/>
+  <dimension ref="C3:S168"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView topLeftCell="A134" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46441,149 +48061,146 @@
         <v>6.7114093959731542E-3</v>
       </c>
     </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E154" t="s">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
         <v>2</v>
       </c>
-      <c r="G154" t="s">
+      <c r="F156" t="s">
         <v>30</v>
       </c>
-      <c r="H154" t="s">
+      <c r="G156" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E155">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E157">
         <v>32</v>
       </c>
-      <c r="G155">
+      <c r="F157">
         <v>6.04</v>
       </c>
-      <c r="H155">
+      <c r="G157">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E156">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E158">
         <v>64</v>
       </c>
-      <c r="G156">
+      <c r="F158">
         <v>11</v>
       </c>
-      <c r="H156">
+      <c r="G158">
         <v>35.4</v>
       </c>
     </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E157">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E159">
         <v>128</v>
       </c>
-      <c r="G157">
+      <c r="F159">
         <v>21.1</v>
       </c>
-      <c r="H157">
+      <c r="G159">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E158">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E160">
         <v>256</v>
       </c>
-      <c r="G158">
+      <c r="F160">
         <v>53.4</v>
       </c>
-      <c r="H158">
+      <c r="G160">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E159">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E161">
         <v>512</v>
       </c>
-      <c r="G159">
+      <c r="F161">
         <v>91.1</v>
       </c>
-      <c r="H159">
+      <c r="G161">
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E160">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E162">
         <v>1024</v>
       </c>
-      <c r="G160">
+      <c r="F162">
         <v>172</v>
       </c>
-      <c r="H160">
+      <c r="G162">
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E161">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E163">
         <v>2048</v>
       </c>
-      <c r="G161">
+      <c r="F163">
         <v>335</v>
       </c>
-      <c r="H161">
+      <c r="G163">
         <v>4176</v>
       </c>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E162">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E164">
         <v>4096</v>
       </c>
-      <c r="G162">
+      <c r="F164">
         <v>655</v>
       </c>
-      <c r="H162">
+      <c r="G164">
         <v>8171</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E163">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E165">
         <v>8192</v>
       </c>
-      <c r="G163">
+      <c r="F165">
         <v>1756</v>
       </c>
-      <c r="H163">
+      <c r="G165">
         <v>16858</v>
       </c>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E164" s="1">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E166" s="1">
         <v>16384</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164">
+      <c r="F166">
         <v>3882</v>
       </c>
-      <c r="H164">
+      <c r="G166">
         <v>35970</v>
       </c>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E165" s="1">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E167" s="1">
         <v>32768</v>
       </c>
-      <c r="F165" s="1"/>
-      <c r="G165">
+      <c r="F167">
         <v>7748</v>
       </c>
-      <c r="H165">
+      <c r="G167">
         <v>72838</v>
       </c>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E166" s="1">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E168" s="1">
         <v>65536</v>
       </c>
-      <c r="F166" s="1"/>
-      <c r="G166">
+      <c r="F168">
         <v>15508</v>
       </c>
-      <c r="H166">
+      <c r="G168">
         <v>161281</v>
       </c>
     </row>
@@ -46597,8 +48214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
   <dimension ref="A4:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="J73" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49316,19 +50933,19 @@
         <v>1.9811320754716981</v>
       </c>
       <c r="G103">
-        <f>I53</f>
+        <f t="shared" ref="G103:G114" si="7">I53</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="H103">
-        <f>I65</f>
+        <f t="shared" ref="H103:H114" si="8">I65</f>
         <v>2.1809523809523808</v>
       </c>
       <c r="I103">
-        <f>I77</f>
+        <f t="shared" ref="I103:I114" si="9">I77</f>
         <v>2.1698113207547172</v>
       </c>
       <c r="J103">
-        <f>I89</f>
+        <f t="shared" ref="J103:J114" si="10">I89</f>
         <v>1.7037037037037037</v>
       </c>
     </row>
@@ -49353,19 +50970,19 @@
         <v>2.0784313725490198</v>
       </c>
       <c r="G104">
-        <f>I54</f>
+        <f t="shared" si="7"/>
         <v>1.945054945054945</v>
       </c>
       <c r="H104">
-        <f>I66</f>
+        <f t="shared" si="8"/>
         <v>2.6699029126213589</v>
       </c>
       <c r="I104">
-        <f>I78</f>
+        <f t="shared" si="9"/>
         <v>2.1653543307086616</v>
       </c>
       <c r="J104">
-        <f>I90</f>
+        <f t="shared" si="10"/>
         <v>1.8394648829431439</v>
       </c>
     </row>
@@ -49390,19 +51007,19 @@
         <v>2.8033472803347284</v>
       </c>
       <c r="G105">
-        <f>I55</f>
+        <f t="shared" si="7"/>
         <v>2.8092243186582806</v>
       </c>
       <c r="H105">
-        <f>I67</f>
+        <f t="shared" si="8"/>
         <v>2.8125</v>
       </c>
       <c r="I105">
-        <f>I79</f>
+        <f t="shared" si="9"/>
         <v>2.31433506044905</v>
       </c>
       <c r="J105">
-        <f>I91</f>
+        <f t="shared" si="10"/>
         <v>1.1355932203389831</v>
       </c>
     </row>
@@ -49427,19 +51044,19 @@
         <v>2.9438202247191012</v>
       </c>
       <c r="G106">
-        <f>I56</f>
+        <f t="shared" si="7"/>
         <v>2.9471316085489314</v>
       </c>
       <c r="H106">
-        <f>I68</f>
+        <f t="shared" si="8"/>
         <v>1.9245283018867925</v>
       </c>
       <c r="I106">
-        <f>I80</f>
+        <f t="shared" si="9"/>
         <v>1.6477987421383649</v>
       </c>
       <c r="J106">
-        <f>I92</f>
+        <f t="shared" si="10"/>
         <v>1.2899159663865547</v>
       </c>
     </row>
@@ -49464,19 +51081,19 @@
         <v>3.0833333333333335</v>
       </c>
       <c r="G107">
-        <f>I57</f>
+        <f t="shared" si="7"/>
         <v>1.6156250000000001</v>
       </c>
       <c r="H107">
-        <f>I69</f>
+        <f t="shared" si="8"/>
         <v>8.730407523510971</v>
       </c>
       <c r="I107">
-        <f>I81</f>
+        <f t="shared" si="9"/>
         <v>8.7156249999999993</v>
       </c>
       <c r="J107">
-        <f>I93</f>
+        <f t="shared" si="10"/>
         <v>5.968220338983051</v>
       </c>
     </row>
@@ -49501,19 +51118,19 @@
         <v>1.6682692307692308</v>
       </c>
       <c r="G108">
-        <f>I58</f>
+        <f t="shared" si="7"/>
         <v>1.6462264150943395</v>
       </c>
       <c r="H108">
-        <f>I70</f>
+        <f t="shared" si="8"/>
         <v>8.7351097178683386</v>
       </c>
       <c r="I108">
-        <f>I82</f>
+        <f t="shared" si="9"/>
         <v>8.9140625</v>
       </c>
       <c r="J108">
-        <f>I94</f>
+        <f t="shared" si="10"/>
         <v>6.7058823529411766</v>
       </c>
     </row>
@@ -49538,19 +51155,19 @@
         <v>9.4163393558523172</v>
       </c>
       <c r="G109">
-        <f>I59</f>
+        <f t="shared" si="7"/>
         <v>9.7002360346184116</v>
       </c>
       <c r="H109">
-        <f>I71</f>
+        <f t="shared" si="8"/>
         <v>8.8947368421052637</v>
       </c>
       <c r="I109">
-        <f>I83</f>
+        <f t="shared" si="9"/>
         <v>9.7042471042471039</v>
       </c>
       <c r="J109">
-        <f>I95</f>
+        <f t="shared" si="10"/>
         <v>7.0194532071503684</v>
       </c>
     </row>
@@ -49575,19 +51192,19 @@
         <v>9.7047506870828428</v>
       </c>
       <c r="G110">
-        <f>I60</f>
+        <f t="shared" si="7"/>
         <v>9.4411648957103509</v>
       </c>
       <c r="H110">
-        <f>I72</f>
+        <f t="shared" si="8"/>
         <v>9.5785575048732952</v>
       </c>
       <c r="I110">
-        <f>I84</f>
+        <f t="shared" si="9"/>
         <v>8.7279338842975207</v>
       </c>
       <c r="J110">
-        <f>I96</f>
+        <f t="shared" si="10"/>
         <v>2.6241912798874822</v>
       </c>
     </row>
@@ -49612,19 +51229,19 @@
         <v>9.58955223880597</v>
       </c>
       <c r="G111">
-        <f>I61</f>
+        <f t="shared" si="7"/>
         <v>9.7214745465184311</v>
       </c>
       <c r="H111">
-        <f>I73</f>
+        <f t="shared" si="8"/>
         <v>8.2117102744097004</v>
       </c>
       <c r="I111">
-        <f>I85</f>
+        <f t="shared" si="9"/>
         <v>3.2798314840087817</v>
       </c>
       <c r="J111">
-        <f>I97</f>
+        <f t="shared" si="10"/>
         <v>2.4537515220220851</v>
       </c>
     </row>
@@ -49649,19 +51266,19 @@
         <v>9.8131450827653364</v>
       </c>
       <c r="G112">
-        <f>I62</f>
+        <f t="shared" si="7"/>
         <v>8.4152529420755009</v>
       </c>
       <c r="H112">
-        <f>I74</f>
+        <f t="shared" si="8"/>
         <v>5.1900655188176135</v>
       </c>
       <c r="I112">
-        <f>I86</f>
+        <f t="shared" si="9"/>
         <v>4.7712178104444618</v>
       </c>
       <c r="J112">
-        <f>I98</f>
+        <f t="shared" si="10"/>
         <v>4.1800039401103231</v>
       </c>
     </row>
@@ -49686,19 +51303,19 @@
         <v>10.573198627525734</v>
       </c>
       <c r="G113">
-        <f>I63</f>
+        <f t="shared" si="7"/>
         <v>10.458307597282273</v>
       </c>
       <c r="H113">
-        <f>I75</f>
+        <f t="shared" si="8"/>
         <v>21.971772157082214</v>
       </c>
       <c r="I113">
-        <f>I87</f>
+        <f t="shared" si="9"/>
         <v>20.727859602749998</v>
       </c>
       <c r="J113">
-        <f>I99</f>
+        <f t="shared" si="10"/>
         <v>17.397805101927595</v>
       </c>
     </row>
@@ -49723,19 +51340,19 @@
         <v>13.850166445553176</v>
       </c>
       <c r="G114">
-        <f>I64</f>
+        <f t="shared" si="7"/>
         <v>22.389139483951443</v>
       </c>
       <c r="H114">
-        <f>I76</f>
+        <f t="shared" si="8"/>
         <v>23.36347713266299</v>
       </c>
       <c r="I114">
-        <f>I88</f>
+        <f t="shared" si="9"/>
         <v>24.074776908137128</v>
       </c>
       <c r="J114">
-        <f>I100</f>
+        <f t="shared" si="10"/>
         <v>19.921859902757614</v>
       </c>
     </row>
@@ -49748,11 +51365,11 @@
         <v>12.103613749877583</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116" si="7">MAX(D103:D113)</f>
+        <f t="shared" ref="D116" si="11">MAX(D103:D113)</f>
         <v>10.320610687022901</v>
       </c>
       <c r="E116">
-        <f t="shared" ref="E116" si="8">MAX(E103:E113)</f>
+        <f t="shared" ref="E116" si="12">MAX(E103:E113)</f>
         <v>13.75</v>
       </c>
       <c r="F116">
@@ -49785,15 +51402,15 @@
         <v>1.9739776951672865</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117" si="9">MIN(D103:D113)</f>
+        <f t="shared" ref="D117" si="13">MIN(D103:D113)</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="E117">
-        <f t="shared" ref="E117:L117" si="10">MIN(E103:E113)</f>
+        <f t="shared" ref="E117:F117" si="14">MIN(E103:E113)</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="F117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.6682692307692308</v>
       </c>
       <c r="G117">

--- a/measurements/container-measurements.xlsx
+++ b/measurements/container-measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/map-vector/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97FCBD-4822-6841-B4BC-744B05664741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BFD73B-CBA4-8F4F-852C-1D53BDD4FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="740" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
+    <workbookView xWindow="420" yWindow="740" windowWidth="28040" windowHeight="17420" xr2:uid="{1D174048-E64B-3444-BA66-F7E69AF161AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory" sheetId="1" r:id="rId1"/>
@@ -2879,11 +2879,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Container</a:t>
+              <a:t>container</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Memory Usage</a:t>
+              <a:t> memory usage (4096 byte element)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3766,6 +3766,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3828,6 +3888,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> usage (bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -20386,7 +20506,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Container Memory Usage</a:t>
+              <a:t>container memory usage (32 byte element)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21268,6 +21388,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -21330,6 +21505,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>memory usage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -22592,7 +22827,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Container Memory Usage</a:t>
+              <a:t>container memory usage (128 byte element)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -23474,6 +23709,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -23536,6 +23830,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> usage (bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -41032,15 +41386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>656346</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>266106</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>135107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41104,15 +41458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>634189</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>226818</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41284,15 +41638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>299126</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>24455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>780817</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>148618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42164,8 +42518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD4748D-2C7E-9A48-826D-471EC314D44C}">
   <dimension ref="C3:S168"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48214,7 +48568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37D38E-5F04-4043-B2C6-9B4BB7553281}">
   <dimension ref="A4:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J73" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="90" workbookViewId="0">
       <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
